--- a/Versão5/ALVE/Ontologia_ALVEN.xlsx
+++ b/Versão5/ALVE/Ontologia_ALVEN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\ALVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C21A54C-CC37-412A-A6A4-932F33B4C78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D106B05B-208B-4007-A5CE-F6D5AEDB557E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Interop" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Interop!$B$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5049" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5132" uniqueCount="519">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -1603,6 +1603,54 @@
   </si>
   <si>
     <t>"Argamassa para reboco com traço '1-3'."</t>
+  </si>
+  <si>
+    <t>Painel</t>
+  </si>
+  <si>
+    <t>Painel projetado com função decorativa, acústica, térmica, etc.</t>
+  </si>
+  <si>
+    <t>Panel proyectado con parafunción decorativa, acústica, térmica, etc.</t>
+  </si>
+  <si>
+    <t>"Sonex"</t>
+  </si>
+  <si>
+    <t>"Sala de Audio"</t>
+  </si>
+  <si>
+    <t>absorção.sonora.125</t>
+  </si>
+  <si>
+    <t>absorção.sonora.250</t>
+  </si>
+  <si>
+    <t>absorção.sonora.500</t>
+  </si>
+  <si>
+    <t>absorção.sonora.1k</t>
+  </si>
+  <si>
+    <t>absorção.sonora.2k</t>
+  </si>
+  <si>
+    <t>absorção.sonora.4k</t>
+  </si>
+  <si>
+    <t>nrc</t>
+  </si>
+  <si>
+    <t>SONEX.32</t>
+  </si>
+  <si>
+    <t>SONEX.40</t>
+  </si>
+  <si>
+    <t>"Painel MDF perfurado Nexacustic 32, com face frisada. Com Plenum de 50 mm + lã de 50 mm."</t>
+  </si>
+  <si>
+    <t>"Painel MDF perfurado Nexacustic 40, com face frisada. Com Plenum de 50 mm + lã de 50 mm."</t>
   </si>
 </sst>
 </file>
@@ -1921,7 +1969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2116,6 +2164,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3218,7 +3272,7 @@
       </c>
       <c r="B18" s="40">
         <f ca="1">NOW()</f>
-        <v>45914.434622569446</v>
+        <v>45914.592630439816</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3268,12 +3322,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96052D63-9637-42D9-866B-0BB924A50D8C}">
-  <dimension ref="A1:W73"/>
+  <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="Q1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="7.2" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4161,7 +4215,7 @@
         <v>101</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f t="shared" ref="W11:W73" si="35">CONCATENATE("Key-Pare-",A11)</f>
+        <f t="shared" ref="W11:W74" si="35">CONCATENATE("Key-Pare-",A11)</f>
         <v>Key-Pare-11</v>
       </c>
     </row>
@@ -4516,19 +4570,19 @@
         <v>9</v>
       </c>
       <c r="L16" s="27" t="str">
-        <f t="shared" ref="L16:L73" si="58">CONCATENATE("", C16)</f>
+        <f t="shared" ref="L16:L74" si="58">CONCATENATE("", C16)</f>
         <v>Parede</v>
       </c>
       <c r="M16" s="27" t="str">
-        <f t="shared" ref="M16:M73" si="59">CONCATENATE("", D16)</f>
+        <f t="shared" ref="M16:M74" si="59">CONCATENATE("", D16)</f>
         <v>Composição</v>
       </c>
       <c r="N16" s="27" t="str">
-        <f t="shared" ref="N16:N73" si="60">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E16),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N16:N74" si="60">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E16),"."," ")," De "," de "))</f>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="O16" s="22" t="str">
-        <f t="shared" ref="O16:O73" si="61">F16</f>
+        <f t="shared" ref="O16:O74" si="61">F16</f>
         <v>Canaleta.J</v>
       </c>
       <c r="P16" s="22" t="s">
@@ -4541,15 +4595,15 @@
         <v>9</v>
       </c>
       <c r="S16" s="29" t="str">
-        <f t="shared" ref="S16:S73" si="62">SUBSTITUTE(C16, ".", " ")</f>
+        <f t="shared" ref="S16:S74" si="62">SUBSTITUTE(C16, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T16" s="29" t="str">
-        <f t="shared" ref="T16:T73" si="63">SUBSTITUTE(D16, ".", " ")</f>
+        <f t="shared" ref="T16:T74" si="63">SUBSTITUTE(D16, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U16" s="29" t="str">
-        <f t="shared" ref="U16:U73" si="64">SUBSTITUTE(E16, ".", " ")</f>
+        <f t="shared" ref="U16:U74" si="64">SUBSTITUTE(E16, ".", " ")</f>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="V16" s="29" t="s">
@@ -4753,19 +4807,19 @@
         <v>9</v>
       </c>
       <c r="L19" s="27" t="str">
-        <f t="shared" ref="L19:L47" si="66">CONCATENATE("", C19)</f>
+        <f t="shared" ref="L19:L48" si="66">CONCATENATE("", C19)</f>
         <v>Parede</v>
       </c>
       <c r="M19" s="27" t="str">
-        <f t="shared" ref="M19:M47" si="67">CONCATENATE("", D19)</f>
+        <f t="shared" ref="M19:M48" si="67">CONCATENATE("", D19)</f>
         <v>Composição</v>
       </c>
       <c r="N19" s="27" t="str">
-        <f t="shared" ref="N19:N47" si="68">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E19),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N19:N48" si="68">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E19),"."," ")," De "," de "))</f>
         <v>Bloco Translúcido</v>
       </c>
       <c r="O19" s="22" t="str">
-        <f t="shared" ref="O19:O47" si="69">F19</f>
+        <f t="shared" ref="O19:O48" si="69">F19</f>
         <v>Tijolo.Vidro</v>
       </c>
       <c r="P19" s="22" t="s">
@@ -4778,15 +4832,15 @@
         <v>9</v>
       </c>
       <c r="S19" s="29" t="str">
-        <f t="shared" ref="S19:S47" si="70">SUBSTITUTE(C19, ".", " ")</f>
+        <f t="shared" ref="S19:S48" si="70">SUBSTITUTE(C19, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T19" s="29" t="str">
-        <f t="shared" ref="T19:T47" si="71">SUBSTITUTE(D19, ".", " ")</f>
+        <f t="shared" ref="T19:T48" si="71">SUBSTITUTE(D19, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U19" s="29" t="str">
-        <f t="shared" ref="U19:U47" si="72">SUBSTITUTE(E19, ".", " ")</f>
+        <f t="shared" ref="U19:U48" si="72">SUBSTITUTE(E19, ".", " ")</f>
         <v>Bloco Translúcido</v>
       </c>
       <c r="V19" s="29" t="s">
@@ -5385,19 +5439,19 @@
         <v>9</v>
       </c>
       <c r="L27" s="27" t="str">
-        <f t="shared" ref="L27:L36" si="80">CONCATENATE("", C27)</f>
+        <f t="shared" ref="L27:L37" si="80">CONCATENATE("", C27)</f>
         <v>Parede</v>
       </c>
       <c r="M27" s="27" t="str">
-        <f t="shared" ref="M27:M36" si="81">CONCATENATE("", D27)</f>
+        <f t="shared" ref="M27:M37" si="81">CONCATENATE("", D27)</f>
         <v>Composição</v>
       </c>
       <c r="N27" s="27" t="str">
-        <f t="shared" ref="N27:N36" si="82">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E27),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N27:N37" si="82">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E27),"."," ")," De "," de "))</f>
         <v>Argamassa</v>
       </c>
       <c r="O27" s="22" t="str">
-        <f t="shared" ref="O27:O36" si="83">F27</f>
+        <f t="shared" ref="O27:O37" si="83">F27</f>
         <v>Polimérica</v>
       </c>
       <c r="P27" s="48" t="s">
@@ -5410,22 +5464,22 @@
         <v>9</v>
       </c>
       <c r="S27" s="29" t="str">
-        <f t="shared" ref="S27:S36" si="84">SUBSTITUTE(C27, ".", " ")</f>
+        <f t="shared" ref="S27:S37" si="84">SUBSTITUTE(C27, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T27" s="29" t="str">
-        <f t="shared" ref="T27:T36" si="85">SUBSTITUTE(D27, ".", " ")</f>
+        <f t="shared" ref="T27:T37" si="85">SUBSTITUTE(D27, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U27" s="29" t="str">
-        <f t="shared" ref="U27:U36" si="86">SUBSTITUTE(E27, ".", " ")</f>
+        <f t="shared" ref="U27:U37" si="86">SUBSTITUTE(E27, ".", " ")</f>
         <v>Argamassa</v>
       </c>
       <c r="V27" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W27" s="1" t="str">
-        <f t="shared" ref="W27:W36" si="87">CONCATENATE("Key-Pare-",A27)</f>
+        <f t="shared" ref="W27:W37" si="87">CONCATENATE("Key-Pare-",A27)</f>
         <v>Key-Pare-27</v>
       </c>
     </row>
@@ -5464,19 +5518,19 @@
         <v>9</v>
       </c>
       <c r="L28" s="27" t="str">
-        <f t="shared" ref="L28:L30" si="88">CONCATENATE("", C28)</f>
+        <f t="shared" ref="L28:L31" si="88">CONCATENATE("", C28)</f>
         <v>Parede</v>
       </c>
       <c r="M28" s="27" t="str">
-        <f t="shared" ref="M28:M30" si="89">CONCATENATE("", D28)</f>
+        <f t="shared" ref="M28:M31" si="89">CONCATENATE("", D28)</f>
         <v>Composição</v>
       </c>
       <c r="N28" s="27" t="str">
-        <f t="shared" ref="N28:N30" si="90">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E28),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N28:N31" si="90">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E28),"."," ")," De "," de "))</f>
         <v>Argamassa</v>
       </c>
       <c r="O28" s="22" t="str">
-        <f t="shared" ref="O28:O30" si="91">F28</f>
+        <f t="shared" ref="O28:O31" si="91">F28</f>
         <v>Rejunte</v>
       </c>
       <c r="P28" s="48" t="s">
@@ -5489,22 +5543,22 @@
         <v>9</v>
       </c>
       <c r="S28" s="29" t="str">
-        <f t="shared" ref="S28:S30" si="92">SUBSTITUTE(C28, ".", " ")</f>
+        <f t="shared" ref="S28:S31" si="92">SUBSTITUTE(C28, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T28" s="29" t="str">
-        <f t="shared" ref="T28:T30" si="93">SUBSTITUTE(D28, ".", " ")</f>
+        <f t="shared" ref="T28:T31" si="93">SUBSTITUTE(D28, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U28" s="29" t="str">
-        <f t="shared" ref="U28:U30" si="94">SUBSTITUTE(E28, ".", " ")</f>
+        <f t="shared" ref="U28:U31" si="94">SUBSTITUTE(E28, ".", " ")</f>
         <v>Argamassa</v>
       </c>
       <c r="V28" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W28" s="1" t="str">
-        <f t="shared" ref="W28:W30" si="95">CONCATENATE("Key-Pare-",A28)</f>
+        <f t="shared" ref="W28:W31" si="95">CONCATENATE("Key-Pare-",A28)</f>
         <v>Key-Pare-28</v>
       </c>
     </row>
@@ -5543,19 +5597,19 @@
         <v>9</v>
       </c>
       <c r="L29" s="27" t="str">
-        <f t="shared" ref="L29" si="96">CONCATENATE("", C29)</f>
+        <f t="shared" ref="L29:L30" si="96">CONCATENATE("", C29)</f>
         <v>Parede</v>
       </c>
       <c r="M29" s="27" t="str">
-        <f t="shared" ref="M29" si="97">CONCATENATE("", D29)</f>
+        <f t="shared" ref="M29:M30" si="97">CONCATENATE("", D29)</f>
         <v>Composição</v>
       </c>
       <c r="N29" s="27" t="str">
-        <f t="shared" ref="N29" si="98">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E29),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N29:N30" si="98">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E29),"."," ")," De "," de "))</f>
         <v>Acabamento</v>
       </c>
       <c r="O29" s="22" t="str">
-        <f t="shared" ref="O29" si="99">F29</f>
+        <f t="shared" ref="O29:O30" si="99">F29</f>
         <v>Lambri</v>
       </c>
       <c r="P29" s="48" t="s">
@@ -5568,22 +5622,22 @@
         <v>9</v>
       </c>
       <c r="S29" s="29" t="str">
-        <f t="shared" ref="S29" si="100">SUBSTITUTE(C29, ".", " ")</f>
+        <f t="shared" ref="S29:S30" si="100">SUBSTITUTE(C29, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T29" s="29" t="str">
-        <f t="shared" ref="T29" si="101">SUBSTITUTE(D29, ".", " ")</f>
+        <f t="shared" ref="T29:T30" si="101">SUBSTITUTE(D29, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U29" s="29" t="str">
-        <f t="shared" ref="U29" si="102">SUBSTITUTE(E29, ".", " ")</f>
+        <f t="shared" ref="U29:U30" si="102">SUBSTITUTE(E29, ".", " ")</f>
         <v>Acabamento</v>
       </c>
       <c r="V29" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W29" s="1" t="str">
-        <f t="shared" ref="W29" si="103">CONCATENATE("Key-Pare-",A29)</f>
+        <f t="shared" ref="W29:W30" si="103">CONCATENATE("Key-Pare-",A29)</f>
         <v>Key-Pare-29</v>
       </c>
     </row>
@@ -5622,19 +5676,19 @@
         <v>9</v>
       </c>
       <c r="L30" s="27" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="96"/>
         <v>Parede</v>
       </c>
       <c r="M30" s="27" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="97"/>
         <v>Composição</v>
       </c>
       <c r="N30" s="27" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="98"/>
         <v>Acabamento</v>
       </c>
       <c r="O30" s="22" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="99"/>
         <v>Placa</v>
       </c>
       <c r="P30" s="48" t="s">
@@ -5647,22 +5701,22 @@
         <v>9</v>
       </c>
       <c r="S30" s="29" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v>Parede</v>
       </c>
       <c r="T30" s="29" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v>Composição</v>
       </c>
       <c r="U30" s="29" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v>Acabamento</v>
       </c>
       <c r="V30" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W30" s="1" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v>Key-Pare-30</v>
       </c>
     </row>
@@ -5683,7 +5737,7 @@
         <v>327</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>328</v>
+        <v>503</v>
       </c>
       <c r="G31" s="31" t="s">
         <v>9</v>
@@ -5701,47 +5755,47 @@
         <v>9</v>
       </c>
       <c r="L31" s="27" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>Parede</v>
       </c>
       <c r="M31" s="27" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>Composição</v>
       </c>
       <c r="N31" s="27" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>Acabamento</v>
       </c>
       <c r="O31" s="22" t="str">
-        <f t="shared" si="83"/>
-        <v>Azulejo</v>
+        <f t="shared" si="91"/>
+        <v>Painel</v>
       </c>
       <c r="P31" s="48" t="s">
-        <v>367</v>
+        <v>504</v>
       </c>
       <c r="Q31" s="46" t="s">
-        <v>361</v>
+        <v>505</v>
       </c>
       <c r="R31" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S31" s="29" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="92"/>
         <v>Parede</v>
       </c>
       <c r="T31" s="29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="93"/>
         <v>Composição</v>
       </c>
       <c r="U31" s="29" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="94"/>
         <v>Acabamento</v>
       </c>
       <c r="V31" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W31" s="1" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="95"/>
         <v>Key-Pare-31</v>
       </c>
     </row>
@@ -5762,7 +5816,7 @@
         <v>327</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="G32" s="31" t="s">
         <v>9</v>
@@ -5780,47 +5834,47 @@
         <v>9</v>
       </c>
       <c r="L32" s="27" t="str">
-        <f t="shared" ref="L32" si="104">CONCATENATE("", C32)</f>
+        <f t="shared" si="80"/>
         <v>Parede</v>
       </c>
       <c r="M32" s="27" t="str">
-        <f t="shared" ref="M32" si="105">CONCATENATE("", D32)</f>
+        <f t="shared" si="81"/>
         <v>Composição</v>
       </c>
       <c r="N32" s="27" t="str">
-        <f t="shared" ref="N32" si="106">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E32),"."," ")," De "," de "))</f>
+        <f t="shared" si="82"/>
         <v>Acabamento</v>
       </c>
       <c r="O32" s="22" t="str">
-        <f t="shared" ref="O32" si="107">F32</f>
-        <v>Cerâmica</v>
+        <f t="shared" si="83"/>
+        <v>Azulejo</v>
       </c>
       <c r="P32" s="48" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q32" s="46" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R32" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S32" s="29" t="str">
-        <f t="shared" ref="S32" si="108">SUBSTITUTE(C32, ".", " ")</f>
+        <f t="shared" si="84"/>
         <v>Parede</v>
       </c>
       <c r="T32" s="29" t="str">
-        <f t="shared" ref="T32" si="109">SUBSTITUTE(D32, ".", " ")</f>
+        <f t="shared" si="85"/>
         <v>Composição</v>
       </c>
       <c r="U32" s="29" t="str">
-        <f t="shared" ref="U32" si="110">SUBSTITUTE(E32, ".", " ")</f>
+        <f t="shared" si="86"/>
         <v>Acabamento</v>
       </c>
       <c r="V32" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W32" s="1" t="str">
-        <f t="shared" ref="W32" si="111">CONCATENATE("Key-Pare-",A32)</f>
+        <f t="shared" si="87"/>
         <v>Key-Pare-32</v>
       </c>
     </row>
@@ -5841,7 +5895,7 @@
         <v>327</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G33" s="31" t="s">
         <v>9</v>
@@ -5859,47 +5913,47 @@
         <v>9</v>
       </c>
       <c r="L33" s="27" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="L33" si="104">CONCATENATE("", C33)</f>
         <v>Parede</v>
       </c>
       <c r="M33" s="27" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="M33" si="105">CONCATENATE("", D33)</f>
         <v>Composição</v>
       </c>
       <c r="N33" s="27" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="N33" si="106">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E33),"."," ")," De "," de "))</f>
         <v>Acabamento</v>
       </c>
       <c r="O33" s="22" t="str">
-        <f t="shared" si="83"/>
-        <v>Porcelanato</v>
+        <f t="shared" ref="O33" si="107">F33</f>
+        <v>Cerâmica</v>
       </c>
       <c r="P33" s="48" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q33" s="46" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="R33" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S33" s="29" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="S33" si="108">SUBSTITUTE(C33, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T33" s="29" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" ref="T33" si="109">SUBSTITUTE(D33, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U33" s="29" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" ref="U33" si="110">SUBSTITUTE(E33, ".", " ")</f>
         <v>Acabamento</v>
       </c>
       <c r="V33" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W33" s="1" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" ref="W33" si="111">CONCATENATE("Key-Pare-",A33)</f>
         <v>Key-Pare-33</v>
       </c>
     </row>
@@ -5920,7 +5974,7 @@
         <v>327</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>470</v>
+        <v>354</v>
       </c>
       <c r="G34" s="31" t="s">
         <v>9</v>
@@ -5951,13 +6005,13 @@
       </c>
       <c r="O34" s="22" t="str">
         <f t="shared" si="83"/>
-        <v>Ventilada</v>
+        <v>Porcelanato</v>
       </c>
       <c r="P34" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q34" s="48" t="s">
-        <v>472</v>
+        <v>365</v>
+      </c>
+      <c r="Q34" s="46" t="s">
+        <v>364</v>
       </c>
       <c r="R34" s="28" t="s">
         <v>9</v>
@@ -5999,7 +6053,7 @@
         <v>327</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>329</v>
+        <v>470</v>
       </c>
       <c r="G35" s="31" t="s">
         <v>9</v>
@@ -6030,13 +6084,13 @@
       </c>
       <c r="O35" s="22" t="str">
         <f t="shared" si="83"/>
-        <v>Ladrilho</v>
+        <v>Ventilada</v>
       </c>
       <c r="P35" s="48" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q35" s="46" t="s">
-        <v>363</v>
+        <v>471</v>
+      </c>
+      <c r="Q35" s="48" t="s">
+        <v>472</v>
       </c>
       <c r="R35" s="28" t="s">
         <v>9</v>
@@ -6078,7 +6132,7 @@
         <v>327</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="G36" s="31" t="s">
         <v>9</v>
@@ -6109,13 +6163,13 @@
       </c>
       <c r="O36" s="22" t="str">
         <f t="shared" si="83"/>
-        <v>Primer</v>
+        <v>Ladrilho</v>
       </c>
       <c r="P36" s="48" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="Q36" s="46" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="R36" s="28" t="s">
         <v>9</v>
@@ -6157,7 +6211,7 @@
         <v>327</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G37" s="31" t="s">
         <v>9</v>
@@ -6175,47 +6229,47 @@
         <v>9</v>
       </c>
       <c r="L37" s="27" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="80"/>
         <v>Parede</v>
       </c>
       <c r="M37" s="27" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="81"/>
         <v>Composição</v>
       </c>
       <c r="N37" s="27" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="82"/>
         <v>Acabamento</v>
       </c>
       <c r="O37" s="22" t="str">
-        <f t="shared" si="69"/>
-        <v>Pintura</v>
+        <f t="shared" si="83"/>
+        <v>Primer</v>
       </c>
       <c r="P37" s="48" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q37" s="46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R37" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S37" s="29" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="84"/>
         <v>Parede</v>
       </c>
       <c r="T37" s="29" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>Composição</v>
       </c>
       <c r="U37" s="29" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="86"/>
         <v>Acabamento</v>
       </c>
       <c r="V37" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W37" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="87"/>
         <v>Key-Pare-37</v>
       </c>
     </row>
@@ -6230,13 +6284,13 @@
         <v>272</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="G38" s="31" t="s">
         <v>9</v>
@@ -6254,47 +6308,47 @@
         <v>9</v>
       </c>
       <c r="L38" s="27" t="str">
-        <f t="shared" ref="L38" si="112">CONCATENATE("", C38)</f>
+        <f t="shared" si="66"/>
         <v>Parede</v>
       </c>
       <c r="M38" s="27" t="str">
-        <f t="shared" ref="M38" si="113">CONCATENATE("", D38)</f>
-        <v>Levantada</v>
+        <f t="shared" si="67"/>
+        <v>Composição</v>
       </c>
       <c r="N38" s="27" t="str">
-        <f t="shared" ref="N38" si="114">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E38),"."," ")," De "," de "))</f>
-        <v>Moldada InLoco</v>
+        <f t="shared" si="68"/>
+        <v>Acabamento</v>
       </c>
       <c r="O38" s="22" t="str">
-        <f t="shared" ref="O38" si="115">F38</f>
-        <v>Muro</v>
+        <f t="shared" si="69"/>
+        <v>Pintura</v>
       </c>
       <c r="P38" s="48" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q38" s="48" t="s">
-        <v>325</v>
+        <v>358</v>
+      </c>
+      <c r="Q38" s="46" t="s">
+        <v>360</v>
       </c>
       <c r="R38" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S38" s="29" t="str">
-        <f t="shared" ref="S38" si="116">SUBSTITUTE(C38, ".", " ")</f>
+        <f t="shared" si="70"/>
         <v>Parede</v>
       </c>
       <c r="T38" s="29" t="str">
-        <f t="shared" ref="T38" si="117">SUBSTITUTE(D38, ".", " ")</f>
-        <v>Levantada</v>
+        <f t="shared" si="71"/>
+        <v>Composição</v>
       </c>
       <c r="U38" s="29" t="str">
-        <f t="shared" ref="U38" si="118">SUBSTITUTE(E38, ".", " ")</f>
-        <v>Moldada InLoco</v>
+        <f t="shared" si="72"/>
+        <v>Acabamento</v>
       </c>
       <c r="V38" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W38" s="1" t="str">
-        <f t="shared" ref="W38" si="119">CONCATENATE("Key-Pare-",A38)</f>
+        <f t="shared" si="35"/>
         <v>Key-Pare-38</v>
       </c>
     </row>
@@ -6312,10 +6366,10 @@
         <v>276</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="G39" s="31" t="s">
         <v>9</v>
@@ -6333,47 +6387,47 @@
         <v>9</v>
       </c>
       <c r="L39" s="27" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="L39" si="112">CONCATENATE("", C39)</f>
         <v>Parede</v>
       </c>
       <c r="M39" s="27" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="M39" si="113">CONCATENATE("", D39)</f>
         <v>Levantada</v>
       </c>
       <c r="N39" s="27" t="str">
-        <f t="shared" si="68"/>
-        <v>Assentada</v>
+        <f t="shared" ref="N39" si="114">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E39),"."," ")," De "," de "))</f>
+        <v>Moldada InLoco</v>
       </c>
       <c r="O39" s="22" t="str">
-        <f t="shared" si="69"/>
-        <v>Interna</v>
+        <f t="shared" ref="O39" si="115">F39</f>
+        <v>Muro</v>
       </c>
       <c r="P39" s="48" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q39" s="48" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R39" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S39" s="29" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="S39" si="116">SUBSTITUTE(C39, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T39" s="29" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="T39" si="117">SUBSTITUTE(D39, ".", " ")</f>
         <v>Levantada</v>
       </c>
       <c r="U39" s="29" t="str">
-        <f t="shared" si="72"/>
-        <v>Assentada</v>
+        <f t="shared" ref="U39" si="118">SUBSTITUTE(E39, ".", " ")</f>
+        <v>Moldada InLoco</v>
       </c>
       <c r="V39" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W39" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="W39" si="119">CONCATENATE("Key-Pare-",A39)</f>
         <v>Key-Pare-39</v>
       </c>
     </row>
@@ -6394,7 +6448,7 @@
         <v>270</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>9</v>
@@ -6412,47 +6466,47 @@
         <v>9</v>
       </c>
       <c r="L40" s="27" t="str">
-        <f t="shared" ref="L40" si="120">CONCATENATE("", C40)</f>
+        <f t="shared" si="66"/>
         <v>Parede</v>
       </c>
       <c r="M40" s="27" t="str">
-        <f t="shared" ref="M40" si="121">CONCATENATE("", D40)</f>
+        <f t="shared" si="67"/>
         <v>Levantada</v>
       </c>
       <c r="N40" s="27" t="str">
-        <f t="shared" ref="N40" si="122">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E40),"."," ")," De "," de "))</f>
+        <f t="shared" si="68"/>
         <v>Assentada</v>
       </c>
       <c r="O40" s="22" t="str">
-        <f t="shared" ref="O40" si="123">F40</f>
-        <v>Externa</v>
+        <f t="shared" si="69"/>
+        <v>Interna</v>
       </c>
       <c r="P40" s="48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q40" s="48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R40" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S40" s="29" t="str">
-        <f t="shared" ref="S40" si="124">SUBSTITUTE(C40, ".", " ")</f>
+        <f t="shared" si="70"/>
         <v>Parede</v>
       </c>
       <c r="T40" s="29" t="str">
-        <f t="shared" ref="T40" si="125">SUBSTITUTE(D40, ".", " ")</f>
+        <f t="shared" si="71"/>
         <v>Levantada</v>
       </c>
       <c r="U40" s="29" t="str">
-        <f t="shared" ref="U40" si="126">SUBSTITUTE(E40, ".", " ")</f>
+        <f t="shared" si="72"/>
         <v>Assentada</v>
       </c>
       <c r="V40" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W40" s="1" t="str">
-        <f t="shared" ref="W40" si="127">CONCATENATE("Key-Pare-",A40)</f>
+        <f t="shared" si="35"/>
         <v>Key-Pare-40</v>
       </c>
     </row>
@@ -6470,10 +6524,10 @@
         <v>276</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>296</v>
       </c>
       <c r="G41" s="31" t="s">
         <v>9</v>
@@ -6491,47 +6545,47 @@
         <v>9</v>
       </c>
       <c r="L41" s="27" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="L41" si="120">CONCATENATE("", C41)</f>
         <v>Parede</v>
       </c>
       <c r="M41" s="27" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="M41" si="121">CONCATENATE("", D41)</f>
         <v>Levantada</v>
       </c>
       <c r="N41" s="27" t="str">
-        <f t="shared" si="68"/>
-        <v>Montada</v>
+        <f t="shared" ref="N41" si="122">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E41),"."," ")," De "," de "))</f>
+        <v>Assentada</v>
       </c>
       <c r="O41" s="22" t="str">
-        <f t="shared" si="69"/>
-        <v>de.Drywall</v>
-      </c>
-      <c r="P41" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q41" s="46" t="s">
-        <v>141</v>
+        <f t="shared" ref="O41" si="123">F41</f>
+        <v>Externa</v>
+      </c>
+      <c r="P41" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q41" s="48" t="s">
+        <v>324</v>
       </c>
       <c r="R41" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S41" s="29" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="S41" si="124">SUBSTITUTE(C41, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T41" s="29" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="T41" si="125">SUBSTITUTE(D41, ".", " ")</f>
         <v>Levantada</v>
       </c>
       <c r="U41" s="29" t="str">
-        <f t="shared" si="72"/>
-        <v>Montada</v>
+        <f t="shared" ref="U41" si="126">SUBSTITUTE(E41, ".", " ")</f>
+        <v>Assentada</v>
       </c>
       <c r="V41" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W41" s="1" t="str">
-        <f t="shared" ref="W41:W47" si="128">CONCATENATE("Key-Pare-",A41)</f>
+        <f t="shared" ref="W41" si="127">CONCATENATE("Key-Pare-",A41)</f>
         <v>Key-Pare-41</v>
       </c>
     </row>
@@ -6552,7 +6606,7 @@
         <v>277</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G42" s="31" t="s">
         <v>9</v>
@@ -6583,13 +6637,13 @@
       </c>
       <c r="O42" s="22" t="str">
         <f t="shared" si="69"/>
-        <v>de.Drywall.Acústico</v>
+        <v>de.Drywall</v>
       </c>
       <c r="P42" s="22" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="Q42" s="46" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="R42" s="28" t="s">
         <v>9</v>
@@ -6610,7 +6664,7 @@
         <v>101</v>
       </c>
       <c r="W42" s="1" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" ref="W42:W48" si="128">CONCATENATE("Key-Pare-",A42)</f>
         <v>Key-Pare-42</v>
       </c>
     </row>
@@ -6631,7 +6685,7 @@
         <v>277</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>9</v>
@@ -6649,47 +6703,47 @@
         <v>9</v>
       </c>
       <c r="L43" s="27" t="str">
-        <f t="shared" ref="L43" si="129">CONCATENATE("", C43)</f>
+        <f t="shared" si="66"/>
         <v>Parede</v>
       </c>
       <c r="M43" s="27" t="str">
-        <f t="shared" ref="M43" si="130">CONCATENATE("", D43)</f>
+        <f t="shared" si="67"/>
         <v>Levantada</v>
       </c>
       <c r="N43" s="27" t="str">
-        <f t="shared" ref="N43" si="131">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E43),"."," ")," De "," de "))</f>
+        <f t="shared" si="68"/>
         <v>Montada</v>
       </c>
       <c r="O43" s="22" t="str">
-        <f t="shared" ref="O43" si="132">F43</f>
-        <v>de.Fachada</v>
+        <f t="shared" si="69"/>
+        <v>de.Drywall.Acústico</v>
       </c>
       <c r="P43" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q43" s="22" t="s">
-        <v>294</v>
+        <v>163</v>
+      </c>
+      <c r="Q43" s="46" t="s">
+        <v>164</v>
       </c>
       <c r="R43" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S43" s="29" t="str">
-        <f t="shared" ref="S43" si="133">SUBSTITUTE(C43, ".", " ")</f>
+        <f t="shared" si="70"/>
         <v>Parede</v>
       </c>
       <c r="T43" s="29" t="str">
-        <f t="shared" ref="T43" si="134">SUBSTITUTE(D43, ".", " ")</f>
+        <f t="shared" si="71"/>
         <v>Levantada</v>
       </c>
       <c r="U43" s="29" t="str">
-        <f t="shared" ref="U43" si="135">SUBSTITUTE(E43, ".", " ")</f>
+        <f t="shared" si="72"/>
         <v>Montada</v>
       </c>
       <c r="V43" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W43" s="1" t="str">
-        <f t="shared" ref="W43" si="136">CONCATENATE("Key-Pare-",A43)</f>
+        <f t="shared" si="128"/>
         <v>Key-Pare-43</v>
       </c>
     </row>
@@ -6710,7 +6764,7 @@
         <v>277</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>9</v>
@@ -6728,47 +6782,47 @@
         <v>9</v>
       </c>
       <c r="L44" s="27" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="L44" si="129">CONCATENATE("", C44)</f>
         <v>Parede</v>
       </c>
       <c r="M44" s="27" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="M44" si="130">CONCATENATE("", D44)</f>
         <v>Levantada</v>
       </c>
       <c r="N44" s="27" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="N44" si="131">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E44),"."," ")," De "," de "))</f>
         <v>Montada</v>
       </c>
       <c r="O44" s="22" t="str">
-        <f t="shared" si="69"/>
-        <v>de.Vidro</v>
+        <f t="shared" ref="O44" si="132">F44</f>
+        <v>de.Fachada</v>
       </c>
       <c r="P44" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q44" s="46" t="s">
-        <v>333</v>
+        <v>293</v>
+      </c>
+      <c r="Q44" s="22" t="s">
+        <v>294</v>
       </c>
       <c r="R44" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S44" s="29" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="S44" si="133">SUBSTITUTE(C44, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T44" s="29" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="T44" si="134">SUBSTITUTE(D44, ".", " ")</f>
         <v>Levantada</v>
       </c>
       <c r="U44" s="29" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="U44" si="135">SUBSTITUTE(E44, ".", " ")</f>
         <v>Montada</v>
       </c>
       <c r="V44" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W44" s="1" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" ref="W44" si="136">CONCATENATE("Key-Pare-",A44)</f>
         <v>Key-Pare-44</v>
       </c>
     </row>
@@ -6789,7 +6843,7 @@
         <v>277</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G45" s="31" t="s">
         <v>9</v>
@@ -6820,13 +6874,13 @@
       </c>
       <c r="O45" s="22" t="str">
         <f t="shared" si="69"/>
-        <v>de.Gesso</v>
+        <v>de.Vidro</v>
       </c>
       <c r="P45" s="22" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q45" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R45" s="28" t="s">
         <v>9</v>
@@ -6868,7 +6922,7 @@
         <v>277</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G46" s="31" t="s">
         <v>9</v>
@@ -6899,13 +6953,13 @@
       </c>
       <c r="O46" s="22" t="str">
         <f t="shared" si="69"/>
-        <v>de.Eucatex</v>
+        <v>de.Gesso</v>
       </c>
       <c r="P46" s="22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="46" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="R46" s="28" t="s">
         <v>9</v>
@@ -6947,7 +7001,7 @@
         <v>277</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G47" s="31" t="s">
         <v>9</v>
@@ -6978,13 +7032,13 @@
       </c>
       <c r="O47" s="22" t="str">
         <f t="shared" si="69"/>
-        <v>de.Sanitário</v>
+        <v>de.Eucatex</v>
       </c>
       <c r="P47" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q47" s="46" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="R47" s="28" t="s">
         <v>9</v>
@@ -7016,17 +7070,17 @@
       <c r="B48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>96</v>
+      <c r="C48" s="25" t="s">
+        <v>272</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>144</v>
+        <v>277</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>9</v>
@@ -7044,47 +7098,47 @@
         <v>9</v>
       </c>
       <c r="L48" s="27" t="str">
-        <f t="shared" si="58"/>
-        <v>Divisória</v>
+        <f t="shared" si="66"/>
+        <v>Parede</v>
       </c>
       <c r="M48" s="27" t="str">
-        <f t="shared" si="59"/>
-        <v>Parte</v>
+        <f t="shared" si="67"/>
+        <v>Levantada</v>
       </c>
       <c r="N48" s="27" t="str">
-        <f t="shared" si="60"/>
-        <v>Chapa</v>
+        <f t="shared" si="68"/>
+        <v>Montada</v>
       </c>
       <c r="O48" s="22" t="str">
-        <f t="shared" si="61"/>
-        <v>Eucatex</v>
-      </c>
-      <c r="P48" s="48" t="s">
-        <v>179</v>
+        <f t="shared" si="69"/>
+        <v>de.Sanitário</v>
+      </c>
+      <c r="P48" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="Q48" s="46" t="s">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="R48" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S48" s="29" t="str">
-        <f t="shared" si="62"/>
-        <v>Divisória</v>
+        <f t="shared" si="70"/>
+        <v>Parede</v>
       </c>
       <c r="T48" s="29" t="str">
-        <f t="shared" si="63"/>
-        <v>Parte</v>
+        <f t="shared" si="71"/>
+        <v>Levantada</v>
       </c>
       <c r="U48" s="29" t="str">
-        <f t="shared" si="64"/>
-        <v>Chapa</v>
+        <f t="shared" si="72"/>
+        <v>Montada</v>
       </c>
       <c r="V48" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W48" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="128"/>
         <v>Key-Pare-48</v>
       </c>
     </row>
@@ -7105,7 +7159,7 @@
         <v>144</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>332</v>
+        <v>178</v>
       </c>
       <c r="G49" s="31" t="s">
         <v>9</v>
@@ -7136,10 +7190,10 @@
       </c>
       <c r="O49" s="22" t="str">
         <f t="shared" si="61"/>
-        <v>Metálica</v>
+        <v>Eucatex</v>
       </c>
       <c r="P49" s="48" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="Q49" s="46" t="s">
         <v>168</v>
@@ -7163,7 +7217,7 @@
         <v>101</v>
       </c>
       <c r="W49" s="1" t="str">
-        <f t="shared" ref="W49" si="137">CONCATENATE("Key-Pare-",A49)</f>
+        <f t="shared" si="35"/>
         <v>Key-Pare-49</v>
       </c>
     </row>
@@ -7184,7 +7238,7 @@
         <v>144</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>165</v>
+        <v>332</v>
       </c>
       <c r="G50" s="31" t="s">
         <v>9</v>
@@ -7202,20 +7256,20 @@
         <v>9</v>
       </c>
       <c r="L50" s="27" t="str">
-        <f t="shared" ref="L50" si="138">CONCATENATE("", C50)</f>
+        <f t="shared" si="58"/>
         <v>Divisória</v>
       </c>
       <c r="M50" s="27" t="str">
-        <f t="shared" ref="M50" si="139">CONCATENATE("", D50)</f>
+        <f t="shared" si="59"/>
         <v>Parte</v>
       </c>
       <c r="N50" s="27" t="str">
-        <f t="shared" ref="N50" si="140">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E50),"."," ")," De "," de "))</f>
+        <f t="shared" si="60"/>
         <v>Chapa</v>
       </c>
       <c r="O50" s="22" t="str">
-        <f t="shared" ref="O50" si="141">F50</f>
-        <v>Alumínio.Composto</v>
+        <f t="shared" si="61"/>
+        <v>Metálica</v>
       </c>
       <c r="P50" s="48" t="s">
         <v>167</v>
@@ -7227,22 +7281,22 @@
         <v>9</v>
       </c>
       <c r="S50" s="29" t="str">
-        <f t="shared" ref="S50" si="142">SUBSTITUTE(C50, ".", " ")</f>
+        <f t="shared" si="62"/>
         <v>Divisória</v>
       </c>
       <c r="T50" s="29" t="str">
-        <f t="shared" ref="T50" si="143">SUBSTITUTE(D50, ".", " ")</f>
+        <f t="shared" si="63"/>
         <v>Parte</v>
       </c>
       <c r="U50" s="29" t="str">
-        <f t="shared" ref="U50" si="144">SUBSTITUTE(E50, ".", " ")</f>
+        <f t="shared" si="64"/>
         <v>Chapa</v>
       </c>
       <c r="V50" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W50" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="W50" si="137">CONCATENATE("Key-Pare-",A50)</f>
         <v>Key-Pare-50</v>
       </c>
     </row>
@@ -7263,7 +7317,7 @@
         <v>144</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="G51" s="31" t="s">
         <v>9</v>
@@ -7281,40 +7335,40 @@
         <v>9</v>
       </c>
       <c r="L51" s="27" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="L51" si="138">CONCATENATE("", C51)</f>
         <v>Divisória</v>
       </c>
       <c r="M51" s="27" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="M51" si="139">CONCATENATE("", D51)</f>
         <v>Parte</v>
       </c>
       <c r="N51" s="27" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="N51" si="140">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E51),"."," ")," De "," de "))</f>
         <v>Chapa</v>
       </c>
       <c r="O51" s="22" t="str">
-        <f t="shared" si="61"/>
-        <v>Cimentícia</v>
-      </c>
-      <c r="P51" s="22" t="s">
-        <v>166</v>
+        <f t="shared" ref="O51" si="141">F51</f>
+        <v>Alumínio.Composto</v>
+      </c>
+      <c r="P51" s="48" t="s">
+        <v>167</v>
       </c>
       <c r="Q51" s="46" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="R51" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S51" s="29" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="S51" si="142">SUBSTITUTE(C51, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T51" s="29" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="T51" si="143">SUBSTITUTE(D51, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U51" s="29" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="U51" si="144">SUBSTITUTE(E51, ".", " ")</f>
         <v>Chapa</v>
       </c>
       <c r="V51" s="29" t="s">
@@ -7342,7 +7396,7 @@
         <v>144</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G52" s="31" t="s">
         <v>9</v>
@@ -7373,13 +7427,13 @@
       </c>
       <c r="O52" s="22" t="str">
         <f t="shared" si="61"/>
-        <v>Gesso.Acartonado</v>
+        <v>Cimentícia</v>
       </c>
       <c r="P52" s="22" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="Q52" s="46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R52" s="28" t="s">
         <v>9</v>
@@ -7421,7 +7475,7 @@
         <v>144</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="G53" s="31" t="s">
         <v>9</v>
@@ -7439,40 +7493,40 @@
         <v>9</v>
       </c>
       <c r="L53" s="27" t="str">
-        <f t="shared" ref="L53:L56" si="145">CONCATENATE("", C53)</f>
+        <f t="shared" si="58"/>
         <v>Divisória</v>
       </c>
       <c r="M53" s="27" t="str">
-        <f t="shared" ref="M53:M56" si="146">CONCATENATE("", D53)</f>
+        <f t="shared" si="59"/>
         <v>Parte</v>
       </c>
       <c r="N53" s="27" t="str">
-        <f t="shared" ref="N53:N56" si="147">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E53),"."," ")," De "," de "))</f>
+        <f t="shared" si="60"/>
         <v>Chapa</v>
       </c>
       <c r="O53" s="22" t="str">
-        <f t="shared" ref="O53:O56" si="148">F53</f>
-        <v>Vidro.Temperado</v>
+        <f t="shared" si="61"/>
+        <v>Gesso.Acartonado</v>
       </c>
       <c r="P53" s="22" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="Q53" s="46" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="R53" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S53" s="29" t="str">
-        <f t="shared" ref="S53:S56" si="149">SUBSTITUTE(C53, ".", " ")</f>
+        <f t="shared" si="62"/>
         <v>Divisória</v>
       </c>
       <c r="T53" s="29" t="str">
-        <f t="shared" ref="T53:T56" si="150">SUBSTITUTE(D53, ".", " ")</f>
+        <f t="shared" si="63"/>
         <v>Parte</v>
       </c>
       <c r="U53" s="29" t="str">
-        <f t="shared" ref="U53:U56" si="151">SUBSTITUTE(E53, ".", " ")</f>
+        <f t="shared" si="64"/>
         <v>Chapa</v>
       </c>
       <c r="V53" s="29" t="s">
@@ -7500,7 +7554,7 @@
         <v>144</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G54" s="31" t="s">
         <v>9</v>
@@ -7518,40 +7572,40 @@
         <v>9</v>
       </c>
       <c r="L54" s="27" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" ref="L54:L57" si="145">CONCATENATE("", C54)</f>
         <v>Divisória</v>
       </c>
       <c r="M54" s="27" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" ref="M54:M57" si="146">CONCATENATE("", D54)</f>
         <v>Parte</v>
       </c>
       <c r="N54" s="27" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" ref="N54:N57" si="147">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E54),"."," ")," De "," de "))</f>
         <v>Chapa</v>
       </c>
       <c r="O54" s="22" t="str">
-        <f t="shared" si="148"/>
-        <v>Vidro.Laminado</v>
+        <f t="shared" ref="O54:O57" si="148">F54</f>
+        <v>Vidro.Temperado</v>
       </c>
       <c r="P54" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q54" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R54" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S54" s="29" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" ref="S54:S57" si="149">SUBSTITUTE(C54, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T54" s="29" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" ref="T54:T57" si="150">SUBSTITUTE(D54, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U54" s="29" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" ref="U54:U57" si="151">SUBSTITUTE(E54, ".", " ")</f>
         <v>Chapa</v>
       </c>
       <c r="V54" s="29" t="s">
@@ -7579,7 +7633,7 @@
         <v>144</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G55" s="31" t="s">
         <v>9</v>
@@ -7610,13 +7664,13 @@
       </c>
       <c r="O55" s="22" t="str">
         <f t="shared" si="148"/>
-        <v>Vidro.Polarizado</v>
+        <v>Vidro.Laminado</v>
       </c>
       <c r="P55" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q55" s="22" t="s">
-        <v>279</v>
+        <v>192</v>
+      </c>
+      <c r="Q55" s="46" t="s">
+        <v>199</v>
       </c>
       <c r="R55" s="28" t="s">
         <v>9</v>
@@ -7658,7 +7712,7 @@
         <v>144</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="G56" s="31" t="s">
         <v>9</v>
@@ -7689,13 +7743,13 @@
       </c>
       <c r="O56" s="22" t="str">
         <f t="shared" si="148"/>
-        <v>Vidro.Low.E</v>
-      </c>
-      <c r="P56" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q56" s="46" t="s">
-        <v>283</v>
+        <v>Vidro.Polarizado</v>
+      </c>
+      <c r="P56" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q56" s="22" t="s">
+        <v>279</v>
       </c>
       <c r="R56" s="28" t="s">
         <v>9</v>
@@ -7737,7 +7791,7 @@
         <v>144</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
       <c r="G57" s="31" t="s">
         <v>9</v>
@@ -7755,40 +7809,40 @@
         <v>9</v>
       </c>
       <c r="L57" s="27" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="145"/>
         <v>Divisória</v>
       </c>
       <c r="M57" s="27" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="146"/>
         <v>Parte</v>
       </c>
       <c r="N57" s="27" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="147"/>
         <v>Chapa</v>
       </c>
       <c r="O57" s="22" t="str">
-        <f t="shared" si="61"/>
-        <v>Vidro.Comúm</v>
-      </c>
-      <c r="P57" s="22" t="s">
-        <v>193</v>
+        <f t="shared" si="148"/>
+        <v>Vidro.Low.E</v>
+      </c>
+      <c r="P57" s="46" t="s">
+        <v>282</v>
       </c>
       <c r="Q57" s="46" t="s">
-        <v>200</v>
+        <v>283</v>
       </c>
       <c r="R57" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S57" s="29" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="149"/>
         <v>Divisória</v>
       </c>
       <c r="T57" s="29" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="150"/>
         <v>Parte</v>
       </c>
       <c r="U57" s="29" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="151"/>
         <v>Chapa</v>
       </c>
       <c r="V57" s="29" t="s">
@@ -7816,7 +7870,7 @@
         <v>144</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G58" s="31" t="s">
         <v>9</v>
@@ -7847,13 +7901,13 @@
       </c>
       <c r="O58" s="22" t="str">
         <f t="shared" si="61"/>
-        <v>Fórmica</v>
+        <v>Vidro.Comúm</v>
       </c>
       <c r="P58" s="22" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q58" s="46" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="R58" s="28" t="s">
         <v>9</v>
@@ -7895,7 +7949,7 @@
         <v>144</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="G59" s="31" t="s">
         <v>9</v>
@@ -7913,40 +7967,40 @@
         <v>9</v>
       </c>
       <c r="L59" s="27" t="str">
-        <f t="shared" ref="L59:L72" si="152">CONCATENATE("", C59)</f>
+        <f t="shared" si="58"/>
         <v>Divisória</v>
       </c>
       <c r="M59" s="27" t="str">
-        <f t="shared" ref="M59:M72" si="153">CONCATENATE("", D59)</f>
+        <f t="shared" si="59"/>
         <v>Parte</v>
       </c>
       <c r="N59" s="27" t="str">
-        <f t="shared" ref="N59:N72" si="154">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E59),"."," ")," De "," de "))</f>
+        <f t="shared" si="60"/>
         <v>Chapa</v>
       </c>
       <c r="O59" s="22" t="str">
-        <f t="shared" ref="O59:O72" si="155">F59</f>
-        <v>Pedra</v>
+        <f t="shared" si="61"/>
+        <v>Fórmica</v>
       </c>
       <c r="P59" s="22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q59" s="46" t="s">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="R59" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S59" s="29" t="str">
-        <f t="shared" ref="S59:S72" si="156">SUBSTITUTE(C59, ".", " ")</f>
+        <f t="shared" si="62"/>
         <v>Divisória</v>
       </c>
       <c r="T59" s="29" t="str">
-        <f t="shared" ref="T59:T72" si="157">SUBSTITUTE(D59, ".", " ")</f>
+        <f t="shared" si="63"/>
         <v>Parte</v>
       </c>
       <c r="U59" s="29" t="str">
-        <f t="shared" ref="U59:U72" si="158">SUBSTITUTE(E59, ".", " ")</f>
+        <f t="shared" si="64"/>
         <v>Chapa</v>
       </c>
       <c r="V59" s="29" t="s">
@@ -7971,10 +8025,10 @@
         <v>273</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="G60" s="31" t="s">
         <v>9</v>
@@ -7992,41 +8046,41 @@
         <v>9</v>
       </c>
       <c r="L60" s="27" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" ref="L60:L73" si="152">CONCATENATE("", C60)</f>
         <v>Divisória</v>
       </c>
       <c r="M60" s="27" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" ref="M60:M73" si="153">CONCATENATE("", D60)</f>
         <v>Parte</v>
       </c>
       <c r="N60" s="27" t="str">
-        <f t="shared" si="154"/>
-        <v>Perfil</v>
+        <f t="shared" ref="N60:N73" si="154">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E60),"."," ")," De "," de "))</f>
+        <v>Chapa</v>
       </c>
       <c r="O60" s="22" t="str">
-        <f t="shared" si="155"/>
-        <v>Guia.L</v>
+        <f t="shared" ref="O60:O73" si="155">F60</f>
+        <v>Pedra</v>
       </c>
       <c r="P60" s="22" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="Q60" s="46" t="s">
-        <v>158</v>
+        <v>201</v>
       </c>
       <c r="R60" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S60" s="29" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" ref="S60:S73" si="156">SUBSTITUTE(C60, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T60" s="29" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" ref="T60:T73" si="157">SUBSTITUTE(D60, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U60" s="29" t="str">
-        <f t="shared" si="158"/>
-        <v>Perfil</v>
+        <f t="shared" ref="U60:U73" si="158">SUBSTITUTE(E60, ".", " ")</f>
+        <v>Chapa</v>
       </c>
       <c r="V60" s="29" t="s">
         <v>101</v>
@@ -8053,7 +8107,7 @@
         <v>145</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G61" s="31" t="s">
         <v>9</v>
@@ -8071,40 +8125,40 @@
         <v>9</v>
       </c>
       <c r="L61" s="27" t="str">
-        <f t="shared" ref="L61" si="159">CONCATENATE("", C61)</f>
+        <f t="shared" si="152"/>
         <v>Divisória</v>
       </c>
       <c r="M61" s="27" t="str">
-        <f t="shared" ref="M61" si="160">CONCATENATE("", D61)</f>
+        <f t="shared" si="153"/>
         <v>Parte</v>
       </c>
       <c r="N61" s="27" t="str">
-        <f t="shared" ref="N61" si="161">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E61),"."," ")," De "," de "))</f>
+        <f t="shared" si="154"/>
         <v>Perfil</v>
       </c>
       <c r="O61" s="22" t="str">
-        <f t="shared" ref="O61" si="162">F61</f>
-        <v>Guia.U</v>
+        <f t="shared" si="155"/>
+        <v>Guia.L</v>
       </c>
       <c r="P61" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q61" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R61" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S61" s="29" t="str">
-        <f t="shared" ref="S61" si="163">SUBSTITUTE(C61, ".", " ")</f>
+        <f t="shared" si="156"/>
         <v>Divisória</v>
       </c>
       <c r="T61" s="29" t="str">
-        <f t="shared" ref="T61" si="164">SUBSTITUTE(D61, ".", " ")</f>
+        <f t="shared" si="157"/>
         <v>Parte</v>
       </c>
       <c r="U61" s="29" t="str">
-        <f t="shared" ref="U61" si="165">SUBSTITUTE(E61, ".", " ")</f>
+        <f t="shared" si="158"/>
         <v>Perfil</v>
       </c>
       <c r="V61" s="29" t="s">
@@ -8132,7 +8186,7 @@
         <v>145</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G62" s="31" t="s">
         <v>9</v>
@@ -8150,20 +8204,20 @@
         <v>9</v>
       </c>
       <c r="L62" s="27" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" ref="L62" si="159">CONCATENATE("", C62)</f>
         <v>Divisória</v>
       </c>
       <c r="M62" s="27" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" ref="M62" si="160">CONCATENATE("", D62)</f>
         <v>Parte</v>
       </c>
       <c r="N62" s="27" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" ref="N62" si="161">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E62),"."," ")," De "," de "))</f>
         <v>Perfil</v>
       </c>
       <c r="O62" s="22" t="str">
-        <f t="shared" si="155"/>
-        <v>Guia.Montante</v>
+        <f t="shared" ref="O62" si="162">F62</f>
+        <v>Guia.U</v>
       </c>
       <c r="P62" s="22" t="s">
         <v>154</v>
@@ -8175,15 +8229,15 @@
         <v>9</v>
       </c>
       <c r="S62" s="29" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" ref="S62" si="163">SUBSTITUTE(C62, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T62" s="29" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" ref="T62" si="164">SUBSTITUTE(D62, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U62" s="29" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" ref="U62" si="165">SUBSTITUTE(E62, ".", " ")</f>
         <v>Perfil</v>
       </c>
       <c r="V62" s="29" t="s">
@@ -8208,10 +8262,10 @@
         <v>273</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G63" s="31" t="s">
         <v>9</v>
@@ -8229,41 +8283,41 @@
         <v>9</v>
       </c>
       <c r="L63" s="27" t="str">
-        <f t="shared" ref="L63" si="166">CONCATENATE("", C63)</f>
+        <f t="shared" si="152"/>
         <v>Divisória</v>
       </c>
       <c r="M63" s="27" t="str">
-        <f t="shared" ref="M63" si="167">CONCATENATE("", D63)</f>
+        <f t="shared" si="153"/>
         <v>Parte</v>
       </c>
       <c r="N63" s="27" t="str">
-        <f t="shared" ref="N63" si="168">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E63),"."," ")," De "," de "))</f>
-        <v>Fixação</v>
+        <f t="shared" si="154"/>
+        <v>Perfil</v>
       </c>
       <c r="O63" s="22" t="str">
-        <f t="shared" ref="O63" si="169">F63</f>
-        <v>Parafuso</v>
+        <f t="shared" si="155"/>
+        <v>Guia.Montante</v>
       </c>
       <c r="P63" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q63" s="46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R63" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S63" s="29" t="str">
-        <f t="shared" ref="S63" si="170">SUBSTITUTE(C63, ".", " ")</f>
+        <f t="shared" si="156"/>
         <v>Divisória</v>
       </c>
       <c r="T63" s="29" t="str">
-        <f t="shared" ref="T63" si="171">SUBSTITUTE(D63, ".", " ")</f>
+        <f t="shared" si="157"/>
         <v>Parte</v>
       </c>
       <c r="U63" s="29" t="str">
-        <f t="shared" ref="U63" si="172">SUBSTITUTE(E63, ".", " ")</f>
-        <v>Fixação</v>
+        <f t="shared" si="158"/>
+        <v>Perfil</v>
       </c>
       <c r="V63" s="29" t="s">
         <v>101</v>
@@ -8290,7 +8344,7 @@
         <v>148</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="G64" s="31" t="s">
         <v>9</v>
@@ -8308,40 +8362,40 @@
         <v>9</v>
       </c>
       <c r="L64" s="27" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" ref="L64" si="166">CONCATENATE("", C64)</f>
         <v>Divisória</v>
       </c>
       <c r="M64" s="27" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" ref="M64" si="167">CONCATENATE("", D64)</f>
         <v>Parte</v>
       </c>
       <c r="N64" s="27" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" ref="N64" si="168">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E64),"."," ")," De "," de "))</f>
         <v>Fixação</v>
       </c>
       <c r="O64" s="22" t="str">
-        <f t="shared" si="155"/>
-        <v>Bucha</v>
+        <f t="shared" ref="O64" si="169">F64</f>
+        <v>Parafuso</v>
       </c>
       <c r="P64" s="22" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="Q64" s="46" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="R64" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S64" s="29" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" ref="S64" si="170">SUBSTITUTE(C64, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T64" s="29" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" ref="T64" si="171">SUBSTITUTE(D64, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U64" s="29" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" ref="U64" si="172">SUBSTITUTE(E64, ".", " ")</f>
         <v>Fixação</v>
       </c>
       <c r="V64" s="29" t="s">
@@ -8369,7 +8423,7 @@
         <v>148</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G65" s="31" t="s">
         <v>9</v>
@@ -8400,13 +8454,13 @@
       </c>
       <c r="O65" s="22" t="str">
         <f t="shared" si="155"/>
-        <v>Fixador.Pinça</v>
+        <v>Bucha</v>
       </c>
       <c r="P65" s="22" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="Q65" s="46" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="R65" s="28" t="s">
         <v>9</v>
@@ -8448,7 +8502,7 @@
         <v>148</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G66" s="31" t="s">
         <v>9</v>
@@ -8466,40 +8520,40 @@
         <v>9</v>
       </c>
       <c r="L66" s="27" t="str">
-        <f t="shared" ref="L66:L67" si="173">CONCATENATE("", C66)</f>
+        <f t="shared" si="152"/>
         <v>Divisória</v>
       </c>
       <c r="M66" s="27" t="str">
-        <f t="shared" ref="M66:M67" si="174">CONCATENATE("", D66)</f>
+        <f t="shared" si="153"/>
         <v>Parte</v>
       </c>
       <c r="N66" s="27" t="str">
-        <f t="shared" ref="N66:N67" si="175">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E66),"."," ")," De "," de "))</f>
+        <f t="shared" si="154"/>
         <v>Fixação</v>
       </c>
       <c r="O66" s="22" t="str">
-        <f t="shared" ref="O66:O67" si="176">F66</f>
-        <v>Fixador.Cantoneira</v>
+        <f t="shared" si="155"/>
+        <v>Fixador.Pinça</v>
       </c>
       <c r="P66" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q66" s="46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="R66" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S66" s="29" t="str">
-        <f t="shared" ref="S66:S67" si="177">SUBSTITUTE(C66, ".", " ")</f>
+        <f t="shared" si="156"/>
         <v>Divisória</v>
       </c>
       <c r="T66" s="29" t="str">
-        <f t="shared" ref="T66:T67" si="178">SUBSTITUTE(D66, ".", " ")</f>
+        <f t="shared" si="157"/>
         <v>Parte</v>
       </c>
       <c r="U66" s="29" t="str">
-        <f t="shared" ref="U66:U67" si="179">SUBSTITUTE(E66, ".", " ")</f>
+        <f t="shared" si="158"/>
         <v>Fixação</v>
       </c>
       <c r="V66" s="29" t="s">
@@ -8527,7 +8581,7 @@
         <v>148</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="G67" s="31" t="s">
         <v>9</v>
@@ -8545,40 +8599,40 @@
         <v>9</v>
       </c>
       <c r="L67" s="27" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" ref="L67:L68" si="173">CONCATENATE("", C67)</f>
         <v>Divisória</v>
       </c>
       <c r="M67" s="27" t="str">
-        <f t="shared" si="174"/>
+        <f t="shared" ref="M67:M68" si="174">CONCATENATE("", D67)</f>
         <v>Parte</v>
       </c>
       <c r="N67" s="27" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" ref="N67:N68" si="175">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E67),"."," ")," De "," de "))</f>
         <v>Fixação</v>
       </c>
       <c r="O67" s="22" t="str">
-        <f t="shared" si="176"/>
-        <v>Conector</v>
+        <f t="shared" ref="O67:O68" si="176">F67</f>
+        <v>Fixador.Cantoneira</v>
       </c>
       <c r="P67" s="22" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q67" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R67" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S67" s="29" t="str">
-        <f t="shared" si="177"/>
+        <f t="shared" ref="S67:S68" si="177">SUBSTITUTE(C67, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T67" s="29" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" ref="T67:T68" si="178">SUBSTITUTE(D67, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U67" s="29" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" ref="U67:U68" si="179">SUBSTITUTE(E67, ".", " ")</f>
         <v>Fixação</v>
       </c>
       <c r="V67" s="29" t="s">
@@ -8606,7 +8660,7 @@
         <v>148</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="G68" s="31" t="s">
         <v>9</v>
@@ -8624,40 +8678,40 @@
         <v>9</v>
       </c>
       <c r="L68" s="27" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" si="173"/>
         <v>Divisória</v>
       </c>
       <c r="M68" s="27" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" si="174"/>
         <v>Parte</v>
       </c>
       <c r="N68" s="27" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" si="175"/>
         <v>Fixação</v>
       </c>
       <c r="O68" s="22" t="str">
-        <f t="shared" si="155"/>
-        <v>Cola</v>
+        <f t="shared" si="176"/>
+        <v>Conector</v>
       </c>
       <c r="P68" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q68" s="22" t="s">
-        <v>249</v>
+        <v>252</v>
+      </c>
+      <c r="Q68" s="46" t="s">
+        <v>252</v>
       </c>
       <c r="R68" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S68" s="29" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="177"/>
         <v>Divisória</v>
       </c>
       <c r="T68" s="29" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="178"/>
         <v>Parte</v>
       </c>
       <c r="U68" s="29" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="179"/>
         <v>Fixação</v>
       </c>
       <c r="V68" s="29" t="s">
@@ -8682,10 +8736,10 @@
         <v>273</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="G69" s="31" t="s">
         <v>9</v>
@@ -8712,17 +8766,17 @@
       </c>
       <c r="N69" s="27" t="str">
         <f t="shared" si="154"/>
-        <v>Fecho</v>
+        <v>Fixação</v>
       </c>
       <c r="O69" s="22" t="str">
         <f t="shared" si="155"/>
-        <v>Puxador.Externo</v>
+        <v>Cola</v>
       </c>
       <c r="P69" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q69" s="46" t="s">
-        <v>221</v>
+        <v>248</v>
+      </c>
+      <c r="Q69" s="22" t="s">
+        <v>249</v>
       </c>
       <c r="R69" s="28" t="s">
         <v>9</v>
@@ -8737,7 +8791,7 @@
       </c>
       <c r="U69" s="29" t="str">
         <f t="shared" si="158"/>
-        <v>Fecho</v>
+        <v>Fixação</v>
       </c>
       <c r="V69" s="29" t="s">
         <v>101</v>
@@ -8764,7 +8818,7 @@
         <v>210</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G70" s="31" t="s">
         <v>9</v>
@@ -8795,13 +8849,13 @@
       </c>
       <c r="O70" s="22" t="str">
         <f t="shared" si="155"/>
-        <v>Puxador.Interno</v>
+        <v>Puxador.Externo</v>
       </c>
       <c r="P70" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q70" s="46" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R70" s="28" t="s">
         <v>9</v>
@@ -8840,10 +8894,10 @@
         <v>273</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G71" s="31" t="s">
         <v>9</v>
@@ -8870,17 +8924,17 @@
       </c>
       <c r="N71" s="27" t="str">
         <f t="shared" si="154"/>
-        <v>Cabide</v>
+        <v>Fecho</v>
       </c>
       <c r="O71" s="22" t="str">
         <f t="shared" si="155"/>
-        <v>Tipo.Gancho</v>
+        <v>Puxador.Interno</v>
       </c>
       <c r="P71" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="Q71" s="46" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R71" s="28" t="s">
         <v>9</v>
@@ -8895,7 +8949,7 @@
       </c>
       <c r="U71" s="29" t="str">
         <f t="shared" si="158"/>
-        <v>Cabide</v>
+        <v>Fecho</v>
       </c>
       <c r="V71" s="29" t="s">
         <v>101</v>
@@ -8922,7 +8976,7 @@
         <v>211</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G72" s="31" t="s">
         <v>9</v>
@@ -8953,13 +9007,13 @@
       </c>
       <c r="O72" s="22" t="str">
         <f t="shared" si="155"/>
-        <v>Antifurto</v>
+        <v>Tipo.Gancho</v>
       </c>
       <c r="P72" s="22" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q72" s="46" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="R72" s="28" t="s">
         <v>9</v>
@@ -8998,10 +9052,10 @@
         <v>273</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G73" s="31" t="s">
         <v>9</v>
@@ -9019,41 +9073,41 @@
         <v>9</v>
       </c>
       <c r="L73" s="27" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="152"/>
         <v>Divisória</v>
       </c>
       <c r="M73" s="27" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="153"/>
         <v>Parte</v>
       </c>
       <c r="N73" s="27" t="str">
-        <f t="shared" si="60"/>
-        <v>Dobradiça</v>
+        <f t="shared" si="154"/>
+        <v>Cabide</v>
       </c>
       <c r="O73" s="22" t="str">
-        <f t="shared" si="61"/>
-        <v xml:space="preserve">Automática </v>
+        <f t="shared" si="155"/>
+        <v>Antifurto</v>
       </c>
       <c r="P73" s="22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q73" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R73" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S73" s="29" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="156"/>
         <v>Divisória</v>
       </c>
       <c r="T73" s="29" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="157"/>
         <v>Parte</v>
       </c>
       <c r="U73" s="29" t="str">
-        <f t="shared" si="64"/>
-        <v>Dobradiça</v>
+        <f t="shared" si="158"/>
+        <v>Cabide</v>
       </c>
       <c r="V73" s="29" t="s">
         <v>101</v>
@@ -9061,6 +9115,85 @@
       <c r="W73" s="1" t="str">
         <f t="shared" si="35"/>
         <v>Key-Pare-73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="24">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I74" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K74" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L74" s="27" t="str">
+        <f t="shared" si="58"/>
+        <v>Divisória</v>
+      </c>
+      <c r="M74" s="27" t="str">
+        <f t="shared" si="59"/>
+        <v>Parte</v>
+      </c>
+      <c r="N74" s="27" t="str">
+        <f t="shared" si="60"/>
+        <v>Dobradiça</v>
+      </c>
+      <c r="O74" s="22" t="str">
+        <f t="shared" si="61"/>
+        <v xml:space="preserve">Automática </v>
+      </c>
+      <c r="P74" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q74" s="46" t="s">
+        <v>218</v>
+      </c>
+      <c r="R74" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S74" s="29" t="str">
+        <f t="shared" si="62"/>
+        <v>Divisória</v>
+      </c>
+      <c r="T74" s="29" t="str">
+        <f t="shared" si="63"/>
+        <v>Parte</v>
+      </c>
+      <c r="U74" s="29" t="str">
+        <f t="shared" si="64"/>
+        <v>Dobradiça</v>
+      </c>
+      <c r="V74" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W74" s="1" t="str">
+        <f t="shared" si="35"/>
+        <v>Key-Pare-74</v>
       </c>
     </row>
   </sheetData>
@@ -9069,38 +9202,38 @@
     <cfRule type="duplicateValues" dxfId="50" priority="1052"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="49" priority="1017"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="1012"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="1013"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="1014"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="1015"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="1016"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1012"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="1013"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="1014"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="1015"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1016"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="1017"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14 F6:F10 F16:F73">
-    <cfRule type="duplicateValues" dxfId="43" priority="1472"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="1471"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="1470"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="1467"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="1469"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="1468"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="1466"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="1465"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="1464"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="1463"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="1462"/>
+  <conditionalFormatting sqref="F14 F6:F10 F16:F74">
+    <cfRule type="duplicateValues" dxfId="43" priority="1462"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="1463"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1464"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="1465"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="1466"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="1467"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1468"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1469"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="1470"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1471"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1472"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="32" priority="1056"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="1057"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="1053"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="1054"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="1055"/>
+  <conditionalFormatting sqref="F75:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="32" priority="1053"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1054"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1055"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1056"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="1057"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:F1048576">
-    <cfRule type="duplicateValues" dxfId="27" priority="270"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="268"/>
+  <conditionalFormatting sqref="F75:F1048576">
+    <cfRule type="duplicateValues" dxfId="27" priority="268"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="270"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P38:Q40 P20:P37">
+  <conditionalFormatting sqref="P39:Q41 P20:P38">
     <cfRule type="duplicateValues" dxfId="25" priority="1397"/>
     <cfRule type="duplicateValues" dxfId="24" priority="1398"/>
     <cfRule type="duplicateValues" dxfId="23" priority="1399"/>
@@ -9113,18 +9246,18 @@
     <cfRule type="duplicateValues" dxfId="16" priority="1406"/>
     <cfRule type="duplicateValues" dxfId="15" priority="1407"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q34">
+  <conditionalFormatting sqref="Q35">
     <cfRule type="duplicateValues" dxfId="14" priority="1"/>
     <cfRule type="duplicateValues" dxfId="13" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
     <cfRule type="duplicateValues" dxfId="9" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -9357,44 +9490,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A426B82-2E19-47C6-9DDF-914E7B26E6D0}">
-  <dimension ref="A1:AS94"/>
+  <dimension ref="A1:AS96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="6.55" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.765625" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.07421875" style="55" customWidth="1"/>
-    <col min="3" max="3" width="7.765625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="55" customWidth="1"/>
-    <col min="5" max="5" width="55.53515625" style="57" customWidth="1"/>
-    <col min="6" max="6" width="8" style="56" customWidth="1"/>
-    <col min="7" max="7" width="6.3828125" style="56" customWidth="1"/>
-    <col min="8" max="8" width="5.3828125" style="56" customWidth="1"/>
-    <col min="9" max="9" width="6.69140625" style="56" customWidth="1"/>
-    <col min="10" max="10" width="8.15234375" style="56" customWidth="1"/>
-    <col min="11" max="11" width="6.53515625" style="56" customWidth="1"/>
-    <col min="12" max="12" width="8.3046875" style="56" customWidth="1"/>
-    <col min="13" max="13" width="6.3828125" style="56" customWidth="1"/>
-    <col min="14" max="14" width="3" style="56" customWidth="1"/>
-    <col min="15" max="15" width="7.4609375" style="56" customWidth="1"/>
-    <col min="16" max="16" width="6.23046875" style="56" customWidth="1"/>
-    <col min="17" max="17" width="8.3828125" style="56" customWidth="1"/>
-    <col min="18" max="18" width="6.84375" style="56" customWidth="1"/>
-    <col min="19" max="19" width="7" style="56" customWidth="1"/>
-    <col min="20" max="20" width="3.84375" style="56" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.69140625" style="56" customWidth="1"/>
-    <col min="22" max="25" width="6.15234375" style="56" customWidth="1"/>
-    <col min="26" max="26" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="1.921875" style="56" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="1.921875" style="56" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="1.921875" style="56" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.84375" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.84375" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.07421875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.4609375" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.53515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.69140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.4609375" style="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.69140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.3046875" style="56" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.15234375" style="56" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.3046875" style="56" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.53515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.61328125" style="56" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.53515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.15234375" style="56" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.69140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.4609375" style="56" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.4609375" style="56" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.4609375" style="56" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.4609375" style="56" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.921875" style="56" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.765625" style="56" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.921875" style="56" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.921875" style="56" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="1.921875" style="56" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="1.921875" style="56" bestFit="1" customWidth="1"/>
@@ -19686,99 +19819,99 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="17">
         <v>76</v>
       </c>
-      <c r="B76" s="62" t="s">
-        <v>297</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>292</v>
+      <c r="B76" s="63" t="s">
+        <v>515</v>
+      </c>
+      <c r="C76" s="64" t="s">
+        <v>503</v>
       </c>
       <c r="D76" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E76" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="F76" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="G76" s="60" t="s">
-        <v>169</v>
+      <c r="E76" s="49" t="s">
+        <v>517</v>
+      </c>
+      <c r="F76" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="G76" s="50">
+        <v>1.6</v>
       </c>
       <c r="H76" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I76" s="50" t="s">
-        <v>9</v>
+        <v>173</v>
+      </c>
+      <c r="I76" s="65">
+        <v>16</v>
       </c>
       <c r="J76" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76" s="50" t="s">
-        <v>9</v>
+        <v>174</v>
+      </c>
+      <c r="K76" s="65">
+        <v>243</v>
       </c>
       <c r="L76" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="M76" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="N76" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="O76" s="50" t="s">
-        <v>9</v>
+        <v>450</v>
+      </c>
+      <c r="M76" s="50">
+        <v>11</v>
+      </c>
+      <c r="N76" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="O76" s="54" t="s">
+        <v>507</v>
       </c>
       <c r="P76" s="43" t="s">
         <v>170</v>
       </c>
       <c r="Q76" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="R76" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="S76" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="T76" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="U76" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="V76" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="W76" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="X76" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y76" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z76" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA76" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB76" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC76" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD76" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE76" s="50" t="s">
-        <v>9</v>
+        <v>506</v>
+      </c>
+      <c r="R76" s="67" t="s">
+        <v>508</v>
+      </c>
+      <c r="S76" s="68">
+        <v>0.41</v>
+      </c>
+      <c r="T76" s="67" t="s">
+        <v>509</v>
+      </c>
+      <c r="U76" s="68">
+        <v>1.02</v>
+      </c>
+      <c r="V76" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="W76" s="68">
+        <v>0.9</v>
+      </c>
+      <c r="X76" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y76" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="Z76" s="67" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA76" s="68">
+        <v>0.47</v>
+      </c>
+      <c r="AB76" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="AC76" s="68">
+        <v>0.44</v>
+      </c>
+      <c r="AD76" s="67" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE76" s="68">
+        <v>0.8</v>
       </c>
       <c r="AF76" s="43" t="s">
         <v>9</v>
@@ -19823,99 +19956,99 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="17">
         <v>77</v>
       </c>
-      <c r="B77" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C77" s="47" t="s">
-        <v>267</v>
+      <c r="B77" s="63" t="s">
+        <v>516</v>
+      </c>
+      <c r="C77" s="64" t="s">
+        <v>503</v>
       </c>
       <c r="D77" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E77" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="F77" s="59" t="s">
-        <v>176</v>
-      </c>
-      <c r="G77" s="60" t="s">
-        <v>175</v>
+      <c r="E77" s="49" t="s">
+        <v>518</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="G77" s="50">
+        <v>1.6</v>
       </c>
       <c r="H77" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" s="50" t="s">
-        <v>9</v>
+        <v>173</v>
+      </c>
+      <c r="I77" s="65">
+        <v>16</v>
       </c>
       <c r="J77" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="K77" s="50" t="s">
-        <v>9</v>
+        <v>174</v>
+      </c>
+      <c r="K77" s="65">
+        <v>274</v>
       </c>
       <c r="L77" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="M77" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="N77" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="O77" s="50" t="s">
-        <v>9</v>
+        <v>450</v>
+      </c>
+      <c r="M77" s="50">
+        <v>11</v>
+      </c>
+      <c r="N77" s="58" t="s">
+        <v>392</v>
+      </c>
+      <c r="O77" s="54" t="s">
+        <v>507</v>
       </c>
       <c r="P77" s="43" t="s">
         <v>170</v>
       </c>
       <c r="Q77" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="R77" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="S77" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="T77" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="U77" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="V77" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="W77" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="X77" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y77" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z77" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA77" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB77" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC77" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD77" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE77" s="50" t="s">
-        <v>9</v>
+        <v>506</v>
+      </c>
+      <c r="R77" s="67" t="s">
+        <v>508</v>
+      </c>
+      <c r="S77" s="68">
+        <v>0.45</v>
+      </c>
+      <c r="T77" s="67" t="s">
+        <v>509</v>
+      </c>
+      <c r="U77" s="68">
+        <v>0.96</v>
+      </c>
+      <c r="V77" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="W77" s="68">
+        <v>0.92</v>
+      </c>
+      <c r="X77" s="67" t="s">
+        <v>511</v>
+      </c>
+      <c r="Y77" s="68">
+        <v>0.62</v>
+      </c>
+      <c r="Z77" s="67" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA77" s="68">
+        <v>0.41</v>
+      </c>
+      <c r="AB77" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="AC77" s="68">
+        <v>0.41</v>
+      </c>
+      <c r="AD77" s="67" t="s">
+        <v>514</v>
+      </c>
+      <c r="AE77" s="68">
+        <v>0.75</v>
       </c>
       <c r="AF77" s="43" t="s">
         <v>9</v>
@@ -19965,22 +20098,22 @@
         <v>78</v>
       </c>
       <c r="B78" s="62" t="s">
-        <v>130</v>
+        <v>297</v>
       </c>
       <c r="C78" s="47" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="D78" s="43" t="s">
         <v>110</v>
       </c>
       <c r="E78" s="45" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="F78" s="59" t="s">
         <v>176</v>
       </c>
       <c r="G78" s="60" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H78" s="43" t="s">
         <v>9</v>
@@ -20102,22 +20235,22 @@
         <v>79</v>
       </c>
       <c r="B79" s="62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D79" s="43" t="s">
         <v>110</v>
       </c>
       <c r="E79" s="45" t="s">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="F79" s="59" t="s">
         <v>176</v>
       </c>
       <c r="G79" s="60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H79" s="43" t="s">
         <v>9</v>
@@ -20239,22 +20372,22 @@
         <v>80</v>
       </c>
       <c r="B80" s="62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C80" s="47" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D80" s="43" t="s">
         <v>110</v>
       </c>
       <c r="E80" s="45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F80" s="59" t="s">
         <v>176</v>
       </c>
       <c r="G80" s="60" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H80" s="43" t="s">
         <v>9</v>
@@ -20376,22 +20509,22 @@
         <v>81</v>
       </c>
       <c r="B81" s="62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C81" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D81" s="43" t="s">
         <v>110</v>
       </c>
       <c r="E81" s="45" t="s">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="F81" s="59" t="s">
         <v>176</v>
       </c>
       <c r="G81" s="60" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H81" s="43" t="s">
         <v>9</v>
@@ -20513,46 +20646,46 @@
         <v>82</v>
       </c>
       <c r="B82" s="62" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="D82" s="43" t="s">
         <v>110</v>
       </c>
       <c r="E82" s="45" t="s">
-        <v>137</v>
+        <v>261</v>
       </c>
       <c r="F82" s="59" t="s">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="G82" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="H82" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="I82" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="J82" s="59" t="s">
-        <v>475</v>
-      </c>
-      <c r="K82" s="66" t="s">
-        <v>458</v>
+        <v>181</v>
+      </c>
+      <c r="H82" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J82" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="50" t="s">
+        <v>9</v>
       </c>
       <c r="L82" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="M82" s="50">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="M82" s="50" t="s">
+        <v>9</v>
       </c>
       <c r="N82" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="O82" s="50">
-        <v>60</v>
+        <v>9</v>
+      </c>
+      <c r="O82" s="50" t="s">
+        <v>9</v>
       </c>
       <c r="P82" s="43" t="s">
         <v>170</v>
@@ -20650,46 +20783,46 @@
         <v>83</v>
       </c>
       <c r="B83" s="62" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C83" s="47" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="D83" s="43" t="s">
         <v>110</v>
       </c>
       <c r="E83" s="45" t="s">
-        <v>138</v>
+        <v>260</v>
       </c>
       <c r="F83" s="59" t="s">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="G83" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="H83" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="I83" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="J83" s="59" t="s">
-        <v>475</v>
-      </c>
-      <c r="K83" s="66" t="s">
-        <v>458</v>
+        <v>182</v>
+      </c>
+      <c r="H83" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I83" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J83" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="50" t="s">
+        <v>9</v>
       </c>
       <c r="L83" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="M83" s="50">
-        <v>120</v>
+        <v>9</v>
+      </c>
+      <c r="M83" s="50" t="s">
+        <v>9</v>
       </c>
       <c r="N83" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="O83" s="50">
-        <v>120</v>
+        <v>9</v>
+      </c>
+      <c r="O83" s="50" t="s">
+        <v>9</v>
       </c>
       <c r="P83" s="43" t="s">
         <v>170</v>
@@ -20787,7 +20920,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C84" s="47" t="s">
         <v>295</v>
@@ -20796,19 +20929,19 @@
         <v>110</v>
       </c>
       <c r="E84" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F84" s="59" t="s">
         <v>312</v>
       </c>
       <c r="G84" s="60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H84" s="59" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="I84" s="60" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="J84" s="59" t="s">
         <v>475</v>
@@ -20817,16 +20950,16 @@
         <v>458</v>
       </c>
       <c r="L84" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="M84" s="50">
-        <v>120</v>
+        <v>9</v>
+      </c>
+      <c r="M84" s="50" t="s">
+        <v>9</v>
       </c>
       <c r="N84" s="43" t="s">
         <v>108</v>
       </c>
       <c r="O84" s="50">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="P84" s="43" t="s">
         <v>170</v>
@@ -20924,7 +21057,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C85" s="47" t="s">
         <v>295</v>
@@ -20932,26 +21065,26 @@
       <c r="D85" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E85" s="49" t="s">
-        <v>139</v>
+      <c r="E85" s="45" t="s">
+        <v>138</v>
       </c>
       <c r="F85" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="G85" s="61" t="s">
-        <v>404</v>
+      <c r="G85" s="60" t="s">
+        <v>128</v>
       </c>
       <c r="H85" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="I85" s="61" t="s">
-        <v>404</v>
-      </c>
-      <c r="J85" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="K85" s="50" t="s">
-        <v>9</v>
+        <v>135</v>
+      </c>
+      <c r="I85" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="J85" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="K85" s="66" t="s">
+        <v>458</v>
       </c>
       <c r="L85" s="43" t="s">
         <v>9</v>
@@ -20960,10 +21093,10 @@
         <v>9</v>
       </c>
       <c r="N85" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="O85" s="50" t="s">
-        <v>9</v>
+        <v>108</v>
+      </c>
+      <c r="O85" s="50">
+        <v>120</v>
       </c>
       <c r="P85" s="43" t="s">
         <v>170</v>
@@ -21061,7 +21194,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="62" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C86" s="47" t="s">
         <v>295</v>
@@ -21069,26 +21202,26 @@
       <c r="D86" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E86" s="49" t="s">
-        <v>139</v>
+      <c r="E86" s="45" t="s">
+        <v>138</v>
       </c>
       <c r="F86" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="G86" s="61" t="s">
-        <v>404</v>
+      <c r="G86" s="60" t="s">
+        <v>136</v>
       </c>
       <c r="H86" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="I86" s="61" t="s">
-        <v>404</v>
-      </c>
-      <c r="J86" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="K86" s="50" t="s">
-        <v>9</v>
+        <v>135</v>
+      </c>
+      <c r="I86" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="J86" s="59" t="s">
+        <v>475</v>
+      </c>
+      <c r="K86" s="66" t="s">
+        <v>458</v>
       </c>
       <c r="L86" s="43" t="s">
         <v>9</v>
@@ -21097,10 +21230,10 @@
         <v>9</v>
       </c>
       <c r="N86" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="O86" s="50" t="s">
-        <v>9</v>
+        <v>108</v>
+      </c>
+      <c r="O86" s="50">
+        <v>120</v>
       </c>
       <c r="P86" s="43" t="s">
         <v>170</v>
@@ -21198,7 +21331,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="47" t="s">
         <v>295</v>
@@ -21335,7 +21468,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="62" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C88" s="47" t="s">
         <v>295</v>
@@ -21472,7 +21605,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C89" s="47" t="s">
         <v>295</v>
@@ -21481,7 +21614,7 @@
         <v>110</v>
       </c>
       <c r="E89" s="49" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F89" s="59" t="s">
         <v>312</v>
@@ -21609,7 +21742,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C90" s="47" t="s">
         <v>295</v>
@@ -21618,7 +21751,7 @@
         <v>110</v>
       </c>
       <c r="E90" s="49" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F90" s="59" t="s">
         <v>312</v>
@@ -21746,7 +21879,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C91" s="47" t="s">
         <v>295</v>
@@ -21883,7 +22016,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C92" s="47" t="s">
         <v>295</v>
@@ -22020,7 +22153,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C93" s="47" t="s">
         <v>295</v>
@@ -22029,19 +22162,19 @@
         <v>110</v>
       </c>
       <c r="E93" s="49" t="s">
-        <v>305</v>
+        <v>126</v>
       </c>
       <c r="F93" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="G93" s="60" t="s">
-        <v>428</v>
-      </c>
-      <c r="H93" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I93" s="50" t="s">
-        <v>9</v>
+      <c r="G93" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="H93" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="I93" s="61" t="s">
+        <v>404</v>
       </c>
       <c r="J93" s="43" t="s">
         <v>9</v>
@@ -22157,7 +22290,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="62" t="s">
-        <v>271</v>
+        <v>121</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>295</v>
@@ -22166,19 +22299,19 @@
         <v>110</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>311</v>
+        <v>126</v>
       </c>
       <c r="F94" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="G94" s="60" t="s">
-        <v>429</v>
-      </c>
-      <c r="H94" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" s="50" t="s">
-        <v>9</v>
+      <c r="G94" s="61" t="s">
+        <v>404</v>
+      </c>
+      <c r="H94" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="I94" s="61" t="s">
+        <v>404</v>
       </c>
       <c r="J94" s="43" t="s">
         <v>9</v>
@@ -22286,6 +22419,280 @@
         <v>9</v>
       </c>
       <c r="AS94" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="17">
+        <v>95</v>
+      </c>
+      <c r="B95" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="D95" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="F95" s="59" t="s">
+        <v>312</v>
+      </c>
+      <c r="G95" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="H95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="M95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="N95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="O95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="P95" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q95" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="R95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="S95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="T95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="U95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="V95" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="W95" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="X95" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y95" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ95" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR95" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS95" s="50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="17">
+        <v>96</v>
+      </c>
+      <c r="B96" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="C96" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="D96" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E96" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="F96" s="59" t="s">
+        <v>312</v>
+      </c>
+      <c r="G96" s="60" t="s">
+        <v>429</v>
+      </c>
+      <c r="H96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I96" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K96" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="M96" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="N96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="O96" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="P96" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q96" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="R96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="S96" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="T96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="U96" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="V96" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="W96" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="X96" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y96" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA96" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC96" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE96" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG96" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI96" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK96" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM96" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO96" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ96" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR96" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS96" s="50" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Versão5/ALVE/Ontologia_ALVEN.xlsx
+++ b/Versão5/ALVE/Ontologia_ALVEN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\ALVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B35ED9-16A6-43D6-BC18-475E9D2A2811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8098B05B-3CF6-4A3B-986E-853319E651C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="13" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Interop" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$81</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Interop!$B$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5243" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5313" uniqueCount="549">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -1696,6 +1696,51 @@
   </si>
   <si>
     <t>DWA.01</t>
+  </si>
+  <si>
+    <t>Para.Madeira</t>
+  </si>
+  <si>
+    <t>Cola para madeira.</t>
+  </si>
+  <si>
+    <t>Pegamento para madera.</t>
+  </si>
+  <si>
+    <t>Para.Metais</t>
+  </si>
+  <si>
+    <t>Cola para metais.</t>
+  </si>
+  <si>
+    <t>Pegamento para metales.</t>
+  </si>
+  <si>
+    <t>Para.Texteis</t>
+  </si>
+  <si>
+    <t>Cola para texteis.</t>
+  </si>
+  <si>
+    <t>Pegamento para textiles.</t>
+  </si>
+  <si>
+    <t>Para.Espumas</t>
+  </si>
+  <si>
+    <t>Cola para espumas.</t>
+  </si>
+  <si>
+    <t>Pegamento para espumas.</t>
+  </si>
+  <si>
+    <t>Para.Louças</t>
+  </si>
+  <si>
+    <t>Cola para louças.</t>
+  </si>
+  <si>
+    <t>Pegamento para porcelanas.</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2292,347 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="130">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3794,7 +4179,7 @@
       </c>
       <c r="B18" s="40">
         <f ca="1">NOW()</f>
-        <v>45915.454459259257</v>
+        <v>45915.608467013888</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3844,12 +4229,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96052D63-9637-42D9-866B-0BB924A50D8C}">
-  <dimension ref="A1:W76"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="P60" sqref="P60"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="7.2" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3981,7 +4366,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="27" t="str">
-        <f t="shared" ref="L2:M23" si="0">CONCATENATE("", C2)</f>
+        <f t="shared" ref="L2:M28" si="0">CONCATENATE("", C2)</f>
         <v>Gestão</v>
       </c>
       <c r="M2" s="27" t="str">
@@ -4006,7 +4391,7 @@
         <v>9</v>
       </c>
       <c r="S2" s="29" t="str">
-        <f t="shared" ref="S2:U23" si="1">SUBSTITUTE(C2, ".", " ")</f>
+        <f t="shared" ref="S2:U28" si="1">SUBSTITUTE(C2, ".", " ")</f>
         <v>Gestão</v>
       </c>
       <c r="T2" s="29" t="str">
@@ -4025,7 +4410,7 @@
         <v>Key-Pare-2</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="24">
         <v>3</v>
       </c>
@@ -4039,10 +4424,10 @@
         <v>264</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>237</v>
+        <v>250</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>534</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>9</v>
@@ -4068,18 +4453,18 @@
         <v>Composição</v>
       </c>
       <c r="N3" s="27" t="str">
-        <f t="shared" ref="N3:N12" si="2">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
-        <v>Argamassa</v>
+        <f t="shared" ref="N3:N7" si="2">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
+        <v>Cola</v>
       </c>
       <c r="O3" s="22" t="str">
-        <f t="shared" ref="O3:O12" si="3">F3</f>
-        <v>Assentamento</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q3" s="46" t="s">
-        <v>229</v>
+        <f t="shared" ref="O3:O7" si="3">F3</f>
+        <v>Para.Madeira</v>
+      </c>
+      <c r="P3" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q3" s="48" t="s">
+        <v>536</v>
       </c>
       <c r="R3" s="28" t="s">
         <v>9</v>
@@ -4094,17 +4479,17 @@
       </c>
       <c r="U3" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V3" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W12" si="4">CONCATENATE("Key-Pare-",A3)</f>
+        <f t="shared" ref="W3:W66" si="4">CONCATENATE("Key-Pare-",A3)</f>
         <v>Key-Pare-3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="24">
         <v>4</v>
       </c>
@@ -4118,10 +4503,10 @@
         <v>264</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>238</v>
+        <v>250</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>537</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>9</v>
@@ -4148,17 +4533,17 @@
       </c>
       <c r="N4" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="O4" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>Chapisco</v>
-      </c>
-      <c r="P4" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q4" s="46" t="s">
-        <v>230</v>
+        <v>Para.Metais</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>539</v>
       </c>
       <c r="R4" s="28" t="s">
         <v>9</v>
@@ -4173,7 +4558,7 @@
       </c>
       <c r="U4" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V4" s="29" t="s">
         <v>101</v>
@@ -4183,7 +4568,7 @@
         <v>Key-Pare-4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="24">
         <v>5</v>
       </c>
@@ -4197,10 +4582,10 @@
         <v>264</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>239</v>
+        <v>250</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>540</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>9</v>
@@ -4227,17 +4612,17 @@
       </c>
       <c r="N5" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="O5" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>Emboço</v>
-      </c>
-      <c r="P5" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q5" s="46" t="s">
-        <v>231</v>
+        <v>Para.Texteis</v>
+      </c>
+      <c r="P5" s="48" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q5" s="48" t="s">
+        <v>542</v>
       </c>
       <c r="R5" s="28" t="s">
         <v>9</v>
@@ -4252,7 +4637,7 @@
       </c>
       <c r="U5" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V5" s="29" t="s">
         <v>101</v>
@@ -4262,7 +4647,7 @@
         <v>Key-Pare-5</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="24">
         <v>6</v>
       </c>
@@ -4276,10 +4661,10 @@
         <v>264</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>240</v>
+        <v>250</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>543</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>9</v>
@@ -4306,17 +4691,17 @@
       </c>
       <c r="N6" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="O6" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>Reboco</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q6" s="46" t="s">
-        <v>232</v>
+        <v>Para.Espumas</v>
+      </c>
+      <c r="P6" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q6" s="48" t="s">
+        <v>545</v>
       </c>
       <c r="R6" s="28" t="s">
         <v>9</v>
@@ -4331,7 +4716,7 @@
       </c>
       <c r="U6" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V6" s="29" t="s">
         <v>101</v>
@@ -4341,7 +4726,7 @@
         <v>Key-Pare-6</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24">
         <v>7</v>
       </c>
@@ -4355,10 +4740,10 @@
         <v>264</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>257</v>
+        <v>546</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>9</v>
@@ -4385,17 +4770,17 @@
       </c>
       <c r="N7" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="O7" s="22" t="str">
         <f t="shared" si="3"/>
-        <v>Niveladora</v>
+        <v>Para.Louças</v>
       </c>
       <c r="P7" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q7" s="46" t="s">
-        <v>242</v>
+        <v>547</v>
+      </c>
+      <c r="Q7" s="48" t="s">
+        <v>548</v>
       </c>
       <c r="R7" s="28" t="s">
         <v>9</v>
@@ -4410,7 +4795,7 @@
       </c>
       <c r="U7" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Cola</v>
       </c>
       <c r="V7" s="29" t="s">
         <v>101</v>
@@ -4436,8 +4821,8 @@
       <c r="E8" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F8" s="26" t="s">
-        <v>220</v>
+      <c r="F8" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>9</v>
@@ -4463,18 +4848,18 @@
         <v>Composição</v>
       </c>
       <c r="N8" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N8:N17" si="5">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E8),"."," ")," De "," de "))</f>
         <v>Argamassa</v>
       </c>
       <c r="O8" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>Colante</v>
-      </c>
-      <c r="P8" s="48" t="s">
-        <v>236</v>
+        <f t="shared" ref="O8:O17" si="6">F8</f>
+        <v>Assentamento</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>223</v>
       </c>
       <c r="Q8" s="46" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="R8" s="28" t="s">
         <v>9</v>
@@ -4515,8 +4900,8 @@
       <c r="E9" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F9" s="26" t="s">
-        <v>221</v>
+      <c r="F9" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>9</v>
@@ -4542,18 +4927,18 @@
         <v>Composição</v>
       </c>
       <c r="N9" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Argamassa</v>
       </c>
       <c r="O9" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>Graute</v>
-      </c>
-      <c r="P9" s="48" t="s">
-        <v>227</v>
+        <f t="shared" si="6"/>
+        <v>Chapisco</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="Q9" s="46" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="R9" s="28" t="s">
         <v>9</v>
@@ -4594,8 +4979,8 @@
       <c r="E10" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>222</v>
+      <c r="F10" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>9</v>
@@ -4621,18 +5006,18 @@
         <v>Composição</v>
       </c>
       <c r="N10" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Argamassa</v>
       </c>
       <c r="O10" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>Polimérica</v>
-      </c>
-      <c r="P10" s="48" t="s">
-        <v>228</v>
+        <f t="shared" si="6"/>
+        <v>Emboço</v>
+      </c>
+      <c r="P10" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="Q10" s="46" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="R10" s="28" t="s">
         <v>9</v>
@@ -4673,8 +5058,8 @@
       <c r="E11" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>321</v>
+      <c r="F11" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="G11" s="31" t="s">
         <v>9</v>
@@ -4700,18 +5085,18 @@
         <v>Composição</v>
       </c>
       <c r="N11" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Argamassa</v>
       </c>
       <c r="O11" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>Rejunte</v>
-      </c>
-      <c r="P11" s="48" t="s">
-        <v>325</v>
+        <f t="shared" si="6"/>
+        <v>Reboco</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="Q11" s="46" t="s">
-        <v>326</v>
+        <v>232</v>
       </c>
       <c r="R11" s="28" t="s">
         <v>9</v>
@@ -4753,7 +5138,7 @@
         <v>219</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>515</v>
+        <v>257</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>9</v>
@@ -4779,18 +5164,18 @@
         <v>Composição</v>
       </c>
       <c r="N12" s="27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>Argamassa</v>
       </c>
       <c r="O12" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>Baritada</v>
+        <f t="shared" si="6"/>
+        <v>Niveladora</v>
       </c>
       <c r="P12" s="48" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q12" s="48" t="s">
-        <v>520</v>
+        <v>241</v>
+      </c>
+      <c r="Q12" s="46" t="s">
+        <v>242</v>
       </c>
       <c r="R12" s="28" t="s">
         <v>9</v>
@@ -4829,10 +5214,10 @@
         <v>264</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>341</v>
+        <v>219</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>220</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>9</v>
@@ -4850,48 +5235,47 @@
         <v>9</v>
       </c>
       <c r="L13" s="27" t="str">
-        <f t="shared" ref="L13" si="5">CONCATENATE("", C13)</f>
+        <f t="shared" si="0"/>
         <v>Parede</v>
       </c>
       <c r="M13" s="27" t="str">
-        <f t="shared" ref="M13" si="6">CONCATENATE("", D13)</f>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N13" s="27" t="str">
-        <f t="shared" ref="N13" si="7">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E13),"."," ")," De "," de "))</f>
-        <v>Pré Fabricado</v>
+        <f t="shared" si="5"/>
+        <v>Argamassa</v>
       </c>
       <c r="O13" s="22" t="str">
-        <f t="shared" ref="O13" si="8">F13</f>
-        <v>Painel.Maciço</v>
-      </c>
-      <c r="P13" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q13" s="46" t="str">
-        <f>_xlfn.TRANSLATE(P13,"pt","es")</f>
-        <v>Panel sólido de hormigón prefabricado de alto rendimiento.</v>
+        <f t="shared" si="6"/>
+        <v>Colante</v>
+      </c>
+      <c r="P13" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q13" s="46" t="s">
+        <v>235</v>
       </c>
       <c r="R13" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S13" s="29" t="str">
-        <f t="shared" ref="S13" si="9">SUBSTITUTE(C13, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T13" s="29" t="str">
-        <f t="shared" ref="T13" si="10">SUBSTITUTE(D13, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U13" s="29" t="str">
-        <f t="shared" ref="U13" si="11">SUBSTITUTE(E13, ".", " ")</f>
-        <v>Pré Fabricado</v>
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
       </c>
       <c r="V13" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f t="shared" ref="W13" si="12">CONCATENATE("Key-Pare-",A13)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-13</v>
       </c>
     </row>
@@ -4909,10 +5293,10 @@
         <v>264</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>340</v>
+        <v>219</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>221</v>
       </c>
       <c r="G14" s="31" t="s">
         <v>9</v>
@@ -4938,19 +5322,18 @@
         <v>Composição</v>
       </c>
       <c r="N14" s="27" t="str">
-        <f t="shared" ref="N14" si="13">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E14),"."," ")," De "," de "))</f>
-        <v>Pré Fabricado</v>
+        <f t="shared" si="5"/>
+        <v>Argamassa</v>
       </c>
       <c r="O14" s="22" t="str">
-        <f t="shared" ref="O14" si="14">F14</f>
-        <v>Painel.Alveolar</v>
-      </c>
-      <c r="P14" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q14" s="46" t="str">
-        <f>_xlfn.TRANSLATE(P14,"pt","es")</f>
-        <v>Panel prefabricado de hormigón pretensado en nido de abeja.</v>
+        <f t="shared" si="6"/>
+        <v>Graute</v>
+      </c>
+      <c r="P14" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q14" s="46" t="s">
+        <v>233</v>
       </c>
       <c r="R14" s="28" t="s">
         <v>9</v>
@@ -4965,13 +5348,13 @@
       </c>
       <c r="U14" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Pré Fabricado</v>
+        <v>Argamassa</v>
       </c>
       <c r="V14" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W14" s="1" t="str">
-        <f t="shared" ref="W14" si="15">CONCATENATE("Key-Pare-",A14)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-14</v>
       </c>
     </row>
@@ -4989,10 +5372,10 @@
         <v>264</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>314</v>
+        <v>219</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>222</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>9</v>
@@ -5010,48 +5393,47 @@
         <v>9</v>
       </c>
       <c r="L15" s="27" t="str">
-        <f t="shared" ref="L15:L18" si="16">CONCATENATE("", C15)</f>
+        <f t="shared" si="0"/>
         <v>Parede</v>
       </c>
       <c r="M15" s="27" t="str">
-        <f t="shared" ref="M15:M18" si="17">CONCATENATE("", D15)</f>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N15" s="27" t="str">
-        <f t="shared" ref="N15:N18" si="18">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E15),"."," ")," De "," de "))</f>
-        <v>Concreto Armado</v>
+        <f t="shared" si="5"/>
+        <v>Argamassa</v>
       </c>
       <c r="O15" s="22" t="str">
-        <f t="shared" ref="O15:O18" si="19">F15</f>
-        <v>Parede.CA</v>
-      </c>
-      <c r="P15" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q15" s="46" t="str">
-        <f>_xlfn.TRANSLATE(P15,"pt","es")</f>
-        <v>Muros estructurales moldeados in situ de hormigón armado.</v>
+        <f t="shared" si="6"/>
+        <v>Polimérica</v>
+      </c>
+      <c r="P15" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q15" s="46" t="s">
+        <v>234</v>
       </c>
       <c r="R15" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S15" s="29" t="str">
-        <f t="shared" ref="S15:S18" si="20">SUBSTITUTE(C15, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T15" s="29" t="str">
-        <f t="shared" ref="T15:T18" si="21">SUBSTITUTE(D15, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U15" s="29" t="str">
-        <f t="shared" ref="U15:U18" si="22">SUBSTITUTE(E15, ".", " ")</f>
-        <v>Concreto Armado</v>
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
       </c>
       <c r="V15" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W15" s="1" t="str">
-        <f t="shared" ref="W15:W18" si="23">CONCATENATE("Key-Pare-",A15)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-15</v>
       </c>
     </row>
@@ -5069,10 +5451,10 @@
         <v>264</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>301</v>
+        <v>219</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>321</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>9</v>
@@ -5090,47 +5472,47 @@
         <v>9</v>
       </c>
       <c r="L16" s="27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>Parede</v>
       </c>
       <c r="M16" s="27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N16" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>Bloco Concreto</v>
+        <f t="shared" si="5"/>
+        <v>Argamassa</v>
       </c>
       <c r="O16" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v>Bloco.CCA</v>
-      </c>
-      <c r="P16" s="22" t="s">
-        <v>305</v>
+        <f t="shared" si="6"/>
+        <v>Rejunte</v>
+      </c>
+      <c r="P16" s="48" t="s">
+        <v>325</v>
       </c>
       <c r="Q16" s="46" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="R16" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S16" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T16" s="29" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U16" s="29" t="str">
-        <f t="shared" si="22"/>
-        <v>Bloco Concreto</v>
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
       </c>
       <c r="V16" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W16" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-16</v>
       </c>
     </row>
@@ -5148,10 +5530,10 @@
         <v>264</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>125</v>
+        <v>219</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>515</v>
       </c>
       <c r="G17" s="31" t="s">
         <v>9</v>
@@ -5169,47 +5551,47 @@
         <v>9</v>
       </c>
       <c r="L17" s="27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>Parede</v>
       </c>
       <c r="M17" s="27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N17" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>Bloco Concreto</v>
+        <f t="shared" si="5"/>
+        <v>Argamassa</v>
       </c>
       <c r="O17" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v>Bloco.Estrutural</v>
-      </c>
-      <c r="P17" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q17" s="46" t="s">
-        <v>283</v>
+        <f t="shared" si="6"/>
+        <v>Baritada</v>
+      </c>
+      <c r="P17" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q17" s="48" t="s">
+        <v>520</v>
       </c>
       <c r="R17" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S17" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T17" s="29" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U17" s="29" t="str">
-        <f t="shared" si="22"/>
-        <v>Bloco Concreto</v>
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
       </c>
       <c r="V17" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W17" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-17</v>
       </c>
     </row>
@@ -5227,10 +5609,10 @@
         <v>264</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>124</v>
+        <v>341</v>
       </c>
       <c r="G18" s="31" t="s">
         <v>9</v>
@@ -5248,47 +5630,48 @@
         <v>9</v>
       </c>
       <c r="L18" s="27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="L18" si="7">CONCATENATE("", C18)</f>
         <v>Parede</v>
       </c>
       <c r="M18" s="27" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="M18" si="8">CONCATENATE("", D18)</f>
         <v>Composição</v>
       </c>
       <c r="N18" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>Bloco Concreto</v>
+        <f t="shared" ref="N18" si="9">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E18),"."," ")," De "," de "))</f>
+        <v>Pré Fabricado</v>
       </c>
       <c r="O18" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v>Bloco.Vedação</v>
+        <f t="shared" ref="O18" si="10">F18</f>
+        <v>Painel.Maciço</v>
       </c>
       <c r="P18" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q18" s="46" t="s">
-        <v>284</v>
+        <v>343</v>
+      </c>
+      <c r="Q18" s="46" t="str">
+        <f>_xlfn.TRANSLATE(P18,"pt","es")</f>
+        <v>Panel sólido de hormigón prefabricado de alto rendimiento.</v>
       </c>
       <c r="R18" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S18" s="29" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="S18" si="11">SUBSTITUTE(C18, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T18" s="29" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="T18" si="12">SUBSTITUTE(D18, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U18" s="29" t="str">
-        <f t="shared" si="22"/>
-        <v>Bloco Concreto</v>
+        <f t="shared" ref="U18" si="13">SUBSTITUTE(E18, ".", " ")</f>
+        <v>Pré Fabricado</v>
       </c>
       <c r="V18" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W18" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-18</v>
       </c>
     </row>
@@ -5306,10 +5689,10 @@
         <v>264</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>9</v>
@@ -5335,19 +5718,19 @@
         <v>Composição</v>
       </c>
       <c r="N19" s="27" t="str">
-        <f t="shared" ref="N19" si="24">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E19),"."," ")," De "," de "))</f>
-        <v>Bloco Gesso</v>
+        <f t="shared" ref="N19" si="14">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E19),"."," ")," De "," de "))</f>
+        <v>Pré Fabricado</v>
       </c>
       <c r="O19" s="22" t="str">
-        <f t="shared" ref="O19" si="25">F19</f>
-        <v>Bloco.Maciço</v>
+        <f t="shared" ref="O19" si="15">F19</f>
+        <v>Painel.Alveolar</v>
       </c>
       <c r="P19" s="22" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="Q19" s="46" t="str">
         <f>_xlfn.TRANSLATE(P19,"pt","es")</f>
-        <v>Bloques de yeso macizo para paredes internas no portantes. Rapidez de ejecución y obtención de una pared limpia y lisa.</v>
+        <v>Panel prefabricado de hormigón pretensado en nido de abeja.</v>
       </c>
       <c r="R19" s="28" t="s">
         <v>9</v>
@@ -5362,13 +5745,13 @@
       </c>
       <c r="U19" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Bloco Gesso</v>
+        <v>Pré Fabricado</v>
       </c>
       <c r="V19" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W19" s="1" t="str">
-        <f t="shared" ref="W19" si="26">CONCATENATE("Key-Pare-",A19)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-19</v>
       </c>
     </row>
@@ -5386,10 +5769,10 @@
         <v>264</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="G20" s="31" t="s">
         <v>9</v>
@@ -5407,48 +5790,48 @@
         <v>9</v>
       </c>
       <c r="L20" s="27" t="str">
-        <f t="shared" ref="L20" si="27">CONCATENATE("", C20)</f>
+        <f t="shared" ref="L20:L23" si="16">CONCATENATE("", C20)</f>
         <v>Parede</v>
       </c>
       <c r="M20" s="27" t="str">
-        <f t="shared" ref="M20" si="28">CONCATENATE("", D20)</f>
+        <f t="shared" ref="M20:M23" si="17">CONCATENATE("", D20)</f>
         <v>Composição</v>
       </c>
       <c r="N20" s="27" t="str">
-        <f t="shared" ref="N20" si="29">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E20),"."," ")," De "," de "))</f>
-        <v>Bloco Gesso</v>
+        <f t="shared" ref="N20:N23" si="18">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E20),"."," ")," De "," de "))</f>
+        <v>Concreto Armado</v>
       </c>
       <c r="O20" s="22" t="str">
-        <f t="shared" ref="O20" si="30">F20</f>
-        <v>Bloco.Alveolar</v>
+        <f t="shared" ref="O20:O23" si="19">F20</f>
+        <v>Parede.CA</v>
       </c>
       <c r="P20" s="22" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="Q20" s="46" t="str">
         <f>_xlfn.TRANSLATE(P20,"pt","es")</f>
-        <v>Bloques de yeso huecos para paredes internas no portantes. Rapidez de ejecución y obtención de una pared limpia y lisa.</v>
+        <v>Muros estructurales moldeados in situ de hormigón armado.</v>
       </c>
       <c r="R20" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S20" s="29" t="str">
-        <f t="shared" ref="S20" si="31">SUBSTITUTE(C20, ".", " ")</f>
+        <f t="shared" ref="S20:S23" si="20">SUBSTITUTE(C20, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T20" s="29" t="str">
-        <f t="shared" ref="T20" si="32">SUBSTITUTE(D20, ".", " ")</f>
+        <f t="shared" ref="T20:T23" si="21">SUBSTITUTE(D20, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U20" s="29" t="str">
-        <f t="shared" ref="U20" si="33">SUBSTITUTE(E20, ".", " ")</f>
-        <v>Bloco Gesso</v>
+        <f t="shared" ref="U20:U23" si="22">SUBSTITUTE(E20, ".", " ")</f>
+        <v>Concreto Armado</v>
       </c>
       <c r="V20" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W20" s="1" t="str">
-        <f t="shared" ref="W20" si="34">CONCATENATE("Key-Pare-",A20)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-20</v>
       </c>
     </row>
@@ -5466,10 +5849,10 @@
         <v>264</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>123</v>
+        <v>301</v>
       </c>
       <c r="G21" s="31" t="s">
         <v>9</v>
@@ -5487,47 +5870,47 @@
         <v>9</v>
       </c>
       <c r="L21" s="27" t="str">
-        <f t="shared" ref="L21:L23" si="35">CONCATENATE("", C21)</f>
+        <f t="shared" si="16"/>
         <v>Parede</v>
       </c>
       <c r="M21" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>Composição</v>
       </c>
       <c r="N21" s="27" t="str">
-        <f t="shared" ref="N21:N23" si="36">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E21),"."," ")," De "," de "))</f>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" si="18"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="O21" s="22" t="str">
-        <f t="shared" ref="O21:O23" si="37">F21</f>
-        <v>Tijolo.Comúm</v>
-      </c>
-      <c r="P21" s="48" t="s">
-        <v>282</v>
+        <f t="shared" si="19"/>
+        <v>Bloco.CCA</v>
+      </c>
+      <c r="P21" s="22" t="s">
+        <v>305</v>
       </c>
       <c r="Q21" s="46" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="R21" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S21" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>Parede</v>
       </c>
       <c r="T21" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v>Composição</v>
       </c>
       <c r="U21" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" si="22"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="V21" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W21" s="1" t="str">
-        <f t="shared" ref="W21:W76" si="38">CONCATENATE("Key-Pare-",A21)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-21</v>
       </c>
     </row>
@@ -5545,10 +5928,10 @@
         <v>264</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>441</v>
+        <v>125</v>
       </c>
       <c r="G22" s="31" t="s">
         <v>9</v>
@@ -5566,47 +5949,47 @@
         <v>9</v>
       </c>
       <c r="L22" s="27" t="str">
-        <f t="shared" ref="L22" si="39">CONCATENATE("", C22)</f>
+        <f t="shared" si="16"/>
         <v>Parede</v>
       </c>
       <c r="M22" s="27" t="str">
-        <f t="shared" ref="M22" si="40">CONCATENATE("", D22)</f>
+        <f t="shared" si="17"/>
         <v>Composição</v>
       </c>
       <c r="N22" s="27" t="str">
-        <f t="shared" ref="N22" si="41">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E22),"."," ")," De "," de "))</f>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" si="18"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="O22" s="22" t="str">
-        <f t="shared" ref="O22" si="42">F22</f>
-        <v>Tijolo.Laminado</v>
+        <f t="shared" si="19"/>
+        <v>Bloco.Estrutural</v>
       </c>
       <c r="P22" s="22" t="s">
-        <v>442</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="46" t="s">
-        <v>443</v>
+        <v>283</v>
       </c>
       <c r="R22" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S22" s="29" t="str">
-        <f t="shared" ref="S22" si="43">SUBSTITUTE(C22, ".", " ")</f>
+        <f t="shared" si="20"/>
         <v>Parede</v>
       </c>
       <c r="T22" s="29" t="str">
-        <f t="shared" ref="T22" si="44">SUBSTITUTE(D22, ".", " ")</f>
+        <f t="shared" si="21"/>
         <v>Composição</v>
       </c>
       <c r="U22" s="29" t="str">
-        <f t="shared" ref="U22" si="45">SUBSTITUTE(E22, ".", " ")</f>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" si="22"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="V22" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W22" s="1" t="str">
-        <f t="shared" ref="W22" si="46">CONCATENATE("Key-Pare-",A22)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-22</v>
       </c>
     </row>
@@ -5624,10 +6007,10 @@
         <v>264</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>344</v>
+        <v>124</v>
       </c>
       <c r="G23" s="31" t="s">
         <v>9</v>
@@ -5645,47 +6028,47 @@
         <v>9</v>
       </c>
       <c r="L23" s="27" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="16"/>
         <v>Parede</v>
       </c>
       <c r="M23" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>Composição</v>
       </c>
       <c r="N23" s="27" t="str">
-        <f t="shared" si="36"/>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" si="18"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="O23" s="22" t="str">
-        <f t="shared" si="37"/>
-        <v>Tijolo.Refratário</v>
-      </c>
-      <c r="P23" s="46" t="s">
-        <v>345</v>
+        <f t="shared" si="19"/>
+        <v>Bloco.Vedação</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>281</v>
       </c>
       <c r="Q23" s="46" t="s">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="R23" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S23" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>Parede</v>
       </c>
       <c r="T23" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="21"/>
         <v>Composição</v>
       </c>
       <c r="U23" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" si="22"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="V23" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W23" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-23</v>
       </c>
     </row>
@@ -5703,10 +6086,10 @@
         <v>264</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G24" s="31" t="s">
         <v>9</v>
@@ -5724,47 +6107,48 @@
         <v>9</v>
       </c>
       <c r="L24" s="27" t="str">
-        <f t="shared" ref="L24" si="47">CONCATENATE("", C24)</f>
+        <f t="shared" si="0"/>
         <v>Parede</v>
       </c>
       <c r="M24" s="27" t="str">
-        <f t="shared" ref="M24" si="48">CONCATENATE("", D24)</f>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N24" s="27" t="str">
-        <f t="shared" ref="N24" si="49">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E24),"."," ")," De "," de "))</f>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" ref="N24" si="23">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E24),"."," ")," De "," de "))</f>
+        <v>Bloco Gesso</v>
       </c>
       <c r="O24" s="22" t="str">
-        <f t="shared" ref="O24" si="50">F24</f>
-        <v>Bloco.Furado</v>
+        <f t="shared" ref="O24" si="24">F24</f>
+        <v>Bloco.Maciço</v>
       </c>
       <c r="P24" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q24" s="46" t="s">
-        <v>365</v>
+        <v>297</v>
+      </c>
+      <c r="Q24" s="46" t="str">
+        <f>_xlfn.TRANSLATE(P24,"pt","es")</f>
+        <v>Bloques de yeso macizo para paredes internas no portantes. Rapidez de ejecución y obtención de una pared limpia y lisa.</v>
       </c>
       <c r="R24" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S24" s="29" t="str">
-        <f t="shared" ref="S24" si="51">SUBSTITUTE(C24, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T24" s="29" t="str">
-        <f t="shared" ref="T24" si="52">SUBSTITUTE(D24, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U24" s="29" t="str">
-        <f t="shared" ref="U24" si="53">SUBSTITUTE(E24, ".", " ")</f>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" si="1"/>
+        <v>Bloco Gesso</v>
       </c>
       <c r="V24" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W24" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-24</v>
       </c>
     </row>
@@ -5782,10 +6166,10 @@
         <v>264</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>366</v>
+        <v>299</v>
       </c>
       <c r="G25" s="31" t="s">
         <v>9</v>
@@ -5803,47 +6187,48 @@
         <v>9</v>
       </c>
       <c r="L25" s="27" t="str">
-        <f t="shared" ref="L25" si="54">CONCATENATE("", C25)</f>
+        <f t="shared" ref="L25" si="25">CONCATENATE("", C25)</f>
         <v>Parede</v>
       </c>
       <c r="M25" s="27" t="str">
-        <f t="shared" ref="M25" si="55">CONCATENATE("", D25)</f>
+        <f t="shared" ref="M25" si="26">CONCATENATE("", D25)</f>
         <v>Composição</v>
       </c>
       <c r="N25" s="27" t="str">
-        <f t="shared" ref="N25" si="56">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E25),"."," ")," De "," de "))</f>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" ref="N25" si="27">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E25),"."," ")," De "," de "))</f>
+        <v>Bloco Gesso</v>
       </c>
       <c r="O25" s="22" t="str">
-        <f t="shared" ref="O25" si="57">F25</f>
-        <v>Ecológico</v>
+        <f t="shared" ref="O25" si="28">F25</f>
+        <v>Bloco.Alveolar</v>
       </c>
       <c r="P25" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q25" s="46" t="s">
-        <v>371</v>
+        <v>298</v>
+      </c>
+      <c r="Q25" s="46" t="str">
+        <f>_xlfn.TRANSLATE(P25,"pt","es")</f>
+        <v>Bloques de yeso huecos para paredes internas no portantes. Rapidez de ejecución y obtención de una pared limpia y lisa.</v>
       </c>
       <c r="R25" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S25" s="29" t="str">
-        <f t="shared" ref="S25" si="58">SUBSTITUTE(C25, ".", " ")</f>
+        <f t="shared" ref="S25" si="29">SUBSTITUTE(C25, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T25" s="29" t="str">
-        <f t="shared" ref="T25" si="59">SUBSTITUTE(D25, ".", " ")</f>
+        <f t="shared" ref="T25" si="30">SUBSTITUTE(D25, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U25" s="29" t="str">
-        <f t="shared" ref="U25" si="60">SUBSTITUTE(E25, ".", " ")</f>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" ref="U25" si="31">SUBSTITUTE(E25, ".", " ")</f>
+        <v>Bloco Gesso</v>
       </c>
       <c r="V25" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W25" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-25</v>
       </c>
     </row>
@@ -5864,7 +6249,7 @@
         <v>270</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G26" s="31" t="s">
         <v>9</v>
@@ -5882,47 +6267,47 @@
         <v>9</v>
       </c>
       <c r="L26" s="27" t="str">
-        <f t="shared" ref="L26:L76" si="61">CONCATENATE("", C26)</f>
+        <f t="shared" ref="L26:L28" si="32">CONCATENATE("", C26)</f>
         <v>Parede</v>
       </c>
       <c r="M26" s="27" t="str">
-        <f t="shared" ref="M26:M76" si="62">CONCATENATE("", D26)</f>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N26" s="27" t="str">
-        <f t="shared" ref="N26:N76" si="63">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E26),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N26:N28" si="33">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E26),"."," ")," De "," de "))</f>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="O26" s="22" t="str">
-        <f t="shared" ref="O26:O76" si="64">F26</f>
-        <v>Canaleta.J</v>
-      </c>
-      <c r="P26" s="22" t="s">
-        <v>427</v>
+        <f t="shared" ref="O26:O28" si="34">F26</f>
+        <v>Tijolo.Comúm</v>
+      </c>
+      <c r="P26" s="48" t="s">
+        <v>282</v>
       </c>
       <c r="Q26" s="46" t="s">
-        <v>142</v>
+        <v>285</v>
       </c>
       <c r="R26" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S26" s="29" t="str">
-        <f t="shared" ref="S26:S76" si="65">SUBSTITUTE(C26, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T26" s="29" t="str">
-        <f t="shared" ref="T26:T76" si="66">SUBSTITUTE(D26, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U26" s="29" t="str">
-        <f t="shared" ref="U26:U76" si="67">SUBSTITUTE(E26, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="V26" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W26" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-26</v>
       </c>
     </row>
@@ -5943,7 +6328,7 @@
         <v>270</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>107</v>
+        <v>441</v>
       </c>
       <c r="G27" s="31" t="s">
         <v>9</v>
@@ -5961,47 +6346,47 @@
         <v>9</v>
       </c>
       <c r="L27" s="27" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="L27" si="35">CONCATENATE("", C27)</f>
         <v>Parede</v>
       </c>
       <c r="M27" s="27" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="M27" si="36">CONCATENATE("", D27)</f>
         <v>Composição</v>
       </c>
       <c r="N27" s="27" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="N27" si="37">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E27),"."," ")," De "," de "))</f>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="O27" s="22" t="str">
-        <f t="shared" si="64"/>
-        <v>Canaleta.U</v>
+        <f t="shared" ref="O27" si="38">F27</f>
+        <v>Tijolo.Laminado</v>
       </c>
       <c r="P27" s="22" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="Q27" s="46" t="s">
-        <v>143</v>
+        <v>443</v>
       </c>
       <c r="R27" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S27" s="29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="S27" si="39">SUBSTITUTE(C27, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T27" s="29" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="T27" si="40">SUBSTITUTE(D27, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U27" s="29" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="U27" si="41">SUBSTITUTE(E27, ".", " ")</f>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="V27" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W27" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-27</v>
       </c>
     </row>
@@ -6019,10 +6404,10 @@
         <v>264</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="G28" s="31" t="s">
         <v>9</v>
@@ -6040,47 +6425,47 @@
         <v>9</v>
       </c>
       <c r="L28" s="27" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="32"/>
         <v>Parede</v>
       </c>
       <c r="M28" s="27" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N28" s="27" t="str">
-        <f t="shared" si="63"/>
-        <v>Bloco Translúcido</v>
+        <f t="shared" si="33"/>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="O28" s="22" t="str">
-        <f t="shared" si="64"/>
-        <v>Cobogô</v>
-      </c>
-      <c r="P28" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q28" s="22" t="s">
-        <v>367</v>
+        <f t="shared" si="34"/>
+        <v>Tijolo.Refratário</v>
+      </c>
+      <c r="P28" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q28" s="46" t="s">
+        <v>346</v>
       </c>
       <c r="R28" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S28" s="29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T28" s="29" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U28" s="29" t="str">
-        <f t="shared" si="67"/>
-        <v>Bloco Translúcido</v>
+        <f t="shared" si="1"/>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="V28" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W28" s="1" t="str">
-        <f t="shared" ref="W28" si="68">CONCATENATE("Key-Pare-",A28)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-28</v>
       </c>
     </row>
@@ -6098,10 +6483,10 @@
         <v>264</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="G29" s="31" t="s">
         <v>9</v>
@@ -6119,47 +6504,47 @@
         <v>9</v>
       </c>
       <c r="L29" s="27" t="str">
-        <f t="shared" ref="L29:L49" si="69">CONCATENATE("", C29)</f>
+        <f t="shared" ref="L29" si="42">CONCATENATE("", C29)</f>
         <v>Parede</v>
       </c>
       <c r="M29" s="27" t="str">
-        <f t="shared" ref="M29:M49" si="70">CONCATENATE("", D29)</f>
+        <f t="shared" ref="M29" si="43">CONCATENATE("", D29)</f>
         <v>Composição</v>
       </c>
       <c r="N29" s="27" t="str">
-        <f t="shared" ref="N29:N49" si="71">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E29),"."," ")," De "," de "))</f>
-        <v>Bloco Translúcido</v>
+        <f t="shared" ref="N29" si="44">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E29),"."," ")," De "," de "))</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="O29" s="22" t="str">
-        <f t="shared" ref="O29:O49" si="72">F29</f>
-        <v>Tijolo.Vidro</v>
+        <f t="shared" ref="O29" si="45">F29</f>
+        <v>Bloco.Furado</v>
       </c>
       <c r="P29" s="22" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q29" s="46" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="R29" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S29" s="29" t="str">
-        <f t="shared" ref="S29:S49" si="73">SUBSTITUTE(C29, ".", " ")</f>
+        <f t="shared" ref="S29" si="46">SUBSTITUTE(C29, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T29" s="29" t="str">
-        <f t="shared" ref="T29:T49" si="74">SUBSTITUTE(D29, ".", " ")</f>
+        <f t="shared" ref="T29" si="47">SUBSTITUTE(D29, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U29" s="29" t="str">
-        <f t="shared" ref="U29:U49" si="75">SUBSTITUTE(E29, ".", " ")</f>
-        <v>Bloco Translúcido</v>
+        <f t="shared" ref="U29" si="48">SUBSTITUTE(E29, ".", " ")</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="V29" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W29" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-29</v>
       </c>
     </row>
@@ -6177,10 +6562,10 @@
         <v>264</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>332</v>
+        <v>270</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="G30" s="31" t="s">
         <v>9</v>
@@ -6198,47 +6583,47 @@
         <v>9</v>
       </c>
       <c r="L30" s="27" t="str">
-        <f t="shared" ref="L30:L31" si="76">CONCATENATE("", C30)</f>
+        <f t="shared" ref="L30" si="49">CONCATENATE("", C30)</f>
         <v>Parede</v>
       </c>
       <c r="M30" s="27" t="str">
-        <f t="shared" ref="M30:M31" si="77">CONCATENATE("", D30)</f>
+        <f t="shared" ref="M30" si="50">CONCATENATE("", D30)</f>
         <v>Composição</v>
       </c>
       <c r="N30" s="27" t="str">
-        <f t="shared" ref="N30:N31" si="78">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E30),"."," ")," De "," de "))</f>
-        <v>Acabamento</v>
+        <f t="shared" ref="N30" si="51">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E30),"."," ")," De "," de "))</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="O30" s="22" t="str">
-        <f t="shared" ref="O30:O31" si="79">F30</f>
-        <v>Lambri</v>
-      </c>
-      <c r="P30" s="48" t="s">
-        <v>336</v>
+        <f t="shared" ref="O30" si="52">F30</f>
+        <v>Ecológico</v>
+      </c>
+      <c r="P30" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="Q30" s="46" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="R30" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S30" s="29" t="str">
-        <f t="shared" ref="S30:S31" si="80">SUBSTITUTE(C30, ".", " ")</f>
+        <f t="shared" ref="S30" si="53">SUBSTITUTE(C30, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T30" s="29" t="str">
-        <f t="shared" ref="T30:T31" si="81">SUBSTITUTE(D30, ".", " ")</f>
+        <f t="shared" ref="T30" si="54">SUBSTITUTE(D30, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U30" s="29" t="str">
-        <f t="shared" ref="U30:U31" si="82">SUBSTITUTE(E30, ".", " ")</f>
-        <v>Acabamento</v>
+        <f t="shared" ref="U30" si="55">SUBSTITUTE(E30, ".", " ")</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="V30" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W30" s="1" t="str">
-        <f t="shared" ref="W30:W31" si="83">CONCATENATE("Key-Pare-",A30)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-30</v>
       </c>
     </row>
@@ -6256,10 +6641,10 @@
         <v>264</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>333</v>
+        <v>270</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="G31" s="31" t="s">
         <v>9</v>
@@ -6277,47 +6662,47 @@
         <v>9</v>
       </c>
       <c r="L31" s="27" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="L31:L81" si="56">CONCATENATE("", C31)</f>
         <v>Parede</v>
       </c>
       <c r="M31" s="27" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="M31:M81" si="57">CONCATENATE("", D31)</f>
         <v>Composição</v>
       </c>
       <c r="N31" s="27" t="str">
-        <f t="shared" si="78"/>
-        <v>Acabamento</v>
+        <f t="shared" ref="N31:N81" si="58">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E31),"."," ")," De "," de "))</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="O31" s="22" t="str">
-        <f t="shared" si="79"/>
-        <v>Placa</v>
-      </c>
-      <c r="P31" s="48" t="s">
-        <v>337</v>
+        <f t="shared" ref="O31:O81" si="59">F31</f>
+        <v>Canaleta.J</v>
+      </c>
+      <c r="P31" s="22" t="s">
+        <v>427</v>
       </c>
       <c r="Q31" s="46" t="s">
-        <v>334</v>
+        <v>142</v>
       </c>
       <c r="R31" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S31" s="29" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="S31:S81" si="60">SUBSTITUTE(C31, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T31" s="29" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="T31:T81" si="61">SUBSTITUTE(D31, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U31" s="29" t="str">
-        <f t="shared" si="82"/>
-        <v>Acabamento</v>
+        <f t="shared" ref="U31:U81" si="62">SUBSTITUTE(E31, ".", " ")</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="V31" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W31" s="1" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-31</v>
       </c>
     </row>
@@ -6335,10 +6720,10 @@
         <v>264</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>498</v>
+        <v>270</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="G32" s="31" t="s">
         <v>9</v>
@@ -6356,47 +6741,47 @@
         <v>9</v>
       </c>
       <c r="L32" s="27" t="str">
-        <f t="shared" ref="L32" si="84">CONCATENATE("", C32)</f>
+        <f t="shared" si="56"/>
         <v>Parede</v>
       </c>
       <c r="M32" s="27" t="str">
-        <f t="shared" ref="M32" si="85">CONCATENATE("", D32)</f>
+        <f t="shared" si="57"/>
         <v>Composição</v>
       </c>
       <c r="N32" s="27" t="str">
-        <f t="shared" ref="N32" si="86">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E32),"."," ")," De "," de "))</f>
-        <v>Acabamento</v>
+        <f t="shared" si="58"/>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="O32" s="22" t="str">
-        <f t="shared" ref="O32" si="87">F32</f>
-        <v>Painel</v>
-      </c>
-      <c r="P32" s="48" t="s">
-        <v>499</v>
+        <f t="shared" si="59"/>
+        <v>Canaleta.U</v>
+      </c>
+      <c r="P32" s="22" t="s">
+        <v>426</v>
       </c>
       <c r="Q32" s="46" t="s">
-        <v>500</v>
+        <v>143</v>
       </c>
       <c r="R32" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S32" s="29" t="str">
-        <f t="shared" ref="S32" si="88">SUBSTITUTE(C32, ".", " ")</f>
+        <f t="shared" si="60"/>
         <v>Parede</v>
       </c>
       <c r="T32" s="29" t="str">
-        <f t="shared" ref="T32" si="89">SUBSTITUTE(D32, ".", " ")</f>
+        <f t="shared" si="61"/>
         <v>Composição</v>
       </c>
       <c r="U32" s="29" t="str">
-        <f t="shared" ref="U32" si="90">SUBSTITUTE(E32, ".", " ")</f>
-        <v>Acabamento</v>
+        <f t="shared" si="62"/>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="V32" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W32" s="1" t="str">
-        <f t="shared" ref="W32" si="91">CONCATENATE("Key-Pare-",A32)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-32</v>
       </c>
     </row>
@@ -6414,10 +6799,10 @@
         <v>264</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>323</v>
+        <v>338</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="G33" s="31" t="s">
         <v>9</v>
@@ -6435,47 +6820,47 @@
         <v>9</v>
       </c>
       <c r="L33" s="27" t="str">
-        <f t="shared" ref="L33:L38" si="92">CONCATENATE("", C33)</f>
+        <f t="shared" si="56"/>
         <v>Parede</v>
       </c>
       <c r="M33" s="27" t="str">
-        <f t="shared" ref="M33:M38" si="93">CONCATENATE("", D33)</f>
+        <f t="shared" si="57"/>
         <v>Composição</v>
       </c>
       <c r="N33" s="27" t="str">
-        <f t="shared" ref="N33:N38" si="94">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E33),"."," ")," De "," de "))</f>
-        <v>Acabamento</v>
+        <f t="shared" si="58"/>
+        <v>Bloco Translúcido</v>
       </c>
       <c r="O33" s="22" t="str">
-        <f t="shared" ref="O33:O38" si="95">F33</f>
-        <v>Azulejo</v>
-      </c>
-      <c r="P33" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q33" s="46" t="s">
-        <v>356</v>
+        <f t="shared" si="59"/>
+        <v>Cobogô</v>
+      </c>
+      <c r="P33" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q33" s="22" t="s">
+        <v>367</v>
       </c>
       <c r="R33" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S33" s="29" t="str">
-        <f t="shared" ref="S33:S38" si="96">SUBSTITUTE(C33, ".", " ")</f>
+        <f t="shared" si="60"/>
         <v>Parede</v>
       </c>
       <c r="T33" s="29" t="str">
-        <f t="shared" ref="T33:T38" si="97">SUBSTITUTE(D33, ".", " ")</f>
+        <f t="shared" si="61"/>
         <v>Composição</v>
       </c>
       <c r="U33" s="29" t="str">
-        <f t="shared" ref="U33:U38" si="98">SUBSTITUTE(E33, ".", " ")</f>
-        <v>Acabamento</v>
+        <f t="shared" si="62"/>
+        <v>Bloco Translúcido</v>
       </c>
       <c r="V33" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W33" s="1" t="str">
-        <f t="shared" ref="W33:W38" si="99">CONCATENATE("Key-Pare-",A33)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-33</v>
       </c>
     </row>
@@ -6493,10 +6878,10 @@
         <v>264</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>348</v>
+        <v>338</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="G34" s="31" t="s">
         <v>9</v>
@@ -6514,47 +6899,47 @@
         <v>9</v>
       </c>
       <c r="L34" s="27" t="str">
-        <f t="shared" ref="L34" si="100">CONCATENATE("", C34)</f>
+        <f t="shared" ref="L34:L54" si="63">CONCATENATE("", C34)</f>
         <v>Parede</v>
       </c>
       <c r="M34" s="27" t="str">
-        <f t="shared" ref="M34" si="101">CONCATENATE("", D34)</f>
+        <f t="shared" ref="M34:M54" si="64">CONCATENATE("", D34)</f>
         <v>Composição</v>
       </c>
       <c r="N34" s="27" t="str">
-        <f t="shared" ref="N34" si="102">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E34),"."," ")," De "," de "))</f>
-        <v>Acabamento</v>
+        <f t="shared" ref="N34:N54" si="65">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E34),"."," ")," De "," de "))</f>
+        <v>Bloco Translúcido</v>
       </c>
       <c r="O34" s="22" t="str">
-        <f t="shared" ref="O34" si="103">F34</f>
-        <v>Cerâmica</v>
-      </c>
-      <c r="P34" s="48" t="s">
-        <v>361</v>
+        <f t="shared" ref="O34:O54" si="66">F34</f>
+        <v>Tijolo.Vidro</v>
+      </c>
+      <c r="P34" s="22" t="s">
+        <v>369</v>
       </c>
       <c r="Q34" s="46" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="R34" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S34" s="29" t="str">
-        <f t="shared" ref="S34" si="104">SUBSTITUTE(C34, ".", " ")</f>
+        <f t="shared" ref="S34:S54" si="67">SUBSTITUTE(C34, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T34" s="29" t="str">
-        <f t="shared" ref="T34" si="105">SUBSTITUTE(D34, ".", " ")</f>
+        <f t="shared" ref="T34:T54" si="68">SUBSTITUTE(D34, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U34" s="29" t="str">
-        <f t="shared" ref="U34" si="106">SUBSTITUTE(E34, ".", " ")</f>
-        <v>Acabamento</v>
+        <f t="shared" ref="U34:U54" si="69">SUBSTITUTE(E34, ".", " ")</f>
+        <v>Bloco Translúcido</v>
       </c>
       <c r="V34" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W34" s="1" t="str">
-        <f t="shared" ref="W34" si="107">CONCATENATE("Key-Pare-",A34)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-34</v>
       </c>
     </row>
@@ -6575,7 +6960,7 @@
         <v>322</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G35" s="31" t="s">
         <v>9</v>
@@ -6593,47 +6978,47 @@
         <v>9</v>
       </c>
       <c r="L35" s="27" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" ref="L35:L36" si="70">CONCATENATE("", C35)</f>
         <v>Parede</v>
       </c>
       <c r="M35" s="27" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" ref="M35:M36" si="71">CONCATENATE("", D35)</f>
         <v>Composição</v>
       </c>
       <c r="N35" s="27" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" ref="N35:N36" si="72">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E35),"."," ")," De "," de "))</f>
         <v>Acabamento</v>
       </c>
       <c r="O35" s="22" t="str">
-        <f t="shared" si="95"/>
-        <v>Porcelanato</v>
+        <f t="shared" ref="O35:O36" si="73">F35</f>
+        <v>Lambri</v>
       </c>
       <c r="P35" s="48" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="Q35" s="46" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="R35" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S35" s="29" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="S35:S36" si="74">SUBSTITUTE(C35, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T35" s="29" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" ref="T35:T36" si="75">SUBSTITUTE(D35, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U35" s="29" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="U35:U36" si="76">SUBSTITUTE(E35, ".", " ")</f>
         <v>Acabamento</v>
       </c>
       <c r="V35" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W35" s="1" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-35</v>
       </c>
     </row>
@@ -6654,7 +7039,7 @@
         <v>322</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>465</v>
+        <v>333</v>
       </c>
       <c r="G36" s="31" t="s">
         <v>9</v>
@@ -6672,47 +7057,47 @@
         <v>9</v>
       </c>
       <c r="L36" s="27" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="70"/>
         <v>Parede</v>
       </c>
       <c r="M36" s="27" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="71"/>
         <v>Composição</v>
       </c>
       <c r="N36" s="27" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="72"/>
         <v>Acabamento</v>
       </c>
       <c r="O36" s="22" t="str">
-        <f t="shared" si="95"/>
-        <v>Ventilada</v>
+        <f t="shared" si="73"/>
+        <v>Placa</v>
       </c>
       <c r="P36" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q36" s="48" t="s">
-        <v>467</v>
+        <v>337</v>
+      </c>
+      <c r="Q36" s="46" t="s">
+        <v>334</v>
       </c>
       <c r="R36" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S36" s="29" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="74"/>
         <v>Parede</v>
       </c>
       <c r="T36" s="29" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="75"/>
         <v>Composição</v>
       </c>
       <c r="U36" s="29" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="76"/>
         <v>Acabamento</v>
       </c>
       <c r="V36" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W36" s="1" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-36</v>
       </c>
     </row>
@@ -6733,7 +7118,7 @@
         <v>322</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>324</v>
+        <v>498</v>
       </c>
       <c r="G37" s="31" t="s">
         <v>9</v>
@@ -6751,47 +7136,47 @@
         <v>9</v>
       </c>
       <c r="L37" s="27" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" ref="L37" si="77">CONCATENATE("", C37)</f>
         <v>Parede</v>
       </c>
       <c r="M37" s="27" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" ref="M37" si="78">CONCATENATE("", D37)</f>
         <v>Composição</v>
       </c>
       <c r="N37" s="27" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" ref="N37" si="79">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E37),"."," ")," De "," de "))</f>
         <v>Acabamento</v>
       </c>
       <c r="O37" s="22" t="str">
-        <f t="shared" si="95"/>
-        <v>Ladrilho</v>
+        <f t="shared" ref="O37" si="80">F37</f>
+        <v>Painel</v>
       </c>
       <c r="P37" s="48" t="s">
-        <v>363</v>
+        <v>499</v>
       </c>
       <c r="Q37" s="46" t="s">
-        <v>358</v>
+        <v>500</v>
       </c>
       <c r="R37" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S37" s="29" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="S37" si="81">SUBSTITUTE(C37, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T37" s="29" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" ref="T37" si="82">SUBSTITUTE(D37, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U37" s="29" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="U37" si="83">SUBSTITUTE(E37, ".", " ")</f>
         <v>Acabamento</v>
       </c>
       <c r="V37" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W37" s="1" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-37</v>
       </c>
     </row>
@@ -6812,7 +7197,7 @@
         <v>322</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="G38" s="31" t="s">
         <v>9</v>
@@ -6830,47 +7215,47 @@
         <v>9</v>
       </c>
       <c r="L38" s="27" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" ref="L38:L43" si="84">CONCATENATE("", C38)</f>
         <v>Parede</v>
       </c>
       <c r="M38" s="27" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" ref="M38:M43" si="85">CONCATENATE("", D38)</f>
         <v>Composição</v>
       </c>
       <c r="N38" s="27" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" ref="N38:N43" si="86">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E38),"."," ")," De "," de "))</f>
         <v>Acabamento</v>
       </c>
       <c r="O38" s="22" t="str">
-        <f t="shared" si="95"/>
-        <v>Primer</v>
+        <f t="shared" ref="O38:O43" si="87">F38</f>
+        <v>Azulejo</v>
       </c>
       <c r="P38" s="48" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="Q38" s="46" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="R38" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S38" s="29" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="S38:S43" si="88">SUBSTITUTE(C38, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T38" s="29" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" ref="T38:T43" si="89">SUBSTITUTE(D38, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U38" s="29" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="U38:U43" si="90">SUBSTITUTE(E38, ".", " ")</f>
         <v>Acabamento</v>
       </c>
       <c r="V38" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W38" s="1" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-38</v>
       </c>
     </row>
@@ -6891,7 +7276,7 @@
         <v>322</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G39" s="31" t="s">
         <v>9</v>
@@ -6909,47 +7294,47 @@
         <v>9</v>
       </c>
       <c r="L39" s="27" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="L39" si="91">CONCATENATE("", C39)</f>
         <v>Parede</v>
       </c>
       <c r="M39" s="27" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="M39" si="92">CONCATENATE("", D39)</f>
         <v>Composição</v>
       </c>
       <c r="N39" s="27" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="N39" si="93">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E39),"."," ")," De "," de "))</f>
         <v>Acabamento</v>
       </c>
       <c r="O39" s="22" t="str">
-        <f t="shared" si="72"/>
-        <v>Pintura</v>
+        <f t="shared" ref="O39" si="94">F39</f>
+        <v>Cerâmica</v>
       </c>
       <c r="P39" s="48" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="Q39" s="46" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="R39" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S39" s="29" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="S39" si="95">SUBSTITUTE(C39, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T39" s="29" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="T39" si="96">SUBSTITUTE(D39, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U39" s="29" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="U39" si="97">SUBSTITUTE(E39, ".", " ")</f>
         <v>Acabamento</v>
       </c>
       <c r="V39" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W39" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-39</v>
       </c>
     </row>
@@ -6964,13 +7349,13 @@
         <v>267</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>9</v>
@@ -6988,47 +7373,47 @@
         <v>9</v>
       </c>
       <c r="L40" s="27" t="str">
-        <f t="shared" ref="L40" si="108">CONCATENATE("", C40)</f>
+        <f t="shared" si="84"/>
         <v>Parede</v>
       </c>
       <c r="M40" s="27" t="str">
-        <f t="shared" ref="M40" si="109">CONCATENATE("", D40)</f>
-        <v>Levantada</v>
+        <f t="shared" si="85"/>
+        <v>Composição</v>
       </c>
       <c r="N40" s="27" t="str">
-        <f t="shared" ref="N40" si="110">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E40),"."," ")," De "," de "))</f>
-        <v>Moldada InLoco</v>
+        <f t="shared" si="86"/>
+        <v>Acabamento</v>
       </c>
       <c r="O40" s="22" t="str">
-        <f t="shared" ref="O40" si="111">F40</f>
-        <v>Muro</v>
+        <f t="shared" si="87"/>
+        <v>Porcelanato</v>
       </c>
       <c r="P40" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q40" s="48" t="s">
-        <v>320</v>
+        <v>360</v>
+      </c>
+      <c r="Q40" s="46" t="s">
+        <v>359</v>
       </c>
       <c r="R40" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S40" s="29" t="str">
-        <f t="shared" ref="S40" si="112">SUBSTITUTE(C40, ".", " ")</f>
+        <f t="shared" si="88"/>
         <v>Parede</v>
       </c>
       <c r="T40" s="29" t="str">
-        <f t="shared" ref="T40" si="113">SUBSTITUTE(D40, ".", " ")</f>
-        <v>Levantada</v>
+        <f t="shared" si="89"/>
+        <v>Composição</v>
       </c>
       <c r="U40" s="29" t="str">
-        <f t="shared" ref="U40" si="114">SUBSTITUTE(E40, ".", " ")</f>
-        <v>Moldada InLoco</v>
+        <f t="shared" si="90"/>
+        <v>Acabamento</v>
       </c>
       <c r="V40" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W40" s="1" t="str">
-        <f t="shared" ref="W40" si="115">CONCATENATE("Key-Pare-",A40)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-40</v>
       </c>
     </row>
@@ -7043,13 +7428,13 @@
         <v>267</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>290</v>
+        <v>465</v>
       </c>
       <c r="G41" s="31" t="s">
         <v>9</v>
@@ -7067,47 +7452,47 @@
         <v>9</v>
       </c>
       <c r="L41" s="27" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="84"/>
         <v>Parede</v>
       </c>
       <c r="M41" s="27" t="str">
-        <f t="shared" si="70"/>
-        <v>Levantada</v>
+        <f t="shared" si="85"/>
+        <v>Composição</v>
       </c>
       <c r="N41" s="27" t="str">
-        <f t="shared" si="71"/>
-        <v>Assentada</v>
+        <f t="shared" si="86"/>
+        <v>Acabamento</v>
       </c>
       <c r="O41" s="22" t="str">
-        <f t="shared" si="72"/>
-        <v>Interna</v>
+        <f t="shared" si="87"/>
+        <v>Ventilada</v>
       </c>
       <c r="P41" s="48" t="s">
-        <v>315</v>
+        <v>466</v>
       </c>
       <c r="Q41" s="48" t="s">
-        <v>318</v>
+        <v>467</v>
       </c>
       <c r="R41" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S41" s="29" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="88"/>
         <v>Parede</v>
       </c>
       <c r="T41" s="29" t="str">
-        <f t="shared" si="74"/>
-        <v>Levantada</v>
+        <f t="shared" si="89"/>
+        <v>Composição</v>
       </c>
       <c r="U41" s="29" t="str">
-        <f t="shared" si="75"/>
-        <v>Assentada</v>
+        <f t="shared" si="90"/>
+        <v>Acabamento</v>
       </c>
       <c r="V41" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W41" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-41</v>
       </c>
     </row>
@@ -7122,13 +7507,13 @@
         <v>267</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="G42" s="31" t="s">
         <v>9</v>
@@ -7146,47 +7531,47 @@
         <v>9</v>
       </c>
       <c r="L42" s="27" t="str">
-        <f t="shared" ref="L42" si="116">CONCATENATE("", C42)</f>
+        <f t="shared" si="84"/>
         <v>Parede</v>
       </c>
       <c r="M42" s="27" t="str">
-        <f t="shared" ref="M42" si="117">CONCATENATE("", D42)</f>
-        <v>Levantada</v>
+        <f t="shared" si="85"/>
+        <v>Composição</v>
       </c>
       <c r="N42" s="27" t="str">
-        <f t="shared" ref="N42" si="118">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E42),"."," ")," De "," de "))</f>
-        <v>Assentada</v>
+        <f t="shared" si="86"/>
+        <v>Acabamento</v>
       </c>
       <c r="O42" s="22" t="str">
-        <f t="shared" ref="O42" si="119">F42</f>
-        <v>Externa</v>
+        <f t="shared" si="87"/>
+        <v>Ladrilho</v>
       </c>
       <c r="P42" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q42" s="48" t="s">
-        <v>319</v>
+        <v>363</v>
+      </c>
+      <c r="Q42" s="46" t="s">
+        <v>358</v>
       </c>
       <c r="R42" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S42" s="29" t="str">
-        <f t="shared" ref="S42" si="120">SUBSTITUTE(C42, ".", " ")</f>
+        <f t="shared" si="88"/>
         <v>Parede</v>
       </c>
       <c r="T42" s="29" t="str">
-        <f t="shared" ref="T42" si="121">SUBSTITUTE(D42, ".", " ")</f>
-        <v>Levantada</v>
+        <f t="shared" si="89"/>
+        <v>Composição</v>
       </c>
       <c r="U42" s="29" t="str">
-        <f t="shared" ref="U42" si="122">SUBSTITUTE(E42, ".", " ")</f>
-        <v>Assentada</v>
+        <f t="shared" si="90"/>
+        <v>Acabamento</v>
       </c>
       <c r="V42" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W42" s="1" t="str">
-        <f t="shared" ref="W42" si="123">CONCATENATE("Key-Pare-",A42)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-42</v>
       </c>
     </row>
@@ -7201,13 +7586,13 @@
         <v>267</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>262</v>
+        <v>322</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>350</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>9</v>
@@ -7225,47 +7610,47 @@
         <v>9</v>
       </c>
       <c r="L43" s="27" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="84"/>
         <v>Parede</v>
       </c>
       <c r="M43" s="27" t="str">
-        <f t="shared" si="70"/>
-        <v>Levantada</v>
+        <f t="shared" si="85"/>
+        <v>Composição</v>
       </c>
       <c r="N43" s="27" t="str">
-        <f t="shared" si="71"/>
-        <v>Montada</v>
+        <f t="shared" si="86"/>
+        <v>Acabamento</v>
       </c>
       <c r="O43" s="22" t="str">
-        <f t="shared" si="72"/>
-        <v>de.Drywall</v>
-      </c>
-      <c r="P43" s="22" t="s">
-        <v>99</v>
+        <f t="shared" si="87"/>
+        <v>Primer</v>
+      </c>
+      <c r="P43" s="48" t="s">
+        <v>352</v>
       </c>
       <c r="Q43" s="46" t="s">
-        <v>141</v>
+        <v>354</v>
       </c>
       <c r="R43" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S43" s="29" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="88"/>
         <v>Parede</v>
       </c>
       <c r="T43" s="29" t="str">
-        <f t="shared" si="74"/>
-        <v>Levantada</v>
+        <f t="shared" si="89"/>
+        <v>Composição</v>
       </c>
       <c r="U43" s="29" t="str">
-        <f t="shared" si="75"/>
-        <v>Montada</v>
+        <f t="shared" si="90"/>
+        <v>Acabamento</v>
       </c>
       <c r="V43" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W43" s="1" t="str">
-        <f t="shared" ref="W43:W49" si="124">CONCATENATE("Key-Pare-",A43)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-43</v>
       </c>
     </row>
@@ -7280,13 +7665,13 @@
         <v>267</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>263</v>
+        <v>322</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>351</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>9</v>
@@ -7304,47 +7689,47 @@
         <v>9</v>
       </c>
       <c r="L44" s="27" t="str">
+        <f t="shared" si="63"/>
+        <v>Parede</v>
+      </c>
+      <c r="M44" s="27" t="str">
+        <f t="shared" si="64"/>
+        <v>Composição</v>
+      </c>
+      <c r="N44" s="27" t="str">
+        <f t="shared" si="65"/>
+        <v>Acabamento</v>
+      </c>
+      <c r="O44" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>Pintura</v>
+      </c>
+      <c r="P44" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q44" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="R44" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S44" s="29" t="str">
+        <f t="shared" si="67"/>
+        <v>Parede</v>
+      </c>
+      <c r="T44" s="29" t="str">
+        <f t="shared" si="68"/>
+        <v>Composição</v>
+      </c>
+      <c r="U44" s="29" t="str">
         <f t="shared" si="69"/>
-        <v>Parede</v>
-      </c>
-      <c r="M44" s="27" t="str">
-        <f t="shared" si="70"/>
-        <v>Levantada</v>
-      </c>
-      <c r="N44" s="27" t="str">
-        <f t="shared" si="71"/>
-        <v>Montada</v>
-      </c>
-      <c r="O44" s="22" t="str">
-        <f t="shared" si="72"/>
-        <v>de.Drywall.Acústico</v>
-      </c>
-      <c r="P44" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q44" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="R44" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S44" s="29" t="str">
-        <f t="shared" si="73"/>
-        <v>Parede</v>
-      </c>
-      <c r="T44" s="29" t="str">
-        <f t="shared" si="74"/>
-        <v>Levantada</v>
-      </c>
-      <c r="U44" s="29" t="str">
-        <f t="shared" si="75"/>
-        <v>Montada</v>
+        <v>Acabamento</v>
       </c>
       <c r="V44" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W44" s="1" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-44</v>
       </c>
     </row>
@@ -7362,10 +7747,10 @@
         <v>271</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>287</v>
+        <v>312</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>310</v>
       </c>
       <c r="G45" s="31" t="s">
         <v>9</v>
@@ -7383,47 +7768,47 @@
         <v>9</v>
       </c>
       <c r="L45" s="27" t="str">
-        <f t="shared" ref="L45" si="125">CONCATENATE("", C45)</f>
+        <f t="shared" ref="L45" si="98">CONCATENATE("", C45)</f>
         <v>Parede</v>
       </c>
       <c r="M45" s="27" t="str">
-        <f t="shared" ref="M45" si="126">CONCATENATE("", D45)</f>
+        <f t="shared" ref="M45" si="99">CONCATENATE("", D45)</f>
         <v>Levantada</v>
       </c>
       <c r="N45" s="27" t="str">
-        <f t="shared" ref="N45" si="127">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E45),"."," ")," De "," de "))</f>
-        <v>Montada</v>
+        <f t="shared" ref="N45" si="100">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E45),"."," ")," De "," de "))</f>
+        <v>Moldada InLoco</v>
       </c>
       <c r="O45" s="22" t="str">
-        <f t="shared" ref="O45" si="128">F45</f>
-        <v>de.Fachada</v>
-      </c>
-      <c r="P45" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q45" s="22" t="s">
-        <v>289</v>
+        <f t="shared" ref="O45" si="101">F45</f>
+        <v>Muro</v>
+      </c>
+      <c r="P45" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q45" s="48" t="s">
+        <v>320</v>
       </c>
       <c r="R45" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S45" s="29" t="str">
-        <f t="shared" ref="S45" si="129">SUBSTITUTE(C45, ".", " ")</f>
+        <f t="shared" ref="S45" si="102">SUBSTITUTE(C45, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T45" s="29" t="str">
-        <f t="shared" ref="T45" si="130">SUBSTITUTE(D45, ".", " ")</f>
+        <f t="shared" ref="T45" si="103">SUBSTITUTE(D45, ".", " ")</f>
         <v>Levantada</v>
       </c>
       <c r="U45" s="29" t="str">
-        <f t="shared" ref="U45" si="131">SUBSTITUTE(E45, ".", " ")</f>
-        <v>Montada</v>
+        <f t="shared" ref="U45" si="104">SUBSTITUTE(E45, ".", " ")</f>
+        <v>Moldada InLoco</v>
       </c>
       <c r="V45" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W45" s="1" t="str">
-        <f t="shared" ref="W45" si="132">CONCATENATE("Key-Pare-",A45)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-45</v>
       </c>
     </row>
@@ -7441,10 +7826,10 @@
         <v>271</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>290</v>
       </c>
       <c r="G46" s="31" t="s">
         <v>9</v>
@@ -7462,47 +7847,47 @@
         <v>9</v>
       </c>
       <c r="L46" s="27" t="str">
+        <f t="shared" si="63"/>
+        <v>Parede</v>
+      </c>
+      <c r="M46" s="27" t="str">
+        <f t="shared" si="64"/>
+        <v>Levantada</v>
+      </c>
+      <c r="N46" s="27" t="str">
+        <f t="shared" si="65"/>
+        <v>Assentada</v>
+      </c>
+      <c r="O46" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>Interna</v>
+      </c>
+      <c r="P46" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q46" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="R46" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S46" s="29" t="str">
+        <f t="shared" si="67"/>
+        <v>Parede</v>
+      </c>
+      <c r="T46" s="29" t="str">
+        <f t="shared" si="68"/>
+        <v>Levantada</v>
+      </c>
+      <c r="U46" s="29" t="str">
         <f t="shared" si="69"/>
-        <v>Parede</v>
-      </c>
-      <c r="M46" s="27" t="str">
-        <f t="shared" si="70"/>
-        <v>Levantada</v>
-      </c>
-      <c r="N46" s="27" t="str">
-        <f t="shared" si="71"/>
-        <v>Montada</v>
-      </c>
-      <c r="O46" s="22" t="str">
-        <f t="shared" si="72"/>
-        <v>de.Vidro</v>
-      </c>
-      <c r="P46" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q46" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="R46" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S46" s="29" t="str">
-        <f t="shared" si="73"/>
-        <v>Parede</v>
-      </c>
-      <c r="T46" s="29" t="str">
-        <f t="shared" si="74"/>
-        <v>Levantada</v>
-      </c>
-      <c r="U46" s="29" t="str">
-        <f t="shared" si="75"/>
-        <v>Montada</v>
+        <v>Assentada</v>
       </c>
       <c r="V46" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W46" s="1" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-46</v>
       </c>
     </row>
@@ -7520,10 +7905,10 @@
         <v>271</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>259</v>
+        <v>265</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>291</v>
       </c>
       <c r="G47" s="31" t="s">
         <v>9</v>
@@ -7541,47 +7926,47 @@
         <v>9</v>
       </c>
       <c r="L47" s="27" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="L47" si="105">CONCATENATE("", C47)</f>
         <v>Parede</v>
       </c>
       <c r="M47" s="27" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="M47" si="106">CONCATENATE("", D47)</f>
         <v>Levantada</v>
       </c>
       <c r="N47" s="27" t="str">
-        <f t="shared" si="71"/>
-        <v>Montada</v>
+        <f t="shared" ref="N47" si="107">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E47),"."," ")," De "," de "))</f>
+        <v>Assentada</v>
       </c>
       <c r="O47" s="22" t="str">
-        <f t="shared" si="72"/>
-        <v>de.Gesso</v>
-      </c>
-      <c r="P47" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q47" s="46" t="s">
-        <v>329</v>
+        <f t="shared" ref="O47" si="108">F47</f>
+        <v>Externa</v>
+      </c>
+      <c r="P47" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q47" s="48" t="s">
+        <v>319</v>
       </c>
       <c r="R47" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S47" s="29" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="S47" si="109">SUBSTITUTE(C47, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T47" s="29" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="T47" si="110">SUBSTITUTE(D47, ".", " ")</f>
         <v>Levantada</v>
       </c>
       <c r="U47" s="29" t="str">
-        <f t="shared" si="75"/>
-        <v>Montada</v>
+        <f t="shared" ref="U47" si="111">SUBSTITUTE(E47, ".", " ")</f>
+        <v>Assentada</v>
       </c>
       <c r="V47" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W47" s="1" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-47</v>
       </c>
     </row>
@@ -7602,7 +7987,7 @@
         <v>272</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>9</v>
@@ -7620,47 +8005,47 @@
         <v>9</v>
       </c>
       <c r="L48" s="27" t="str">
+        <f t="shared" si="63"/>
+        <v>Parede</v>
+      </c>
+      <c r="M48" s="27" t="str">
+        <f t="shared" si="64"/>
+        <v>Levantada</v>
+      </c>
+      <c r="N48" s="27" t="str">
+        <f t="shared" si="65"/>
+        <v>Montada</v>
+      </c>
+      <c r="O48" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>de.Drywall</v>
+      </c>
+      <c r="P48" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q48" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="R48" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S48" s="29" t="str">
+        <f t="shared" si="67"/>
+        <v>Parede</v>
+      </c>
+      <c r="T48" s="29" t="str">
+        <f t="shared" si="68"/>
+        <v>Levantada</v>
+      </c>
+      <c r="U48" s="29" t="str">
         <f t="shared" si="69"/>
-        <v>Parede</v>
-      </c>
-      <c r="M48" s="27" t="str">
-        <f t="shared" si="70"/>
-        <v>Levantada</v>
-      </c>
-      <c r="N48" s="27" t="str">
-        <f t="shared" si="71"/>
-        <v>Montada</v>
-      </c>
-      <c r="O48" s="22" t="str">
-        <f t="shared" si="72"/>
-        <v>de.Eucatex</v>
-      </c>
-      <c r="P48" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q48" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="R48" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S48" s="29" t="str">
-        <f t="shared" si="73"/>
-        <v>Parede</v>
-      </c>
-      <c r="T48" s="29" t="str">
-        <f t="shared" si="74"/>
-        <v>Levantada</v>
-      </c>
-      <c r="U48" s="29" t="str">
-        <f t="shared" si="75"/>
         <v>Montada</v>
       </c>
       <c r="V48" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W48" s="1" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-48</v>
       </c>
     </row>
@@ -7681,7 +8066,7 @@
         <v>272</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G49" s="31" t="s">
         <v>9</v>
@@ -7699,47 +8084,47 @@
         <v>9</v>
       </c>
       <c r="L49" s="27" t="str">
+        <f t="shared" si="63"/>
+        <v>Parede</v>
+      </c>
+      <c r="M49" s="27" t="str">
+        <f t="shared" si="64"/>
+        <v>Levantada</v>
+      </c>
+      <c r="N49" s="27" t="str">
+        <f t="shared" si="65"/>
+        <v>Montada</v>
+      </c>
+      <c r="O49" s="22" t="str">
+        <f t="shared" si="66"/>
+        <v>de.Drywall.Acústico</v>
+      </c>
+      <c r="P49" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q49" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="R49" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S49" s="29" t="str">
+        <f t="shared" si="67"/>
+        <v>Parede</v>
+      </c>
+      <c r="T49" s="29" t="str">
+        <f t="shared" si="68"/>
+        <v>Levantada</v>
+      </c>
+      <c r="U49" s="29" t="str">
         <f t="shared" si="69"/>
-        <v>Parede</v>
-      </c>
-      <c r="M49" s="27" t="str">
-        <f t="shared" si="70"/>
-        <v>Levantada</v>
-      </c>
-      <c r="N49" s="27" t="str">
-        <f t="shared" si="71"/>
-        <v>Montada</v>
-      </c>
-      <c r="O49" s="22" t="str">
-        <f t="shared" si="72"/>
-        <v>de.Sanitário</v>
-      </c>
-      <c r="P49" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q49" s="46" t="s">
-        <v>330</v>
-      </c>
-      <c r="R49" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S49" s="29" t="str">
-        <f t="shared" si="73"/>
-        <v>Parede</v>
-      </c>
-      <c r="T49" s="29" t="str">
-        <f t="shared" si="74"/>
-        <v>Levantada</v>
-      </c>
-      <c r="U49" s="29" t="str">
-        <f t="shared" si="75"/>
         <v>Montada</v>
       </c>
       <c r="V49" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W49" s="1" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-49</v>
       </c>
     </row>
@@ -7750,17 +8135,17 @@
       <c r="B50" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>96</v>
+      <c r="C50" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="G50" s="31" t="s">
         <v>9</v>
@@ -7778,47 +8163,47 @@
         <v>9</v>
       </c>
       <c r="L50" s="27" t="str">
-        <f t="shared" si="61"/>
-        <v>Divisória</v>
+        <f t="shared" ref="L50" si="112">CONCATENATE("", C50)</f>
+        <v>Parede</v>
       </c>
       <c r="M50" s="27" t="str">
-        <f t="shared" si="62"/>
-        <v>Parte</v>
+        <f t="shared" ref="M50" si="113">CONCATENATE("", D50)</f>
+        <v>Levantada</v>
       </c>
       <c r="N50" s="27" t="str">
-        <f t="shared" si="63"/>
-        <v>Chapa</v>
+        <f t="shared" ref="N50" si="114">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E50),"."," ")," De "," de "))</f>
+        <v>Montada</v>
       </c>
       <c r="O50" s="22" t="str">
-        <f t="shared" si="64"/>
-        <v>Eucatex</v>
-      </c>
-      <c r="P50" s="48" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q50" s="46" t="s">
-        <v>168</v>
+        <f t="shared" ref="O50" si="115">F50</f>
+        <v>de.Fachada</v>
+      </c>
+      <c r="P50" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q50" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="R50" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S50" s="29" t="str">
-        <f t="shared" si="65"/>
-        <v>Divisória</v>
+        <f t="shared" ref="S50" si="116">SUBSTITUTE(C50, ".", " ")</f>
+        <v>Parede</v>
       </c>
       <c r="T50" s="29" t="str">
-        <f t="shared" si="66"/>
-        <v>Parte</v>
+        <f t="shared" ref="T50" si="117">SUBSTITUTE(D50, ".", " ")</f>
+        <v>Levantada</v>
       </c>
       <c r="U50" s="29" t="str">
-        <f t="shared" si="67"/>
-        <v>Chapa</v>
+        <f t="shared" ref="U50" si="118">SUBSTITUTE(E50, ".", " ")</f>
+        <v>Montada</v>
       </c>
       <c r="V50" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W50" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-50</v>
       </c>
     </row>
@@ -7829,17 +8214,17 @@
       <c r="B51" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>96</v>
+      <c r="C51" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>327</v>
+        <v>258</v>
       </c>
       <c r="G51" s="31" t="s">
         <v>9</v>
@@ -7857,47 +8242,47 @@
         <v>9</v>
       </c>
       <c r="L51" s="27" t="str">
-        <f t="shared" si="61"/>
-        <v>Divisória</v>
+        <f t="shared" si="63"/>
+        <v>Parede</v>
       </c>
       <c r="M51" s="27" t="str">
-        <f t="shared" si="62"/>
-        <v>Parte</v>
+        <f t="shared" si="64"/>
+        <v>Levantada</v>
       </c>
       <c r="N51" s="27" t="str">
-        <f t="shared" si="63"/>
-        <v>Chapa</v>
+        <f t="shared" si="65"/>
+        <v>Montada</v>
       </c>
       <c r="O51" s="22" t="str">
-        <f t="shared" si="64"/>
-        <v>Metálica</v>
-      </c>
-      <c r="P51" s="48" t="s">
-        <v>167</v>
+        <f t="shared" si="66"/>
+        <v>de.Vidro</v>
+      </c>
+      <c r="P51" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="Q51" s="46" t="s">
-        <v>168</v>
+        <v>328</v>
       </c>
       <c r="R51" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S51" s="29" t="str">
-        <f t="shared" si="65"/>
-        <v>Divisória</v>
+        <f t="shared" si="67"/>
+        <v>Parede</v>
       </c>
       <c r="T51" s="29" t="str">
-        <f t="shared" si="66"/>
-        <v>Parte</v>
+        <f t="shared" si="68"/>
+        <v>Levantada</v>
       </c>
       <c r="U51" s="29" t="str">
-        <f t="shared" si="67"/>
-        <v>Chapa</v>
+        <f t="shared" si="69"/>
+        <v>Montada</v>
       </c>
       <c r="V51" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W51" s="1" t="str">
-        <f t="shared" ref="W51" si="133">CONCATENATE("Key-Pare-",A51)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-51</v>
       </c>
     </row>
@@ -7908,17 +8293,17 @@
       <c r="B52" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>96</v>
+      <c r="C52" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="G52" s="31" t="s">
         <v>9</v>
@@ -7936,47 +8321,47 @@
         <v>9</v>
       </c>
       <c r="L52" s="27" t="str">
-        <f t="shared" ref="L52" si="134">CONCATENATE("", C52)</f>
-        <v>Divisória</v>
+        <f t="shared" si="63"/>
+        <v>Parede</v>
       </c>
       <c r="M52" s="27" t="str">
-        <f t="shared" ref="M52" si="135">CONCATENATE("", D52)</f>
-        <v>Parte</v>
+        <f t="shared" si="64"/>
+        <v>Levantada</v>
       </c>
       <c r="N52" s="27" t="str">
-        <f t="shared" ref="N52" si="136">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E52),"."," ")," De "," de "))</f>
-        <v>Chapa</v>
+        <f t="shared" si="65"/>
+        <v>Montada</v>
       </c>
       <c r="O52" s="22" t="str">
-        <f t="shared" ref="O52" si="137">F52</f>
-        <v>Alumínio.Composto</v>
-      </c>
-      <c r="P52" s="48" t="s">
-        <v>167</v>
+        <f t="shared" si="66"/>
+        <v>de.Gesso</v>
+      </c>
+      <c r="P52" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="Q52" s="46" t="s">
-        <v>168</v>
+        <v>329</v>
       </c>
       <c r="R52" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S52" s="29" t="str">
-        <f t="shared" ref="S52" si="138">SUBSTITUTE(C52, ".", " ")</f>
-        <v>Divisória</v>
+        <f t="shared" si="67"/>
+        <v>Parede</v>
       </c>
       <c r="T52" s="29" t="str">
-        <f t="shared" ref="T52" si="139">SUBSTITUTE(D52, ".", " ")</f>
-        <v>Parte</v>
+        <f t="shared" si="68"/>
+        <v>Levantada</v>
       </c>
       <c r="U52" s="29" t="str">
-        <f t="shared" ref="U52" si="140">SUBSTITUTE(E52, ".", " ")</f>
-        <v>Chapa</v>
+        <f t="shared" si="69"/>
+        <v>Montada</v>
       </c>
       <c r="V52" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W52" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-52</v>
       </c>
     </row>
@@ -7987,17 +8372,17 @@
       <c r="B53" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>96</v>
+      <c r="C53" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="G53" s="31" t="s">
         <v>9</v>
@@ -8015,47 +8400,47 @@
         <v>9</v>
       </c>
       <c r="L53" s="27" t="str">
-        <f t="shared" si="61"/>
-        <v>Divisória</v>
+        <f t="shared" si="63"/>
+        <v>Parede</v>
       </c>
       <c r="M53" s="27" t="str">
-        <f t="shared" si="62"/>
-        <v>Parte</v>
+        <f t="shared" si="64"/>
+        <v>Levantada</v>
       </c>
       <c r="N53" s="27" t="str">
-        <f t="shared" si="63"/>
-        <v>Chapa</v>
+        <f t="shared" si="65"/>
+        <v>Montada</v>
       </c>
       <c r="O53" s="22" t="str">
-        <f t="shared" si="64"/>
-        <v>Cimentícia</v>
+        <f t="shared" si="66"/>
+        <v>de.Eucatex</v>
       </c>
       <c r="P53" s="22" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="Q53" s="46" t="s">
-        <v>161</v>
+        <v>331</v>
       </c>
       <c r="R53" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S53" s="29" t="str">
-        <f t="shared" si="65"/>
-        <v>Divisória</v>
+        <f t="shared" si="67"/>
+        <v>Parede</v>
       </c>
       <c r="T53" s="29" t="str">
-        <f t="shared" si="66"/>
-        <v>Parte</v>
+        <f t="shared" si="68"/>
+        <v>Levantada</v>
       </c>
       <c r="U53" s="29" t="str">
-        <f t="shared" si="67"/>
-        <v>Chapa</v>
+        <f t="shared" si="69"/>
+        <v>Montada</v>
       </c>
       <c r="V53" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W53" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-53</v>
       </c>
     </row>
@@ -8066,17 +8451,17 @@
       <c r="B54" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>96</v>
+      <c r="C54" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="G54" s="31" t="s">
         <v>9</v>
@@ -8094,47 +8479,47 @@
         <v>9</v>
       </c>
       <c r="L54" s="27" t="str">
-        <f t="shared" si="61"/>
-        <v>Divisória</v>
+        <f t="shared" si="63"/>
+        <v>Parede</v>
       </c>
       <c r="M54" s="27" t="str">
-        <f t="shared" si="62"/>
-        <v>Parte</v>
+        <f t="shared" si="64"/>
+        <v>Levantada</v>
       </c>
       <c r="N54" s="27" t="str">
-        <f t="shared" si="63"/>
-        <v>Chapa</v>
+        <f t="shared" si="65"/>
+        <v>Montada</v>
       </c>
       <c r="O54" s="22" t="str">
-        <f t="shared" si="64"/>
-        <v>Gesso.Acartonado</v>
+        <f t="shared" si="66"/>
+        <v>de.Sanitário</v>
       </c>
       <c r="P54" s="22" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="Q54" s="46" t="s">
-        <v>162</v>
+        <v>330</v>
       </c>
       <c r="R54" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S54" s="29" t="str">
-        <f t="shared" si="65"/>
-        <v>Divisória</v>
+        <f t="shared" si="67"/>
+        <v>Parede</v>
       </c>
       <c r="T54" s="29" t="str">
-        <f t="shared" si="66"/>
-        <v>Parte</v>
+        <f t="shared" si="68"/>
+        <v>Levantada</v>
       </c>
       <c r="U54" s="29" t="str">
-        <f t="shared" si="67"/>
-        <v>Chapa</v>
+        <f t="shared" si="69"/>
+        <v>Montada</v>
       </c>
       <c r="V54" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W54" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-54</v>
       </c>
     </row>
@@ -8155,7 +8540,7 @@
         <v>144</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G55" s="31" t="s">
         <v>9</v>
@@ -8173,47 +8558,47 @@
         <v>9</v>
       </c>
       <c r="L55" s="27" t="str">
-        <f t="shared" ref="L55:L58" si="141">CONCATENATE("", C55)</f>
+        <f t="shared" si="56"/>
         <v>Divisória</v>
       </c>
       <c r="M55" s="27" t="str">
-        <f t="shared" ref="M55:M58" si="142">CONCATENATE("", D55)</f>
+        <f t="shared" si="57"/>
         <v>Parte</v>
       </c>
       <c r="N55" s="27" t="str">
-        <f t="shared" ref="N55:N58" si="143">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E55),"."," ")," De "," de "))</f>
+        <f t="shared" si="58"/>
         <v>Chapa</v>
       </c>
       <c r="O55" s="22" t="str">
-        <f t="shared" ref="O55:O58" si="144">F55</f>
-        <v>Vidro.Temperado</v>
-      </c>
-      <c r="P55" s="22" t="s">
-        <v>186</v>
+        <f t="shared" si="59"/>
+        <v>Eucatex</v>
+      </c>
+      <c r="P55" s="48" t="s">
+        <v>176</v>
       </c>
       <c r="Q55" s="46" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="R55" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S55" s="29" t="str">
-        <f t="shared" ref="S55:S58" si="145">SUBSTITUTE(C55, ".", " ")</f>
+        <f t="shared" si="60"/>
         <v>Divisória</v>
       </c>
       <c r="T55" s="29" t="str">
-        <f t="shared" ref="T55:T58" si="146">SUBSTITUTE(D55, ".", " ")</f>
+        <f t="shared" si="61"/>
         <v>Parte</v>
       </c>
       <c r="U55" s="29" t="str">
-        <f t="shared" ref="U55:U58" si="147">SUBSTITUTE(E55, ".", " ")</f>
+        <f t="shared" si="62"/>
         <v>Chapa</v>
       </c>
       <c r="V55" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W55" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-55</v>
       </c>
     </row>
@@ -8234,7 +8619,7 @@
         <v>144</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>182</v>
+        <v>327</v>
       </c>
       <c r="G56" s="31" t="s">
         <v>9</v>
@@ -8252,47 +8637,47 @@
         <v>9</v>
       </c>
       <c r="L56" s="27" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="56"/>
         <v>Divisória</v>
       </c>
       <c r="M56" s="27" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="57"/>
         <v>Parte</v>
       </c>
       <c r="N56" s="27" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="58"/>
         <v>Chapa</v>
       </c>
       <c r="O56" s="22" t="str">
-        <f t="shared" si="144"/>
-        <v>Vidro.Laminado</v>
-      </c>
-      <c r="P56" s="22" t="s">
-        <v>187</v>
+        <f t="shared" si="59"/>
+        <v>Metálica</v>
+      </c>
+      <c r="P56" s="48" t="s">
+        <v>167</v>
       </c>
       <c r="Q56" s="46" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="R56" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S56" s="29" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="60"/>
         <v>Divisória</v>
       </c>
       <c r="T56" s="29" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="61"/>
         <v>Parte</v>
       </c>
       <c r="U56" s="29" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="62"/>
         <v>Chapa</v>
       </c>
       <c r="V56" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W56" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-56</v>
       </c>
     </row>
@@ -8313,7 +8698,7 @@
         <v>144</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="G57" s="31" t="s">
         <v>9</v>
@@ -8331,47 +8716,47 @@
         <v>9</v>
       </c>
       <c r="L57" s="27" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" ref="L57" si="119">CONCATENATE("", C57)</f>
         <v>Divisória</v>
       </c>
       <c r="M57" s="27" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" ref="M57" si="120">CONCATENATE("", D57)</f>
         <v>Parte</v>
       </c>
       <c r="N57" s="27" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" ref="N57" si="121">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E57),"."," ")," De "," de "))</f>
         <v>Chapa</v>
       </c>
       <c r="O57" s="22" t="str">
-        <f t="shared" si="144"/>
-        <v>Vidro.Polarizado</v>
-      </c>
-      <c r="P57" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q57" s="22" t="s">
-        <v>274</v>
+        <f t="shared" ref="O57" si="122">F57</f>
+        <v>Alumínio.Composto</v>
+      </c>
+      <c r="P57" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q57" s="46" t="s">
+        <v>168</v>
       </c>
       <c r="R57" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S57" s="29" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" ref="S57" si="123">SUBSTITUTE(C57, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T57" s="29" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" ref="T57" si="124">SUBSTITUTE(D57, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U57" s="29" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" ref="U57" si="125">SUBSTITUTE(E57, ".", " ")</f>
         <v>Chapa</v>
       </c>
       <c r="V57" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W57" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-57</v>
       </c>
     </row>
@@ -8392,7 +8777,7 @@
         <v>144</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="G58" s="31" t="s">
         <v>9</v>
@@ -8410,47 +8795,47 @@
         <v>9</v>
       </c>
       <c r="L58" s="27" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="56"/>
         <v>Divisória</v>
       </c>
       <c r="M58" s="27" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="57"/>
         <v>Parte</v>
       </c>
       <c r="N58" s="27" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="58"/>
         <v>Chapa</v>
       </c>
       <c r="O58" s="22" t="str">
-        <f t="shared" si="144"/>
-        <v>Vidro.Low.E</v>
-      </c>
-      <c r="P58" s="46" t="s">
-        <v>277</v>
+        <f t="shared" si="59"/>
+        <v>Cimentícia</v>
+      </c>
+      <c r="P58" s="22" t="s">
+        <v>166</v>
       </c>
       <c r="Q58" s="46" t="s">
-        <v>278</v>
+        <v>161</v>
       </c>
       <c r="R58" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S58" s="29" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="60"/>
         <v>Divisória</v>
       </c>
       <c r="T58" s="29" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="61"/>
         <v>Parte</v>
       </c>
       <c r="U58" s="29" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="62"/>
         <v>Chapa</v>
       </c>
       <c r="V58" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W58" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-58</v>
       </c>
     </row>
@@ -8471,7 +8856,7 @@
         <v>144</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="G59" s="31" t="s">
         <v>9</v>
@@ -8489,47 +8874,47 @@
         <v>9</v>
       </c>
       <c r="L59" s="27" t="str">
+        <f t="shared" si="56"/>
+        <v>Divisória</v>
+      </c>
+      <c r="M59" s="27" t="str">
+        <f t="shared" si="57"/>
+        <v>Parte</v>
+      </c>
+      <c r="N59" s="27" t="str">
+        <f t="shared" si="58"/>
+        <v>Chapa</v>
+      </c>
+      <c r="O59" s="22" t="str">
+        <f t="shared" si="59"/>
+        <v>Gesso.Acartonado</v>
+      </c>
+      <c r="P59" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q59" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="R59" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S59" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>Divisória</v>
+      </c>
+      <c r="T59" s="29" t="str">
         <f t="shared" si="61"/>
-        <v>Divisória</v>
-      </c>
-      <c r="M59" s="27" t="str">
+        <v>Parte</v>
+      </c>
+      <c r="U59" s="29" t="str">
         <f t="shared" si="62"/>
-        <v>Parte</v>
-      </c>
-      <c r="N59" s="27" t="str">
-        <f t="shared" si="63"/>
-        <v>Chapa</v>
-      </c>
-      <c r="O59" s="22" t="str">
-        <f t="shared" si="64"/>
-        <v>Vidro.Comúm</v>
-      </c>
-      <c r="P59" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q59" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="R59" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S59" s="29" t="str">
-        <f t="shared" si="65"/>
-        <v>Divisória</v>
-      </c>
-      <c r="T59" s="29" t="str">
-        <f t="shared" si="66"/>
-        <v>Parte</v>
-      </c>
-      <c r="U59" s="29" t="str">
-        <f t="shared" si="67"/>
         <v>Chapa</v>
       </c>
       <c r="V59" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W59" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-59</v>
       </c>
     </row>
@@ -8550,7 +8935,7 @@
         <v>144</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>521</v>
+        <v>183</v>
       </c>
       <c r="G60" s="31" t="s">
         <v>9</v>
@@ -8568,47 +8953,47 @@
         <v>9</v>
       </c>
       <c r="L60" s="27" t="str">
-        <f t="shared" ref="L60" si="148">CONCATENATE("", C60)</f>
+        <f t="shared" ref="L60:L63" si="126">CONCATENATE("", C60)</f>
         <v>Divisória</v>
       </c>
       <c r="M60" s="27" t="str">
-        <f t="shared" ref="M60" si="149">CONCATENATE("", D60)</f>
+        <f t="shared" ref="M60:M63" si="127">CONCATENATE("", D60)</f>
         <v>Parte</v>
       </c>
       <c r="N60" s="27" t="str">
-        <f t="shared" ref="N60" si="150">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E60),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N60:N63" si="128">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E60),"."," ")," De "," de "))</f>
         <v>Chapa</v>
       </c>
       <c r="O60" s="22" t="str">
-        <f t="shared" ref="O60" si="151">F60</f>
-        <v>Vidro.Plumbífero</v>
+        <f t="shared" ref="O60:O63" si="129">F60</f>
+        <v>Vidro.Temperado</v>
       </c>
       <c r="P60" s="22" t="s">
-        <v>523</v>
+        <v>186</v>
       </c>
       <c r="Q60" s="46" t="s">
-        <v>522</v>
+        <v>193</v>
       </c>
       <c r="R60" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S60" s="29" t="str">
-        <f t="shared" ref="S60" si="152">SUBSTITUTE(C60, ".", " ")</f>
+        <f t="shared" ref="S60:S63" si="130">SUBSTITUTE(C60, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T60" s="29" t="str">
-        <f t="shared" ref="T60" si="153">SUBSTITUTE(D60, ".", " ")</f>
+        <f t="shared" ref="T60:T63" si="131">SUBSTITUTE(D60, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U60" s="29" t="str">
-        <f t="shared" ref="U60" si="154">SUBSTITUTE(E60, ".", " ")</f>
+        <f t="shared" ref="U60:U63" si="132">SUBSTITUTE(E60, ".", " ")</f>
         <v>Chapa</v>
       </c>
       <c r="V60" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W60" s="1" t="str">
-        <f t="shared" ref="W60" si="155">CONCATENATE("Key-Pare-",A60)</f>
+        <f t="shared" si="4"/>
         <v>Key-Pare-60</v>
       </c>
     </row>
@@ -8629,7 +9014,7 @@
         <v>144</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G61" s="31" t="s">
         <v>9</v>
@@ -8647,47 +9032,47 @@
         <v>9</v>
       </c>
       <c r="L61" s="27" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="126"/>
         <v>Divisória</v>
       </c>
       <c r="M61" s="27" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="127"/>
         <v>Parte</v>
       </c>
       <c r="N61" s="27" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="128"/>
         <v>Chapa</v>
       </c>
       <c r="O61" s="22" t="str">
-        <f t="shared" si="64"/>
-        <v>Fórmica</v>
+        <f t="shared" si="129"/>
+        <v>Vidro.Laminado</v>
       </c>
       <c r="P61" s="22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q61" s="46" t="s">
-        <v>275</v>
+        <v>194</v>
       </c>
       <c r="R61" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S61" s="29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="130"/>
         <v>Divisória</v>
       </c>
       <c r="T61" s="29" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="131"/>
         <v>Parte</v>
       </c>
       <c r="U61" s="29" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="132"/>
         <v>Chapa</v>
       </c>
       <c r="V61" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W61" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-61</v>
       </c>
     </row>
@@ -8708,7 +9093,7 @@
         <v>144</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G62" s="31" t="s">
         <v>9</v>
@@ -8726,47 +9111,47 @@
         <v>9</v>
       </c>
       <c r="L62" s="27" t="str">
-        <f t="shared" ref="L62:L75" si="156">CONCATENATE("", C62)</f>
+        <f t="shared" si="126"/>
         <v>Divisória</v>
       </c>
       <c r="M62" s="27" t="str">
-        <f t="shared" ref="M62:M75" si="157">CONCATENATE("", D62)</f>
+        <f t="shared" si="127"/>
         <v>Parte</v>
       </c>
       <c r="N62" s="27" t="str">
-        <f t="shared" ref="N62:N75" si="158">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E62),"."," ")," De "," de "))</f>
+        <f t="shared" si="128"/>
         <v>Chapa</v>
       </c>
       <c r="O62" s="22" t="str">
-        <f t="shared" ref="O62:O75" si="159">F62</f>
-        <v>Pedra</v>
+        <f t="shared" si="129"/>
+        <v>Vidro.Polarizado</v>
       </c>
       <c r="P62" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q62" s="46" t="s">
-        <v>196</v>
+        <v>273</v>
+      </c>
+      <c r="Q62" s="22" t="s">
+        <v>274</v>
       </c>
       <c r="R62" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S62" s="29" t="str">
-        <f t="shared" ref="S62:S75" si="160">SUBSTITUTE(C62, ".", " ")</f>
+        <f t="shared" si="130"/>
         <v>Divisória</v>
       </c>
       <c r="T62" s="29" t="str">
-        <f t="shared" ref="T62:T75" si="161">SUBSTITUTE(D62, ".", " ")</f>
+        <f t="shared" si="131"/>
         <v>Parte</v>
       </c>
       <c r="U62" s="29" t="str">
-        <f t="shared" ref="U62:U75" si="162">SUBSTITUTE(E62, ".", " ")</f>
+        <f t="shared" si="132"/>
         <v>Chapa</v>
       </c>
       <c r="V62" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W62" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-62</v>
       </c>
     </row>
@@ -8784,10 +9169,10 @@
         <v>268</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>151</v>
+        <v>276</v>
       </c>
       <c r="G63" s="31" t="s">
         <v>9</v>
@@ -8805,47 +9190,47 @@
         <v>9</v>
       </c>
       <c r="L63" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="126"/>
         <v>Divisória</v>
       </c>
       <c r="M63" s="27" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="127"/>
         <v>Parte</v>
       </c>
       <c r="N63" s="27" t="str">
-        <f t="shared" si="158"/>
-        <v>Perfil</v>
+        <f t="shared" si="128"/>
+        <v>Chapa</v>
       </c>
       <c r="O63" s="22" t="str">
-        <f t="shared" si="159"/>
-        <v>Guia.L</v>
-      </c>
-      <c r="P63" s="22" t="s">
-        <v>153</v>
+        <f t="shared" si="129"/>
+        <v>Vidro.Low.E</v>
+      </c>
+      <c r="P63" s="46" t="s">
+        <v>277</v>
       </c>
       <c r="Q63" s="46" t="s">
-        <v>158</v>
+        <v>278</v>
       </c>
       <c r="R63" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S63" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="130"/>
         <v>Divisória</v>
       </c>
       <c r="T63" s="29" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="131"/>
         <v>Parte</v>
       </c>
       <c r="U63" s="29" t="str">
-        <f t="shared" si="162"/>
-        <v>Perfil</v>
+        <f t="shared" si="132"/>
+        <v>Chapa</v>
       </c>
       <c r="V63" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W63" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-63</v>
       </c>
     </row>
@@ -8863,10 +9248,10 @@
         <v>268</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="G64" s="31" t="s">
         <v>9</v>
@@ -8884,47 +9269,47 @@
         <v>9</v>
       </c>
       <c r="L64" s="27" t="str">
-        <f t="shared" ref="L64" si="163">CONCATENATE("", C64)</f>
+        <f t="shared" si="56"/>
         <v>Divisória</v>
       </c>
       <c r="M64" s="27" t="str">
-        <f t="shared" ref="M64" si="164">CONCATENATE("", D64)</f>
+        <f t="shared" si="57"/>
         <v>Parte</v>
       </c>
       <c r="N64" s="27" t="str">
-        <f t="shared" ref="N64" si="165">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E64),"."," ")," De "," de "))</f>
-        <v>Perfil</v>
+        <f t="shared" si="58"/>
+        <v>Chapa</v>
       </c>
       <c r="O64" s="22" t="str">
-        <f t="shared" ref="O64" si="166">F64</f>
-        <v>Guia.U</v>
+        <f t="shared" si="59"/>
+        <v>Vidro.Comúm</v>
       </c>
       <c r="P64" s="22" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="Q64" s="46" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="R64" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S64" s="29" t="str">
-        <f t="shared" ref="S64" si="167">SUBSTITUTE(C64, ".", " ")</f>
+        <f t="shared" si="60"/>
         <v>Divisória</v>
       </c>
       <c r="T64" s="29" t="str">
-        <f t="shared" ref="T64" si="168">SUBSTITUTE(D64, ".", " ")</f>
+        <f t="shared" si="61"/>
         <v>Parte</v>
       </c>
       <c r="U64" s="29" t="str">
-        <f t="shared" ref="U64" si="169">SUBSTITUTE(E64, ".", " ")</f>
-        <v>Perfil</v>
+        <f t="shared" si="62"/>
+        <v>Chapa</v>
       </c>
       <c r="V64" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W64" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-64</v>
       </c>
     </row>
@@ -8942,10 +9327,10 @@
         <v>268</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>155</v>
+        <v>521</v>
       </c>
       <c r="G65" s="31" t="s">
         <v>9</v>
@@ -8963,47 +9348,47 @@
         <v>9</v>
       </c>
       <c r="L65" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" ref="L65" si="133">CONCATENATE("", C65)</f>
         <v>Divisória</v>
       </c>
       <c r="M65" s="27" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" ref="M65" si="134">CONCATENATE("", D65)</f>
         <v>Parte</v>
       </c>
       <c r="N65" s="27" t="str">
-        <f t="shared" si="158"/>
-        <v>Perfil</v>
+        <f t="shared" ref="N65" si="135">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E65),"."," ")," De "," de "))</f>
+        <v>Chapa</v>
       </c>
       <c r="O65" s="22" t="str">
-        <f t="shared" si="159"/>
-        <v>Guia.Montante</v>
+        <f t="shared" ref="O65" si="136">F65</f>
+        <v>Vidro.Plumbífero</v>
       </c>
       <c r="P65" s="22" t="s">
-        <v>154</v>
+        <v>523</v>
       </c>
       <c r="Q65" s="46" t="s">
-        <v>159</v>
+        <v>522</v>
       </c>
       <c r="R65" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S65" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" ref="S65" si="137">SUBSTITUTE(C65, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T65" s="29" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" ref="T65" si="138">SUBSTITUTE(D65, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U65" s="29" t="str">
-        <f t="shared" si="162"/>
-        <v>Perfil</v>
+        <f t="shared" ref="U65" si="139">SUBSTITUTE(E65, ".", " ")</f>
+        <v>Chapa</v>
       </c>
       <c r="V65" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W65" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-65</v>
       </c>
     </row>
@@ -9021,10 +9406,10 @@
         <v>268</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G66" s="31" t="s">
         <v>9</v>
@@ -9042,47 +9427,47 @@
         <v>9</v>
       </c>
       <c r="L66" s="27" t="str">
-        <f t="shared" ref="L66" si="170">CONCATENATE("", C66)</f>
+        <f t="shared" si="56"/>
         <v>Divisória</v>
       </c>
       <c r="M66" s="27" t="str">
-        <f t="shared" ref="M66" si="171">CONCATENATE("", D66)</f>
+        <f t="shared" si="57"/>
         <v>Parte</v>
       </c>
       <c r="N66" s="27" t="str">
-        <f t="shared" ref="N66" si="172">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E66),"."," ")," De "," de "))</f>
-        <v>Fixação</v>
+        <f t="shared" si="58"/>
+        <v>Chapa</v>
       </c>
       <c r="O66" s="22" t="str">
-        <f t="shared" ref="O66" si="173">F66</f>
-        <v>Parafuso</v>
+        <f t="shared" si="59"/>
+        <v>Fórmica</v>
       </c>
       <c r="P66" s="22" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="Q66" s="46" t="s">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="R66" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S66" s="29" t="str">
-        <f t="shared" ref="S66" si="174">SUBSTITUTE(C66, ".", " ")</f>
+        <f t="shared" si="60"/>
         <v>Divisória</v>
       </c>
       <c r="T66" s="29" t="str">
-        <f t="shared" ref="T66" si="175">SUBSTITUTE(D66, ".", " ")</f>
+        <f t="shared" si="61"/>
         <v>Parte</v>
       </c>
       <c r="U66" s="29" t="str">
-        <f t="shared" ref="U66" si="176">SUBSTITUTE(E66, ".", " ")</f>
-        <v>Fixação</v>
+        <f t="shared" si="62"/>
+        <v>Chapa</v>
       </c>
       <c r="V66" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W66" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="4"/>
         <v>Key-Pare-66</v>
       </c>
     </row>
@@ -9100,10 +9485,10 @@
         <v>268</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="G67" s="31" t="s">
         <v>9</v>
@@ -9121,47 +9506,47 @@
         <v>9</v>
       </c>
       <c r="L67" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" ref="L67:L80" si="140">CONCATENATE("", C67)</f>
         <v>Divisória</v>
       </c>
       <c r="M67" s="27" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" ref="M67:M80" si="141">CONCATENATE("", D67)</f>
         <v>Parte</v>
       </c>
       <c r="N67" s="27" t="str">
-        <f t="shared" si="158"/>
-        <v>Fixação</v>
+        <f t="shared" ref="N67:N80" si="142">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E67),"."," ")," De "," de "))</f>
+        <v>Chapa</v>
       </c>
       <c r="O67" s="22" t="str">
-        <f t="shared" si="159"/>
-        <v>Bucha</v>
+        <f t="shared" ref="O67:O80" si="143">F67</f>
+        <v>Pedra</v>
       </c>
       <c r="P67" s="22" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="Q67" s="46" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="R67" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S67" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" ref="S67:S80" si="144">SUBSTITUTE(C67, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T67" s="29" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" ref="T67:T80" si="145">SUBSTITUTE(D67, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U67" s="29" t="str">
-        <f t="shared" si="162"/>
-        <v>Fixação</v>
+        <f t="shared" ref="U67:U80" si="146">SUBSTITUTE(E67, ".", " ")</f>
+        <v>Chapa</v>
       </c>
       <c r="V67" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W67" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="W67:W81" si="147">CONCATENATE("Key-Pare-",A67)</f>
         <v>Key-Pare-67</v>
       </c>
     </row>
@@ -9179,10 +9564,10 @@
         <v>268</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="G68" s="31" t="s">
         <v>9</v>
@@ -9200,47 +9585,47 @@
         <v>9</v>
       </c>
       <c r="L68" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="140"/>
         <v>Divisória</v>
       </c>
       <c r="M68" s="27" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="141"/>
         <v>Parte</v>
       </c>
       <c r="N68" s="27" t="str">
-        <f t="shared" si="158"/>
-        <v>Fixação</v>
+        <f t="shared" si="142"/>
+        <v>Perfil</v>
       </c>
       <c r="O68" s="22" t="str">
-        <f t="shared" si="159"/>
-        <v>Fixador.Pinça</v>
+        <f t="shared" si="143"/>
+        <v>Guia.L</v>
       </c>
       <c r="P68" s="22" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="Q68" s="46" t="s">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="R68" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S68" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="144"/>
         <v>Divisória</v>
       </c>
       <c r="T68" s="29" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="145"/>
         <v>Parte</v>
       </c>
       <c r="U68" s="29" t="str">
-        <f t="shared" si="162"/>
-        <v>Fixação</v>
+        <f t="shared" si="146"/>
+        <v>Perfil</v>
       </c>
       <c r="V68" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W68" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="147"/>
         <v>Key-Pare-68</v>
       </c>
     </row>
@@ -9258,10 +9643,10 @@
         <v>268</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>198</v>
+        <v>150</v>
       </c>
       <c r="G69" s="31" t="s">
         <v>9</v>
@@ -9279,47 +9664,47 @@
         <v>9</v>
       </c>
       <c r="L69" s="27" t="str">
-        <f t="shared" ref="L69:L70" si="177">CONCATENATE("", C69)</f>
+        <f t="shared" ref="L69" si="148">CONCATENATE("", C69)</f>
         <v>Divisória</v>
       </c>
       <c r="M69" s="27" t="str">
-        <f t="shared" ref="M69:M70" si="178">CONCATENATE("", D69)</f>
+        <f t="shared" ref="M69" si="149">CONCATENATE("", D69)</f>
         <v>Parte</v>
       </c>
       <c r="N69" s="27" t="str">
-        <f t="shared" ref="N69:N70" si="179">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E69),"."," ")," De "," de "))</f>
-        <v>Fixação</v>
+        <f t="shared" ref="N69" si="150">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E69),"."," ")," De "," de "))</f>
+        <v>Perfil</v>
       </c>
       <c r="O69" s="22" t="str">
-        <f t="shared" ref="O69:O70" si="180">F69</f>
-        <v>Fixador.Cantoneira</v>
+        <f t="shared" ref="O69" si="151">F69</f>
+        <v>Guia.U</v>
       </c>
       <c r="P69" s="22" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="Q69" s="46" t="s">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="R69" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S69" s="29" t="str">
-        <f t="shared" ref="S69:S70" si="181">SUBSTITUTE(C69, ".", " ")</f>
+        <f t="shared" ref="S69" si="152">SUBSTITUTE(C69, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T69" s="29" t="str">
-        <f t="shared" ref="T69:T70" si="182">SUBSTITUTE(D69, ".", " ")</f>
+        <f t="shared" ref="T69" si="153">SUBSTITUTE(D69, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U69" s="29" t="str">
-        <f t="shared" ref="U69:U70" si="183">SUBSTITUTE(E69, ".", " ")</f>
-        <v>Fixação</v>
+        <f t="shared" ref="U69" si="154">SUBSTITUTE(E69, ".", " ")</f>
+        <v>Perfil</v>
       </c>
       <c r="V69" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W69" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="147"/>
         <v>Key-Pare-69</v>
       </c>
     </row>
@@ -9337,10 +9722,10 @@
         <v>268</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G70" s="31" t="s">
         <v>9</v>
@@ -9358,47 +9743,47 @@
         <v>9</v>
       </c>
       <c r="L70" s="27" t="str">
-        <f t="shared" si="177"/>
+        <f t="shared" si="140"/>
         <v>Divisória</v>
       </c>
       <c r="M70" s="27" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="141"/>
         <v>Parte</v>
       </c>
       <c r="N70" s="27" t="str">
-        <f t="shared" si="179"/>
-        <v>Fixação</v>
+        <f t="shared" si="142"/>
+        <v>Perfil</v>
       </c>
       <c r="O70" s="22" t="str">
-        <f t="shared" si="180"/>
-        <v>Conector</v>
+        <f t="shared" si="143"/>
+        <v>Guia.Montante</v>
       </c>
       <c r="P70" s="22" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="Q70" s="46" t="s">
-        <v>247</v>
+        <v>159</v>
       </c>
       <c r="R70" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S70" s="29" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" si="144"/>
         <v>Divisória</v>
       </c>
       <c r="T70" s="29" t="str">
-        <f t="shared" si="182"/>
+        <f t="shared" si="145"/>
         <v>Parte</v>
       </c>
       <c r="U70" s="29" t="str">
-        <f t="shared" si="183"/>
-        <v>Fixação</v>
+        <f t="shared" si="146"/>
+        <v>Perfil</v>
       </c>
       <c r="V70" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W70" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="147"/>
         <v>Key-Pare-70</v>
       </c>
     </row>
@@ -9419,7 +9804,7 @@
         <v>148</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="G71" s="31" t="s">
         <v>9</v>
@@ -9437,47 +9822,47 @@
         <v>9</v>
       </c>
       <c r="L71" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" ref="L71" si="155">CONCATENATE("", C71)</f>
         <v>Divisória</v>
       </c>
       <c r="M71" s="27" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" ref="M71" si="156">CONCATENATE("", D71)</f>
         <v>Parte</v>
       </c>
       <c r="N71" s="27" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" ref="N71" si="157">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E71),"."," ")," De "," de "))</f>
         <v>Fixação</v>
       </c>
       <c r="O71" s="22" t="str">
-        <f t="shared" si="159"/>
-        <v>Cola</v>
+        <f t="shared" ref="O71" si="158">F71</f>
+        <v>Parafuso</v>
       </c>
       <c r="P71" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q71" s="22" t="s">
-        <v>244</v>
+        <v>157</v>
+      </c>
+      <c r="Q71" s="46" t="s">
+        <v>160</v>
       </c>
       <c r="R71" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S71" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" ref="S71" si="159">SUBSTITUTE(C71, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T71" s="29" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" ref="T71" si="160">SUBSTITUTE(D71, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U71" s="29" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" ref="U71" si="161">SUBSTITUTE(E71, ".", " ")</f>
         <v>Fixação</v>
       </c>
       <c r="V71" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W71" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="147"/>
         <v>Key-Pare-71</v>
       </c>
     </row>
@@ -9495,10 +9880,10 @@
         <v>268</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="G72" s="31" t="s">
         <v>9</v>
@@ -9516,47 +9901,47 @@
         <v>9</v>
       </c>
       <c r="L72" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="140"/>
         <v>Divisória</v>
       </c>
       <c r="M72" s="27" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="141"/>
         <v>Parte</v>
       </c>
       <c r="N72" s="27" t="str">
-        <f t="shared" si="158"/>
-        <v>Fecho</v>
+        <f t="shared" si="142"/>
+        <v>Fixação</v>
       </c>
       <c r="O72" s="22" t="str">
-        <f t="shared" si="159"/>
-        <v>Puxador.Externo</v>
+        <f t="shared" si="143"/>
+        <v>Bucha</v>
       </c>
       <c r="P72" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q72" s="46" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="R72" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S72" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="144"/>
         <v>Divisória</v>
       </c>
       <c r="T72" s="29" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="145"/>
         <v>Parte</v>
       </c>
       <c r="U72" s="29" t="str">
-        <f t="shared" si="162"/>
-        <v>Fecho</v>
+        <f t="shared" si="146"/>
+        <v>Fixação</v>
       </c>
       <c r="V72" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W72" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="147"/>
         <v>Key-Pare-72</v>
       </c>
     </row>
@@ -9574,10 +9959,10 @@
         <v>268</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G73" s="31" t="s">
         <v>9</v>
@@ -9595,47 +9980,47 @@
         <v>9</v>
       </c>
       <c r="L73" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="140"/>
         <v>Divisória</v>
       </c>
       <c r="M73" s="27" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="141"/>
         <v>Parte</v>
       </c>
       <c r="N73" s="27" t="str">
-        <f t="shared" si="158"/>
-        <v>Fecho</v>
+        <f t="shared" si="142"/>
+        <v>Fixação</v>
       </c>
       <c r="O73" s="22" t="str">
-        <f t="shared" si="159"/>
-        <v>Puxador.Interno</v>
+        <f t="shared" si="143"/>
+        <v>Fixador.Pinça</v>
       </c>
       <c r="P73" s="22" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="Q73" s="46" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="R73" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S73" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="144"/>
         <v>Divisória</v>
       </c>
       <c r="T73" s="29" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="145"/>
         <v>Parte</v>
       </c>
       <c r="U73" s="29" t="str">
-        <f t="shared" si="162"/>
-        <v>Fecho</v>
+        <f t="shared" si="146"/>
+        <v>Fixação</v>
       </c>
       <c r="V73" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W73" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="147"/>
         <v>Key-Pare-73</v>
       </c>
     </row>
@@ -9653,10 +10038,10 @@
         <v>268</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G74" s="31" t="s">
         <v>9</v>
@@ -9674,47 +10059,47 @@
         <v>9</v>
       </c>
       <c r="L74" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" ref="L74:L75" si="162">CONCATENATE("", C74)</f>
         <v>Divisória</v>
       </c>
       <c r="M74" s="27" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" ref="M74:M75" si="163">CONCATENATE("", D74)</f>
         <v>Parte</v>
       </c>
       <c r="N74" s="27" t="str">
-        <f t="shared" si="158"/>
-        <v>Cabide</v>
+        <f t="shared" ref="N74:N75" si="164">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E74),"."," ")," De "," de "))</f>
+        <v>Fixação</v>
       </c>
       <c r="O74" s="22" t="str">
-        <f t="shared" si="159"/>
-        <v>Tipo.Gancho</v>
+        <f t="shared" ref="O74:O75" si="165">F74</f>
+        <v>Fixador.Cantoneira</v>
       </c>
       <c r="P74" s="22" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="Q74" s="46" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="R74" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S74" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" ref="S74:S75" si="166">SUBSTITUTE(C74, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T74" s="29" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" ref="T74:T75" si="167">SUBSTITUTE(D74, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U74" s="29" t="str">
-        <f t="shared" si="162"/>
-        <v>Cabide</v>
+        <f t="shared" ref="U74:U75" si="168">SUBSTITUTE(E74, ".", " ")</f>
+        <v>Fixação</v>
       </c>
       <c r="V74" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W74" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="147"/>
         <v>Key-Pare-74</v>
       </c>
     </row>
@@ -9732,10 +10117,10 @@
         <v>268</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="G75" s="31" t="s">
         <v>9</v>
@@ -9753,47 +10138,47 @@
         <v>9</v>
       </c>
       <c r="L75" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="162"/>
         <v>Divisória</v>
       </c>
       <c r="M75" s="27" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="163"/>
         <v>Parte</v>
       </c>
       <c r="N75" s="27" t="str">
-        <f t="shared" si="158"/>
-        <v>Cabide</v>
+        <f t="shared" si="164"/>
+        <v>Fixação</v>
       </c>
       <c r="O75" s="22" t="str">
-        <f t="shared" si="159"/>
-        <v>Antifurto</v>
+        <f t="shared" si="165"/>
+        <v>Conector</v>
       </c>
       <c r="P75" s="22" t="s">
-        <v>208</v>
+        <v>247</v>
       </c>
       <c r="Q75" s="46" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="R75" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S75" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>Divisória</v>
       </c>
       <c r="T75" s="29" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>Parte</v>
       </c>
       <c r="U75" s="29" t="str">
-        <f t="shared" si="162"/>
-        <v>Cabide</v>
+        <f t="shared" si="168"/>
+        <v>Fixação</v>
       </c>
       <c r="V75" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W75" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="147"/>
         <v>Key-Pare-75</v>
       </c>
     </row>
@@ -9811,10 +10196,10 @@
         <v>268</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="G76" s="31" t="s">
         <v>9</v>
@@ -9832,167 +10217,604 @@
         <v>9</v>
       </c>
       <c r="L76" s="27" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="140"/>
         <v>Divisória</v>
       </c>
       <c r="M76" s="27" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="141"/>
         <v>Parte</v>
       </c>
       <c r="N76" s="27" t="str">
-        <f t="shared" si="63"/>
-        <v>Dobradiça</v>
+        <f t="shared" si="142"/>
+        <v>Fixação</v>
       </c>
       <c r="O76" s="22" t="str">
-        <f t="shared" si="64"/>
-        <v xml:space="preserve">Automática </v>
+        <f t="shared" si="143"/>
+        <v>Cola</v>
       </c>
       <c r="P76" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q76" s="46" t="s">
-        <v>213</v>
+        <v>243</v>
+      </c>
+      <c r="Q76" s="22" t="s">
+        <v>244</v>
       </c>
       <c r="R76" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S76" s="29" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="144"/>
         <v>Divisória</v>
       </c>
       <c r="T76" s="29" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="145"/>
         <v>Parte</v>
       </c>
       <c r="U76" s="29" t="str">
-        <f t="shared" si="67"/>
-        <v>Dobradiça</v>
+        <f t="shared" si="146"/>
+        <v>Fixação</v>
       </c>
       <c r="V76" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W76" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="147"/>
         <v>Key-Pare-76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="24">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I77" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J77" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K77" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L77" s="27" t="str">
+        <f t="shared" si="140"/>
+        <v>Divisória</v>
+      </c>
+      <c r="M77" s="27" t="str">
+        <f t="shared" si="141"/>
+        <v>Parte</v>
+      </c>
+      <c r="N77" s="27" t="str">
+        <f t="shared" si="142"/>
+        <v>Fecho</v>
+      </c>
+      <c r="O77" s="22" t="str">
+        <f t="shared" si="143"/>
+        <v>Puxador.Externo</v>
+      </c>
+      <c r="P77" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q77" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="R77" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S77" s="29" t="str">
+        <f t="shared" si="144"/>
+        <v>Divisória</v>
+      </c>
+      <c r="T77" s="29" t="str">
+        <f t="shared" si="145"/>
+        <v>Parte</v>
+      </c>
+      <c r="U77" s="29" t="str">
+        <f t="shared" si="146"/>
+        <v>Fecho</v>
+      </c>
+      <c r="V77" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W77" s="1" t="str">
+        <f t="shared" si="147"/>
+        <v>Key-Pare-77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="24">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I78" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J78" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78" s="27" t="str">
+        <f t="shared" si="140"/>
+        <v>Divisória</v>
+      </c>
+      <c r="M78" s="27" t="str">
+        <f t="shared" si="141"/>
+        <v>Parte</v>
+      </c>
+      <c r="N78" s="27" t="str">
+        <f t="shared" si="142"/>
+        <v>Fecho</v>
+      </c>
+      <c r="O78" s="22" t="str">
+        <f t="shared" si="143"/>
+        <v>Puxador.Interno</v>
+      </c>
+      <c r="P78" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q78" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="R78" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S78" s="29" t="str">
+        <f t="shared" si="144"/>
+        <v>Divisória</v>
+      </c>
+      <c r="T78" s="29" t="str">
+        <f t="shared" si="145"/>
+        <v>Parte</v>
+      </c>
+      <c r="U78" s="29" t="str">
+        <f t="shared" si="146"/>
+        <v>Fecho</v>
+      </c>
+      <c r="V78" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W78" s="1" t="str">
+        <f t="shared" si="147"/>
+        <v>Key-Pare-78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="24">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I79" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L79" s="27" t="str">
+        <f t="shared" si="140"/>
+        <v>Divisória</v>
+      </c>
+      <c r="M79" s="27" t="str">
+        <f t="shared" si="141"/>
+        <v>Parte</v>
+      </c>
+      <c r="N79" s="27" t="str">
+        <f t="shared" si="142"/>
+        <v>Cabide</v>
+      </c>
+      <c r="O79" s="22" t="str">
+        <f t="shared" si="143"/>
+        <v>Tipo.Gancho</v>
+      </c>
+      <c r="P79" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q79" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="R79" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S79" s="29" t="str">
+        <f t="shared" si="144"/>
+        <v>Divisória</v>
+      </c>
+      <c r="T79" s="29" t="str">
+        <f t="shared" si="145"/>
+        <v>Parte</v>
+      </c>
+      <c r="U79" s="29" t="str">
+        <f t="shared" si="146"/>
+        <v>Cabide</v>
+      </c>
+      <c r="V79" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W79" s="1" t="str">
+        <f t="shared" si="147"/>
+        <v>Key-Pare-79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="24">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I80" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J80" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K80" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L80" s="27" t="str">
+        <f t="shared" si="140"/>
+        <v>Divisória</v>
+      </c>
+      <c r="M80" s="27" t="str">
+        <f t="shared" si="141"/>
+        <v>Parte</v>
+      </c>
+      <c r="N80" s="27" t="str">
+        <f t="shared" si="142"/>
+        <v>Cabide</v>
+      </c>
+      <c r="O80" s="22" t="str">
+        <f t="shared" si="143"/>
+        <v>Antifurto</v>
+      </c>
+      <c r="P80" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q80" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="R80" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S80" s="29" t="str">
+        <f t="shared" si="144"/>
+        <v>Divisória</v>
+      </c>
+      <c r="T80" s="29" t="str">
+        <f t="shared" si="145"/>
+        <v>Parte</v>
+      </c>
+      <c r="U80" s="29" t="str">
+        <f t="shared" si="146"/>
+        <v>Cabide</v>
+      </c>
+      <c r="V80" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W80" s="1" t="str">
+        <f t="shared" si="147"/>
+        <v>Key-Pare-80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="24">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J81" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K81" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L81" s="27" t="str">
+        <f t="shared" si="56"/>
+        <v>Divisória</v>
+      </c>
+      <c r="M81" s="27" t="str">
+        <f t="shared" si="57"/>
+        <v>Parte</v>
+      </c>
+      <c r="N81" s="27" t="str">
+        <f t="shared" si="58"/>
+        <v>Dobradiça</v>
+      </c>
+      <c r="O81" s="22" t="str">
+        <f t="shared" si="59"/>
+        <v xml:space="preserve">Automática </v>
+      </c>
+      <c r="P81" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q81" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="R81" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S81" s="29" t="str">
+        <f t="shared" si="60"/>
+        <v>Divisória</v>
+      </c>
+      <c r="T81" s="29" t="str">
+        <f t="shared" si="61"/>
+        <v>Parte</v>
+      </c>
+      <c r="U81" s="29" t="str">
+        <f t="shared" si="62"/>
+        <v>Dobradiça</v>
+      </c>
+      <c r="V81" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W81" s="1" t="str">
+        <f t="shared" si="147"/>
+        <v>Key-Pare-81</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="95" priority="1119"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="1153"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="94" priority="1"/>
+  <conditionalFormatting sqref="F1:F2 F8:F1048576">
+    <cfRule type="duplicateValues" dxfId="128" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="93" priority="1079"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="1080"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="1081"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="1082"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="1083"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="1084"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="1113"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="1114"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="1115"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="1116"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="1117"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="1118"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F12">
-    <cfRule type="duplicateValues" dxfId="87" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="45"/>
+  <conditionalFormatting sqref="F8:F17">
+    <cfRule type="duplicateValues" dxfId="121" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="74"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="79"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24 F16:F20 F26:F76">
-    <cfRule type="duplicateValues" dxfId="76" priority="1540"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="1541"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="1542"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="1543"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="1544"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="1545"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="1546"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="1547"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="1548"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="1549"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="1550"/>
+  <conditionalFormatting sqref="F29 F21:F25 F31:F81">
+    <cfRule type="duplicateValues" dxfId="110" priority="1574"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="1575"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="1576"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="1577"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="1578"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="1579"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="1580"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="1581"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="1582"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="1583"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="1584"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="65" priority="1120"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="1121"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="1122"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="1123"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="1124"/>
+  <conditionalFormatting sqref="F82:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="99" priority="1154"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="1155"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="1156"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="1157"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="1158"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:F1048576">
-    <cfRule type="duplicateValues" dxfId="60" priority="335"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="337"/>
+  <conditionalFormatting sqref="F82:F1048576">
+    <cfRule type="duplicateValues" dxfId="94" priority="369"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="371"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P11">
-    <cfRule type="duplicateValues" dxfId="58" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="34"/>
+  <conditionalFormatting sqref="P8:P16">
+    <cfRule type="duplicateValues" dxfId="92" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12">
-    <cfRule type="duplicateValues" dxfId="47" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="23"/>
+  <conditionalFormatting sqref="P17">
+    <cfRule type="duplicateValues" dxfId="81" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P40:Q42 P30:P39">
-    <cfRule type="duplicateValues" dxfId="36" priority="1464"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="1465"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="1466"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="1467"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="1468"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="1469"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="1470"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="1471"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="1472"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="1473"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="1474"/>
+  <conditionalFormatting sqref="P45:Q47 P35:P44">
+    <cfRule type="duplicateValues" dxfId="70" priority="1498"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="1499"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="1500"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="1501"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="1502"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="1503"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1504"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="1505"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="1506"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1507"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="1508"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12">
-    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+  <conditionalFormatting sqref="Q17">
+    <cfRule type="duplicateValues" dxfId="59" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q36">
-    <cfRule type="duplicateValues" dxfId="14" priority="68"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="78"/>
+  <conditionalFormatting sqref="Q41">
+    <cfRule type="duplicateValues" dxfId="48" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F7">
+    <cfRule type="duplicateValues" dxfId="33" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F7">
+    <cfRule type="duplicateValues" dxfId="32" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3:P7">
+    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:Q7">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -10211,7 +11033,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10227,8 +11049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A426B82-2E19-47C6-9DDF-914E7B26E6D0}">
   <dimension ref="A1:AS98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A98"/>
     </sheetView>
   </sheetViews>
@@ -23778,15 +24600,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1 B3:G1048576 C2:G2">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 A1:B1">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/ALVE/Ontologia_ALVEN.xlsx
+++ b/Versão5/ALVE/Ontologia_ALVEN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\ALVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8098B05B-3CF6-4A3B-986E-853319E651C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED6AA23-B78F-40E9-A847-4397A469A508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="13" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Interop" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$85</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Interop!$B$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5313" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5544" uniqueCount="580">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -1741,6 +1741,99 @@
   </si>
   <si>
     <t>Pegamento para porcelanas.</t>
+  </si>
+  <si>
+    <t>CategoriaRvt</t>
+  </si>
+  <si>
+    <t>ClasseIfc</t>
+  </si>
+  <si>
+    <t>OST_Walls</t>
+  </si>
+  <si>
+    <t>IfcWall</t>
+  </si>
+  <si>
+    <t>IfcCovering</t>
+  </si>
+  <si>
+    <t>OST_WallsFinish1 , OST_WallsFinish2</t>
+  </si>
+  <si>
+    <t>OST_WallsSubstrate</t>
+  </si>
+  <si>
+    <t>OST_WallCoreLayer</t>
+  </si>
+  <si>
+    <t>OST_WallsInsulation</t>
+  </si>
+  <si>
+    <t>Projeto.Básico</t>
+  </si>
+  <si>
+    <t>Núcleo</t>
+  </si>
+  <si>
+    <t>Parede definida em etapas iniciais do projeto em Nivel de detalhamento 200.</t>
+  </si>
+  <si>
+    <t>Parede definida em etapas iniciais do projeto em Nivel de detalhamento 300.</t>
+  </si>
+  <si>
+    <t>OST_WallsStructure</t>
+  </si>
+  <si>
+    <t>Parede definida em etapas iniciais do projeto em Nivel de detalhamento 100.</t>
+  </si>
+  <si>
+    <t>Muro definido en las primeras etapas del proyecto en el nivel de detalle 100.</t>
+  </si>
+  <si>
+    <t>Muro definido en las primeras etapas del proyecto en el nivel de detalle 200.</t>
+  </si>
+  <si>
+    <t>Muro definido en las primeras etapas del proyecto en el Nivel de Detalle 300.</t>
+  </si>
+  <si>
+    <t>Panel sólido de hormigón prefabricado de alto rendimiento.</t>
+  </si>
+  <si>
+    <t>Panel prefabricado de hormigón pretensado en nido de abeja.</t>
+  </si>
+  <si>
+    <t>Muros estructurales moldeados in situ de hormigón armado.</t>
+  </si>
+  <si>
+    <t>Bloques de yeso macizo para paredes internas no portantes. Rapidez de ejecución y obtención de una pared limpia y lisa.</t>
+  </si>
+  <si>
+    <t>Bloques de yeso huecos para paredes internas no portantes. Rapidez de ejecución y obtención de una pared limpia y lisa.</t>
+  </si>
+  <si>
+    <t>Núcleo.Parede</t>
+  </si>
+  <si>
+    <t>Núcleo construtivo da parede.</t>
+  </si>
+  <si>
+    <t>Núcleo constructivo de la pared.</t>
+  </si>
+  <si>
+    <t>Parede.100</t>
+  </si>
+  <si>
+    <t>Parede.200</t>
+  </si>
+  <si>
+    <t>Parede.300</t>
+  </si>
+  <si>
+    <t>LoD.Parede</t>
+  </si>
+  <si>
+    <t>Paredes</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1930,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1976,8 +2069,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2061,11 +2160,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2255,27 +2365,6 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2288,11 +2377,102 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="130">
+  <dxfs count="160">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2655,19 +2835,213 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0" tint="-0.499984740745262"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4023,15 +4397,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED84A63-55AB-497E-9EBD-4681BB9AFAFF}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.3046875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="66.53515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="60.84375" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.07421875" style="38"/>
   </cols>
   <sheetData>
@@ -4179,7 +4553,7 @@
       </c>
       <c r="B18" s="40">
         <f ca="1">NOW()</f>
-        <v>45915.608467013888</v>
+        <v>45922.595498726849</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4229,38 +4603,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96052D63-9637-42D9-866B-0BB924A50D8C}">
-  <dimension ref="A1:W81"/>
+  <dimension ref="A1:Y85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD7"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="7.2" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.4609375" customWidth="1"/>
     <col min="2" max="2" width="4.23046875" customWidth="1"/>
-    <col min="3" max="3" width="4.61328125" customWidth="1"/>
-    <col min="4" max="4" width="6.15234375" customWidth="1"/>
+    <col min="3" max="3" width="6.69140625" customWidth="1"/>
+    <col min="4" max="4" width="6.07421875" customWidth="1"/>
     <col min="5" max="5" width="8.765625" customWidth="1"/>
     <col min="6" max="6" width="9.23046875" customWidth="1"/>
     <col min="7" max="11" width="5.53515625" style="30" customWidth="1"/>
-    <col min="12" max="12" width="3.921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.765625" customWidth="1"/>
-    <col min="14" max="14" width="7.15234375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.53515625" customWidth="1"/>
+    <col min="13" max="13" width="6.61328125" customWidth="1"/>
+    <col min="14" max="14" width="7.07421875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="72.07421875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="66.4609375" customWidth="1"/>
-    <col min="18" max="18" width="3.84375" customWidth="1"/>
+    <col min="18" max="18" width="3.84375" style="30" customWidth="1"/>
     <col min="19" max="19" width="5.4609375" customWidth="1"/>
     <col min="20" max="20" width="6.4609375" customWidth="1"/>
     <col min="21" max="21" width="8.53515625" customWidth="1"/>
     <col min="22" max="22" width="6.84375" customWidth="1"/>
     <col min="23" max="23" width="7.84375" style="30" customWidth="1"/>
+    <col min="24" max="24" width="17.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32">
         <v>1</v>
       </c>
@@ -4330,8 +4705,14 @@
       <c r="W1" s="32" t="s">
         <v>8</v>
       </c>
+      <c r="X1" s="69" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y1" s="69" t="s">
+        <v>550</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="24">
         <v>2</v>
       </c>
@@ -4366,7 +4747,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="27" t="str">
-        <f t="shared" ref="L2:M28" si="0">CONCATENATE("", C2)</f>
+        <f t="shared" ref="L2:M32" si="0">CONCATENATE("", C2)</f>
         <v>Gestão</v>
       </c>
       <c r="M2" s="27" t="str">
@@ -4391,7 +4772,7 @@
         <v>9</v>
       </c>
       <c r="S2" s="29" t="str">
-        <f t="shared" ref="S2:U28" si="1">SUBSTITUTE(C2, ".", " ")</f>
+        <f t="shared" ref="S2:U32" si="1">SUBSTITUTE(C2, ".", " ")</f>
         <v>Gestão</v>
       </c>
       <c r="T2" s="29" t="str">
@@ -4406,28 +4787,34 @@
         <v>85</v>
       </c>
       <c r="W2" s="1" t="str">
-        <f>CONCATENATE("Key-Pare-",A2)</f>
-        <v>Key-Pare-2</v>
+        <f t="shared" ref="W2:W59" si="2">CONCATENATE("Key.",LEFT(C2,3),".",A2)</f>
+        <v>Key.Ges.2</v>
+      </c>
+      <c r="X2" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="24">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>267</v>
+      <c r="C3" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>264</v>
+        <v>579</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>250</v>
+        <v>578</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>534</v>
+        <v>575</v>
       </c>
       <c r="G3" s="31" t="s">
         <v>9</v>
@@ -4445,68 +4832,74 @@
         <v>9</v>
       </c>
       <c r="L3" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Parede</v>
+        <f t="shared" ref="L3" si="3">CONCATENATE("", C3)</f>
+        <v>Projeto.Básico</v>
       </c>
       <c r="M3" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Composição</v>
+        <f t="shared" ref="M3" si="4">CONCATENATE("", D3)</f>
+        <v>Paredes</v>
       </c>
       <c r="N3" s="27" t="str">
-        <f t="shared" ref="N3:N7" si="2">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
-        <v>Cola</v>
+        <f t="shared" ref="N3" si="5">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
+        <v>LoD Parede</v>
       </c>
       <c r="O3" s="22" t="str">
-        <f t="shared" ref="O3:O7" si="3">F3</f>
-        <v>Para.Madeira</v>
+        <f t="shared" ref="O3" si="6">F3</f>
+        <v>Parede.100</v>
       </c>
       <c r="P3" s="48" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="Q3" s="48" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="R3" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S3" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Parede</v>
+        <f t="shared" ref="S3" si="7">SUBSTITUTE(C3, ".", " ")</f>
+        <v>Projeto Básico</v>
       </c>
       <c r="T3" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Composição</v>
+        <f t="shared" ref="T3" si="8">SUBSTITUTE(D3, ".", " ")</f>
+        <v>Paredes</v>
       </c>
       <c r="U3" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Cola</v>
+        <f t="shared" ref="U3" si="9">SUBSTITUTE(E3, ".", " ")</f>
+        <v>LoD Parede</v>
       </c>
       <c r="V3" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3:W66" si="4">CONCATENATE("Key-Pare-",A3)</f>
-        <v>Key-Pare-3</v>
+        <f t="shared" ref="W3" si="10">CONCATENATE("Key.",LEFT(C3,3),".",A3)</f>
+        <v>Key.Pro.3</v>
+      </c>
+      <c r="X3" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y3" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="24">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>267</v>
+      <c r="C4" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>264</v>
+        <v>579</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>250</v>
+        <v>578</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>9</v>
@@ -4525,67 +4918,73 @@
       </c>
       <c r="L4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>Parede</v>
+        <v>Projeto.Básico</v>
       </c>
       <c r="M4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>Composição</v>
+        <v>Paredes</v>
       </c>
       <c r="N4" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>Cola</v>
+        <f t="shared" ref="N4:N6" si="11">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E4),"."," ")," De "," de "))</f>
+        <v>LoD Parede</v>
       </c>
       <c r="O4" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>Para.Metais</v>
+        <f t="shared" ref="O4:O6" si="12">F4</f>
+        <v>Parede.200</v>
       </c>
       <c r="P4" s="48" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="Q4" s="48" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="R4" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S4" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Parede</v>
+        <v>Projeto Básico</v>
       </c>
       <c r="T4" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Composição</v>
+        <v>Paredes</v>
       </c>
       <c r="U4" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Cola</v>
+        <v>LoD Parede</v>
       </c>
       <c r="V4" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-4</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pro.4</v>
+      </c>
+      <c r="X4" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y4" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="24">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>267</v>
+      <c r="C5" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>264</v>
+        <v>579</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>250</v>
+        <v>578</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>540</v>
+        <v>577</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>9</v>
@@ -4604,50 +5003,56 @@
       </c>
       <c r="L5" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>Parede</v>
+        <v>Projeto.Básico</v>
       </c>
       <c r="M5" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>Composição</v>
+        <v>Paredes</v>
       </c>
       <c r="N5" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>Cola</v>
+        <f t="shared" si="11"/>
+        <v>LoD Parede</v>
       </c>
       <c r="O5" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>Para.Texteis</v>
+        <f t="shared" si="12"/>
+        <v>Parede.300</v>
       </c>
       <c r="P5" s="48" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="Q5" s="48" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="R5" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S5" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Parede</v>
+        <v>Projeto Básico</v>
       </c>
       <c r="T5" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Composição</v>
+        <v>Paredes</v>
       </c>
       <c r="U5" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Cola</v>
+        <v>LoD Parede</v>
       </c>
       <c r="V5" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W5" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-5</v>
+        <f t="shared" si="2"/>
+        <v>Key.Pro.5</v>
+      </c>
+      <c r="X5" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y5" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="24">
         <v>6</v>
       </c>
@@ -4661,10 +5066,10 @@
         <v>264</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>250</v>
+        <v>559</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>9</v>
@@ -4690,18 +5095,18 @@
         <v>Composição</v>
       </c>
       <c r="N6" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>Cola</v>
+        <f t="shared" si="11"/>
+        <v>Núcleo</v>
       </c>
       <c r="O6" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>Para.Espumas</v>
+        <f t="shared" si="12"/>
+        <v>Núcleo.Parede</v>
       </c>
       <c r="P6" s="48" t="s">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="Q6" s="48" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="R6" s="28" t="s">
         <v>9</v>
@@ -4716,17 +5121,23 @@
       </c>
       <c r="U6" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Cola</v>
+        <v>Núcleo</v>
       </c>
       <c r="V6" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W6" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-6</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.6</v>
+      </c>
+      <c r="X6" s="70" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y6" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24">
         <v>7</v>
       </c>
@@ -4740,10 +5151,10 @@
         <v>264</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>546</v>
+        <v>219</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>9</v>
@@ -4769,18 +5180,18 @@
         <v>Composição</v>
       </c>
       <c r="N7" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v>Cola</v>
+        <f t="shared" ref="N7:N21" si="13">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E7),"."," ")," De "," de "))</f>
+        <v>Argamassa</v>
       </c>
       <c r="O7" s="22" t="str">
-        <f t="shared" si="3"/>
-        <v>Para.Louças</v>
-      </c>
-      <c r="P7" s="48" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q7" s="48" t="s">
-        <v>548</v>
+        <f t="shared" ref="O7:O21" si="14">F7</f>
+        <v>Assentamento</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q7" s="46" t="s">
+        <v>229</v>
       </c>
       <c r="R7" s="28" t="s">
         <v>9</v>
@@ -4795,17 +5206,23 @@
       </c>
       <c r="U7" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Cola</v>
+        <v>Argamassa</v>
       </c>
       <c r="V7" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W7" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-7</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.7</v>
+      </c>
+      <c r="X7" s="70" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y7" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="24">
         <v>8</v>
       </c>
@@ -4822,7 +5239,7 @@
         <v>219</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>9</v>
@@ -4848,18 +5265,18 @@
         <v>Composição</v>
       </c>
       <c r="N8" s="27" t="str">
-        <f t="shared" ref="N8:N17" si="5">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E8),"."," ")," De "," de "))</f>
+        <f t="shared" si="13"/>
         <v>Argamassa</v>
       </c>
       <c r="O8" s="22" t="str">
-        <f t="shared" ref="O8:O17" si="6">F8</f>
-        <v>Assentamento</v>
+        <f t="shared" si="14"/>
+        <v>Chapisco</v>
       </c>
       <c r="P8" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R8" s="28" t="s">
         <v>9</v>
@@ -4880,11 +5297,17 @@
         <v>101</v>
       </c>
       <c r="W8" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-8</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.8</v>
+      </c>
+      <c r="X8" s="70" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y8" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="24">
         <v>9</v>
       </c>
@@ -4901,7 +5324,7 @@
         <v>219</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>9</v>
@@ -4927,18 +5350,18 @@
         <v>Composição</v>
       </c>
       <c r="N9" s="27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>Argamassa</v>
       </c>
       <c r="O9" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>Chapisco</v>
+        <f t="shared" si="14"/>
+        <v>Emboço</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q9" s="46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R9" s="28" t="s">
         <v>9</v>
@@ -4959,11 +5382,17 @@
         <v>101</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-9</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.9</v>
+      </c>
+      <c r="X9" s="70" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y9" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="24">
         <v>10</v>
       </c>
@@ -4980,7 +5409,7 @@
         <v>219</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>9</v>
@@ -5006,18 +5435,18 @@
         <v>Composição</v>
       </c>
       <c r="N10" s="27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>Argamassa</v>
       </c>
       <c r="O10" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>Emboço</v>
+        <f t="shared" si="14"/>
+        <v>Reboco</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q10" s="46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="R10" s="28" t="s">
         <v>9</v>
@@ -5038,11 +5467,17 @@
         <v>101</v>
       </c>
       <c r="W10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-10</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.10</v>
+      </c>
+      <c r="X10" s="70" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y10" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="24">
         <v>11</v>
       </c>
@@ -5058,8 +5493,8 @@
       <c r="E11" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>240</v>
+      <c r="F11" s="26" t="s">
+        <v>257</v>
       </c>
       <c r="G11" s="31" t="s">
         <v>9</v>
@@ -5085,18 +5520,18 @@
         <v>Composição</v>
       </c>
       <c r="N11" s="27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>Argamassa</v>
       </c>
       <c r="O11" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>Reboco</v>
-      </c>
-      <c r="P11" s="22" t="s">
-        <v>226</v>
+        <f t="shared" si="14"/>
+        <v>Niveladora</v>
+      </c>
+      <c r="P11" s="48" t="s">
+        <v>241</v>
       </c>
       <c r="Q11" s="46" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="R11" s="28" t="s">
         <v>9</v>
@@ -5117,11 +5552,17 @@
         <v>101</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-11</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.11</v>
+      </c>
+      <c r="X11" s="70" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y11" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="24">
         <v>12</v>
       </c>
@@ -5138,7 +5579,7 @@
         <v>219</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>9</v>
@@ -5164,18 +5605,18 @@
         <v>Composição</v>
       </c>
       <c r="N12" s="27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>Argamassa</v>
       </c>
       <c r="O12" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>Niveladora</v>
+        <f t="shared" si="14"/>
+        <v>Colante</v>
       </c>
       <c r="P12" s="48" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="Q12" s="46" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="R12" s="28" t="s">
         <v>9</v>
@@ -5196,11 +5637,17 @@
         <v>101</v>
       </c>
       <c r="W12" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-12</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.12</v>
+      </c>
+      <c r="X12" s="70" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y12" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24">
         <v>13</v>
       </c>
@@ -5217,7 +5664,7 @@
         <v>219</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>9</v>
@@ -5243,18 +5690,18 @@
         <v>Composição</v>
       </c>
       <c r="N13" s="27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>Argamassa</v>
       </c>
       <c r="O13" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>Colante</v>
+        <f t="shared" si="14"/>
+        <v>Graute</v>
       </c>
       <c r="P13" s="48" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="46" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="R13" s="28" t="s">
         <v>9</v>
@@ -5275,11 +5722,17 @@
         <v>101</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-13</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.13</v>
+      </c>
+      <c r="X13" s="70" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y13" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="24">
         <v>14</v>
       </c>
@@ -5296,7 +5749,7 @@
         <v>219</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G14" s="31" t="s">
         <v>9</v>
@@ -5322,18 +5775,18 @@
         <v>Composição</v>
       </c>
       <c r="N14" s="27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>Argamassa</v>
       </c>
       <c r="O14" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>Graute</v>
+        <f t="shared" si="14"/>
+        <v>Polimérica</v>
       </c>
       <c r="P14" s="48" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R14" s="28" t="s">
         <v>9</v>
@@ -5354,11 +5807,17 @@
         <v>101</v>
       </c>
       <c r="W14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-14</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.14</v>
+      </c>
+      <c r="X14" s="70" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y14" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="24">
         <v>15</v>
       </c>
@@ -5375,7 +5834,7 @@
         <v>219</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>222</v>
+        <v>321</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>9</v>
@@ -5401,18 +5860,18 @@
         <v>Composição</v>
       </c>
       <c r="N15" s="27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>Argamassa</v>
       </c>
       <c r="O15" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>Polimérica</v>
+        <f t="shared" si="14"/>
+        <v>Rejunte</v>
       </c>
       <c r="P15" s="48" t="s">
-        <v>228</v>
+        <v>325</v>
       </c>
       <c r="Q15" s="46" t="s">
-        <v>234</v>
+        <v>326</v>
       </c>
       <c r="R15" s="28" t="s">
         <v>9</v>
@@ -5433,11 +5892,17 @@
         <v>101</v>
       </c>
       <c r="W15" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-15</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.15</v>
+      </c>
+      <c r="X15" s="70" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y15" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="24">
         <v>16</v>
       </c>
@@ -5454,7 +5919,7 @@
         <v>219</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>321</v>
+        <v>515</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>9</v>
@@ -5480,18 +5945,18 @@
         <v>Composição</v>
       </c>
       <c r="N16" s="27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>Argamassa</v>
       </c>
       <c r="O16" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>Rejunte</v>
+        <f t="shared" si="14"/>
+        <v>Baritada</v>
       </c>
       <c r="P16" s="48" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q16" s="46" t="s">
-        <v>326</v>
+        <v>519</v>
+      </c>
+      <c r="Q16" s="48" t="s">
+        <v>520</v>
       </c>
       <c r="R16" s="28" t="s">
         <v>9</v>
@@ -5512,11 +5977,17 @@
         <v>101</v>
       </c>
       <c r="W16" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-16</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.16</v>
+      </c>
+      <c r="X16" s="70" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y16" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="24">
         <v>17</v>
       </c>
@@ -5530,10 +6001,10 @@
         <v>264</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="G17" s="31" t="s">
         <v>9</v>
@@ -5551,528 +6022,567 @@
         <v>9</v>
       </c>
       <c r="L17" s="27" t="str">
+        <f t="shared" ref="L17:L21" si="15">CONCATENATE("", C17)</f>
+        <v>Parede</v>
+      </c>
+      <c r="M17" s="27" t="str">
+        <f t="shared" ref="M17:M21" si="16">CONCATENATE("", D17)</f>
+        <v>Composição</v>
+      </c>
+      <c r="N17" s="27" t="str">
+        <f t="shared" si="13"/>
+        <v>Cola</v>
+      </c>
+      <c r="O17" s="22" t="str">
+        <f t="shared" si="14"/>
+        <v>Para.Madeira</v>
+      </c>
+      <c r="P17" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q17" s="48" t="s">
+        <v>536</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" s="29" t="str">
+        <f t="shared" ref="S17:S21" si="17">SUBSTITUTE(C17, ".", " ")</f>
+        <v>Parede</v>
+      </c>
+      <c r="T17" s="29" t="str">
+        <f t="shared" ref="T17:T21" si="18">SUBSTITUTE(D17, ".", " ")</f>
+        <v>Composição</v>
+      </c>
+      <c r="U17" s="29" t="str">
+        <f t="shared" ref="U17:U21" si="19">SUBSTITUTE(E17, ".", " ")</f>
+        <v>Cola</v>
+      </c>
+      <c r="V17" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W17" s="1" t="str">
+        <f t="shared" ref="W17:W21" si="20">CONCATENATE("Key.",LEFT(C17,3),".",A17)</f>
+        <v>Key.Par.17</v>
+      </c>
+      <c r="X17" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y17" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="24">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="27" t="str">
+        <f t="shared" si="15"/>
+        <v>Parede</v>
+      </c>
+      <c r="M18" s="27" t="str">
+        <f t="shared" si="16"/>
+        <v>Composição</v>
+      </c>
+      <c r="N18" s="27" t="str">
+        <f t="shared" si="13"/>
+        <v>Cola</v>
+      </c>
+      <c r="O18" s="22" t="str">
+        <f t="shared" si="14"/>
+        <v>Para.Metais</v>
+      </c>
+      <c r="P18" s="48" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q18" s="48" t="s">
+        <v>539</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" s="29" t="str">
+        <f t="shared" si="17"/>
+        <v>Parede</v>
+      </c>
+      <c r="T18" s="29" t="str">
+        <f t="shared" si="18"/>
+        <v>Composição</v>
+      </c>
+      <c r="U18" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v>Cola</v>
+      </c>
+      <c r="V18" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W18" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Key.Par.18</v>
+      </c>
+      <c r="X18" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y18" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="24">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="27" t="str">
+        <f t="shared" si="15"/>
+        <v>Parede</v>
+      </c>
+      <c r="M19" s="27" t="str">
+        <f t="shared" si="16"/>
+        <v>Composição</v>
+      </c>
+      <c r="N19" s="27" t="str">
+        <f t="shared" si="13"/>
+        <v>Cola</v>
+      </c>
+      <c r="O19" s="22" t="str">
+        <f t="shared" si="14"/>
+        <v>Para.Texteis</v>
+      </c>
+      <c r="P19" s="48" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q19" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="R19" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="29" t="str">
+        <f t="shared" si="17"/>
+        <v>Parede</v>
+      </c>
+      <c r="T19" s="29" t="str">
+        <f t="shared" si="18"/>
+        <v>Composição</v>
+      </c>
+      <c r="U19" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v>Cola</v>
+      </c>
+      <c r="V19" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W19" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Key.Par.19</v>
+      </c>
+      <c r="X19" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y19" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="24">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="27" t="str">
+        <f t="shared" si="15"/>
+        <v>Parede</v>
+      </c>
+      <c r="M20" s="27" t="str">
+        <f t="shared" si="16"/>
+        <v>Composição</v>
+      </c>
+      <c r="N20" s="27" t="str">
+        <f t="shared" si="13"/>
+        <v>Cola</v>
+      </c>
+      <c r="O20" s="22" t="str">
+        <f t="shared" si="14"/>
+        <v>Para.Espumas</v>
+      </c>
+      <c r="P20" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q20" s="48" t="s">
+        <v>545</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" s="29" t="str">
+        <f t="shared" si="17"/>
+        <v>Parede</v>
+      </c>
+      <c r="T20" s="29" t="str">
+        <f t="shared" si="18"/>
+        <v>Composição</v>
+      </c>
+      <c r="U20" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v>Cola</v>
+      </c>
+      <c r="V20" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W20" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Key.Par.20</v>
+      </c>
+      <c r="X20" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y20" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="24">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="27" t="str">
+        <f t="shared" si="15"/>
+        <v>Parede</v>
+      </c>
+      <c r="M21" s="27" t="str">
+        <f t="shared" si="16"/>
+        <v>Composição</v>
+      </c>
+      <c r="N21" s="27" t="str">
+        <f t="shared" si="13"/>
+        <v>Cola</v>
+      </c>
+      <c r="O21" s="22" t="str">
+        <f t="shared" si="14"/>
+        <v>Para.Louças</v>
+      </c>
+      <c r="P21" s="48" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q21" s="48" t="s">
+        <v>548</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" s="29" t="str">
+        <f t="shared" si="17"/>
+        <v>Parede</v>
+      </c>
+      <c r="T21" s="29" t="str">
+        <f t="shared" si="18"/>
+        <v>Composição</v>
+      </c>
+      <c r="U21" s="29" t="str">
+        <f t="shared" si="19"/>
+        <v>Cola</v>
+      </c>
+      <c r="V21" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W21" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Key.Par.21</v>
+      </c>
+      <c r="X21" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y21" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="24">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="G22" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="27" t="str">
+        <f t="shared" ref="L22" si="21">CONCATENATE("", C22)</f>
+        <v>Parede</v>
+      </c>
+      <c r="M22" s="27" t="str">
+        <f t="shared" ref="M22" si="22">CONCATENATE("", D22)</f>
+        <v>Composição</v>
+      </c>
+      <c r="N22" s="27" t="str">
+        <f t="shared" ref="N22" si="23">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E22),"."," ")," De "," de "))</f>
+        <v>Pré Fabricado</v>
+      </c>
+      <c r="O22" s="22" t="str">
+        <f t="shared" ref="O22" si="24">F22</f>
+        <v>Painel.Maciço</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q22" s="46" t="s">
+        <v>567</v>
+      </c>
+      <c r="R22" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" s="29" t="str">
+        <f t="shared" ref="S22" si="25">SUBSTITUTE(C22, ".", " ")</f>
+        <v>Parede</v>
+      </c>
+      <c r="T22" s="29" t="str">
+        <f t="shared" ref="T22" si="26">SUBSTITUTE(D22, ".", " ")</f>
+        <v>Composição</v>
+      </c>
+      <c r="U22" s="29" t="str">
+        <f t="shared" ref="U22" si="27">SUBSTITUTE(E22, ".", " ")</f>
+        <v>Pré Fabricado</v>
+      </c>
+      <c r="V22" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>Key.Par.22</v>
+      </c>
+      <c r="X22" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y22" s="70" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="24">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Parede</v>
       </c>
-      <c r="M17" s="27" t="str">
+      <c r="M23" s="27" t="str">
         <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
-      <c r="N17" s="27" t="str">
-        <f t="shared" si="5"/>
-        <v>Argamassa</v>
-      </c>
-      <c r="O17" s="22" t="str">
-        <f t="shared" si="6"/>
-        <v>Baritada</v>
-      </c>
-      <c r="P17" s="48" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q17" s="48" t="s">
-        <v>520</v>
-      </c>
-      <c r="R17" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S17" s="29" t="str">
+      <c r="N23" s="27" t="str">
+        <f t="shared" ref="N23" si="28">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E23),"."," ")," De "," de "))</f>
+        <v>Pré Fabricado</v>
+      </c>
+      <c r="O23" s="22" t="str">
+        <f t="shared" ref="O23" si="29">F23</f>
+        <v>Painel.Alveolar</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q23" s="46" t="s">
+        <v>568</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" s="29" t="str">
         <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
-      <c r="T17" s="29" t="str">
+      <c r="T23" s="29" t="str">
         <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
-      <c r="U17" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Argamassa</v>
-      </c>
-      <c r="V17" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="W17" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="24">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="27" t="str">
-        <f t="shared" ref="L18" si="7">CONCATENATE("", C18)</f>
-        <v>Parede</v>
-      </c>
-      <c r="M18" s="27" t="str">
-        <f t="shared" ref="M18" si="8">CONCATENATE("", D18)</f>
-        <v>Composição</v>
-      </c>
-      <c r="N18" s="27" t="str">
-        <f t="shared" ref="N18" si="9">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E18),"."," ")," De "," de "))</f>
-        <v>Pré Fabricado</v>
-      </c>
-      <c r="O18" s="22" t="str">
-        <f t="shared" ref="O18" si="10">F18</f>
-        <v>Painel.Maciço</v>
-      </c>
-      <c r="P18" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q18" s="46" t="str">
-        <f>_xlfn.TRANSLATE(P18,"pt","es")</f>
-        <v>Panel sólido de hormigón prefabricado de alto rendimiento.</v>
-      </c>
-      <c r="R18" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" s="29" t="str">
-        <f t="shared" ref="S18" si="11">SUBSTITUTE(C18, ".", " ")</f>
-        <v>Parede</v>
-      </c>
-      <c r="T18" s="29" t="str">
-        <f t="shared" ref="T18" si="12">SUBSTITUTE(D18, ".", " ")</f>
-        <v>Composição</v>
-      </c>
-      <c r="U18" s="29" t="str">
-        <f t="shared" ref="U18" si="13">SUBSTITUTE(E18, ".", " ")</f>
-        <v>Pré Fabricado</v>
-      </c>
-      <c r="V18" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="W18" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="24">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Parede</v>
-      </c>
-      <c r="M19" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Composição</v>
-      </c>
-      <c r="N19" s="27" t="str">
-        <f t="shared" ref="N19" si="14">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E19),"."," ")," De "," de "))</f>
-        <v>Pré Fabricado</v>
-      </c>
-      <c r="O19" s="22" t="str">
-        <f t="shared" ref="O19" si="15">F19</f>
-        <v>Painel.Alveolar</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q19" s="46" t="str">
-        <f>_xlfn.TRANSLATE(P19,"pt","es")</f>
-        <v>Panel prefabricado de hormigón pretensado en nido de abeja.</v>
-      </c>
-      <c r="R19" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S19" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Parede</v>
-      </c>
-      <c r="T19" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Composição</v>
-      </c>
-      <c r="U19" s="29" t="str">
+      <c r="U23" s="29" t="str">
         <f t="shared" si="1"/>
         <v>Pré Fabricado</v>
       </c>
-      <c r="V19" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="W19" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="24">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="27" t="str">
-        <f t="shared" ref="L20:L23" si="16">CONCATENATE("", C20)</f>
-        <v>Parede</v>
-      </c>
-      <c r="M20" s="27" t="str">
-        <f t="shared" ref="M20:M23" si="17">CONCATENATE("", D20)</f>
-        <v>Composição</v>
-      </c>
-      <c r="N20" s="27" t="str">
-        <f t="shared" ref="N20:N23" si="18">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E20),"."," ")," De "," de "))</f>
-        <v>Concreto Armado</v>
-      </c>
-      <c r="O20" s="22" t="str">
-        <f t="shared" ref="O20:O23" si="19">F20</f>
-        <v>Parede.CA</v>
-      </c>
-      <c r="P20" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q20" s="46" t="str">
-        <f>_xlfn.TRANSLATE(P20,"pt","es")</f>
-        <v>Muros estructurales moldeados in situ de hormigón armado.</v>
-      </c>
-      <c r="R20" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S20" s="29" t="str">
-        <f t="shared" ref="S20:S23" si="20">SUBSTITUTE(C20, ".", " ")</f>
-        <v>Parede</v>
-      </c>
-      <c r="T20" s="29" t="str">
-        <f t="shared" ref="T20:T23" si="21">SUBSTITUTE(D20, ".", " ")</f>
-        <v>Composição</v>
-      </c>
-      <c r="U20" s="29" t="str">
-        <f t="shared" ref="U20:U23" si="22">SUBSTITUTE(E20, ".", " ")</f>
-        <v>Concreto Armado</v>
-      </c>
-      <c r="V20" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="W20" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="24">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="27" t="str">
-        <f t="shared" si="16"/>
-        <v>Parede</v>
-      </c>
-      <c r="M21" s="27" t="str">
-        <f t="shared" si="17"/>
-        <v>Composição</v>
-      </c>
-      <c r="N21" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>Bloco Concreto</v>
-      </c>
-      <c r="O21" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v>Bloco.CCA</v>
-      </c>
-      <c r="P21" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q21" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="R21" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S21" s="29" t="str">
-        <f t="shared" si="20"/>
-        <v>Parede</v>
-      </c>
-      <c r="T21" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v>Composição</v>
-      </c>
-      <c r="U21" s="29" t="str">
-        <f t="shared" si="22"/>
-        <v>Bloco Concreto</v>
-      </c>
-      <c r="V21" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="W21" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="24">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H22" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L22" s="27" t="str">
-        <f t="shared" si="16"/>
-        <v>Parede</v>
-      </c>
-      <c r="M22" s="27" t="str">
-        <f t="shared" si="17"/>
-        <v>Composição</v>
-      </c>
-      <c r="N22" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>Bloco Concreto</v>
-      </c>
-      <c r="O22" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v>Bloco.Estrutural</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q22" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="R22" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S22" s="29" t="str">
-        <f t="shared" si="20"/>
-        <v>Parede</v>
-      </c>
-      <c r="T22" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v>Composição</v>
-      </c>
-      <c r="U22" s="29" t="str">
-        <f t="shared" si="22"/>
-        <v>Bloco Concreto</v>
-      </c>
-      <c r="V22" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="W22" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="24">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>267</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="27" t="str">
-        <f t="shared" si="16"/>
-        <v>Parede</v>
-      </c>
-      <c r="M23" s="27" t="str">
-        <f t="shared" si="17"/>
-        <v>Composição</v>
-      </c>
-      <c r="N23" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>Bloco Concreto</v>
-      </c>
-      <c r="O23" s="22" t="str">
-        <f t="shared" si="19"/>
-        <v>Bloco.Vedação</v>
-      </c>
-      <c r="P23" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q23" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="R23" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S23" s="29" t="str">
-        <f t="shared" si="20"/>
-        <v>Parede</v>
-      </c>
-      <c r="T23" s="29" t="str">
-        <f t="shared" si="21"/>
-        <v>Composição</v>
-      </c>
-      <c r="U23" s="29" t="str">
-        <f t="shared" si="22"/>
-        <v>Bloco Concreto</v>
-      </c>
       <c r="V23" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W23" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-23</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.23</v>
+      </c>
+      <c r="X23" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y23" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="24">
         <v>24</v>
       </c>
@@ -6086,10 +6596,10 @@
         <v>264</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="G24" s="31" t="s">
         <v>9</v>
@@ -6107,52 +6617,57 @@
         <v>9</v>
       </c>
       <c r="L24" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L24:L27" si="30">CONCATENATE("", C24)</f>
         <v>Parede</v>
       </c>
       <c r="M24" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M24:M27" si="31">CONCATENATE("", D24)</f>
         <v>Composição</v>
       </c>
       <c r="N24" s="27" t="str">
-        <f t="shared" ref="N24" si="23">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E24),"."," ")," De "," de "))</f>
-        <v>Bloco Gesso</v>
+        <f t="shared" ref="N24:N27" si="32">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E24),"."," ")," De "," de "))</f>
+        <v>Concreto Armado</v>
       </c>
       <c r="O24" s="22" t="str">
-        <f t="shared" ref="O24" si="24">F24</f>
-        <v>Bloco.Maciço</v>
+        <f t="shared" ref="O24:O27" si="33">F24</f>
+        <v>Parede.CA</v>
       </c>
       <c r="P24" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q24" s="46" t="str">
-        <f>_xlfn.TRANSLATE(P24,"pt","es")</f>
-        <v>Bloques de yeso macizo para paredes internas no portantes. Rapidez de ejecución y obtención de una pared limpia y lisa.</v>
+        <v>313</v>
+      </c>
+      <c r="Q24" s="46" t="s">
+        <v>569</v>
       </c>
       <c r="R24" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S24" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S24:S27" si="34">SUBSTITUTE(C24, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T24" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T24:T27" si="35">SUBSTITUTE(D24, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U24" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Bloco Gesso</v>
+        <f t="shared" ref="U24:U27" si="36">SUBSTITUTE(E24, ".", " ")</f>
+        <v>Concreto Armado</v>
       </c>
       <c r="V24" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W24" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-24</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.24</v>
+      </c>
+      <c r="X24" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y24" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="24">
         <v>25</v>
       </c>
@@ -6166,10 +6681,10 @@
         <v>264</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G25" s="31" t="s">
         <v>9</v>
@@ -6187,52 +6702,57 @@
         <v>9</v>
       </c>
       <c r="L25" s="27" t="str">
-        <f t="shared" ref="L25" si="25">CONCATENATE("", C25)</f>
+        <f t="shared" si="30"/>
         <v>Parede</v>
       </c>
       <c r="M25" s="27" t="str">
-        <f t="shared" ref="M25" si="26">CONCATENATE("", D25)</f>
+        <f t="shared" si="31"/>
         <v>Composição</v>
       </c>
       <c r="N25" s="27" t="str">
-        <f t="shared" ref="N25" si="27">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E25),"."," ")," De "," de "))</f>
-        <v>Bloco Gesso</v>
+        <f t="shared" si="32"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="O25" s="22" t="str">
-        <f t="shared" ref="O25" si="28">F25</f>
-        <v>Bloco.Alveolar</v>
+        <f t="shared" si="33"/>
+        <v>Bloco.CCA</v>
       </c>
       <c r="P25" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q25" s="46" t="str">
-        <f>_xlfn.TRANSLATE(P25,"pt","es")</f>
-        <v>Bloques de yeso huecos para paredes internas no portantes. Rapidez de ejecución y obtención de una pared limpia y lisa.</v>
+        <v>305</v>
+      </c>
+      <c r="Q25" s="46" t="s">
+        <v>304</v>
       </c>
       <c r="R25" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S25" s="29" t="str">
-        <f t="shared" ref="S25" si="29">SUBSTITUTE(C25, ".", " ")</f>
+        <f t="shared" si="34"/>
         <v>Parede</v>
       </c>
       <c r="T25" s="29" t="str">
-        <f t="shared" ref="T25" si="30">SUBSTITUTE(D25, ".", " ")</f>
+        <f t="shared" si="35"/>
         <v>Composição</v>
       </c>
       <c r="U25" s="29" t="str">
-        <f t="shared" ref="U25" si="31">SUBSTITUTE(E25, ".", " ")</f>
-        <v>Bloco Gesso</v>
+        <f t="shared" si="36"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="V25" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W25" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-25</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.25</v>
+      </c>
+      <c r="X25" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y25" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="24">
         <v>26</v>
       </c>
@@ -6246,10 +6766,10 @@
         <v>264</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G26" s="31" t="s">
         <v>9</v>
@@ -6267,51 +6787,57 @@
         <v>9</v>
       </c>
       <c r="L26" s="27" t="str">
-        <f t="shared" ref="L26:L28" si="32">CONCATENATE("", C26)</f>
+        <f t="shared" si="30"/>
         <v>Parede</v>
       </c>
       <c r="M26" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="31"/>
         <v>Composição</v>
       </c>
       <c r="N26" s="27" t="str">
-        <f t="shared" ref="N26:N28" si="33">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E26),"."," ")," De "," de "))</f>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" si="32"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="O26" s="22" t="str">
-        <f t="shared" ref="O26:O28" si="34">F26</f>
-        <v>Tijolo.Comúm</v>
-      </c>
-      <c r="P26" s="48" t="s">
-        <v>282</v>
+        <f t="shared" si="33"/>
+        <v>Bloco.Estrutural</v>
+      </c>
+      <c r="P26" s="22" t="s">
+        <v>280</v>
       </c>
       <c r="Q26" s="46" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R26" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S26" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="34"/>
         <v>Parede</v>
       </c>
       <c r="T26" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="35"/>
         <v>Composição</v>
       </c>
       <c r="U26" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" si="36"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="V26" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W26" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-26</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.26</v>
+      </c>
+      <c r="X26" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y26" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="24">
         <v>27</v>
       </c>
@@ -6325,10 +6851,10 @@
         <v>264</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>441</v>
+        <v>124</v>
       </c>
       <c r="G27" s="31" t="s">
         <v>9</v>
@@ -6346,51 +6872,57 @@
         <v>9</v>
       </c>
       <c r="L27" s="27" t="str">
-        <f t="shared" ref="L27" si="35">CONCATENATE("", C27)</f>
+        <f t="shared" si="30"/>
         <v>Parede</v>
       </c>
       <c r="M27" s="27" t="str">
-        <f t="shared" ref="M27" si="36">CONCATENATE("", D27)</f>
+        <f t="shared" si="31"/>
         <v>Composição</v>
       </c>
       <c r="N27" s="27" t="str">
-        <f t="shared" ref="N27" si="37">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E27),"."," ")," De "," de "))</f>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" si="32"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="O27" s="22" t="str">
-        <f t="shared" ref="O27" si="38">F27</f>
-        <v>Tijolo.Laminado</v>
+        <f t="shared" si="33"/>
+        <v>Bloco.Vedação</v>
       </c>
       <c r="P27" s="22" t="s">
-        <v>442</v>
+        <v>281</v>
       </c>
       <c r="Q27" s="46" t="s">
-        <v>443</v>
+        <v>284</v>
       </c>
       <c r="R27" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S27" s="29" t="str">
-        <f t="shared" ref="S27" si="39">SUBSTITUTE(C27, ".", " ")</f>
+        <f t="shared" si="34"/>
         <v>Parede</v>
       </c>
       <c r="T27" s="29" t="str">
-        <f t="shared" ref="T27" si="40">SUBSTITUTE(D27, ".", " ")</f>
+        <f t="shared" si="35"/>
         <v>Composição</v>
       </c>
       <c r="U27" s="29" t="str">
-        <f t="shared" ref="U27" si="41">SUBSTITUTE(E27, ".", " ")</f>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" si="36"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="V27" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W27" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-27</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.27</v>
+      </c>
+      <c r="X27" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y27" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="24">
         <v>28</v>
       </c>
@@ -6404,10 +6936,10 @@
         <v>264</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="G28" s="31" t="s">
         <v>9</v>
@@ -6425,7 +6957,7 @@
         <v>9</v>
       </c>
       <c r="L28" s="27" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="0"/>
         <v>Parede</v>
       </c>
       <c r="M28" s="27" t="str">
@@ -6433,18 +6965,18 @@
         <v>Composição</v>
       </c>
       <c r="N28" s="27" t="str">
-        <f t="shared" si="33"/>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" ref="N28" si="37">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E28),"."," ")," De "," de "))</f>
+        <v>Bloco Gesso</v>
       </c>
       <c r="O28" s="22" t="str">
-        <f t="shared" si="34"/>
-        <v>Tijolo.Refratário</v>
-      </c>
-      <c r="P28" s="46" t="s">
-        <v>345</v>
+        <f t="shared" ref="O28" si="38">F28</f>
+        <v>Bloco.Maciço</v>
+      </c>
+      <c r="P28" s="22" t="s">
+        <v>297</v>
       </c>
       <c r="Q28" s="46" t="s">
-        <v>346</v>
+        <v>570</v>
       </c>
       <c r="R28" s="28" t="s">
         <v>9</v>
@@ -6459,17 +6991,23 @@
       </c>
       <c r="U28" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Bloco Cerâmico</v>
+        <v>Bloco Gesso</v>
       </c>
       <c r="V28" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W28" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-28</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.28</v>
+      </c>
+      <c r="X28" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y28" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="24">
         <v>29</v>
       </c>
@@ -6483,10 +7021,10 @@
         <v>264</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G29" s="31" t="s">
         <v>9</v>
@@ -6504,51 +7042,57 @@
         <v>9</v>
       </c>
       <c r="L29" s="27" t="str">
-        <f t="shared" ref="L29" si="42">CONCATENATE("", C29)</f>
+        <f t="shared" ref="L29" si="39">CONCATENATE("", C29)</f>
         <v>Parede</v>
       </c>
       <c r="M29" s="27" t="str">
-        <f t="shared" ref="M29" si="43">CONCATENATE("", D29)</f>
+        <f t="shared" ref="M29" si="40">CONCATENATE("", D29)</f>
         <v>Composição</v>
       </c>
       <c r="N29" s="27" t="str">
-        <f t="shared" ref="N29" si="44">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E29),"."," ")," De "," de "))</f>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" ref="N29" si="41">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E29),"."," ")," De "," de "))</f>
+        <v>Bloco Gesso</v>
       </c>
       <c r="O29" s="22" t="str">
-        <f t="shared" ref="O29" si="45">F29</f>
-        <v>Bloco.Furado</v>
+        <f t="shared" ref="O29" si="42">F29</f>
+        <v>Bloco.Alveolar</v>
       </c>
       <c r="P29" s="22" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="Q29" s="46" t="s">
-        <v>365</v>
+        <v>571</v>
       </c>
       <c r="R29" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S29" s="29" t="str">
-        <f t="shared" ref="S29" si="46">SUBSTITUTE(C29, ".", " ")</f>
+        <f t="shared" ref="S29" si="43">SUBSTITUTE(C29, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T29" s="29" t="str">
-        <f t="shared" ref="T29" si="47">SUBSTITUTE(D29, ".", " ")</f>
+        <f t="shared" ref="T29" si="44">SUBSTITUTE(D29, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U29" s="29" t="str">
-        <f t="shared" ref="U29" si="48">SUBSTITUTE(E29, ".", " ")</f>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" ref="U29" si="45">SUBSTITUTE(E29, ".", " ")</f>
+        <v>Bloco Gesso</v>
       </c>
       <c r="V29" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W29" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-29</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.29</v>
+      </c>
+      <c r="X29" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y29" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="24">
         <v>30</v>
       </c>
@@ -6565,7 +7109,7 @@
         <v>270</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>366</v>
+        <v>123</v>
       </c>
       <c r="G30" s="31" t="s">
         <v>9</v>
@@ -6583,51 +7127,57 @@
         <v>9</v>
       </c>
       <c r="L30" s="27" t="str">
-        <f t="shared" ref="L30" si="49">CONCATENATE("", C30)</f>
+        <f t="shared" ref="L30:L32" si="46">CONCATENATE("", C30)</f>
         <v>Parede</v>
       </c>
       <c r="M30" s="27" t="str">
-        <f t="shared" ref="M30" si="50">CONCATENATE("", D30)</f>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N30" s="27" t="str">
-        <f t="shared" ref="N30" si="51">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E30),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N30:N32" si="47">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E30),"."," ")," De "," de "))</f>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="O30" s="22" t="str">
-        <f t="shared" ref="O30" si="52">F30</f>
-        <v>Ecológico</v>
-      </c>
-      <c r="P30" s="22" t="s">
-        <v>372</v>
+        <f t="shared" ref="O30:O32" si="48">F30</f>
+        <v>Tijolo.Comúm</v>
+      </c>
+      <c r="P30" s="48" t="s">
+        <v>282</v>
       </c>
       <c r="Q30" s="46" t="s">
-        <v>371</v>
+        <v>285</v>
       </c>
       <c r="R30" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S30" s="29" t="str">
-        <f t="shared" ref="S30" si="53">SUBSTITUTE(C30, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T30" s="29" t="str">
-        <f t="shared" ref="T30" si="54">SUBSTITUTE(D30, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U30" s="29" t="str">
-        <f t="shared" ref="U30" si="55">SUBSTITUTE(E30, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="V30" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W30" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-30</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.30</v>
+      </c>
+      <c r="X30" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y30" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="24">
         <v>31</v>
       </c>
@@ -6644,7 +7194,7 @@
         <v>270</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>106</v>
+        <v>441</v>
       </c>
       <c r="G31" s="31" t="s">
         <v>9</v>
@@ -6662,51 +7212,57 @@
         <v>9</v>
       </c>
       <c r="L31" s="27" t="str">
-        <f t="shared" ref="L31:L81" si="56">CONCATENATE("", C31)</f>
+        <f t="shared" ref="L31" si="49">CONCATENATE("", C31)</f>
         <v>Parede</v>
       </c>
       <c r="M31" s="27" t="str">
-        <f t="shared" ref="M31:M81" si="57">CONCATENATE("", D31)</f>
+        <f t="shared" ref="M31" si="50">CONCATENATE("", D31)</f>
         <v>Composição</v>
       </c>
       <c r="N31" s="27" t="str">
-        <f t="shared" ref="N31:N81" si="58">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E31),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N31" si="51">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E31),"."," ")," De "," de "))</f>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="O31" s="22" t="str">
-        <f t="shared" ref="O31:O81" si="59">F31</f>
-        <v>Canaleta.J</v>
+        <f t="shared" ref="O31" si="52">F31</f>
+        <v>Tijolo.Laminado</v>
       </c>
       <c r="P31" s="22" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="Q31" s="46" t="s">
-        <v>142</v>
+        <v>443</v>
       </c>
       <c r="R31" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S31" s="29" t="str">
-        <f t="shared" ref="S31:S81" si="60">SUBSTITUTE(C31, ".", " ")</f>
+        <f t="shared" ref="S31" si="53">SUBSTITUTE(C31, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T31" s="29" t="str">
-        <f t="shared" ref="T31:T81" si="61">SUBSTITUTE(D31, ".", " ")</f>
+        <f t="shared" ref="T31" si="54">SUBSTITUTE(D31, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U31" s="29" t="str">
-        <f t="shared" ref="U31:U81" si="62">SUBSTITUTE(E31, ".", " ")</f>
+        <f t="shared" ref="U31" si="55">SUBSTITUTE(E31, ".", " ")</f>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="V31" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W31" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-31</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.31</v>
+      </c>
+      <c r="X31" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y31" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="24">
         <v>32</v>
       </c>
@@ -6723,7 +7279,7 @@
         <v>270</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>107</v>
+        <v>344</v>
       </c>
       <c r="G32" s="31" t="s">
         <v>9</v>
@@ -6741,51 +7297,57 @@
         <v>9</v>
       </c>
       <c r="L32" s="27" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="46"/>
         <v>Parede</v>
       </c>
       <c r="M32" s="27" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N32" s="27" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="47"/>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="O32" s="22" t="str">
-        <f t="shared" si="59"/>
-        <v>Canaleta.U</v>
-      </c>
-      <c r="P32" s="22" t="s">
-        <v>426</v>
+        <f t="shared" si="48"/>
+        <v>Tijolo.Refratário</v>
+      </c>
+      <c r="P32" s="46" t="s">
+        <v>345</v>
       </c>
       <c r="Q32" s="46" t="s">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="R32" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S32" s="29" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T32" s="29" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U32" s="29" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="1"/>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="V32" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W32" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-32</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.32</v>
+      </c>
+      <c r="X32" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y32" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="24">
         <v>33</v>
       </c>
@@ -6799,10 +7361,10 @@
         <v>264</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G33" s="31" t="s">
         <v>9</v>
@@ -6820,51 +7382,57 @@
         <v>9</v>
       </c>
       <c r="L33" s="27" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="L33" si="56">CONCATENATE("", C33)</f>
         <v>Parede</v>
       </c>
       <c r="M33" s="27" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="M33" si="57">CONCATENATE("", D33)</f>
         <v>Composição</v>
       </c>
       <c r="N33" s="27" t="str">
-        <f t="shared" si="58"/>
-        <v>Bloco Translúcido</v>
+        <f t="shared" ref="N33" si="58">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E33),"."," ")," De "," de "))</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="O33" s="22" t="str">
-        <f t="shared" si="59"/>
-        <v>Cobogô</v>
+        <f t="shared" ref="O33" si="59">F33</f>
+        <v>Bloco.Furado</v>
       </c>
       <c r="P33" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q33" s="22" t="s">
-        <v>367</v>
+        <v>364</v>
+      </c>
+      <c r="Q33" s="46" t="s">
+        <v>365</v>
       </c>
       <c r="R33" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S33" s="29" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="S33" si="60">SUBSTITUTE(C33, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T33" s="29" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="T33" si="61">SUBSTITUTE(D33, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U33" s="29" t="str">
-        <f t="shared" si="62"/>
-        <v>Bloco Translúcido</v>
+        <f t="shared" ref="U33" si="62">SUBSTITUTE(E33, ".", " ")</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="V33" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W33" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-33</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.33</v>
+      </c>
+      <c r="X33" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y33" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="24">
         <v>34</v>
       </c>
@@ -6878,10 +7446,10 @@
         <v>264</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>279</v>
+        <v>366</v>
       </c>
       <c r="G34" s="31" t="s">
         <v>9</v>
@@ -6899,51 +7467,57 @@
         <v>9</v>
       </c>
       <c r="L34" s="27" t="str">
-        <f t="shared" ref="L34:L54" si="63">CONCATENATE("", C34)</f>
+        <f t="shared" ref="L34" si="63">CONCATENATE("", C34)</f>
         <v>Parede</v>
       </c>
       <c r="M34" s="27" t="str">
-        <f t="shared" ref="M34:M54" si="64">CONCATENATE("", D34)</f>
+        <f t="shared" ref="M34" si="64">CONCATENATE("", D34)</f>
         <v>Composição</v>
       </c>
       <c r="N34" s="27" t="str">
-        <f t="shared" ref="N34:N54" si="65">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E34),"."," ")," De "," de "))</f>
-        <v>Bloco Translúcido</v>
+        <f t="shared" ref="N34" si="65">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E34),"."," ")," De "," de "))</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="O34" s="22" t="str">
-        <f t="shared" ref="O34:O54" si="66">F34</f>
-        <v>Tijolo.Vidro</v>
+        <f t="shared" ref="O34" si="66">F34</f>
+        <v>Ecológico</v>
       </c>
       <c r="P34" s="22" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q34" s="46" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R34" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S34" s="29" t="str">
-        <f t="shared" ref="S34:S54" si="67">SUBSTITUTE(C34, ".", " ")</f>
+        <f t="shared" ref="S34" si="67">SUBSTITUTE(C34, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T34" s="29" t="str">
-        <f t="shared" ref="T34:T54" si="68">SUBSTITUTE(D34, ".", " ")</f>
+        <f t="shared" ref="T34" si="68">SUBSTITUTE(D34, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U34" s="29" t="str">
-        <f t="shared" ref="U34:U54" si="69">SUBSTITUTE(E34, ".", " ")</f>
-        <v>Bloco Translúcido</v>
+        <f t="shared" ref="U34" si="69">SUBSTITUTE(E34, ".", " ")</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="V34" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W34" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-34</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.34</v>
+      </c>
+      <c r="X34" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y34" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="24">
         <v>35</v>
       </c>
@@ -6957,10 +7531,10 @@
         <v>264</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>332</v>
+        <v>270</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="G35" s="31" t="s">
         <v>9</v>
@@ -6978,51 +7552,57 @@
         <v>9</v>
       </c>
       <c r="L35" s="27" t="str">
-        <f t="shared" ref="L35:L36" si="70">CONCATENATE("", C35)</f>
+        <f t="shared" ref="L35:L85" si="70">CONCATENATE("", C35)</f>
         <v>Parede</v>
       </c>
       <c r="M35" s="27" t="str">
-        <f t="shared" ref="M35:M36" si="71">CONCATENATE("", D35)</f>
+        <f t="shared" ref="M35:M85" si="71">CONCATENATE("", D35)</f>
         <v>Composição</v>
       </c>
       <c r="N35" s="27" t="str">
-        <f t="shared" ref="N35:N36" si="72">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E35),"."," ")," De "," de "))</f>
-        <v>Acabamento</v>
+        <f t="shared" ref="N35:N85" si="72">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E35),"."," ")," De "," de "))</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="O35" s="22" t="str">
-        <f t="shared" ref="O35:O36" si="73">F35</f>
-        <v>Lambri</v>
-      </c>
-      <c r="P35" s="48" t="s">
-        <v>336</v>
+        <f t="shared" ref="O35:O85" si="73">F35</f>
+        <v>Canaleta.J</v>
+      </c>
+      <c r="P35" s="22" t="s">
+        <v>427</v>
       </c>
       <c r="Q35" s="46" t="s">
-        <v>335</v>
+        <v>142</v>
       </c>
       <c r="R35" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S35" s="29" t="str">
-        <f t="shared" ref="S35:S36" si="74">SUBSTITUTE(C35, ".", " ")</f>
+        <f t="shared" ref="S35:S85" si="74">SUBSTITUTE(C35, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T35" s="29" t="str">
-        <f t="shared" ref="T35:T36" si="75">SUBSTITUTE(D35, ".", " ")</f>
+        <f t="shared" ref="T35:T85" si="75">SUBSTITUTE(D35, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U35" s="29" t="str">
-        <f t="shared" ref="U35:U36" si="76">SUBSTITUTE(E35, ".", " ")</f>
-        <v>Acabamento</v>
+        <f t="shared" ref="U35:U85" si="76">SUBSTITUTE(E35, ".", " ")</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="V35" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W35" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-35</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.35</v>
+      </c>
+      <c r="X35" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y35" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="24">
         <v>36</v>
       </c>
@@ -7036,10 +7616,10 @@
         <v>264</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>333</v>
+        <v>270</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="G36" s="31" t="s">
         <v>9</v>
@@ -7066,17 +7646,17 @@
       </c>
       <c r="N36" s="27" t="str">
         <f t="shared" si="72"/>
-        <v>Acabamento</v>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="O36" s="22" t="str">
         <f t="shared" si="73"/>
-        <v>Placa</v>
-      </c>
-      <c r="P36" s="48" t="s">
-        <v>337</v>
+        <v>Canaleta.U</v>
+      </c>
+      <c r="P36" s="22" t="s">
+        <v>426</v>
       </c>
       <c r="Q36" s="46" t="s">
-        <v>334</v>
+        <v>143</v>
       </c>
       <c r="R36" s="28" t="s">
         <v>9</v>
@@ -7091,17 +7671,23 @@
       </c>
       <c r="U36" s="29" t="str">
         <f t="shared" si="76"/>
-        <v>Acabamento</v>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="V36" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W36" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-36</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.36</v>
+      </c>
+      <c r="X36" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y36" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="24">
         <v>37</v>
       </c>
@@ -7115,10 +7701,10 @@
         <v>264</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F37" s="26" t="s">
-        <v>498</v>
+        <v>338</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="G37" s="31" t="s">
         <v>9</v>
@@ -7136,51 +7722,57 @@
         <v>9</v>
       </c>
       <c r="L37" s="27" t="str">
-        <f t="shared" ref="L37" si="77">CONCATENATE("", C37)</f>
+        <f t="shared" si="70"/>
         <v>Parede</v>
       </c>
       <c r="M37" s="27" t="str">
-        <f t="shared" ref="M37" si="78">CONCATENATE("", D37)</f>
+        <f t="shared" si="71"/>
         <v>Composição</v>
       </c>
       <c r="N37" s="27" t="str">
-        <f t="shared" ref="N37" si="79">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E37),"."," ")," De "," de "))</f>
-        <v>Acabamento</v>
+        <f t="shared" si="72"/>
+        <v>Bloco Translúcido</v>
       </c>
       <c r="O37" s="22" t="str">
-        <f t="shared" ref="O37" si="80">F37</f>
-        <v>Painel</v>
-      </c>
-      <c r="P37" s="48" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q37" s="46" t="s">
-        <v>500</v>
+        <f t="shared" si="73"/>
+        <v>Cobogô</v>
+      </c>
+      <c r="P37" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q37" s="22" t="s">
+        <v>367</v>
       </c>
       <c r="R37" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S37" s="29" t="str">
-        <f t="shared" ref="S37" si="81">SUBSTITUTE(C37, ".", " ")</f>
+        <f t="shared" si="74"/>
         <v>Parede</v>
       </c>
       <c r="T37" s="29" t="str">
-        <f t="shared" ref="T37" si="82">SUBSTITUTE(D37, ".", " ")</f>
+        <f t="shared" si="75"/>
         <v>Composição</v>
       </c>
       <c r="U37" s="29" t="str">
-        <f t="shared" ref="U37" si="83">SUBSTITUTE(E37, ".", " ")</f>
-        <v>Acabamento</v>
+        <f t="shared" si="76"/>
+        <v>Bloco Translúcido</v>
       </c>
       <c r="V37" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W37" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-37</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.37</v>
+      </c>
+      <c r="X37" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y37" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24">
         <v>38</v>
       </c>
@@ -7194,10 +7786,10 @@
         <v>264</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>323</v>
+        <v>338</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="G38" s="31" t="s">
         <v>9</v>
@@ -7215,51 +7807,57 @@
         <v>9</v>
       </c>
       <c r="L38" s="27" t="str">
-        <f t="shared" ref="L38:L43" si="84">CONCATENATE("", C38)</f>
+        <f t="shared" ref="L38:L58" si="77">CONCATENATE("", C38)</f>
         <v>Parede</v>
       </c>
       <c r="M38" s="27" t="str">
-        <f t="shared" ref="M38:M43" si="85">CONCATENATE("", D38)</f>
+        <f t="shared" ref="M38:M58" si="78">CONCATENATE("", D38)</f>
         <v>Composição</v>
       </c>
       <c r="N38" s="27" t="str">
-        <f t="shared" ref="N38:N43" si="86">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E38),"."," ")," De "," de "))</f>
-        <v>Acabamento</v>
+        <f t="shared" ref="N38:N58" si="79">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E38),"."," ")," De "," de "))</f>
+        <v>Bloco Translúcido</v>
       </c>
       <c r="O38" s="22" t="str">
-        <f t="shared" ref="O38:O43" si="87">F38</f>
-        <v>Azulejo</v>
-      </c>
-      <c r="P38" s="48" t="s">
-        <v>362</v>
+        <f t="shared" ref="O38:O58" si="80">F38</f>
+        <v>Tijolo.Vidro</v>
+      </c>
+      <c r="P38" s="22" t="s">
+        <v>369</v>
       </c>
       <c r="Q38" s="46" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="R38" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S38" s="29" t="str">
-        <f t="shared" ref="S38:S43" si="88">SUBSTITUTE(C38, ".", " ")</f>
+        <f t="shared" ref="S38:S58" si="81">SUBSTITUTE(C38, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T38" s="29" t="str">
-        <f t="shared" ref="T38:T43" si="89">SUBSTITUTE(D38, ".", " ")</f>
+        <f t="shared" ref="T38:T58" si="82">SUBSTITUTE(D38, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U38" s="29" t="str">
-        <f t="shared" ref="U38:U43" si="90">SUBSTITUTE(E38, ".", " ")</f>
-        <v>Acabamento</v>
+        <f t="shared" ref="U38:U58" si="83">SUBSTITUTE(E38, ".", " ")</f>
+        <v>Bloco Translúcido</v>
       </c>
       <c r="V38" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W38" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-38</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.38</v>
+      </c>
+      <c r="X38" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="Y38" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="24">
         <v>39</v>
       </c>
@@ -7276,7 +7874,7 @@
         <v>322</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="G39" s="31" t="s">
         <v>9</v>
@@ -7294,51 +7892,57 @@
         <v>9</v>
       </c>
       <c r="L39" s="27" t="str">
-        <f t="shared" ref="L39" si="91">CONCATENATE("", C39)</f>
+        <f t="shared" ref="L39:L40" si="84">CONCATENATE("", C39)</f>
         <v>Parede</v>
       </c>
       <c r="M39" s="27" t="str">
-        <f t="shared" ref="M39" si="92">CONCATENATE("", D39)</f>
+        <f t="shared" ref="M39:M40" si="85">CONCATENATE("", D39)</f>
         <v>Composição</v>
       </c>
       <c r="N39" s="27" t="str">
-        <f t="shared" ref="N39" si="93">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E39),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N39:N40" si="86">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E39),"."," ")," De "," de "))</f>
         <v>Acabamento</v>
       </c>
       <c r="O39" s="22" t="str">
-        <f t="shared" ref="O39" si="94">F39</f>
-        <v>Cerâmica</v>
+        <f t="shared" ref="O39:O40" si="87">F39</f>
+        <v>Lambri</v>
       </c>
       <c r="P39" s="48" t="s">
-        <v>361</v>
+        <v>336</v>
       </c>
       <c r="Q39" s="46" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="R39" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S39" s="29" t="str">
-        <f t="shared" ref="S39" si="95">SUBSTITUTE(C39, ".", " ")</f>
+        <f t="shared" ref="S39:S40" si="88">SUBSTITUTE(C39, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T39" s="29" t="str">
-        <f t="shared" ref="T39" si="96">SUBSTITUTE(D39, ".", " ")</f>
+        <f t="shared" ref="T39:T40" si="89">SUBSTITUTE(D39, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U39" s="29" t="str">
-        <f t="shared" ref="U39" si="97">SUBSTITUTE(E39, ".", " ")</f>
+        <f t="shared" ref="U39:U40" si="90">SUBSTITUTE(E39, ".", " ")</f>
         <v>Acabamento</v>
       </c>
       <c r="V39" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W39" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-39</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.39</v>
+      </c>
+      <c r="X39" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y39" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="24">
         <v>40</v>
       </c>
@@ -7355,7 +7959,7 @@
         <v>322</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>9</v>
@@ -7386,13 +7990,13 @@
       </c>
       <c r="O40" s="22" t="str">
         <f t="shared" si="87"/>
-        <v>Porcelanato</v>
+        <v>Placa</v>
       </c>
       <c r="P40" s="48" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="Q40" s="46" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="R40" s="28" t="s">
         <v>9</v>
@@ -7413,11 +8017,17 @@
         <v>101</v>
       </c>
       <c r="W40" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-40</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.40</v>
+      </c>
+      <c r="X40" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y40" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="24">
         <v>41</v>
       </c>
@@ -7434,7 +8044,7 @@
         <v>322</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="G41" s="31" t="s">
         <v>9</v>
@@ -7452,51 +8062,57 @@
         <v>9</v>
       </c>
       <c r="L41" s="27" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="L41" si="91">CONCATENATE("", C41)</f>
         <v>Parede</v>
       </c>
       <c r="M41" s="27" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" ref="M41" si="92">CONCATENATE("", D41)</f>
         <v>Composição</v>
       </c>
       <c r="N41" s="27" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" ref="N41" si="93">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E41),"."," ")," De "," de "))</f>
         <v>Acabamento</v>
       </c>
       <c r="O41" s="22" t="str">
-        <f t="shared" si="87"/>
-        <v>Ventilada</v>
+        <f t="shared" ref="O41" si="94">F41</f>
+        <v>Painel</v>
       </c>
       <c r="P41" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q41" s="48" t="s">
-        <v>467</v>
+        <v>499</v>
+      </c>
+      <c r="Q41" s="46" t="s">
+        <v>500</v>
       </c>
       <c r="R41" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S41" s="29" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" ref="S41" si="95">SUBSTITUTE(C41, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T41" s="29" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="T41" si="96">SUBSTITUTE(D41, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U41" s="29" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" ref="U41" si="97">SUBSTITUTE(E41, ".", " ")</f>
         <v>Acabamento</v>
       </c>
       <c r="V41" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W41" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-41</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.41</v>
+      </c>
+      <c r="X41" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y41" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="24">
         <v>42</v>
       </c>
@@ -7513,7 +8129,7 @@
         <v>322</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G42" s="31" t="s">
         <v>9</v>
@@ -7531,51 +8147,57 @@
         <v>9</v>
       </c>
       <c r="L42" s="27" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="L42:L47" si="98">CONCATENATE("", C42)</f>
         <v>Parede</v>
       </c>
       <c r="M42" s="27" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" ref="M42:M47" si="99">CONCATENATE("", D42)</f>
         <v>Composição</v>
       </c>
       <c r="N42" s="27" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" ref="N42:N47" si="100">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E42),"."," ")," De "," de "))</f>
         <v>Acabamento</v>
       </c>
       <c r="O42" s="22" t="str">
-        <f t="shared" si="87"/>
-        <v>Ladrilho</v>
+        <f t="shared" ref="O42:O47" si="101">F42</f>
+        <v>Azulejo</v>
       </c>
       <c r="P42" s="48" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q42" s="46" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="R42" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S42" s="29" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" ref="S42:S47" si="102">SUBSTITUTE(C42, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T42" s="29" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="T42:T47" si="103">SUBSTITUTE(D42, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U42" s="29" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" ref="U42:U47" si="104">SUBSTITUTE(E42, ".", " ")</f>
         <v>Acabamento</v>
       </c>
       <c r="V42" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W42" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-42</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.42</v>
+      </c>
+      <c r="X42" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y42" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="24">
         <v>43</v>
       </c>
@@ -7592,7 +8214,7 @@
         <v>322</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>9</v>
@@ -7610,51 +8232,57 @@
         <v>9</v>
       </c>
       <c r="L43" s="27" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="L43" si="105">CONCATENATE("", C43)</f>
         <v>Parede</v>
       </c>
       <c r="M43" s="27" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" ref="M43" si="106">CONCATENATE("", D43)</f>
         <v>Composição</v>
       </c>
       <c r="N43" s="27" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" ref="N43" si="107">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E43),"."," ")," De "," de "))</f>
         <v>Acabamento</v>
       </c>
       <c r="O43" s="22" t="str">
-        <f t="shared" si="87"/>
-        <v>Primer</v>
+        <f t="shared" ref="O43" si="108">F43</f>
+        <v>Cerâmica</v>
       </c>
       <c r="P43" s="48" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="Q43" s="46" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="R43" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S43" s="29" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" ref="S43" si="109">SUBSTITUTE(C43, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T43" s="29" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="T43" si="110">SUBSTITUTE(D43, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U43" s="29" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" ref="U43" si="111">SUBSTITUTE(E43, ".", " ")</f>
         <v>Acabamento</v>
       </c>
       <c r="V43" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W43" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-43</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.43</v>
+      </c>
+      <c r="X43" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y43" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="24">
         <v>44</v>
       </c>
@@ -7671,7 +8299,7 @@
         <v>322</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>9</v>
@@ -7689,51 +8317,57 @@
         <v>9</v>
       </c>
       <c r="L44" s="27" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="98"/>
         <v>Parede</v>
       </c>
       <c r="M44" s="27" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="99"/>
         <v>Composição</v>
       </c>
       <c r="N44" s="27" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="100"/>
         <v>Acabamento</v>
       </c>
       <c r="O44" s="22" t="str">
-        <f t="shared" si="66"/>
-        <v>Pintura</v>
+        <f t="shared" si="101"/>
+        <v>Porcelanato</v>
       </c>
       <c r="P44" s="48" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Q44" s="46" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="R44" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S44" s="29" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>Parede</v>
       </c>
       <c r="T44" s="29" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="103"/>
         <v>Composição</v>
       </c>
       <c r="U44" s="29" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>Acabamento</v>
       </c>
       <c r="V44" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W44" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-44</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.44</v>
+      </c>
+      <c r="X44" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y44" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="45" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24">
         <v>45</v>
       </c>
@@ -7744,13 +8378,13 @@
         <v>267</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>310</v>
+        <v>465</v>
       </c>
       <c r="G45" s="31" t="s">
         <v>9</v>
@@ -7768,51 +8402,57 @@
         <v>9</v>
       </c>
       <c r="L45" s="27" t="str">
-        <f t="shared" ref="L45" si="98">CONCATENATE("", C45)</f>
+        <f t="shared" si="98"/>
         <v>Parede</v>
       </c>
       <c r="M45" s="27" t="str">
-        <f t="shared" ref="M45" si="99">CONCATENATE("", D45)</f>
-        <v>Levantada</v>
+        <f t="shared" si="99"/>
+        <v>Composição</v>
       </c>
       <c r="N45" s="27" t="str">
-        <f t="shared" ref="N45" si="100">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E45),"."," ")," De "," de "))</f>
-        <v>Moldada InLoco</v>
+        <f t="shared" si="100"/>
+        <v>Acabamento</v>
       </c>
       <c r="O45" s="22" t="str">
-        <f t="shared" ref="O45" si="101">F45</f>
-        <v>Muro</v>
+        <f t="shared" si="101"/>
+        <v>Ventilada</v>
       </c>
       <c r="P45" s="48" t="s">
-        <v>317</v>
+        <v>466</v>
       </c>
       <c r="Q45" s="48" t="s">
-        <v>320</v>
+        <v>467</v>
       </c>
       <c r="R45" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S45" s="29" t="str">
-        <f t="shared" ref="S45" si="102">SUBSTITUTE(C45, ".", " ")</f>
+        <f t="shared" si="102"/>
         <v>Parede</v>
       </c>
       <c r="T45" s="29" t="str">
-        <f t="shared" ref="T45" si="103">SUBSTITUTE(D45, ".", " ")</f>
-        <v>Levantada</v>
+        <f t="shared" si="103"/>
+        <v>Composição</v>
       </c>
       <c r="U45" s="29" t="str">
-        <f t="shared" ref="U45" si="104">SUBSTITUTE(E45, ".", " ")</f>
-        <v>Moldada InLoco</v>
+        <f t="shared" si="104"/>
+        <v>Acabamento</v>
       </c>
       <c r="V45" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W45" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-45</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.45</v>
+      </c>
+      <c r="X45" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y45" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="24">
         <v>46</v>
       </c>
@@ -7823,13 +8463,13 @@
         <v>267</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="G46" s="31" t="s">
         <v>9</v>
@@ -7847,51 +8487,57 @@
         <v>9</v>
       </c>
       <c r="L46" s="27" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="98"/>
         <v>Parede</v>
       </c>
       <c r="M46" s="27" t="str">
-        <f t="shared" si="64"/>
-        <v>Levantada</v>
+        <f t="shared" si="99"/>
+        <v>Composição</v>
       </c>
       <c r="N46" s="27" t="str">
-        <f t="shared" si="65"/>
-        <v>Assentada</v>
+        <f t="shared" si="100"/>
+        <v>Acabamento</v>
       </c>
       <c r="O46" s="22" t="str">
-        <f t="shared" si="66"/>
-        <v>Interna</v>
+        <f t="shared" si="101"/>
+        <v>Ladrilho</v>
       </c>
       <c r="P46" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q46" s="48" t="s">
-        <v>318</v>
+        <v>363</v>
+      </c>
+      <c r="Q46" s="46" t="s">
+        <v>358</v>
       </c>
       <c r="R46" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S46" s="29" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="102"/>
         <v>Parede</v>
       </c>
       <c r="T46" s="29" t="str">
-        <f t="shared" si="68"/>
-        <v>Levantada</v>
+        <f t="shared" si="103"/>
+        <v>Composição</v>
       </c>
       <c r="U46" s="29" t="str">
-        <f t="shared" si="69"/>
-        <v>Assentada</v>
+        <f t="shared" si="104"/>
+        <v>Acabamento</v>
       </c>
       <c r="V46" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W46" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-46</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.46</v>
+      </c>
+      <c r="X46" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y46" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="24">
         <v>47</v>
       </c>
@@ -7902,13 +8548,13 @@
         <v>267</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>291</v>
+        <v>350</v>
       </c>
       <c r="G47" s="31" t="s">
         <v>9</v>
@@ -7926,51 +8572,57 @@
         <v>9</v>
       </c>
       <c r="L47" s="27" t="str">
-        <f t="shared" ref="L47" si="105">CONCATENATE("", C47)</f>
+        <f t="shared" si="98"/>
         <v>Parede</v>
       </c>
       <c r="M47" s="27" t="str">
-        <f t="shared" ref="M47" si="106">CONCATENATE("", D47)</f>
-        <v>Levantada</v>
+        <f t="shared" si="99"/>
+        <v>Composição</v>
       </c>
       <c r="N47" s="27" t="str">
-        <f t="shared" ref="N47" si="107">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E47),"."," ")," De "," de "))</f>
-        <v>Assentada</v>
+        <f t="shared" si="100"/>
+        <v>Acabamento</v>
       </c>
       <c r="O47" s="22" t="str">
-        <f t="shared" ref="O47" si="108">F47</f>
-        <v>Externa</v>
+        <f t="shared" si="101"/>
+        <v>Primer</v>
       </c>
       <c r="P47" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q47" s="48" t="s">
-        <v>319</v>
+        <v>352</v>
+      </c>
+      <c r="Q47" s="46" t="s">
+        <v>354</v>
       </c>
       <c r="R47" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S47" s="29" t="str">
-        <f t="shared" ref="S47" si="109">SUBSTITUTE(C47, ".", " ")</f>
+        <f t="shared" si="102"/>
         <v>Parede</v>
       </c>
       <c r="T47" s="29" t="str">
-        <f t="shared" ref="T47" si="110">SUBSTITUTE(D47, ".", " ")</f>
-        <v>Levantada</v>
+        <f t="shared" si="103"/>
+        <v>Composição</v>
       </c>
       <c r="U47" s="29" t="str">
-        <f t="shared" ref="U47" si="111">SUBSTITUTE(E47, ".", " ")</f>
-        <v>Assentada</v>
+        <f t="shared" si="104"/>
+        <v>Acabamento</v>
       </c>
       <c r="V47" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W47" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-47</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.47</v>
+      </c>
+      <c r="X47" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y47" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="24">
         <v>48</v>
       </c>
@@ -7981,13 +8633,13 @@
         <v>267</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>262</v>
+        <v>322</v>
+      </c>
+      <c r="F48" s="26" t="s">
+        <v>351</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>9</v>
@@ -8005,51 +8657,57 @@
         <v>9</v>
       </c>
       <c r="L48" s="27" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="77"/>
         <v>Parede</v>
       </c>
       <c r="M48" s="27" t="str">
-        <f t="shared" si="64"/>
-        <v>Levantada</v>
+        <f t="shared" si="78"/>
+        <v>Composição</v>
       </c>
       <c r="N48" s="27" t="str">
-        <f t="shared" si="65"/>
-        <v>Montada</v>
+        <f t="shared" si="79"/>
+        <v>Acabamento</v>
       </c>
       <c r="O48" s="22" t="str">
-        <f t="shared" si="66"/>
-        <v>de.Drywall</v>
-      </c>
-      <c r="P48" s="22" t="s">
-        <v>99</v>
+        <f t="shared" si="80"/>
+        <v>Pintura</v>
+      </c>
+      <c r="P48" s="48" t="s">
+        <v>353</v>
       </c>
       <c r="Q48" s="46" t="s">
-        <v>141</v>
+        <v>355</v>
       </c>
       <c r="R48" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S48" s="29" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="81"/>
         <v>Parede</v>
       </c>
       <c r="T48" s="29" t="str">
-        <f t="shared" si="68"/>
-        <v>Levantada</v>
+        <f t="shared" si="82"/>
+        <v>Composição</v>
       </c>
       <c r="U48" s="29" t="str">
-        <f t="shared" si="69"/>
-        <v>Montada</v>
+        <f t="shared" si="83"/>
+        <v>Acabamento</v>
       </c>
       <c r="V48" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W48" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-48</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.48</v>
+      </c>
+      <c r="X48" s="70" t="s">
+        <v>554</v>
+      </c>
+      <c r="Y48" s="70" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="24">
         <v>49</v>
       </c>
@@ -8063,10 +8721,10 @@
         <v>271</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>263</v>
+        <v>312</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>310</v>
       </c>
       <c r="G49" s="31" t="s">
         <v>9</v>
@@ -8084,51 +8742,57 @@
         <v>9</v>
       </c>
       <c r="L49" s="27" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="L49" si="112">CONCATENATE("", C49)</f>
         <v>Parede</v>
       </c>
       <c r="M49" s="27" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="M49" si="113">CONCATENATE("", D49)</f>
         <v>Levantada</v>
       </c>
       <c r="N49" s="27" t="str">
-        <f t="shared" si="65"/>
-        <v>Montada</v>
+        <f t="shared" ref="N49" si="114">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E49),"."," ")," De "," de "))</f>
+        <v>Moldada InLoco</v>
       </c>
       <c r="O49" s="22" t="str">
-        <f t="shared" si="66"/>
-        <v>de.Drywall.Acústico</v>
-      </c>
-      <c r="P49" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q49" s="46" t="s">
-        <v>164</v>
+        <f t="shared" ref="O49" si="115">F49</f>
+        <v>Muro</v>
+      </c>
+      <c r="P49" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q49" s="48" t="s">
+        <v>320</v>
       </c>
       <c r="R49" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S49" s="29" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="S49" si="116">SUBSTITUTE(C49, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T49" s="29" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="T49" si="117">SUBSTITUTE(D49, ".", " ")</f>
         <v>Levantada</v>
       </c>
       <c r="U49" s="29" t="str">
-        <f t="shared" si="69"/>
-        <v>Montada</v>
+        <f t="shared" ref="U49" si="118">SUBSTITUTE(E49, ".", " ")</f>
+        <v>Moldada InLoco</v>
       </c>
       <c r="V49" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W49" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-49</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.49</v>
+      </c>
+      <c r="X49" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y49" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="24">
         <v>50</v>
       </c>
@@ -8142,10 +8806,10 @@
         <v>271</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
+      </c>
+      <c r="F50" s="26" t="s">
+        <v>290</v>
       </c>
       <c r="G50" s="31" t="s">
         <v>9</v>
@@ -8163,51 +8827,57 @@
         <v>9</v>
       </c>
       <c r="L50" s="27" t="str">
-        <f t="shared" ref="L50" si="112">CONCATENATE("", C50)</f>
+        <f t="shared" si="77"/>
         <v>Parede</v>
       </c>
       <c r="M50" s="27" t="str">
-        <f t="shared" ref="M50" si="113">CONCATENATE("", D50)</f>
+        <f t="shared" si="78"/>
         <v>Levantada</v>
       </c>
       <c r="N50" s="27" t="str">
-        <f t="shared" ref="N50" si="114">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E50),"."," ")," De "," de "))</f>
-        <v>Montada</v>
+        <f t="shared" si="79"/>
+        <v>Assentada</v>
       </c>
       <c r="O50" s="22" t="str">
-        <f t="shared" ref="O50" si="115">F50</f>
-        <v>de.Fachada</v>
-      </c>
-      <c r="P50" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q50" s="22" t="s">
-        <v>289</v>
+        <f t="shared" si="80"/>
+        <v>Interna</v>
+      </c>
+      <c r="P50" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q50" s="48" t="s">
+        <v>318</v>
       </c>
       <c r="R50" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S50" s="29" t="str">
-        <f t="shared" ref="S50" si="116">SUBSTITUTE(C50, ".", " ")</f>
+        <f t="shared" si="81"/>
         <v>Parede</v>
       </c>
       <c r="T50" s="29" t="str">
-        <f t="shared" ref="T50" si="117">SUBSTITUTE(D50, ".", " ")</f>
+        <f t="shared" si="82"/>
         <v>Levantada</v>
       </c>
       <c r="U50" s="29" t="str">
-        <f t="shared" ref="U50" si="118">SUBSTITUTE(E50, ".", " ")</f>
-        <v>Montada</v>
+        <f t="shared" si="83"/>
+        <v>Assentada</v>
       </c>
       <c r="V50" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W50" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-50</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.50</v>
+      </c>
+      <c r="X50" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y50" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="24">
         <v>51</v>
       </c>
@@ -8221,10 +8891,10 @@
         <v>271</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>291</v>
       </c>
       <c r="G51" s="31" t="s">
         <v>9</v>
@@ -8242,51 +8912,57 @@
         <v>9</v>
       </c>
       <c r="L51" s="27" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="L51" si="119">CONCATENATE("", C51)</f>
         <v>Parede</v>
       </c>
       <c r="M51" s="27" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="M51" si="120">CONCATENATE("", D51)</f>
         <v>Levantada</v>
       </c>
       <c r="N51" s="27" t="str">
-        <f t="shared" si="65"/>
-        <v>Montada</v>
+        <f t="shared" ref="N51" si="121">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E51),"."," ")," De "," de "))</f>
+        <v>Assentada</v>
       </c>
       <c r="O51" s="22" t="str">
-        <f t="shared" si="66"/>
-        <v>de.Vidro</v>
-      </c>
-      <c r="P51" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q51" s="46" t="s">
-        <v>328</v>
+        <f t="shared" ref="O51" si="122">F51</f>
+        <v>Externa</v>
+      </c>
+      <c r="P51" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q51" s="48" t="s">
+        <v>319</v>
       </c>
       <c r="R51" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S51" s="29" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="S51" si="123">SUBSTITUTE(C51, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T51" s="29" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="T51" si="124">SUBSTITUTE(D51, ".", " ")</f>
         <v>Levantada</v>
       </c>
       <c r="U51" s="29" t="str">
-        <f t="shared" si="69"/>
-        <v>Montada</v>
+        <f t="shared" ref="U51" si="125">SUBSTITUTE(E51, ".", " ")</f>
+        <v>Assentada</v>
       </c>
       <c r="V51" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W51" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-51</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.51</v>
+      </c>
+      <c r="X51" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y51" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="24">
         <v>52</v>
       </c>
@@ -8303,7 +8979,7 @@
         <v>272</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G52" s="31" t="s">
         <v>9</v>
@@ -8321,51 +8997,57 @@
         <v>9</v>
       </c>
       <c r="L52" s="27" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="77"/>
         <v>Parede</v>
       </c>
       <c r="M52" s="27" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
         <v>Levantada</v>
       </c>
       <c r="N52" s="27" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="79"/>
         <v>Montada</v>
       </c>
       <c r="O52" s="22" t="str">
-        <f t="shared" si="66"/>
-        <v>de.Gesso</v>
+        <f t="shared" si="80"/>
+        <v>de.Drywall</v>
       </c>
       <c r="P52" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q52" s="46" t="s">
-        <v>329</v>
+        <v>141</v>
       </c>
       <c r="R52" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S52" s="29" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="81"/>
         <v>Parede</v>
       </c>
       <c r="T52" s="29" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="82"/>
         <v>Levantada</v>
       </c>
       <c r="U52" s="29" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="83"/>
         <v>Montada</v>
       </c>
       <c r="V52" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W52" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-52</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.52</v>
+      </c>
+      <c r="X52" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y52" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="24">
         <v>53</v>
       </c>
@@ -8382,7 +9064,7 @@
         <v>272</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G53" s="31" t="s">
         <v>9</v>
@@ -8400,51 +9082,57 @@
         <v>9</v>
       </c>
       <c r="L53" s="27" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="77"/>
         <v>Parede</v>
       </c>
       <c r="M53" s="27" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="78"/>
         <v>Levantada</v>
       </c>
       <c r="N53" s="27" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="79"/>
         <v>Montada</v>
       </c>
       <c r="O53" s="22" t="str">
-        <f t="shared" si="66"/>
-        <v>de.Eucatex</v>
+        <f t="shared" si="80"/>
+        <v>de.Drywall.Acústico</v>
       </c>
       <c r="P53" s="22" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="Q53" s="46" t="s">
-        <v>331</v>
+        <v>164</v>
       </c>
       <c r="R53" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S53" s="29" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="81"/>
         <v>Parede</v>
       </c>
       <c r="T53" s="29" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="82"/>
         <v>Levantada</v>
       </c>
       <c r="U53" s="29" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="83"/>
         <v>Montada</v>
       </c>
       <c r="V53" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W53" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-53</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.53</v>
+      </c>
+      <c r="X53" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y53" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="24">
         <v>54</v>
       </c>
@@ -8461,7 +9149,7 @@
         <v>272</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="G54" s="31" t="s">
         <v>9</v>
@@ -8479,68 +9167,74 @@
         <v>9</v>
       </c>
       <c r="L54" s="27" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="L54" si="126">CONCATENATE("", C54)</f>
         <v>Parede</v>
       </c>
       <c r="M54" s="27" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="M54" si="127">CONCATENATE("", D54)</f>
         <v>Levantada</v>
       </c>
       <c r="N54" s="27" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="N54" si="128">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E54),"."," ")," De "," de "))</f>
         <v>Montada</v>
       </c>
       <c r="O54" s="22" t="str">
-        <f t="shared" si="66"/>
-        <v>de.Sanitário</v>
+        <f t="shared" ref="O54" si="129">F54</f>
+        <v>de.Fachada</v>
       </c>
       <c r="P54" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q54" s="46" t="s">
-        <v>330</v>
+        <v>288</v>
+      </c>
+      <c r="Q54" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="R54" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S54" s="29" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="S54" si="130">SUBSTITUTE(C54, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T54" s="29" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="T54" si="131">SUBSTITUTE(D54, ".", " ")</f>
         <v>Levantada</v>
       </c>
       <c r="U54" s="29" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="U54" si="132">SUBSTITUTE(E54, ".", " ")</f>
         <v>Montada</v>
       </c>
       <c r="V54" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W54" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-54</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.54</v>
+      </c>
+      <c r="X54" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y54" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="24">
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>96</v>
+      <c r="C55" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="G55" s="31" t="s">
         <v>9</v>
@@ -8558,68 +9252,74 @@
         <v>9</v>
       </c>
       <c r="L55" s="27" t="str">
-        <f t="shared" si="56"/>
-        <v>Divisória</v>
+        <f t="shared" si="77"/>
+        <v>Parede</v>
       </c>
       <c r="M55" s="27" t="str">
-        <f t="shared" si="57"/>
-        <v>Parte</v>
+        <f t="shared" si="78"/>
+        <v>Levantada</v>
       </c>
       <c r="N55" s="27" t="str">
-        <f t="shared" si="58"/>
-        <v>Chapa</v>
+        <f t="shared" si="79"/>
+        <v>Montada</v>
       </c>
       <c r="O55" s="22" t="str">
-        <f t="shared" si="59"/>
-        <v>Eucatex</v>
-      </c>
-      <c r="P55" s="48" t="s">
-        <v>176</v>
+        <f t="shared" si="80"/>
+        <v>de.Vidro</v>
+      </c>
+      <c r="P55" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="Q55" s="46" t="s">
-        <v>168</v>
+        <v>328</v>
       </c>
       <c r="R55" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S55" s="29" t="str">
-        <f t="shared" si="60"/>
-        <v>Divisória</v>
+        <f t="shared" si="81"/>
+        <v>Parede</v>
       </c>
       <c r="T55" s="29" t="str">
-        <f t="shared" si="61"/>
-        <v>Parte</v>
+        <f t="shared" si="82"/>
+        <v>Levantada</v>
       </c>
       <c r="U55" s="29" t="str">
-        <f t="shared" si="62"/>
-        <v>Chapa</v>
+        <f t="shared" si="83"/>
+        <v>Montada</v>
       </c>
       <c r="V55" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W55" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-55</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.55</v>
+      </c>
+      <c r="X55" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y55" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="24">
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>96</v>
+      <c r="C56" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>327</v>
+        <v>259</v>
       </c>
       <c r="G56" s="31" t="s">
         <v>9</v>
@@ -8637,68 +9337,74 @@
         <v>9</v>
       </c>
       <c r="L56" s="27" t="str">
-        <f t="shared" si="56"/>
-        <v>Divisória</v>
+        <f t="shared" si="77"/>
+        <v>Parede</v>
       </c>
       <c r="M56" s="27" t="str">
-        <f t="shared" si="57"/>
-        <v>Parte</v>
+        <f t="shared" si="78"/>
+        <v>Levantada</v>
       </c>
       <c r="N56" s="27" t="str">
-        <f t="shared" si="58"/>
-        <v>Chapa</v>
+        <f t="shared" si="79"/>
+        <v>Montada</v>
       </c>
       <c r="O56" s="22" t="str">
-        <f t="shared" si="59"/>
-        <v>Metálica</v>
-      </c>
-      <c r="P56" s="48" t="s">
-        <v>167</v>
+        <f t="shared" si="80"/>
+        <v>de.Gesso</v>
+      </c>
+      <c r="P56" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="Q56" s="46" t="s">
-        <v>168</v>
+        <v>329</v>
       </c>
       <c r="R56" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S56" s="29" t="str">
-        <f t="shared" si="60"/>
-        <v>Divisória</v>
+        <f t="shared" si="81"/>
+        <v>Parede</v>
       </c>
       <c r="T56" s="29" t="str">
-        <f t="shared" si="61"/>
-        <v>Parte</v>
+        <f t="shared" si="82"/>
+        <v>Levantada</v>
       </c>
       <c r="U56" s="29" t="str">
-        <f t="shared" si="62"/>
-        <v>Chapa</v>
+        <f t="shared" si="83"/>
+        <v>Montada</v>
       </c>
       <c r="V56" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W56" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-56</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.56</v>
+      </c>
+      <c r="X56" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y56" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="24">
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>96</v>
+      <c r="C57" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>165</v>
+        <v>260</v>
       </c>
       <c r="G57" s="31" t="s">
         <v>9</v>
@@ -8716,68 +9422,74 @@
         <v>9</v>
       </c>
       <c r="L57" s="27" t="str">
-        <f t="shared" ref="L57" si="119">CONCATENATE("", C57)</f>
-        <v>Divisória</v>
+        <f t="shared" si="77"/>
+        <v>Parede</v>
       </c>
       <c r="M57" s="27" t="str">
-        <f t="shared" ref="M57" si="120">CONCATENATE("", D57)</f>
-        <v>Parte</v>
+        <f t="shared" si="78"/>
+        <v>Levantada</v>
       </c>
       <c r="N57" s="27" t="str">
-        <f t="shared" ref="N57" si="121">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E57),"."," ")," De "," de "))</f>
-        <v>Chapa</v>
+        <f t="shared" si="79"/>
+        <v>Montada</v>
       </c>
       <c r="O57" s="22" t="str">
-        <f t="shared" ref="O57" si="122">F57</f>
-        <v>Alumínio.Composto</v>
-      </c>
-      <c r="P57" s="48" t="s">
-        <v>167</v>
+        <f t="shared" si="80"/>
+        <v>de.Eucatex</v>
+      </c>
+      <c r="P57" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="Q57" s="46" t="s">
-        <v>168</v>
+        <v>331</v>
       </c>
       <c r="R57" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S57" s="29" t="str">
-        <f t="shared" ref="S57" si="123">SUBSTITUTE(C57, ".", " ")</f>
-        <v>Divisória</v>
+        <f t="shared" si="81"/>
+        <v>Parede</v>
       </c>
       <c r="T57" s="29" t="str">
-        <f t="shared" ref="T57" si="124">SUBSTITUTE(D57, ".", " ")</f>
-        <v>Parte</v>
+        <f t="shared" si="82"/>
+        <v>Levantada</v>
       </c>
       <c r="U57" s="29" t="str">
-        <f t="shared" ref="U57" si="125">SUBSTITUTE(E57, ".", " ")</f>
-        <v>Chapa</v>
+        <f t="shared" si="83"/>
+        <v>Montada</v>
       </c>
       <c r="V57" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W57" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-57</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.57</v>
+      </c>
+      <c r="X57" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y57" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="24">
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>96</v>
+      <c r="C58" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="G58" s="31" t="s">
         <v>9</v>
@@ -8795,51 +9507,57 @@
         <v>9</v>
       </c>
       <c r="L58" s="27" t="str">
-        <f t="shared" si="56"/>
-        <v>Divisória</v>
+        <f t="shared" si="77"/>
+        <v>Parede</v>
       </c>
       <c r="M58" s="27" t="str">
-        <f t="shared" si="57"/>
-        <v>Parte</v>
+        <f t="shared" si="78"/>
+        <v>Levantada</v>
       </c>
       <c r="N58" s="27" t="str">
-        <f t="shared" si="58"/>
-        <v>Chapa</v>
+        <f t="shared" si="79"/>
+        <v>Montada</v>
       </c>
       <c r="O58" s="22" t="str">
-        <f t="shared" si="59"/>
-        <v>Cimentícia</v>
+        <f t="shared" si="80"/>
+        <v>de.Sanitário</v>
       </c>
       <c r="P58" s="22" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="Q58" s="46" t="s">
-        <v>161</v>
+        <v>330</v>
       </c>
       <c r="R58" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S58" s="29" t="str">
-        <f t="shared" si="60"/>
-        <v>Divisória</v>
+        <f t="shared" si="81"/>
+        <v>Parede</v>
       </c>
       <c r="T58" s="29" t="str">
-        <f t="shared" si="61"/>
-        <v>Parte</v>
+        <f t="shared" si="82"/>
+        <v>Levantada</v>
       </c>
       <c r="U58" s="29" t="str">
-        <f t="shared" si="62"/>
-        <v>Chapa</v>
+        <f t="shared" si="83"/>
+        <v>Montada</v>
       </c>
       <c r="V58" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W58" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-58</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.58</v>
+      </c>
+      <c r="X58" s="70" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y58" s="70" t="s">
+        <v>552</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="24">
         <v>59</v>
       </c>
@@ -8856,7 +9574,7 @@
         <v>144</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="G59" s="31" t="s">
         <v>9</v>
@@ -8874,51 +9592,57 @@
         <v>9</v>
       </c>
       <c r="L59" s="27" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="70"/>
         <v>Divisória</v>
       </c>
       <c r="M59" s="27" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="71"/>
         <v>Parte</v>
       </c>
       <c r="N59" s="27" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="72"/>
         <v>Chapa</v>
       </c>
       <c r="O59" s="22" t="str">
-        <f t="shared" si="59"/>
-        <v>Gesso.Acartonado</v>
-      </c>
-      <c r="P59" s="22" t="s">
-        <v>152</v>
+        <f t="shared" si="73"/>
+        <v>Eucatex</v>
+      </c>
+      <c r="P59" s="48" t="s">
+        <v>176</v>
       </c>
       <c r="Q59" s="46" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="R59" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S59" s="29" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="74"/>
         <v>Divisória</v>
       </c>
       <c r="T59" s="29" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>Parte</v>
       </c>
       <c r="U59" s="29" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="76"/>
         <v>Chapa</v>
       </c>
       <c r="V59" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W59" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-59</v>
+        <f t="shared" si="2"/>
+        <v>Key.Div.59</v>
+      </c>
+      <c r="X59" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y59" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="24">
         <v>60</v>
       </c>
@@ -8935,7 +9659,7 @@
         <v>144</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>183</v>
+        <v>327</v>
       </c>
       <c r="G60" s="31" t="s">
         <v>9</v>
@@ -8953,51 +9677,57 @@
         <v>9</v>
       </c>
       <c r="L60" s="27" t="str">
-        <f t="shared" ref="L60:L63" si="126">CONCATENATE("", C60)</f>
+        <f t="shared" si="70"/>
         <v>Divisória</v>
       </c>
       <c r="M60" s="27" t="str">
-        <f t="shared" ref="M60:M63" si="127">CONCATENATE("", D60)</f>
+        <f t="shared" si="71"/>
         <v>Parte</v>
       </c>
       <c r="N60" s="27" t="str">
-        <f t="shared" ref="N60:N63" si="128">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E60),"."," ")," De "," de "))</f>
+        <f t="shared" si="72"/>
         <v>Chapa</v>
       </c>
       <c r="O60" s="22" t="str">
-        <f t="shared" ref="O60:O63" si="129">F60</f>
-        <v>Vidro.Temperado</v>
-      </c>
-      <c r="P60" s="22" t="s">
-        <v>186</v>
+        <f t="shared" si="73"/>
+        <v>Metálica</v>
+      </c>
+      <c r="P60" s="48" t="s">
+        <v>167</v>
       </c>
       <c r="Q60" s="46" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="R60" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S60" s="29" t="str">
-        <f t="shared" ref="S60:S63" si="130">SUBSTITUTE(C60, ".", " ")</f>
+        <f t="shared" si="74"/>
         <v>Divisória</v>
       </c>
       <c r="T60" s="29" t="str">
-        <f t="shared" ref="T60:T63" si="131">SUBSTITUTE(D60, ".", " ")</f>
+        <f t="shared" si="75"/>
         <v>Parte</v>
       </c>
       <c r="U60" s="29" t="str">
-        <f t="shared" ref="U60:U63" si="132">SUBSTITUTE(E60, ".", " ")</f>
+        <f t="shared" si="76"/>
         <v>Chapa</v>
       </c>
       <c r="V60" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W60" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-60</v>
+        <f t="shared" ref="W60:W85" si="133">CONCATENATE("Key.",LEFT(C60,3),".",A60)</f>
+        <v>Key.Div.60</v>
+      </c>
+      <c r="X60" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y60" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24">
         <v>61</v>
       </c>
@@ -9014,7 +9744,7 @@
         <v>144</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="G61" s="31" t="s">
         <v>9</v>
@@ -9032,51 +9762,57 @@
         <v>9</v>
       </c>
       <c r="L61" s="27" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" ref="L61" si="134">CONCATENATE("", C61)</f>
         <v>Divisória</v>
       </c>
       <c r="M61" s="27" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" ref="M61" si="135">CONCATENATE("", D61)</f>
         <v>Parte</v>
       </c>
       <c r="N61" s="27" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" ref="N61" si="136">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E61),"."," ")," De "," de "))</f>
         <v>Chapa</v>
       </c>
       <c r="O61" s="22" t="str">
-        <f t="shared" si="129"/>
-        <v>Vidro.Laminado</v>
-      </c>
-      <c r="P61" s="22" t="s">
-        <v>187</v>
+        <f t="shared" ref="O61" si="137">F61</f>
+        <v>Alumínio.Composto</v>
+      </c>
+      <c r="P61" s="48" t="s">
+        <v>167</v>
       </c>
       <c r="Q61" s="46" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="R61" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S61" s="29" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" ref="S61" si="138">SUBSTITUTE(C61, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T61" s="29" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" ref="T61" si="139">SUBSTITUTE(D61, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U61" s="29" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" ref="U61" si="140">SUBSTITUTE(E61, ".", " ")</f>
         <v>Chapa</v>
       </c>
       <c r="V61" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W61" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-61</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.61</v>
+      </c>
+      <c r="X61" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y61" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="24">
         <v>62</v>
       </c>
@@ -9093,7 +9829,7 @@
         <v>144</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="G62" s="31" t="s">
         <v>9</v>
@@ -9111,51 +9847,57 @@
         <v>9</v>
       </c>
       <c r="L62" s="27" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="70"/>
         <v>Divisória</v>
       </c>
       <c r="M62" s="27" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="71"/>
         <v>Parte</v>
       </c>
       <c r="N62" s="27" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="72"/>
         <v>Chapa</v>
       </c>
       <c r="O62" s="22" t="str">
-        <f t="shared" si="129"/>
-        <v>Vidro.Polarizado</v>
+        <f t="shared" si="73"/>
+        <v>Cimentícia</v>
       </c>
       <c r="P62" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q62" s="22" t="s">
-        <v>274</v>
+        <v>166</v>
+      </c>
+      <c r="Q62" s="46" t="s">
+        <v>161</v>
       </c>
       <c r="R62" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S62" s="29" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="74"/>
         <v>Divisória</v>
       </c>
       <c r="T62" s="29" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="75"/>
         <v>Parte</v>
       </c>
       <c r="U62" s="29" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="76"/>
         <v>Chapa</v>
       </c>
       <c r="V62" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W62" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-62</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.62</v>
+      </c>
+      <c r="X62" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y62" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="24">
         <v>63</v>
       </c>
@@ -9172,7 +9914,7 @@
         <v>144</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>276</v>
+        <v>147</v>
       </c>
       <c r="G63" s="31" t="s">
         <v>9</v>
@@ -9190,51 +9932,57 @@
         <v>9</v>
       </c>
       <c r="L63" s="27" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" si="70"/>
         <v>Divisória</v>
       </c>
       <c r="M63" s="27" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="71"/>
         <v>Parte</v>
       </c>
       <c r="N63" s="27" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" si="72"/>
         <v>Chapa</v>
       </c>
       <c r="O63" s="22" t="str">
-        <f t="shared" si="129"/>
-        <v>Vidro.Low.E</v>
-      </c>
-      <c r="P63" s="46" t="s">
-        <v>277</v>
+        <f t="shared" si="73"/>
+        <v>Gesso.Acartonado</v>
+      </c>
+      <c r="P63" s="22" t="s">
+        <v>152</v>
       </c>
       <c r="Q63" s="46" t="s">
-        <v>278</v>
+        <v>162</v>
       </c>
       <c r="R63" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S63" s="29" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="74"/>
         <v>Divisória</v>
       </c>
       <c r="T63" s="29" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="75"/>
         <v>Parte</v>
       </c>
       <c r="U63" s="29" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" si="76"/>
         <v>Chapa</v>
       </c>
       <c r="V63" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W63" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-63</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.63</v>
+      </c>
+      <c r="X63" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y63" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="24">
         <v>64</v>
       </c>
@@ -9251,7 +9999,7 @@
         <v>144</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G64" s="31" t="s">
         <v>9</v>
@@ -9269,51 +10017,57 @@
         <v>9</v>
       </c>
       <c r="L64" s="27" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="L64:L67" si="141">CONCATENATE("", C64)</f>
         <v>Divisória</v>
       </c>
       <c r="M64" s="27" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="M64:M67" si="142">CONCATENATE("", D64)</f>
         <v>Parte</v>
       </c>
       <c r="N64" s="27" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="N64:N67" si="143">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E64),"."," ")," De "," de "))</f>
         <v>Chapa</v>
       </c>
       <c r="O64" s="22" t="str">
-        <f t="shared" si="59"/>
-        <v>Vidro.Comúm</v>
+        <f t="shared" ref="O64:O67" si="144">F64</f>
+        <v>Vidro.Temperado</v>
       </c>
       <c r="P64" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q64" s="46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="R64" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S64" s="29" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="S64:S67" si="145">SUBSTITUTE(C64, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T64" s="29" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="T64:T67" si="146">SUBSTITUTE(D64, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U64" s="29" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="U64:U67" si="147">SUBSTITUTE(E64, ".", " ")</f>
         <v>Chapa</v>
       </c>
       <c r="V64" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W64" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-64</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.64</v>
+      </c>
+      <c r="X64" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y64" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="24">
         <v>65</v>
       </c>
@@ -9330,7 +10084,7 @@
         <v>144</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>521</v>
+        <v>182</v>
       </c>
       <c r="G65" s="31" t="s">
         <v>9</v>
@@ -9348,51 +10102,57 @@
         <v>9</v>
       </c>
       <c r="L65" s="27" t="str">
-        <f t="shared" ref="L65" si="133">CONCATENATE("", C65)</f>
+        <f t="shared" si="141"/>
         <v>Divisória</v>
       </c>
       <c r="M65" s="27" t="str">
-        <f t="shared" ref="M65" si="134">CONCATENATE("", D65)</f>
+        <f t="shared" si="142"/>
         <v>Parte</v>
       </c>
       <c r="N65" s="27" t="str">
-        <f t="shared" ref="N65" si="135">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E65),"."," ")," De "," de "))</f>
+        <f t="shared" si="143"/>
         <v>Chapa</v>
       </c>
       <c r="O65" s="22" t="str">
-        <f t="shared" ref="O65" si="136">F65</f>
-        <v>Vidro.Plumbífero</v>
+        <f t="shared" si="144"/>
+        <v>Vidro.Laminado</v>
       </c>
       <c r="P65" s="22" t="s">
-        <v>523</v>
+        <v>187</v>
       </c>
       <c r="Q65" s="46" t="s">
-        <v>522</v>
+        <v>194</v>
       </c>
       <c r="R65" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S65" s="29" t="str">
-        <f t="shared" ref="S65" si="137">SUBSTITUTE(C65, ".", " ")</f>
+        <f t="shared" si="145"/>
         <v>Divisória</v>
       </c>
       <c r="T65" s="29" t="str">
-        <f t="shared" ref="T65" si="138">SUBSTITUTE(D65, ".", " ")</f>
+        <f t="shared" si="146"/>
         <v>Parte</v>
       </c>
       <c r="U65" s="29" t="str">
-        <f t="shared" ref="U65" si="139">SUBSTITUTE(E65, ".", " ")</f>
+        <f t="shared" si="147"/>
         <v>Chapa</v>
       </c>
       <c r="V65" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W65" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-65</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.65</v>
+      </c>
+      <c r="X65" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y65" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="24">
         <v>66</v>
       </c>
@@ -9409,7 +10169,7 @@
         <v>144</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G66" s="31" t="s">
         <v>9</v>
@@ -9427,51 +10187,57 @@
         <v>9</v>
       </c>
       <c r="L66" s="27" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="141"/>
         <v>Divisória</v>
       </c>
       <c r="M66" s="27" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="142"/>
         <v>Parte</v>
       </c>
       <c r="N66" s="27" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="143"/>
         <v>Chapa</v>
       </c>
       <c r="O66" s="22" t="str">
-        <f t="shared" si="59"/>
-        <v>Fórmica</v>
+        <f t="shared" si="144"/>
+        <v>Vidro.Polarizado</v>
       </c>
       <c r="P66" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q66" s="46" t="s">
-        <v>275</v>
+        <v>273</v>
+      </c>
+      <c r="Q66" s="22" t="s">
+        <v>274</v>
       </c>
       <c r="R66" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S66" s="29" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="145"/>
         <v>Divisória</v>
       </c>
       <c r="T66" s="29" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="146"/>
         <v>Parte</v>
       </c>
       <c r="U66" s="29" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="147"/>
         <v>Chapa</v>
       </c>
       <c r="V66" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W66" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Key-Pare-66</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.66</v>
+      </c>
+      <c r="X66" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y66" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="24">
         <v>67</v>
       </c>
@@ -9488,7 +10254,7 @@
         <v>144</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>178</v>
+        <v>276</v>
       </c>
       <c r="G67" s="31" t="s">
         <v>9</v>
@@ -9506,51 +10272,57 @@
         <v>9</v>
       </c>
       <c r="L67" s="27" t="str">
-        <f t="shared" ref="L67:L80" si="140">CONCATENATE("", C67)</f>
+        <f t="shared" si="141"/>
         <v>Divisória</v>
       </c>
       <c r="M67" s="27" t="str">
-        <f t="shared" ref="M67:M80" si="141">CONCATENATE("", D67)</f>
+        <f t="shared" si="142"/>
         <v>Parte</v>
       </c>
       <c r="N67" s="27" t="str">
-        <f t="shared" ref="N67:N80" si="142">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E67),"."," ")," De "," de "))</f>
+        <f t="shared" si="143"/>
         <v>Chapa</v>
       </c>
       <c r="O67" s="22" t="str">
-        <f t="shared" ref="O67:O80" si="143">F67</f>
-        <v>Pedra</v>
-      </c>
-      <c r="P67" s="22" t="s">
-        <v>192</v>
+        <f t="shared" si="144"/>
+        <v>Vidro.Low.E</v>
+      </c>
+      <c r="P67" s="46" t="s">
+        <v>277</v>
       </c>
       <c r="Q67" s="46" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="R67" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S67" s="29" t="str">
-        <f t="shared" ref="S67:S80" si="144">SUBSTITUTE(C67, ".", " ")</f>
+        <f t="shared" si="145"/>
         <v>Divisória</v>
       </c>
       <c r="T67" s="29" t="str">
-        <f t="shared" ref="T67:T80" si="145">SUBSTITUTE(D67, ".", " ")</f>
+        <f t="shared" si="146"/>
         <v>Parte</v>
       </c>
       <c r="U67" s="29" t="str">
-        <f t="shared" ref="U67:U80" si="146">SUBSTITUTE(E67, ".", " ")</f>
+        <f t="shared" si="147"/>
         <v>Chapa</v>
       </c>
       <c r="V67" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W67" s="1" t="str">
-        <f t="shared" ref="W67:W81" si="147">CONCATENATE("Key-Pare-",A67)</f>
-        <v>Key-Pare-67</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.67</v>
+      </c>
+      <c r="X67" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y67" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="24">
         <v>68</v>
       </c>
@@ -9564,10 +10336,10 @@
         <v>268</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="G68" s="31" t="s">
         <v>9</v>
@@ -9585,51 +10357,57 @@
         <v>9</v>
       </c>
       <c r="L68" s="27" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="70"/>
         <v>Divisória</v>
       </c>
       <c r="M68" s="27" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="71"/>
         <v>Parte</v>
       </c>
       <c r="N68" s="27" t="str">
-        <f t="shared" si="142"/>
-        <v>Perfil</v>
+        <f t="shared" si="72"/>
+        <v>Chapa</v>
       </c>
       <c r="O68" s="22" t="str">
-        <f t="shared" si="143"/>
-        <v>Guia.L</v>
+        <f t="shared" si="73"/>
+        <v>Vidro.Comúm</v>
       </c>
       <c r="P68" s="22" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="Q68" s="46" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="R68" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S68" s="29" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="74"/>
         <v>Divisória</v>
       </c>
       <c r="T68" s="29" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="75"/>
         <v>Parte</v>
       </c>
       <c r="U68" s="29" t="str">
-        <f t="shared" si="146"/>
-        <v>Perfil</v>
+        <f t="shared" si="76"/>
+        <v>Chapa</v>
       </c>
       <c r="V68" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W68" s="1" t="str">
-        <f t="shared" si="147"/>
-        <v>Key-Pare-68</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.68</v>
+      </c>
+      <c r="X68" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y68" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="24">
         <v>69</v>
       </c>
@@ -9643,10 +10421,10 @@
         <v>268</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>150</v>
+        <v>521</v>
       </c>
       <c r="G69" s="31" t="s">
         <v>9</v>
@@ -9673,17 +10451,17 @@
       </c>
       <c r="N69" s="27" t="str">
         <f t="shared" ref="N69" si="150">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E69),"."," ")," De "," de "))</f>
-        <v>Perfil</v>
+        <v>Chapa</v>
       </c>
       <c r="O69" s="22" t="str">
         <f t="shared" ref="O69" si="151">F69</f>
-        <v>Guia.U</v>
+        <v>Vidro.Plumbífero</v>
       </c>
       <c r="P69" s="22" t="s">
-        <v>154</v>
+        <v>523</v>
       </c>
       <c r="Q69" s="46" t="s">
-        <v>159</v>
+        <v>522</v>
       </c>
       <c r="R69" s="28" t="s">
         <v>9</v>
@@ -9698,17 +10476,23 @@
       </c>
       <c r="U69" s="29" t="str">
         <f t="shared" ref="U69" si="154">SUBSTITUTE(E69, ".", " ")</f>
-        <v>Perfil</v>
+        <v>Chapa</v>
       </c>
       <c r="V69" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W69" s="1" t="str">
-        <f t="shared" si="147"/>
-        <v>Key-Pare-69</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.69</v>
+      </c>
+      <c r="X69" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y69" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="24">
         <v>70</v>
       </c>
@@ -9722,10 +10506,10 @@
         <v>268</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="G70" s="31" t="s">
         <v>9</v>
@@ -9743,51 +10527,57 @@
         <v>9</v>
       </c>
       <c r="L70" s="27" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="70"/>
         <v>Divisória</v>
       </c>
       <c r="M70" s="27" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="71"/>
         <v>Parte</v>
       </c>
       <c r="N70" s="27" t="str">
-        <f t="shared" si="142"/>
-        <v>Perfil</v>
+        <f t="shared" si="72"/>
+        <v>Chapa</v>
       </c>
       <c r="O70" s="22" t="str">
-        <f t="shared" si="143"/>
-        <v>Guia.Montante</v>
+        <f t="shared" si="73"/>
+        <v>Fórmica</v>
       </c>
       <c r="P70" s="22" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="Q70" s="46" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="R70" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S70" s="29" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="74"/>
         <v>Divisória</v>
       </c>
       <c r="T70" s="29" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="75"/>
         <v>Parte</v>
       </c>
       <c r="U70" s="29" t="str">
-        <f t="shared" si="146"/>
-        <v>Perfil</v>
+        <f t="shared" si="76"/>
+        <v>Chapa</v>
       </c>
       <c r="V70" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W70" s="1" t="str">
-        <f t="shared" si="147"/>
-        <v>Key-Pare-70</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.70</v>
+      </c>
+      <c r="X70" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y70" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="24">
         <v>71</v>
       </c>
@@ -9801,10 +10591,10 @@
         <v>268</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="G71" s="31" t="s">
         <v>9</v>
@@ -9822,51 +10612,57 @@
         <v>9</v>
       </c>
       <c r="L71" s="27" t="str">
-        <f t="shared" ref="L71" si="155">CONCATENATE("", C71)</f>
+        <f t="shared" ref="L71:L84" si="155">CONCATENATE("", C71)</f>
         <v>Divisória</v>
       </c>
       <c r="M71" s="27" t="str">
-        <f t="shared" ref="M71" si="156">CONCATENATE("", D71)</f>
+        <f t="shared" ref="M71:M84" si="156">CONCATENATE("", D71)</f>
         <v>Parte</v>
       </c>
       <c r="N71" s="27" t="str">
-        <f t="shared" ref="N71" si="157">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E71),"."," ")," De "," de "))</f>
-        <v>Fixação</v>
+        <f t="shared" ref="N71:N84" si="157">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E71),"."," ")," De "," de "))</f>
+        <v>Chapa</v>
       </c>
       <c r="O71" s="22" t="str">
-        <f t="shared" ref="O71" si="158">F71</f>
-        <v>Parafuso</v>
+        <f t="shared" ref="O71:O84" si="158">F71</f>
+        <v>Pedra</v>
       </c>
       <c r="P71" s="22" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="Q71" s="46" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="R71" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S71" s="29" t="str">
-        <f t="shared" ref="S71" si="159">SUBSTITUTE(C71, ".", " ")</f>
+        <f t="shared" ref="S71:S84" si="159">SUBSTITUTE(C71, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T71" s="29" t="str">
-        <f t="shared" ref="T71" si="160">SUBSTITUTE(D71, ".", " ")</f>
+        <f t="shared" ref="T71:T84" si="160">SUBSTITUTE(D71, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U71" s="29" t="str">
-        <f t="shared" ref="U71" si="161">SUBSTITUTE(E71, ".", " ")</f>
-        <v>Fixação</v>
+        <f t="shared" ref="U71:U84" si="161">SUBSTITUTE(E71, ".", " ")</f>
+        <v>Chapa</v>
       </c>
       <c r="V71" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W71" s="1" t="str">
-        <f t="shared" si="147"/>
-        <v>Key-Pare-71</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.71</v>
+      </c>
+      <c r="X71" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y71" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="24">
         <v>72</v>
       </c>
@@ -9880,10 +10676,10 @@
         <v>268</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="G72" s="31" t="s">
         <v>9</v>
@@ -9901,51 +10697,57 @@
         <v>9</v>
       </c>
       <c r="L72" s="27" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="155"/>
         <v>Divisória</v>
       </c>
       <c r="M72" s="27" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="156"/>
         <v>Parte</v>
       </c>
       <c r="N72" s="27" t="str">
-        <f t="shared" si="142"/>
-        <v>Fixação</v>
+        <f t="shared" si="157"/>
+        <v>Perfil</v>
       </c>
       <c r="O72" s="22" t="str">
-        <f t="shared" si="143"/>
-        <v>Bucha</v>
+        <f t="shared" si="158"/>
+        <v>Guia.L</v>
       </c>
       <c r="P72" s="22" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="Q72" s="46" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="R72" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S72" s="29" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="159"/>
         <v>Divisória</v>
       </c>
       <c r="T72" s="29" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="160"/>
         <v>Parte</v>
       </c>
       <c r="U72" s="29" t="str">
-        <f t="shared" si="146"/>
-        <v>Fixação</v>
+        <f t="shared" si="161"/>
+        <v>Perfil</v>
       </c>
       <c r="V72" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W72" s="1" t="str">
-        <f t="shared" si="147"/>
-        <v>Key-Pare-72</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.72</v>
+      </c>
+      <c r="X72" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y72" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="24">
         <v>73</v>
       </c>
@@ -9959,10 +10761,10 @@
         <v>268</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="G73" s="31" t="s">
         <v>9</v>
@@ -9980,51 +10782,57 @@
         <v>9</v>
       </c>
       <c r="L73" s="27" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" ref="L73" si="162">CONCATENATE("", C73)</f>
         <v>Divisória</v>
       </c>
       <c r="M73" s="27" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" ref="M73" si="163">CONCATENATE("", D73)</f>
         <v>Parte</v>
       </c>
       <c r="N73" s="27" t="str">
-        <f t="shared" si="142"/>
-        <v>Fixação</v>
+        <f t="shared" ref="N73" si="164">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E73),"."," ")," De "," de "))</f>
+        <v>Perfil</v>
       </c>
       <c r="O73" s="22" t="str">
-        <f t="shared" si="143"/>
-        <v>Fixador.Pinça</v>
+        <f t="shared" ref="O73" si="165">F73</f>
+        <v>Guia.U</v>
       </c>
       <c r="P73" s="22" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="Q73" s="46" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="R73" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S73" s="29" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" ref="S73" si="166">SUBSTITUTE(C73, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T73" s="29" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" ref="T73" si="167">SUBSTITUTE(D73, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U73" s="29" t="str">
-        <f t="shared" si="146"/>
-        <v>Fixação</v>
+        <f t="shared" ref="U73" si="168">SUBSTITUTE(E73, ".", " ")</f>
+        <v>Perfil</v>
       </c>
       <c r="V73" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W73" s="1" t="str">
-        <f t="shared" si="147"/>
-        <v>Key-Pare-73</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.73</v>
+      </c>
+      <c r="X73" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y73" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="24">
         <v>74</v>
       </c>
@@ -10038,10 +10846,10 @@
         <v>268</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="G74" s="31" t="s">
         <v>9</v>
@@ -10059,51 +10867,57 @@
         <v>9</v>
       </c>
       <c r="L74" s="27" t="str">
-        <f t="shared" ref="L74:L75" si="162">CONCATENATE("", C74)</f>
+        <f t="shared" si="155"/>
         <v>Divisória</v>
       </c>
       <c r="M74" s="27" t="str">
-        <f t="shared" ref="M74:M75" si="163">CONCATENATE("", D74)</f>
+        <f t="shared" si="156"/>
         <v>Parte</v>
       </c>
       <c r="N74" s="27" t="str">
-        <f t="shared" ref="N74:N75" si="164">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E74),"."," ")," De "," de "))</f>
-        <v>Fixação</v>
+        <f t="shared" si="157"/>
+        <v>Perfil</v>
       </c>
       <c r="O74" s="22" t="str">
-        <f t="shared" ref="O74:O75" si="165">F74</f>
-        <v>Fixador.Cantoneira</v>
+        <f t="shared" si="158"/>
+        <v>Guia.Montante</v>
       </c>
       <c r="P74" s="22" t="s">
-        <v>249</v>
+        <v>154</v>
       </c>
       <c r="Q74" s="46" t="s">
-        <v>246</v>
+        <v>159</v>
       </c>
       <c r="R74" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S74" s="29" t="str">
-        <f t="shared" ref="S74:S75" si="166">SUBSTITUTE(C74, ".", " ")</f>
+        <f t="shared" si="159"/>
         <v>Divisória</v>
       </c>
       <c r="T74" s="29" t="str">
-        <f t="shared" ref="T74:T75" si="167">SUBSTITUTE(D74, ".", " ")</f>
+        <f t="shared" si="160"/>
         <v>Parte</v>
       </c>
       <c r="U74" s="29" t="str">
-        <f t="shared" ref="U74:U75" si="168">SUBSTITUTE(E74, ".", " ")</f>
-        <v>Fixação</v>
+        <f t="shared" si="161"/>
+        <v>Perfil</v>
       </c>
       <c r="V74" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W74" s="1" t="str">
-        <f t="shared" si="147"/>
-        <v>Key-Pare-74</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.74</v>
+      </c>
+      <c r="X74" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y74" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="24">
         <v>75</v>
       </c>
@@ -10120,7 +10934,7 @@
         <v>148</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G75" s="31" t="s">
         <v>9</v>
@@ -10138,51 +10952,57 @@
         <v>9</v>
       </c>
       <c r="L75" s="27" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" ref="L75" si="169">CONCATENATE("", C75)</f>
         <v>Divisória</v>
       </c>
       <c r="M75" s="27" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" ref="M75" si="170">CONCATENATE("", D75)</f>
         <v>Parte</v>
       </c>
       <c r="N75" s="27" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" ref="N75" si="171">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E75),"."," ")," De "," de "))</f>
         <v>Fixação</v>
       </c>
       <c r="O75" s="22" t="str">
-        <f t="shared" si="165"/>
-        <v>Conector</v>
+        <f t="shared" ref="O75" si="172">F75</f>
+        <v>Parafuso</v>
       </c>
       <c r="P75" s="22" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="Q75" s="46" t="s">
-        <v>247</v>
+        <v>160</v>
       </c>
       <c r="R75" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S75" s="29" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" ref="S75" si="173">SUBSTITUTE(C75, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T75" s="29" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" ref="T75" si="174">SUBSTITUTE(D75, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U75" s="29" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" ref="U75" si="175">SUBSTITUTE(E75, ".", " ")</f>
         <v>Fixação</v>
       </c>
       <c r="V75" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W75" s="1" t="str">
-        <f t="shared" si="147"/>
-        <v>Key-Pare-75</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.75</v>
+      </c>
+      <c r="X75" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y75" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="24">
         <v>76</v>
       </c>
@@ -10199,7 +11019,7 @@
         <v>148</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G76" s="31" t="s">
         <v>9</v>
@@ -10217,51 +11037,57 @@
         <v>9</v>
       </c>
       <c r="L76" s="27" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="155"/>
         <v>Divisória</v>
       </c>
       <c r="M76" s="27" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="156"/>
         <v>Parte</v>
       </c>
       <c r="N76" s="27" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="157"/>
         <v>Fixação</v>
       </c>
       <c r="O76" s="22" t="str">
-        <f t="shared" si="143"/>
-        <v>Cola</v>
+        <f t="shared" si="158"/>
+        <v>Bucha</v>
       </c>
       <c r="P76" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q76" s="22" t="s">
-        <v>244</v>
+        <v>209</v>
+      </c>
+      <c r="Q76" s="46" t="s">
+        <v>218</v>
       </c>
       <c r="R76" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S76" s="29" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="159"/>
         <v>Divisória</v>
       </c>
       <c r="T76" s="29" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="160"/>
         <v>Parte</v>
       </c>
       <c r="U76" s="29" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="161"/>
         <v>Fixação</v>
       </c>
       <c r="V76" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W76" s="1" t="str">
-        <f t="shared" si="147"/>
-        <v>Key-Pare-76</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.76</v>
+      </c>
+      <c r="X76" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y76" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="24">
         <v>77</v>
       </c>
@@ -10275,10 +11101,10 @@
         <v>268</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G77" s="31" t="s">
         <v>9</v>
@@ -10296,51 +11122,57 @@
         <v>9</v>
       </c>
       <c r="L77" s="27" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="155"/>
         <v>Divisória</v>
       </c>
       <c r="M77" s="27" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="156"/>
         <v>Parte</v>
       </c>
       <c r="N77" s="27" t="str">
-        <f t="shared" si="142"/>
-        <v>Fecho</v>
+        <f t="shared" si="157"/>
+        <v>Fixação</v>
       </c>
       <c r="O77" s="22" t="str">
-        <f t="shared" si="143"/>
-        <v>Puxador.Externo</v>
+        <f t="shared" si="158"/>
+        <v>Fixador.Pinça</v>
       </c>
       <c r="P77" s="22" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="Q77" s="46" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="R77" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S77" s="29" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="159"/>
         <v>Divisória</v>
       </c>
       <c r="T77" s="29" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="160"/>
         <v>Parte</v>
       </c>
       <c r="U77" s="29" t="str">
-        <f t="shared" si="146"/>
-        <v>Fecho</v>
+        <f t="shared" si="161"/>
+        <v>Fixação</v>
       </c>
       <c r="V77" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W77" s="1" t="str">
-        <f t="shared" si="147"/>
-        <v>Key-Pare-77</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.77</v>
+      </c>
+      <c r="X77" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y77" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="24">
         <v>78</v>
       </c>
@@ -10354,10 +11186,10 @@
         <v>268</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G78" s="31" t="s">
         <v>9</v>
@@ -10375,51 +11207,57 @@
         <v>9</v>
       </c>
       <c r="L78" s="27" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" ref="L78:L79" si="176">CONCATENATE("", C78)</f>
         <v>Divisória</v>
       </c>
       <c r="M78" s="27" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" ref="M78:M79" si="177">CONCATENATE("", D78)</f>
         <v>Parte</v>
       </c>
       <c r="N78" s="27" t="str">
-        <f t="shared" si="142"/>
-        <v>Fecho</v>
+        <f t="shared" ref="N78:N79" si="178">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E78),"."," ")," De "," de "))</f>
+        <v>Fixação</v>
       </c>
       <c r="O78" s="22" t="str">
-        <f t="shared" si="143"/>
-        <v>Puxador.Interno</v>
+        <f t="shared" ref="O78:O79" si="179">F78</f>
+        <v>Fixador.Cantoneira</v>
       </c>
       <c r="P78" s="22" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="Q78" s="46" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="R78" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S78" s="29" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" ref="S78:S79" si="180">SUBSTITUTE(C78, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T78" s="29" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" ref="T78:T79" si="181">SUBSTITUTE(D78, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U78" s="29" t="str">
-        <f t="shared" si="146"/>
-        <v>Fecho</v>
+        <f t="shared" ref="U78:U79" si="182">SUBSTITUTE(E78, ".", " ")</f>
+        <v>Fixação</v>
       </c>
       <c r="V78" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W78" s="1" t="str">
-        <f t="shared" si="147"/>
-        <v>Key-Pare-78</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.78</v>
+      </c>
+      <c r="X78" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y78" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="24">
         <v>79</v>
       </c>
@@ -10433,10 +11271,10 @@
         <v>268</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="G79" s="31" t="s">
         <v>9</v>
@@ -10454,51 +11292,57 @@
         <v>9</v>
       </c>
       <c r="L79" s="27" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="176"/>
         <v>Divisória</v>
       </c>
       <c r="M79" s="27" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="177"/>
         <v>Parte</v>
       </c>
       <c r="N79" s="27" t="str">
-        <f t="shared" si="142"/>
-        <v>Cabide</v>
+        <f t="shared" si="178"/>
+        <v>Fixação</v>
       </c>
       <c r="O79" s="22" t="str">
-        <f t="shared" si="143"/>
-        <v>Tipo.Gancho</v>
+        <f t="shared" si="179"/>
+        <v>Conector</v>
       </c>
       <c r="P79" s="22" t="s">
-        <v>214</v>
+        <v>247</v>
       </c>
       <c r="Q79" s="46" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="R79" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S79" s="29" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="180"/>
         <v>Divisória</v>
       </c>
       <c r="T79" s="29" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="181"/>
         <v>Parte</v>
       </c>
       <c r="U79" s="29" t="str">
-        <f t="shared" si="146"/>
-        <v>Cabide</v>
+        <f t="shared" si="182"/>
+        <v>Fixação</v>
       </c>
       <c r="V79" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W79" s="1" t="str">
-        <f t="shared" si="147"/>
-        <v>Key-Pare-79</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.79</v>
+      </c>
+      <c r="X79" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y79" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="24">
         <v>80</v>
       </c>
@@ -10512,10 +11356,10 @@
         <v>268</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="G80" s="31" t="s">
         <v>9</v>
@@ -10533,51 +11377,57 @@
         <v>9</v>
       </c>
       <c r="L80" s="27" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" si="155"/>
         <v>Divisória</v>
       </c>
       <c r="M80" s="27" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="156"/>
         <v>Parte</v>
       </c>
       <c r="N80" s="27" t="str">
-        <f t="shared" si="142"/>
-        <v>Cabide</v>
+        <f t="shared" si="157"/>
+        <v>Fixação</v>
       </c>
       <c r="O80" s="22" t="str">
-        <f t="shared" si="143"/>
-        <v>Antifurto</v>
+        <f t="shared" si="158"/>
+        <v>Cola</v>
       </c>
       <c r="P80" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q80" s="46" t="s">
-        <v>212</v>
+        <v>243</v>
+      </c>
+      <c r="Q80" s="22" t="s">
+        <v>244</v>
       </c>
       <c r="R80" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S80" s="29" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" si="159"/>
         <v>Divisória</v>
       </c>
       <c r="T80" s="29" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="160"/>
         <v>Parte</v>
       </c>
       <c r="U80" s="29" t="str">
-        <f t="shared" si="146"/>
-        <v>Cabide</v>
+        <f t="shared" si="161"/>
+        <v>Fixação</v>
       </c>
       <c r="V80" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W80" s="1" t="str">
-        <f t="shared" si="147"/>
-        <v>Key-Pare-80</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.80</v>
+      </c>
+      <c r="X80" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y80" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="24">
         <v>81</v>
       </c>
@@ -10591,10 +11441,10 @@
         <v>268</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G81" s="31" t="s">
         <v>9</v>
@@ -10612,209 +11462,580 @@
         <v>9</v>
       </c>
       <c r="L81" s="27" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="155"/>
         <v>Divisória</v>
       </c>
       <c r="M81" s="27" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="156"/>
         <v>Parte</v>
       </c>
       <c r="N81" s="27" t="str">
-        <f t="shared" si="58"/>
-        <v>Dobradiça</v>
+        <f t="shared" si="157"/>
+        <v>Fecho</v>
       </c>
       <c r="O81" s="22" t="str">
-        <f t="shared" si="59"/>
-        <v xml:space="preserve">Automática </v>
+        <f t="shared" si="158"/>
+        <v>Puxador.Externo</v>
       </c>
       <c r="P81" s="22" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q81" s="46" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="R81" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S81" s="29" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="159"/>
         <v>Divisória</v>
       </c>
       <c r="T81" s="29" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="160"/>
         <v>Parte</v>
       </c>
       <c r="U81" s="29" t="str">
-        <f t="shared" si="62"/>
-        <v>Dobradiça</v>
+        <f t="shared" si="161"/>
+        <v>Fecho</v>
       </c>
       <c r="V81" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W81" s="1" t="str">
-        <f t="shared" si="147"/>
-        <v>Key-Pare-81</v>
+        <f t="shared" si="133"/>
+        <v>Key.Div.81</v>
+      </c>
+      <c r="X81" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y81" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="24">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I82" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J82" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K82" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L82" s="27" t="str">
+        <f t="shared" si="155"/>
+        <v>Divisória</v>
+      </c>
+      <c r="M82" s="27" t="str">
+        <f t="shared" si="156"/>
+        <v>Parte</v>
+      </c>
+      <c r="N82" s="27" t="str">
+        <f t="shared" si="157"/>
+        <v>Fecho</v>
+      </c>
+      <c r="O82" s="22" t="str">
+        <f t="shared" si="158"/>
+        <v>Puxador.Interno</v>
+      </c>
+      <c r="P82" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q82" s="46" t="s">
+        <v>217</v>
+      </c>
+      <c r="R82" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S82" s="29" t="str">
+        <f t="shared" si="159"/>
+        <v>Divisória</v>
+      </c>
+      <c r="T82" s="29" t="str">
+        <f t="shared" si="160"/>
+        <v>Parte</v>
+      </c>
+      <c r="U82" s="29" t="str">
+        <f t="shared" si="161"/>
+        <v>Fecho</v>
+      </c>
+      <c r="V82" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W82" s="1" t="str">
+        <f t="shared" si="133"/>
+        <v>Key.Div.82</v>
+      </c>
+      <c r="X82" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y82" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="24">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G83" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I83" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J83" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L83" s="27" t="str">
+        <f t="shared" si="155"/>
+        <v>Divisória</v>
+      </c>
+      <c r="M83" s="27" t="str">
+        <f t="shared" si="156"/>
+        <v>Parte</v>
+      </c>
+      <c r="N83" s="27" t="str">
+        <f t="shared" si="157"/>
+        <v>Cabide</v>
+      </c>
+      <c r="O83" s="22" t="str">
+        <f t="shared" si="158"/>
+        <v>Tipo.Gancho</v>
+      </c>
+      <c r="P83" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q83" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="R83" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S83" s="29" t="str">
+        <f t="shared" si="159"/>
+        <v>Divisória</v>
+      </c>
+      <c r="T83" s="29" t="str">
+        <f t="shared" si="160"/>
+        <v>Parte</v>
+      </c>
+      <c r="U83" s="29" t="str">
+        <f t="shared" si="161"/>
+        <v>Cabide</v>
+      </c>
+      <c r="V83" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W83" s="1" t="str">
+        <f t="shared" si="133"/>
+        <v>Key.Div.83</v>
+      </c>
+      <c r="X83" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y83" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="24">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J84" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" s="27" t="str">
+        <f t="shared" si="155"/>
+        <v>Divisória</v>
+      </c>
+      <c r="M84" s="27" t="str">
+        <f t="shared" si="156"/>
+        <v>Parte</v>
+      </c>
+      <c r="N84" s="27" t="str">
+        <f t="shared" si="157"/>
+        <v>Cabide</v>
+      </c>
+      <c r="O84" s="22" t="str">
+        <f t="shared" si="158"/>
+        <v>Antifurto</v>
+      </c>
+      <c r="P84" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q84" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="R84" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S84" s="29" t="str">
+        <f t="shared" si="159"/>
+        <v>Divisória</v>
+      </c>
+      <c r="T84" s="29" t="str">
+        <f t="shared" si="160"/>
+        <v>Parte</v>
+      </c>
+      <c r="U84" s="29" t="str">
+        <f t="shared" si="161"/>
+        <v>Cabide</v>
+      </c>
+      <c r="V84" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W84" s="1" t="str">
+        <f t="shared" si="133"/>
+        <v>Key.Div.84</v>
+      </c>
+      <c r="X84" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y84" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="24">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G85" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I85" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J85" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K85" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85" s="27" t="str">
+        <f t="shared" si="70"/>
+        <v>Divisória</v>
+      </c>
+      <c r="M85" s="27" t="str">
+        <f t="shared" si="71"/>
+        <v>Parte</v>
+      </c>
+      <c r="N85" s="27" t="str">
+        <f t="shared" si="72"/>
+        <v>Dobradiça</v>
+      </c>
+      <c r="O85" s="22" t="str">
+        <f t="shared" si="73"/>
+        <v xml:space="preserve">Automática </v>
+      </c>
+      <c r="P85" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q85" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="R85" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S85" s="29" t="str">
+        <f t="shared" si="74"/>
+        <v>Divisória</v>
+      </c>
+      <c r="T85" s="29" t="str">
+        <f t="shared" si="75"/>
+        <v>Parte</v>
+      </c>
+      <c r="U85" s="29" t="str">
+        <f t="shared" si="76"/>
+        <v>Dobradiça</v>
+      </c>
+      <c r="V85" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W85" s="1" t="str">
+        <f t="shared" si="133"/>
+        <v>Key.Div.85</v>
+      </c>
+      <c r="X85" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y85" s="70" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="129" priority="1153"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F8:F1048576">
-    <cfRule type="duplicateValues" dxfId="128" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="1210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="127" priority="1113"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="1114"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="1115"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="1116"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="1117"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="1118"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="1172"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="1171"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="1170"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="1175"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="1174"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="1173"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F17">
-    <cfRule type="duplicateValues" dxfId="121" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="72"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="74"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="78"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="79"/>
+  <conditionalFormatting sqref="F3:F6">
+    <cfRule type="duplicateValues" dxfId="152" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29 F21:F25 F31:F81">
-    <cfRule type="duplicateValues" dxfId="110" priority="1574"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="1575"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="1576"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="1577"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="1578"/>
-    <cfRule type="duplicateValues" dxfId="105" priority="1579"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="1580"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="1581"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="1582"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="1583"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="1584"/>
+  <conditionalFormatting sqref="F7:F16 F1:F2 F22:F1048576">
+    <cfRule type="duplicateValues" dxfId="140" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F82:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="99" priority="1154"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="1155"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="1156"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="1157"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="1158"/>
+  <conditionalFormatting sqref="F7:F16">
+    <cfRule type="duplicateValues" dxfId="139" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="132"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F82:F1048576">
-    <cfRule type="duplicateValues" dxfId="94" priority="369"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="371"/>
+  <conditionalFormatting sqref="F17:F21">
+    <cfRule type="duplicateValues" dxfId="128" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:P16">
-    <cfRule type="duplicateValues" dxfId="92" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="88" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="87" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="64"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="68"/>
+  <conditionalFormatting sqref="F33 F25:F29 F35:F85">
+    <cfRule type="duplicateValues" dxfId="116" priority="1631"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="1641"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="1640"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="1632"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="1633"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="1634"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="1635"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="1636"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="1637"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="1638"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="1639"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17">
-    <cfRule type="duplicateValues" dxfId="81" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="76" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="57"/>
+  <conditionalFormatting sqref="F86:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="105" priority="1215"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="1214"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="1213"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="1212"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="1211"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P45:Q47 P35:P44">
-    <cfRule type="duplicateValues" dxfId="70" priority="1498"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="1499"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="1500"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="1501"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="1502"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="1503"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="1504"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="1505"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="1506"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="1507"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="1508"/>
+  <conditionalFormatting sqref="F86:F1048576">
+    <cfRule type="duplicateValues" dxfId="100" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="428"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17">
-    <cfRule type="duplicateValues" dxfId="59" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="46"/>
+  <conditionalFormatting sqref="P7:P15">
+    <cfRule type="duplicateValues" dxfId="98" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="119"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q41">
-    <cfRule type="duplicateValues" dxfId="48" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="112"/>
+  <conditionalFormatting sqref="P16">
+    <cfRule type="duplicateValues" dxfId="87" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="81" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="107"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F7">
-    <cfRule type="duplicateValues" dxfId="33" priority="12"/>
+  <conditionalFormatting sqref="P17:P21">
+    <cfRule type="duplicateValues" dxfId="76" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F7">
-    <cfRule type="duplicateValues" dxfId="32" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="34"/>
+  <conditionalFormatting sqref="P49:Q51 P39:P48">
+    <cfRule type="duplicateValues" dxfId="65" priority="1557"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1556"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="1565"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="1564"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="1563"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="1562"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="1561"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="1560"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1559"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="1558"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1555"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P7">
-    <cfRule type="duplicateValues" dxfId="21" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
+  <conditionalFormatting sqref="Q3:Q6">
+    <cfRule type="duplicateValues" dxfId="54" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="56"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q7">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  <conditionalFormatting sqref="Q16">
+    <cfRule type="duplicateValues" dxfId="43" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17:Q21">
+    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q45">
+    <cfRule type="duplicateValues" dxfId="21" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="169"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -11033,7 +12254,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11049,59 +12270,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A426B82-2E19-47C6-9DDF-914E7B26E6D0}">
   <dimension ref="A1:AS98"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A98"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="6.55" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.15234375" defaultRowHeight="6.9" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.765625" style="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.84375" style="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.84375" style="55" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.53515625" style="56" customWidth="1"/>
+    <col min="2" max="3" width="8.15234375" style="55"/>
     <col min="4" max="4" width="4.07421875" style="55" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57.4609375" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.53515625" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.765625" style="56" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.69140625" style="56" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.4609375" style="56" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.69140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.3046875" style="56" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.4609375" style="56" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.15234375" style="56" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.3046875" style="56" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.15234375" style="56"/>
     <col min="13" max="13" width="4.53515625" style="56" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.61328125" style="56" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.69140625" style="56" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.921875" style="56" customWidth="1"/>
+    <col min="15" max="15" width="8.84375" style="56" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.15234375" style="56" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.69140625" style="56" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.4609375" style="56" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.61328125" style="56" customWidth="1"/>
     <col min="19" max="19" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.4609375" style="56" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.61328125" style="56" customWidth="1"/>
     <col min="21" max="21" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.4609375" style="56" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" style="56" customWidth="1"/>
     <col min="23" max="23" width="5.4609375" style="56" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.921875" style="56" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.61328125" style="56" customWidth="1"/>
     <col min="25" max="25" width="3.765625" style="56" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.921875" style="56" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.15234375" style="56"/>
     <col min="27" max="27" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.921875" style="56" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="1.921875" style="56" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.15234375" style="56"/>
+    <col min="29" max="29" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.15234375" style="56"/>
+    <col min="31" max="31" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.15234375" style="56"/>
+    <col min="33" max="33" width="2.23046875" style="56" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="1.921875" style="56" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2.23046875" style="56" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="1.921875" style="56" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="2.23046875" style="56" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="1.921875" style="56" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="2.23046875" style="56" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="1.921875" style="56" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2.23046875" style="56" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="1.921875" style="56" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="2.23046875" style="56" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="2.3828125" style="56" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="1.921875" style="56" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="9.23046875" style="55"/>
+    <col min="45" max="45" width="2.23046875" style="56" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="8.15234375" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="52" customFormat="1" ht="16.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:45" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="41" t="s">
         <v>10</v>
       </c>
@@ -11238,7 +12461,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17">
         <v>2</v>
       </c>
@@ -11375,7 +12598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="17">
         <v>3</v>
       </c>
@@ -11512,7 +12735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="17">
         <v>4</v>
       </c>
@@ -11649,7 +12872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17">
         <v>5</v>
       </c>
@@ -11786,7 +13009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="17">
         <v>6</v>
       </c>
@@ -11923,7 +13146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17">
         <v>7</v>
       </c>
@@ -12060,7 +13283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
         <v>8</v>
       </c>
@@ -12197,7 +13420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="17">
         <v>9</v>
       </c>
@@ -12334,7 +13557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17">
         <v>10</v>
       </c>
@@ -12471,7 +13694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
         <v>11</v>
       </c>
@@ -12608,7 +13831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17">
         <v>12</v>
       </c>
@@ -12745,7 +13968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17">
         <v>13</v>
       </c>
@@ -12882,7 +14105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="17">
         <v>14</v>
       </c>
@@ -13019,7 +14242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="17">
         <v>15</v>
       </c>
@@ -13156,7 +14379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17">
         <v>16</v>
       </c>
@@ -13293,7 +14516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17">
         <v>17</v>
       </c>
@@ -13430,7 +14653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="17">
         <v>18</v>
       </c>
@@ -13567,7 +14790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="17">
         <v>19</v>
       </c>
@@ -13704,7 +14927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="17">
         <v>20</v>
       </c>
@@ -13841,7 +15064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="17">
         <v>21</v>
       </c>
@@ -13978,7 +15201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17">
         <v>22</v>
       </c>
@@ -14115,7 +15338,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17">
         <v>23</v>
       </c>
@@ -14252,7 +15475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="17">
         <v>24</v>
       </c>
@@ -14389,7 +15612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="17">
         <v>25</v>
       </c>
@@ -14526,7 +15749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="17">
         <v>26</v>
       </c>
@@ -14663,7 +15886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="17">
         <v>27</v>
       </c>
@@ -14800,7 +16023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17">
         <v>28</v>
       </c>
@@ -14937,7 +16160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="17">
         <v>29</v>
       </c>
@@ -15074,7 +16297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="17">
         <v>30</v>
       </c>
@@ -15211,7 +16434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17">
         <v>31</v>
       </c>
@@ -15348,7 +16571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="17">
         <v>32</v>
       </c>
@@ -15485,7 +16708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17">
         <v>33</v>
       </c>
@@ -15622,7 +16845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="17">
         <v>34</v>
       </c>
@@ -15759,7 +16982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="17">
         <v>35</v>
       </c>
@@ -15896,7 +17119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="17">
         <v>36</v>
       </c>
@@ -16033,7 +17256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17">
         <v>37</v>
       </c>
@@ -16170,7 +17393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="17">
         <v>38</v>
       </c>
@@ -16307,7 +17530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="17">
         <v>39</v>
       </c>
@@ -16444,7 +17667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="17">
         <v>40</v>
       </c>
@@ -16581,7 +17804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="17">
         <v>41</v>
       </c>
@@ -16718,7 +17941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="17">
         <v>42</v>
       </c>
@@ -16855,7 +18078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="17">
         <v>43</v>
       </c>
@@ -16992,7 +18215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17">
         <v>44</v>
       </c>
@@ -17129,7 +18352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="17">
         <v>45</v>
       </c>
@@ -17266,11 +18489,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="17">
         <v>46</v>
       </c>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="68" t="s">
         <v>533</v>
       </c>
       <c r="C46" s="47" t="s">
@@ -17403,7 +18626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="17">
         <v>47</v>
       </c>
@@ -17540,7 +18763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="17">
         <v>48</v>
       </c>
@@ -17677,7 +18900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="17">
         <v>49</v>
       </c>
@@ -17814,7 +19037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="17">
         <v>50</v>
       </c>
@@ -17951,7 +19174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="17">
         <v>51</v>
       </c>
@@ -18088,7 +19311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="17">
         <v>52</v>
       </c>
@@ -18128,8 +19351,8 @@
       <c r="M52" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N52" s="58" t="s">
-        <v>387</v>
+      <c r="N52" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="O52" s="50" t="s">
         <v>9</v>
@@ -18225,7 +19448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="17">
         <v>53</v>
       </c>
@@ -18265,8 +19488,8 @@
       <c r="M53" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N53" s="58" t="s">
-        <v>387</v>
+      <c r="N53" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="O53" s="50" t="s">
         <v>9</v>
@@ -18362,7 +19585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="17">
         <v>54</v>
       </c>
@@ -18402,8 +19625,8 @@
       <c r="M54" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N54" s="58" t="s">
-        <v>387</v>
+      <c r="N54" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="O54" s="50" t="s">
         <v>9</v>
@@ -18499,7 +19722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="17">
         <v>55</v>
       </c>
@@ -18539,8 +19762,8 @@
       <c r="M55" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N55" s="58" t="s">
-        <v>387</v>
+      <c r="N55" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="O55" s="50" t="s">
         <v>9</v>
@@ -18636,7 +19859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="17">
         <v>56</v>
       </c>
@@ -18676,8 +19899,8 @@
       <c r="M56" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N56" s="58" t="s">
-        <v>387</v>
+      <c r="N56" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="O56" s="50" t="s">
         <v>9</v>
@@ -18773,7 +19996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="17">
         <v>57</v>
       </c>
@@ -18813,8 +20036,8 @@
       <c r="M57" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N57" s="58" t="s">
-        <v>387</v>
+      <c r="N57" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="O57" s="50" t="s">
         <v>9</v>
@@ -18910,7 +20133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="17">
         <v>58</v>
       </c>
@@ -18950,8 +20173,8 @@
       <c r="M58" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N58" s="58" t="s">
-        <v>387</v>
+      <c r="N58" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="O58" s="50" t="s">
         <v>9</v>
@@ -19047,7 +20270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="17">
         <v>59</v>
       </c>
@@ -19087,8 +20310,8 @@
       <c r="M59" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N59" s="58" t="s">
-        <v>387</v>
+      <c r="N59" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="O59" s="50" t="s">
         <v>9</v>
@@ -19184,7 +20407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="17">
         <v>60</v>
       </c>
@@ -19224,8 +20447,8 @@
       <c r="M60" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N60" s="58" t="s">
-        <v>387</v>
+      <c r="N60" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="O60" s="50" t="s">
         <v>9</v>
@@ -19321,144 +20544,144 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:45" s="71" customFormat="1" ht="7.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="17">
         <v>61</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="61" t="s">
         <v>514</v>
       </c>
-      <c r="C61" s="68" t="s">
+      <c r="C61" s="47" t="s">
         <v>515</v>
       </c>
-      <c r="D61" s="65" t="s">
+      <c r="D61" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E61" s="69" t="s">
+      <c r="E61" s="49" t="s">
         <v>516</v>
       </c>
-      <c r="F61" s="65" t="s">
+      <c r="F61" s="43" t="s">
         <v>9</v>
       </c>
       <c r="G61" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="H61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="J61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="K61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="L61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="M61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="N61" s="70" t="s">
+      <c r="H61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="I61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="M61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="N61" s="58" t="s">
         <v>387</v>
       </c>
-      <c r="O61" s="66" t="s">
+      <c r="O61" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="P61" s="65" t="s">
+      <c r="P61" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="Q61" s="66" t="s">
+      <c r="Q61" s="50" t="s">
         <v>518</v>
       </c>
-      <c r="R61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="S61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="T61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="U61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="V61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="W61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="X61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ61" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR61" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS61" s="66" t="s">
+      <c r="R61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="S61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="T61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="U61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="V61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="W61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="X61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ61" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR61" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS61" s="50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="17">
         <v>62</v>
       </c>
@@ -19595,7 +20818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="17">
         <v>63</v>
       </c>
@@ -19732,7 +20955,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="17">
         <v>64</v>
       </c>
@@ -19869,7 +21092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="17">
         <v>65</v>
       </c>
@@ -20006,7 +21229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="17">
         <v>66</v>
       </c>
@@ -20143,7 +21366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="17">
         <v>67</v>
       </c>
@@ -20280,7 +21503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="17">
         <v>68</v>
       </c>
@@ -20417,7 +21640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="17">
         <v>69</v>
       </c>
@@ -20554,7 +21777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="17">
         <v>70</v>
       </c>
@@ -20691,7 +21914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="17">
         <v>71</v>
       </c>
@@ -20828,7 +22051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="17">
         <v>72</v>
       </c>
@@ -20965,7 +22188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="17">
         <v>73</v>
       </c>
@@ -21102,7 +22325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="17">
         <v>74</v>
       </c>
@@ -21239,7 +22462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="17">
         <v>75</v>
       </c>
@@ -21376,7 +22599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="17">
         <v>76</v>
       </c>
@@ -21513,7 +22736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="17">
         <v>77</v>
       </c>
@@ -21650,7 +22873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="17">
         <v>78</v>
       </c>
@@ -21702,46 +22925,46 @@
       <c r="Q78" s="50" t="s">
         <v>501</v>
       </c>
-      <c r="R78" s="65" t="s">
+      <c r="R78" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="S78" s="66">
+      <c r="S78" s="50">
         <v>0.41</v>
       </c>
-      <c r="T78" s="65" t="s">
+      <c r="T78" s="43" t="s">
         <v>504</v>
       </c>
-      <c r="U78" s="66">
+      <c r="U78" s="50">
         <v>1.02</v>
       </c>
-      <c r="V78" s="65" t="s">
+      <c r="V78" s="43" t="s">
         <v>505</v>
       </c>
-      <c r="W78" s="66">
+      <c r="W78" s="50">
         <v>0.9</v>
       </c>
-      <c r="X78" s="65" t="s">
+      <c r="X78" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="Y78" s="66">
+      <c r="Y78" s="50">
         <v>0.7</v>
       </c>
-      <c r="Z78" s="65" t="s">
+      <c r="Z78" s="43" t="s">
         <v>507</v>
       </c>
-      <c r="AA78" s="66">
+      <c r="AA78" s="50">
         <v>0.47</v>
       </c>
-      <c r="AB78" s="65" t="s">
+      <c r="AB78" s="43" t="s">
         <v>508</v>
       </c>
-      <c r="AC78" s="66">
+      <c r="AC78" s="50">
         <v>0.44</v>
       </c>
-      <c r="AD78" s="65" t="s">
+      <c r="AD78" s="43" t="s">
         <v>509</v>
       </c>
-      <c r="AE78" s="66">
+      <c r="AE78" s="50">
         <v>0.8</v>
       </c>
       <c r="AF78" s="43" t="s">
@@ -21787,7 +23010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:45" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:45" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="17">
         <v>79</v>
       </c>
@@ -21839,46 +23062,46 @@
       <c r="Q79" s="50" t="s">
         <v>501</v>
       </c>
-      <c r="R79" s="65" t="s">
+      <c r="R79" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="S79" s="66">
+      <c r="S79" s="50">
         <v>0.45</v>
       </c>
-      <c r="T79" s="65" t="s">
+      <c r="T79" s="43" t="s">
         <v>504</v>
       </c>
-      <c r="U79" s="66">
+      <c r="U79" s="50">
         <v>0.96</v>
       </c>
-      <c r="V79" s="65" t="s">
+      <c r="V79" s="43" t="s">
         <v>505</v>
       </c>
-      <c r="W79" s="66">
+      <c r="W79" s="50">
         <v>0.92</v>
       </c>
-      <c r="X79" s="65" t="s">
+      <c r="X79" s="43" t="s">
         <v>506</v>
       </c>
-      <c r="Y79" s="66">
+      <c r="Y79" s="50">
         <v>0.62</v>
       </c>
-      <c r="Z79" s="65" t="s">
+      <c r="Z79" s="43" t="s">
         <v>507</v>
       </c>
-      <c r="AA79" s="66">
+      <c r="AA79" s="50">
         <v>0.41</v>
       </c>
-      <c r="AB79" s="65" t="s">
+      <c r="AB79" s="43" t="s">
         <v>508</v>
       </c>
-      <c r="AC79" s="66">
+      <c r="AC79" s="50">
         <v>0.41</v>
       </c>
-      <c r="AD79" s="65" t="s">
+      <c r="AD79" s="43" t="s">
         <v>509</v>
       </c>
-      <c r="AE79" s="66">
+      <c r="AE79" s="50">
         <v>0.75</v>
       </c>
       <c r="AF79" s="43" t="s">
@@ -21924,7 +23147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="17">
         <v>80</v>
       </c>
@@ -21943,7 +23166,7 @@
       <c r="F80" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="G80" s="72" t="s">
+      <c r="G80" s="65" t="s">
         <v>533</v>
       </c>
       <c r="H80" s="43" t="s">
@@ -22061,7 +23284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="17">
         <v>81</v>
       </c>
@@ -22080,7 +23303,7 @@
       <c r="F81" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="G81" s="72" t="s">
+      <c r="G81" s="65" t="s">
         <v>532</v>
       </c>
       <c r="H81" s="43" t="s">
@@ -22198,7 +23421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="17">
         <v>82</v>
       </c>
@@ -22217,7 +23440,7 @@
       <c r="F82" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="G82" s="72" t="s">
+      <c r="G82" s="65" t="s">
         <v>532</v>
       </c>
       <c r="H82" s="43" t="s">
@@ -22335,7 +23558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="17">
         <v>83</v>
       </c>
@@ -22354,7 +23577,7 @@
       <c r="F83" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="G83" s="72" t="s">
+      <c r="G83" s="65" t="s">
         <v>530</v>
       </c>
       <c r="H83" s="43" t="s">
@@ -22472,7 +23695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="17">
         <v>84</v>
       </c>
@@ -22491,7 +23714,7 @@
       <c r="F84" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="G84" s="73" t="s">
+      <c r="G84" s="66" t="s">
         <v>529</v>
       </c>
       <c r="H84" s="43" t="s">
@@ -22609,7 +23832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="17">
         <v>85</v>
       </c>
@@ -22628,7 +23851,7 @@
       <c r="F85" s="59" t="s">
         <v>174</v>
       </c>
-      <c r="G85" s="73" t="s">
+      <c r="G85" s="66" t="s">
         <v>528</v>
       </c>
       <c r="H85" s="43" t="s">
@@ -22746,7 +23969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="17">
         <v>86</v>
       </c>
@@ -22765,13 +23988,13 @@
       <c r="F86" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="G86" s="73" t="s">
+      <c r="G86" s="66" t="s">
         <v>128</v>
       </c>
       <c r="H86" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I86" s="73" t="s">
+      <c r="I86" s="66" t="s">
         <v>128</v>
       </c>
       <c r="J86" s="59" t="s">
@@ -22883,7 +24106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="17">
         <v>87</v>
       </c>
@@ -22902,13 +24125,13 @@
       <c r="F87" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="G87" s="73" t="s">
+      <c r="G87" s="66" t="s">
         <v>128</v>
       </c>
       <c r="H87" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="I87" s="73" t="s">
+      <c r="I87" s="66" t="s">
         <v>128</v>
       </c>
       <c r="J87" s="59" t="s">
@@ -23020,7 +24243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="17">
         <v>88</v>
       </c>
@@ -23039,13 +24262,13 @@
       <c r="F88" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="G88" s="73" t="s">
+      <c r="G88" s="66" t="s">
         <v>136</v>
       </c>
       <c r="H88" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="I88" s="73" t="s">
+      <c r="I88" s="66" t="s">
         <v>136</v>
       </c>
       <c r="J88" s="59" t="s">
@@ -23157,7 +24380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="17">
         <v>89</v>
       </c>
@@ -23176,13 +24399,13 @@
       <c r="F89" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="G89" s="74" t="s">
+      <c r="G89" s="67" t="s">
         <v>399</v>
       </c>
       <c r="H89" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I89" s="74" t="s">
+      <c r="I89" s="67" t="s">
         <v>399</v>
       </c>
       <c r="J89" s="43" t="s">
@@ -23294,7 +24517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="17">
         <v>90</v>
       </c>
@@ -23313,13 +24536,13 @@
       <c r="F90" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="G90" s="74" t="s">
+      <c r="G90" s="67" t="s">
         <v>399</v>
       </c>
       <c r="H90" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I90" s="74" t="s">
+      <c r="I90" s="67" t="s">
         <v>399</v>
       </c>
       <c r="J90" s="43" t="s">
@@ -23431,7 +24654,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="17">
         <v>91</v>
       </c>
@@ -23450,13 +24673,13 @@
       <c r="F91" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="G91" s="74" t="s">
+      <c r="G91" s="67" t="s">
         <v>399</v>
       </c>
       <c r="H91" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I91" s="74" t="s">
+      <c r="I91" s="67" t="s">
         <v>399</v>
       </c>
       <c r="J91" s="43" t="s">
@@ -23568,7 +24791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="17">
         <v>92</v>
       </c>
@@ -23587,13 +24810,13 @@
       <c r="F92" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="G92" s="74" t="s">
+      <c r="G92" s="67" t="s">
         <v>399</v>
       </c>
       <c r="H92" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I92" s="74" t="s">
+      <c r="I92" s="67" t="s">
         <v>399</v>
       </c>
       <c r="J92" s="43" t="s">
@@ -23705,7 +24928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="17">
         <v>93</v>
       </c>
@@ -23724,13 +24947,13 @@
       <c r="F93" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="G93" s="74" t="s">
+      <c r="G93" s="67" t="s">
         <v>399</v>
       </c>
       <c r="H93" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I93" s="74" t="s">
+      <c r="I93" s="67" t="s">
         <v>399</v>
       </c>
       <c r="J93" s="43" t="s">
@@ -23842,7 +25065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="17">
         <v>94</v>
       </c>
@@ -23861,13 +25084,13 @@
       <c r="F94" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="G94" s="74" t="s">
+      <c r="G94" s="67" t="s">
         <v>399</v>
       </c>
       <c r="H94" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I94" s="74" t="s">
+      <c r="I94" s="67" t="s">
         <v>399</v>
       </c>
       <c r="J94" s="43" t="s">
@@ -23979,7 +25202,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="17">
         <v>95</v>
       </c>
@@ -23998,13 +25221,13 @@
       <c r="F95" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="G95" s="74" t="s">
+      <c r="G95" s="67" t="s">
         <v>399</v>
       </c>
       <c r="H95" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I95" s="74" t="s">
+      <c r="I95" s="67" t="s">
         <v>399</v>
       </c>
       <c r="J95" s="43" t="s">
@@ -24116,7 +25339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="17">
         <v>96</v>
       </c>
@@ -24135,13 +25358,13 @@
       <c r="F96" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="G96" s="74" t="s">
+      <c r="G96" s="67" t="s">
         <v>399</v>
       </c>
       <c r="H96" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I96" s="74" t="s">
+      <c r="I96" s="67" t="s">
         <v>399</v>
       </c>
       <c r="J96" s="43" t="s">
@@ -24253,7 +25476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="17">
         <v>97</v>
       </c>
@@ -24272,7 +25495,7 @@
       <c r="F97" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="G97" s="73" t="s">
+      <c r="G97" s="66" t="s">
         <v>423</v>
       </c>
       <c r="H97" s="43" t="s">
@@ -24390,7 +25613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:45" s="38" customFormat="1" ht="6.55" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:45" s="38" customFormat="1" ht="6.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="17">
         <v>98</v>
       </c>
@@ -24409,7 +25632,7 @@
       <c r="F98" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="G98" s="73" t="s">
+      <c r="G98" s="66" t="s">
         <v>424</v>
       </c>
       <c r="H98" s="43" t="s">
@@ -24529,6 +25752,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -24600,15 +25828,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1 B3:G1048576 C2:G2">
-    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 A1:B1">
-    <cfRule type="duplicateValues" dxfId="35" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Versão5/ALVE/Ontologia_ALVEN.xlsx
+++ b/Versão5/ALVE/Ontologia_ALVEN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Construtor_Onto\ALVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED6AA23-B78F-40E9-A847-4397A469A508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8D23EA-F66C-4613-8E46-3DB7B0BCF764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="13" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Interop" sheetId="16" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Classes!$C$1:$C$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Interop!$B$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5544" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5592" uniqueCount="591">
   <si>
     <t>EquivalentTo: 
 Raiz
@@ -1834,6 +1834,39 @@
   </si>
   <si>
     <t>Paredes</t>
+  </si>
+  <si>
+    <t>Divisórias</t>
+  </si>
+  <si>
+    <t>LoD.Divisória</t>
+  </si>
+  <si>
+    <t>Divisória.100</t>
+  </si>
+  <si>
+    <t>Divisória.200</t>
+  </si>
+  <si>
+    <t>Divisória.300</t>
+  </si>
+  <si>
+    <t>Divisória definida em etapas iniciais do projeto em Nivel de detalhamento 100.</t>
+  </si>
+  <si>
+    <t>Divisória definida em etapas iniciais do projeto em Nivel de detalhamento 200.</t>
+  </si>
+  <si>
+    <t>Divisória definida em etapas iniciais do projeto em Nivel de detalhamento 300.</t>
+  </si>
+  <si>
+    <t>Tabique definido en las primeras etapas del proyecto en el nivel de detalle 100.</t>
+  </si>
+  <si>
+    <t>Tabique definido en las primeras etapas del proyecto en el nivel de detalle 200.</t>
+  </si>
+  <si>
+    <t>Tabique definido en las primeras etapas del proyecto en el nivel de detalle 300.</t>
   </si>
 </sst>
 </file>
@@ -2387,56 +2420,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="160">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </font>
-    </dxf>
+  <dxfs count="154">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2463,6 +2447,13 @@
         <i/>
         <strike val="0"/>
         <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.34998626667073579"/>
       </font>
     </dxf>
     <dxf>
@@ -4553,7 +4544,7 @@
       </c>
       <c r="B18" s="40">
         <f ca="1">NOW()</f>
-        <v>45922.595498726849</v>
+        <v>45922.684190277774</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4603,12 +4594,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96052D63-9637-42D9-866B-0BB924A50D8C}">
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A179" sqref="A179:XFD190"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD6"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="7.2" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4627,12 +4618,12 @@
     <col min="16" max="16" width="72.07421875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="66.4609375" customWidth="1"/>
     <col min="18" max="18" width="3.84375" style="30" customWidth="1"/>
-    <col min="19" max="19" width="5.4609375" customWidth="1"/>
+    <col min="19" max="19" width="7" customWidth="1"/>
     <col min="20" max="20" width="6.4609375" customWidth="1"/>
     <col min="21" max="21" width="8.53515625" customWidth="1"/>
     <col min="22" max="22" width="6.84375" customWidth="1"/>
     <col min="23" max="23" width="7.84375" style="30" customWidth="1"/>
-    <col min="24" max="24" width="17.3828125" customWidth="1"/>
+    <col min="24" max="24" width="16.3828125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4747,7 +4738,7 @@
         <v>9</v>
       </c>
       <c r="L2" s="27" t="str">
-        <f t="shared" ref="L2:M32" si="0">CONCATENATE("", C2)</f>
+        <f t="shared" ref="L2:M35" si="0">CONCATENATE("", C2)</f>
         <v>Gestão</v>
       </c>
       <c r="M2" s="27" t="str">
@@ -4772,7 +4763,7 @@
         <v>9</v>
       </c>
       <c r="S2" s="29" t="str">
-        <f t="shared" ref="S2:U32" si="1">SUBSTITUTE(C2, ".", " ")</f>
+        <f t="shared" ref="S2:U35" si="1">SUBSTITUTE(C2, ".", " ")</f>
         <v>Gestão</v>
       </c>
       <c r="T2" s="29" t="str">
@@ -4787,7 +4778,7 @@
         <v>85</v>
       </c>
       <c r="W2" s="1" t="str">
-        <f t="shared" ref="W2:W59" si="2">CONCATENATE("Key.",LEFT(C2,3),".",A2)</f>
+        <f t="shared" ref="W2:W62" si="2">CONCATENATE("Key.",LEFT(C2,3),".",A2)</f>
         <v>Key.Ges.2</v>
       </c>
       <c r="X2" s="70" t="s">
@@ -4832,19 +4823,19 @@
         <v>9</v>
       </c>
       <c r="L3" s="27" t="str">
-        <f t="shared" ref="L3" si="3">CONCATENATE("", C3)</f>
+        <f t="shared" si="0"/>
         <v>Projeto.Básico</v>
       </c>
       <c r="M3" s="27" t="str">
-        <f t="shared" ref="M3" si="4">CONCATENATE("", D3)</f>
+        <f t="shared" si="0"/>
         <v>Paredes</v>
       </c>
       <c r="N3" s="27" t="str">
-        <f t="shared" ref="N3" si="5">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N3:N5" si="3">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E3),"."," ")," De "," de "))</f>
         <v>LoD Parede</v>
       </c>
       <c r="O3" s="22" t="str">
-        <f t="shared" ref="O3" si="6">F3</f>
+        <f t="shared" ref="O3:O5" si="4">F3</f>
         <v>Parede.100</v>
       </c>
       <c r="P3" s="48" t="s">
@@ -4857,22 +4848,22 @@
         <v>9</v>
       </c>
       <c r="S3" s="29" t="str">
-        <f t="shared" ref="S3" si="7">SUBSTITUTE(C3, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Projeto Básico</v>
       </c>
       <c r="T3" s="29" t="str">
-        <f t="shared" ref="T3" si="8">SUBSTITUTE(D3, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Paredes</v>
       </c>
       <c r="U3" s="29" t="str">
-        <f t="shared" ref="U3" si="9">SUBSTITUTE(E3, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>LoD Parede</v>
       </c>
       <c r="V3" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f t="shared" ref="W3" si="10">CONCATENATE("Key.",LEFT(C3,3),".",A3)</f>
+        <f t="shared" si="2"/>
         <v>Key.Pro.3</v>
       </c>
       <c r="X3" s="70" t="s">
@@ -4917,19 +4908,19 @@
         <v>9</v>
       </c>
       <c r="L4" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L4:L5" si="5">CONCATENATE("", C4)</f>
         <v>Projeto.Básico</v>
       </c>
       <c r="M4" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M4:M5" si="6">CONCATENATE("", D4)</f>
         <v>Paredes</v>
       </c>
       <c r="N4" s="27" t="str">
-        <f t="shared" ref="N4:N6" si="11">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E4),"."," ")," De "," de "))</f>
+        <f t="shared" si="3"/>
         <v>LoD Parede</v>
       </c>
       <c r="O4" s="22" t="str">
-        <f t="shared" ref="O4:O6" si="12">F4</f>
+        <f t="shared" si="4"/>
         <v>Parede.200</v>
       </c>
       <c r="P4" s="48" t="s">
@@ -4942,22 +4933,22 @@
         <v>9</v>
       </c>
       <c r="S4" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S4:S5" si="7">SUBSTITUTE(C4, ".", " ")</f>
         <v>Projeto Básico</v>
       </c>
       <c r="T4" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T4:T5" si="8">SUBSTITUTE(D4, ".", " ")</f>
         <v>Paredes</v>
       </c>
       <c r="U4" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="U4:U5" si="9">SUBSTITUTE(E4, ".", " ")</f>
         <v>LoD Parede</v>
       </c>
       <c r="V4" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="W4:W5" si="10">CONCATENATE("Key.",LEFT(C4,3),".",A4)</f>
         <v>Key.Pro.4</v>
       </c>
       <c r="X4" s="70" t="s">
@@ -5002,19 +4993,19 @@
         <v>9</v>
       </c>
       <c r="L5" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>Projeto.Básico</v>
       </c>
       <c r="M5" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>Paredes</v>
       </c>
       <c r="N5" s="27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>LoD Parede</v>
       </c>
       <c r="O5" s="22" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>Parede.300</v>
       </c>
       <c r="P5" s="48" t="s">
@@ -5027,22 +5018,22 @@
         <v>9</v>
       </c>
       <c r="S5" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>Projeto Básico</v>
       </c>
       <c r="T5" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Paredes</v>
       </c>
       <c r="U5" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>LoD Parede</v>
       </c>
       <c r="V5" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>Key.Pro.5</v>
       </c>
       <c r="X5" s="70" t="s">
@@ -5059,17 +5050,17 @@
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>267</v>
+      <c r="C6" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>264</v>
+        <v>580</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>9</v>
@@ -5087,74 +5078,74 @@
         <v>9</v>
       </c>
       <c r="L6" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Parede</v>
+        <f t="shared" ref="L6" si="11">CONCATENATE("", C6)</f>
+        <v>Projeto.Básico</v>
       </c>
       <c r="M6" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v>Composição</v>
+        <f t="shared" ref="M6" si="12">CONCATENATE("", D6)</f>
+        <v>Divisórias</v>
       </c>
       <c r="N6" s="27" t="str">
-        <f t="shared" si="11"/>
-        <v>Núcleo</v>
+        <f t="shared" ref="N6" si="13">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E6),"."," ")," De "," de "))</f>
+        <v>LoD Divisória</v>
       </c>
       <c r="O6" s="22" t="str">
-        <f t="shared" si="12"/>
-        <v>Núcleo.Parede</v>
+        <f t="shared" ref="O6" si="14">F6</f>
+        <v>Divisória.100</v>
       </c>
       <c r="P6" s="48" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="Q6" s="48" t="s">
-        <v>574</v>
+        <v>588</v>
       </c>
       <c r="R6" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S6" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Parede</v>
+        <f t="shared" ref="S6" si="15">SUBSTITUTE(C6, ".", " ")</f>
+        <v>Projeto Básico</v>
       </c>
       <c r="T6" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Composição</v>
+        <f t="shared" ref="T6" si="16">SUBSTITUTE(D6, ".", " ")</f>
+        <v>Divisórias</v>
       </c>
       <c r="U6" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Núcleo</v>
+        <f t="shared" ref="U6" si="17">SUBSTITUTE(E6, ".", " ")</f>
+        <v>LoD Divisória</v>
       </c>
       <c r="V6" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Key.Par.6</v>
+        <f t="shared" ref="W6" si="18">CONCATENATE("Key.",LEFT(C6,3),".",A6)</f>
+        <v>Key.Pro.6</v>
       </c>
       <c r="X6" s="70" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="Y6" s="70" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>267</v>
+      <c r="C7" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>264</v>
+        <v>580</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>237</v>
+        <v>581</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>583</v>
       </c>
       <c r="G7" s="31" t="s">
         <v>9</v>
@@ -5173,73 +5164,73 @@
       </c>
       <c r="L7" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>Parede</v>
+        <v>Projeto.Básico</v>
       </c>
       <c r="M7" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>Composição</v>
+        <v>Divisórias</v>
       </c>
       <c r="N7" s="27" t="str">
-        <f t="shared" ref="N7:N21" si="13">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E7),"."," ")," De "," de "))</f>
-        <v>Argamassa</v>
+        <f t="shared" ref="N7:N9" si="19">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E7),"."," ")," De "," de "))</f>
+        <v>LoD Divisória</v>
       </c>
       <c r="O7" s="22" t="str">
-        <f t="shared" ref="O7:O21" si="14">F7</f>
-        <v>Assentamento</v>
-      </c>
-      <c r="P7" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q7" s="46" t="s">
-        <v>229</v>
+        <f t="shared" ref="O7:O9" si="20">F7</f>
+        <v>Divisória.200</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q7" s="48" t="s">
+        <v>589</v>
       </c>
       <c r="R7" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S7" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Parede</v>
+        <v>Projeto Básico</v>
       </c>
       <c r="T7" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Composição</v>
+        <v>Divisórias</v>
       </c>
       <c r="U7" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>LoD Divisória</v>
       </c>
       <c r="V7" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Key.Par.7</v>
+        <v>Key.Pro.7</v>
       </c>
       <c r="X7" s="70" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Y7" s="70" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="24">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>267</v>
+      <c r="C8" s="2" t="s">
+        <v>558</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>264</v>
+        <v>580</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>238</v>
+        <v>581</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>584</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>9</v>
@@ -5258,56 +5249,56 @@
       </c>
       <c r="L8" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>Parede</v>
+        <v>Projeto.Básico</v>
       </c>
       <c r="M8" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>Composição</v>
+        <v>Divisórias</v>
       </c>
       <c r="N8" s="27" t="str">
-        <f t="shared" si="13"/>
-        <v>Argamassa</v>
+        <f t="shared" si="19"/>
+        <v>LoD Divisória</v>
       </c>
       <c r="O8" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v>Chapisco</v>
-      </c>
-      <c r="P8" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q8" s="46" t="s">
-        <v>230</v>
+        <f t="shared" si="20"/>
+        <v>Divisória.300</v>
+      </c>
+      <c r="P8" s="48" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q8" s="48" t="s">
+        <v>590</v>
       </c>
       <c r="R8" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S8" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Parede</v>
+        <v>Projeto Básico</v>
       </c>
       <c r="T8" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Composição</v>
+        <v>Divisórias</v>
       </c>
       <c r="U8" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>LoD Divisória</v>
       </c>
       <c r="V8" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Key.Par.8</v>
+        <v>Key.Pro.8</v>
       </c>
       <c r="X8" s="70" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Y8" s="70" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="24">
         <v>9</v>
       </c>
@@ -5321,10 +5312,10 @@
         <v>264</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>239</v>
+        <v>559</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>572</v>
       </c>
       <c r="G9" s="31" t="s">
         <v>9</v>
@@ -5350,18 +5341,18 @@
         <v>Composição</v>
       </c>
       <c r="N9" s="27" t="str">
-        <f t="shared" si="13"/>
-        <v>Argamassa</v>
+        <f t="shared" si="19"/>
+        <v>Núcleo</v>
       </c>
       <c r="O9" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v>Emboço</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q9" s="46" t="s">
-        <v>231</v>
+        <f t="shared" si="20"/>
+        <v>Núcleo.Parede</v>
+      </c>
+      <c r="P9" s="48" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q9" s="48" t="s">
+        <v>574</v>
       </c>
       <c r="R9" s="28" t="s">
         <v>9</v>
@@ -5376,7 +5367,7 @@
       </c>
       <c r="U9" s="29" t="str">
         <f t="shared" si="1"/>
-        <v>Argamassa</v>
+        <v>Núcleo</v>
       </c>
       <c r="V9" s="29" t="s">
         <v>101</v>
@@ -5386,10 +5377,10 @@
         <v>Key.Par.9</v>
       </c>
       <c r="X9" s="70" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="Y9" s="70" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -5409,7 +5400,7 @@
         <v>219</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G10" s="31" t="s">
         <v>9</v>
@@ -5435,18 +5426,18 @@
         <v>Composição</v>
       </c>
       <c r="N10" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="N10:N24" si="21">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E10),"."," ")," De "," de "))</f>
         <v>Argamassa</v>
       </c>
       <c r="O10" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v>Reboco</v>
+        <f t="shared" ref="O10:O24" si="22">F10</f>
+        <v>Assentamento</v>
       </c>
       <c r="P10" s="22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="46" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="R10" s="28" t="s">
         <v>9</v>
@@ -5493,8 +5484,8 @@
       <c r="E11" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>257</v>
+      <c r="F11" s="2" t="s">
+        <v>238</v>
       </c>
       <c r="G11" s="31" t="s">
         <v>9</v>
@@ -5520,18 +5511,18 @@
         <v>Composição</v>
       </c>
       <c r="N11" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Argamassa</v>
       </c>
       <c r="O11" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v>Niveladora</v>
-      </c>
-      <c r="P11" s="48" t="s">
-        <v>241</v>
+        <f t="shared" si="22"/>
+        <v>Chapisco</v>
+      </c>
+      <c r="P11" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="Q11" s="46" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="R11" s="28" t="s">
         <v>9</v>
@@ -5578,8 +5569,8 @@
       <c r="E12" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>220</v>
+      <c r="F12" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>9</v>
@@ -5605,18 +5596,18 @@
         <v>Composição</v>
       </c>
       <c r="N12" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Argamassa</v>
       </c>
       <c r="O12" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v>Colante</v>
-      </c>
-      <c r="P12" s="48" t="s">
-        <v>236</v>
+        <f t="shared" si="22"/>
+        <v>Emboço</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>225</v>
       </c>
       <c r="Q12" s="46" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="R12" s="28" t="s">
         <v>9</v>
@@ -5663,8 +5654,8 @@
       <c r="E13" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>221</v>
+      <c r="F13" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="G13" s="31" t="s">
         <v>9</v>
@@ -5690,18 +5681,18 @@
         <v>Composição</v>
       </c>
       <c r="N13" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Argamassa</v>
       </c>
       <c r="O13" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v>Graute</v>
-      </c>
-      <c r="P13" s="48" t="s">
-        <v>227</v>
+        <f t="shared" si="22"/>
+        <v>Reboco</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>226</v>
       </c>
       <c r="Q13" s="46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R13" s="28" t="s">
         <v>9</v>
@@ -5749,7 +5740,7 @@
         <v>219</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="G14" s="31" t="s">
         <v>9</v>
@@ -5775,18 +5766,18 @@
         <v>Composição</v>
       </c>
       <c r="N14" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Argamassa</v>
       </c>
       <c r="O14" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v>Polimérica</v>
+        <f t="shared" si="22"/>
+        <v>Niveladora</v>
       </c>
       <c r="P14" s="48" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="46" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="R14" s="28" t="s">
         <v>9</v>
@@ -5834,7 +5825,7 @@
         <v>219</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>321</v>
+        <v>220</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>9</v>
@@ -5860,18 +5851,18 @@
         <v>Composição</v>
       </c>
       <c r="N15" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Argamassa</v>
       </c>
       <c r="O15" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v>Rejunte</v>
+        <f t="shared" si="22"/>
+        <v>Colante</v>
       </c>
       <c r="P15" s="48" t="s">
-        <v>325</v>
+        <v>236</v>
       </c>
       <c r="Q15" s="46" t="s">
-        <v>326</v>
+        <v>235</v>
       </c>
       <c r="R15" s="28" t="s">
         <v>9</v>
@@ -5919,7 +5910,7 @@
         <v>219</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>515</v>
+        <v>221</v>
       </c>
       <c r="G16" s="31" t="s">
         <v>9</v>
@@ -5945,18 +5936,18 @@
         <v>Composição</v>
       </c>
       <c r="N16" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Argamassa</v>
       </c>
       <c r="O16" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v>Baritada</v>
+        <f t="shared" si="22"/>
+        <v>Graute</v>
       </c>
       <c r="P16" s="48" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q16" s="48" t="s">
-        <v>520</v>
+        <v>227</v>
+      </c>
+      <c r="Q16" s="46" t="s">
+        <v>233</v>
       </c>
       <c r="R16" s="28" t="s">
         <v>9</v>
@@ -5981,13 +5972,13 @@
         <v>Key.Par.16</v>
       </c>
       <c r="X16" s="70" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="Y16" s="70" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="24">
         <v>17</v>
       </c>
@@ -6001,10 +5992,10 @@
         <v>264</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>534</v>
+        <v>222</v>
       </c>
       <c r="G17" s="31" t="s">
         <v>9</v>
@@ -6022,57 +6013,57 @@
         <v>9</v>
       </c>
       <c r="L17" s="27" t="str">
-        <f t="shared" ref="L17:L21" si="15">CONCATENATE("", C17)</f>
+        <f t="shared" si="0"/>
         <v>Parede</v>
       </c>
       <c r="M17" s="27" t="str">
-        <f t="shared" ref="M17:M21" si="16">CONCATENATE("", D17)</f>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N17" s="27" t="str">
-        <f t="shared" si="13"/>
-        <v>Cola</v>
+        <f t="shared" si="21"/>
+        <v>Argamassa</v>
       </c>
       <c r="O17" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v>Para.Madeira</v>
+        <f t="shared" si="22"/>
+        <v>Polimérica</v>
       </c>
       <c r="P17" s="48" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q17" s="48" t="s">
-        <v>536</v>
+        <v>228</v>
+      </c>
+      <c r="Q17" s="46" t="s">
+        <v>234</v>
       </c>
       <c r="R17" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S17" s="29" t="str">
-        <f t="shared" ref="S17:S21" si="17">SUBSTITUTE(C17, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T17" s="29" t="str">
-        <f t="shared" ref="T17:T21" si="18">SUBSTITUTE(D17, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U17" s="29" t="str">
-        <f t="shared" ref="U17:U21" si="19">SUBSTITUTE(E17, ".", " ")</f>
-        <v>Cola</v>
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
       </c>
       <c r="V17" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W17" s="1" t="str">
-        <f t="shared" ref="W17:W21" si="20">CONCATENATE("Key.",LEFT(C17,3),".",A17)</f>
+        <f t="shared" si="2"/>
         <v>Key.Par.17</v>
       </c>
       <c r="X17" s="70" t="s">
-        <v>9</v>
+        <v>555</v>
       </c>
       <c r="Y17" s="70" t="s">
-        <v>9</v>
+        <v>553</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="24">
         <v>18</v>
       </c>
@@ -6086,10 +6077,10 @@
         <v>264</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>537</v>
+        <v>321</v>
       </c>
       <c r="G18" s="31" t="s">
         <v>9</v>
@@ -6107,57 +6098,57 @@
         <v>9</v>
       </c>
       <c r="L18" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>Parede</v>
       </c>
       <c r="M18" s="27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N18" s="27" t="str">
-        <f t="shared" si="13"/>
-        <v>Cola</v>
+        <f t="shared" si="21"/>
+        <v>Argamassa</v>
       </c>
       <c r="O18" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v>Para.Metais</v>
+        <f t="shared" si="22"/>
+        <v>Rejunte</v>
       </c>
       <c r="P18" s="48" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q18" s="48" t="s">
-        <v>539</v>
+        <v>325</v>
+      </c>
+      <c r="Q18" s="46" t="s">
+        <v>326</v>
       </c>
       <c r="R18" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S18" s="29" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T18" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U18" s="29" t="str">
-        <f t="shared" si="19"/>
-        <v>Cola</v>
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
       </c>
       <c r="V18" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W18" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>Key.Par.18</v>
       </c>
       <c r="X18" s="70" t="s">
-        <v>9</v>
+        <v>555</v>
       </c>
       <c r="Y18" s="70" t="s">
-        <v>9</v>
+        <v>553</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="24">
         <v>19</v>
       </c>
@@ -6171,10 +6162,10 @@
         <v>264</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="G19" s="31" t="s">
         <v>9</v>
@@ -6192,54 +6183,54 @@
         <v>9</v>
       </c>
       <c r="L19" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="0"/>
         <v>Parede</v>
       </c>
       <c r="M19" s="27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N19" s="27" t="str">
-        <f t="shared" si="13"/>
-        <v>Cola</v>
+        <f t="shared" si="21"/>
+        <v>Argamassa</v>
       </c>
       <c r="O19" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v>Para.Texteis</v>
+        <f t="shared" si="22"/>
+        <v>Baritada</v>
       </c>
       <c r="P19" s="48" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="Q19" s="48" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="R19" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S19" s="29" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T19" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U19" s="29" t="str">
-        <f t="shared" si="19"/>
-        <v>Cola</v>
+        <f t="shared" si="1"/>
+        <v>Argamassa</v>
       </c>
       <c r="V19" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W19" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="2"/>
         <v>Key.Par.19</v>
       </c>
       <c r="X19" s="70" t="s">
-        <v>9</v>
+        <v>557</v>
       </c>
       <c r="Y19" s="70" t="s">
-        <v>9</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
@@ -6259,7 +6250,7 @@
         <v>250</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="G20" s="31" t="s">
         <v>9</v>
@@ -6277,47 +6268,47 @@
         <v>9</v>
       </c>
       <c r="L20" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="L20:L24" si="23">CONCATENATE("", C20)</f>
         <v>Parede</v>
       </c>
       <c r="M20" s="27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="M20:M24" si="24">CONCATENATE("", D20)</f>
         <v>Composição</v>
       </c>
       <c r="N20" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Cola</v>
       </c>
       <c r="O20" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v>Para.Espumas</v>
+        <f t="shared" si="22"/>
+        <v>Para.Madeira</v>
       </c>
       <c r="P20" s="48" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="Q20" s="48" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="R20" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S20" s="29" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="S20:S24" si="25">SUBSTITUTE(C20, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T20" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="T20:T24" si="26">SUBSTITUTE(D20, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U20" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="U20:U24" si="27">SUBSTITUTE(E20, ".", " ")</f>
         <v>Cola</v>
       </c>
       <c r="V20" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W20" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="W20:W24" si="28">CONCATENATE("Key.",LEFT(C20,3),".",A20)</f>
         <v>Key.Par.20</v>
       </c>
       <c r="X20" s="70" t="s">
@@ -6344,7 +6335,7 @@
         <v>250</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G21" s="31" t="s">
         <v>9</v>
@@ -6362,47 +6353,47 @@
         <v>9</v>
       </c>
       <c r="L21" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>Parede</v>
       </c>
       <c r="M21" s="27" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>Composição</v>
       </c>
       <c r="N21" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>Cola</v>
       </c>
       <c r="O21" s="22" t="str">
-        <f t="shared" si="14"/>
-        <v>Para.Louças</v>
+        <f t="shared" si="22"/>
+        <v>Para.Metais</v>
       </c>
       <c r="P21" s="48" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="Q21" s="48" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="R21" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S21" s="29" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>Parede</v>
       </c>
       <c r="T21" s="29" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>Composição</v>
       </c>
       <c r="U21" s="29" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>Cola</v>
       </c>
       <c r="V21" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W21" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>Key.Par.21</v>
       </c>
       <c r="X21" s="70" t="s">
@@ -6412,7 +6403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="24">
         <v>22</v>
       </c>
@@ -6426,10 +6417,10 @@
         <v>264</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>341</v>
+        <v>250</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>540</v>
       </c>
       <c r="G22" s="31" t="s">
         <v>9</v>
@@ -6447,57 +6438,57 @@
         <v>9</v>
       </c>
       <c r="L22" s="27" t="str">
-        <f t="shared" ref="L22" si="21">CONCATENATE("", C22)</f>
+        <f t="shared" si="23"/>
         <v>Parede</v>
       </c>
       <c r="M22" s="27" t="str">
-        <f t="shared" ref="M22" si="22">CONCATENATE("", D22)</f>
+        <f t="shared" si="24"/>
         <v>Composição</v>
       </c>
       <c r="N22" s="27" t="str">
-        <f t="shared" ref="N22" si="23">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E22),"."," ")," De "," de "))</f>
-        <v>Pré Fabricado</v>
+        <f t="shared" si="21"/>
+        <v>Cola</v>
       </c>
       <c r="O22" s="22" t="str">
-        <f t="shared" ref="O22" si="24">F22</f>
-        <v>Painel.Maciço</v>
-      </c>
-      <c r="P22" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q22" s="46" t="s">
-        <v>567</v>
+        <f t="shared" si="22"/>
+        <v>Para.Texteis</v>
+      </c>
+      <c r="P22" s="48" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q22" s="48" t="s">
+        <v>542</v>
       </c>
       <c r="R22" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S22" s="29" t="str">
-        <f t="shared" ref="S22" si="25">SUBSTITUTE(C22, ".", " ")</f>
+        <f t="shared" si="25"/>
         <v>Parede</v>
       </c>
       <c r="T22" s="29" t="str">
-        <f t="shared" ref="T22" si="26">SUBSTITUTE(D22, ".", " ")</f>
+        <f t="shared" si="26"/>
         <v>Composição</v>
       </c>
       <c r="U22" s="29" t="str">
-        <f t="shared" ref="U22" si="27">SUBSTITUTE(E22, ".", " ")</f>
-        <v>Pré Fabricado</v>
+        <f t="shared" si="27"/>
+        <v>Cola</v>
       </c>
       <c r="V22" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W22" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>Key.Par.22</v>
       </c>
       <c r="X22" s="70" t="s">
-        <v>551</v>
+        <v>9</v>
       </c>
       <c r="Y22" s="70" t="s">
-        <v>552</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24">
         <v>23</v>
       </c>
@@ -6511,10 +6502,10 @@
         <v>264</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>340</v>
+        <v>250</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>543</v>
       </c>
       <c r="G23" s="31" t="s">
         <v>9</v>
@@ -6532,57 +6523,57 @@
         <v>9</v>
       </c>
       <c r="L23" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="23"/>
         <v>Parede</v>
       </c>
       <c r="M23" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="24"/>
         <v>Composição</v>
       </c>
       <c r="N23" s="27" t="str">
-        <f t="shared" ref="N23" si="28">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E23),"."," ")," De "," de "))</f>
-        <v>Pré Fabricado</v>
+        <f t="shared" si="21"/>
+        <v>Cola</v>
       </c>
       <c r="O23" s="22" t="str">
-        <f t="shared" ref="O23" si="29">F23</f>
-        <v>Painel.Alveolar</v>
-      </c>
-      <c r="P23" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q23" s="46" t="s">
-        <v>568</v>
+        <f t="shared" si="22"/>
+        <v>Para.Espumas</v>
+      </c>
+      <c r="P23" s="48" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q23" s="48" t="s">
+        <v>545</v>
       </c>
       <c r="R23" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S23" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="25"/>
         <v>Parede</v>
       </c>
       <c r="T23" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="26"/>
         <v>Composição</v>
       </c>
       <c r="U23" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Pré Fabricado</v>
+        <f t="shared" si="27"/>
+        <v>Cola</v>
       </c>
       <c r="V23" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>Key.Par.23</v>
       </c>
       <c r="X23" s="70" t="s">
-        <v>551</v>
+        <v>9</v>
       </c>
       <c r="Y23" s="70" t="s">
-        <v>552</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="24">
         <v>24</v>
       </c>
@@ -6596,10 +6587,10 @@
         <v>264</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>314</v>
+        <v>250</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>546</v>
       </c>
       <c r="G24" s="31" t="s">
         <v>9</v>
@@ -6617,54 +6608,54 @@
         <v>9</v>
       </c>
       <c r="L24" s="27" t="str">
-        <f t="shared" ref="L24:L27" si="30">CONCATENATE("", C24)</f>
+        <f t="shared" si="23"/>
         <v>Parede</v>
       </c>
       <c r="M24" s="27" t="str">
-        <f t="shared" ref="M24:M27" si="31">CONCATENATE("", D24)</f>
+        <f t="shared" si="24"/>
         <v>Composição</v>
       </c>
       <c r="N24" s="27" t="str">
-        <f t="shared" ref="N24:N27" si="32">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E24),"."," ")," De "," de "))</f>
-        <v>Concreto Armado</v>
+        <f t="shared" si="21"/>
+        <v>Cola</v>
       </c>
       <c r="O24" s="22" t="str">
-        <f t="shared" ref="O24:O27" si="33">F24</f>
-        <v>Parede.CA</v>
-      </c>
-      <c r="P24" s="22" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q24" s="46" t="s">
-        <v>569</v>
+        <f t="shared" si="22"/>
+        <v>Para.Louças</v>
+      </c>
+      <c r="P24" s="48" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q24" s="48" t="s">
+        <v>548</v>
       </c>
       <c r="R24" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S24" s="29" t="str">
-        <f t="shared" ref="S24:S27" si="34">SUBSTITUTE(C24, ".", " ")</f>
+        <f t="shared" si="25"/>
         <v>Parede</v>
       </c>
       <c r="T24" s="29" t="str">
-        <f t="shared" ref="T24:T27" si="35">SUBSTITUTE(D24, ".", " ")</f>
+        <f t="shared" si="26"/>
         <v>Composição</v>
       </c>
       <c r="U24" s="29" t="str">
-        <f t="shared" ref="U24:U27" si="36">SUBSTITUTE(E24, ".", " ")</f>
-        <v>Concreto Armado</v>
+        <f t="shared" si="27"/>
+        <v>Cola</v>
       </c>
       <c r="V24" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="28"/>
         <v>Key.Par.24</v>
       </c>
       <c r="X24" s="70" t="s">
-        <v>556</v>
+        <v>9</v>
       </c>
       <c r="Y24" s="70" t="s">
-        <v>552</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -6681,10 +6672,10 @@
         <v>264</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="G25" s="31" t="s">
         <v>9</v>
@@ -6702,41 +6693,41 @@
         <v>9</v>
       </c>
       <c r="L25" s="27" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="L25" si="29">CONCATENATE("", C25)</f>
         <v>Parede</v>
       </c>
       <c r="M25" s="27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="M25" si="30">CONCATENATE("", D25)</f>
         <v>Composição</v>
       </c>
       <c r="N25" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v>Bloco Concreto</v>
+        <f t="shared" ref="N25" si="31">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E25),"."," ")," De "," de "))</f>
+        <v>Pré Fabricado</v>
       </c>
       <c r="O25" s="22" t="str">
-        <f t="shared" si="33"/>
-        <v>Bloco.CCA</v>
+        <f t="shared" ref="O25" si="32">F25</f>
+        <v>Painel.Maciço</v>
       </c>
       <c r="P25" s="22" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="Q25" s="46" t="s">
-        <v>304</v>
+        <v>567</v>
       </c>
       <c r="R25" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S25" s="29" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="S25" si="33">SUBSTITUTE(C25, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T25" s="29" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="T25" si="34">SUBSTITUTE(D25, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U25" s="29" t="str">
-        <f t="shared" si="36"/>
-        <v>Bloco Concreto</v>
+        <f t="shared" ref="U25" si="35">SUBSTITUTE(E25, ".", " ")</f>
+        <v>Pré Fabricado</v>
       </c>
       <c r="V25" s="29" t="s">
         <v>101</v>
@@ -6746,7 +6737,7 @@
         <v>Key.Par.25</v>
       </c>
       <c r="X25" s="70" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="Y25" s="70" t="s">
         <v>552</v>
@@ -6766,10 +6757,10 @@
         <v>264</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>125</v>
+        <v>340</v>
       </c>
       <c r="G26" s="31" t="s">
         <v>9</v>
@@ -6787,41 +6778,41 @@
         <v>9</v>
       </c>
       <c r="L26" s="27" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="0"/>
         <v>Parede</v>
       </c>
       <c r="M26" s="27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N26" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v>Bloco Concreto</v>
+        <f t="shared" ref="N26" si="36">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E26),"."," ")," De "," de "))</f>
+        <v>Pré Fabricado</v>
       </c>
       <c r="O26" s="22" t="str">
-        <f t="shared" si="33"/>
-        <v>Bloco.Estrutural</v>
+        <f t="shared" ref="O26" si="37">F26</f>
+        <v>Painel.Alveolar</v>
       </c>
       <c r="P26" s="22" t="s">
-        <v>280</v>
+        <v>342</v>
       </c>
       <c r="Q26" s="46" t="s">
-        <v>283</v>
+        <v>568</v>
       </c>
       <c r="R26" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S26" s="29" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T26" s="29" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U26" s="29" t="str">
-        <f t="shared" si="36"/>
-        <v>Bloco Concreto</v>
+        <f t="shared" si="1"/>
+        <v>Pré Fabricado</v>
       </c>
       <c r="V26" s="29" t="s">
         <v>101</v>
@@ -6831,7 +6822,7 @@
         <v>Key.Par.26</v>
       </c>
       <c r="X26" s="70" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="Y26" s="70" t="s">
         <v>552</v>
@@ -6851,10 +6842,10 @@
         <v>264</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>124</v>
+        <v>314</v>
       </c>
       <c r="G27" s="31" t="s">
         <v>9</v>
@@ -6872,41 +6863,41 @@
         <v>9</v>
       </c>
       <c r="L27" s="27" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="L27:L30" si="38">CONCATENATE("", C27)</f>
         <v>Parede</v>
       </c>
       <c r="M27" s="27" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="M27:M30" si="39">CONCATENATE("", D27)</f>
         <v>Composição</v>
       </c>
       <c r="N27" s="27" t="str">
-        <f t="shared" si="32"/>
-        <v>Bloco Concreto</v>
+        <f t="shared" ref="N27:N30" si="40">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E27),"."," ")," De "," de "))</f>
+        <v>Concreto Armado</v>
       </c>
       <c r="O27" s="22" t="str">
-        <f t="shared" si="33"/>
-        <v>Bloco.Vedação</v>
+        <f t="shared" ref="O27:O30" si="41">F27</f>
+        <v>Parede.CA</v>
       </c>
       <c r="P27" s="22" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="Q27" s="46" t="s">
-        <v>284</v>
+        <v>569</v>
       </c>
       <c r="R27" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S27" s="29" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="S27:S30" si="42">SUBSTITUTE(C27, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T27" s="29" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="T27:T30" si="43">SUBSTITUTE(D27, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U27" s="29" t="str">
-        <f t="shared" si="36"/>
-        <v>Bloco Concreto</v>
+        <f t="shared" ref="U27:U30" si="44">SUBSTITUTE(E27, ".", " ")</f>
+        <v>Concreto Armado</v>
       </c>
       <c r="V27" s="29" t="s">
         <v>101</v>
@@ -6936,10 +6927,10 @@
         <v>264</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G28" s="31" t="s">
         <v>9</v>
@@ -6957,41 +6948,41 @@
         <v>9</v>
       </c>
       <c r="L28" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="38"/>
         <v>Parede</v>
       </c>
       <c r="M28" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="39"/>
         <v>Composição</v>
       </c>
       <c r="N28" s="27" t="str">
-        <f t="shared" ref="N28" si="37">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E28),"."," ")," De "," de "))</f>
-        <v>Bloco Gesso</v>
+        <f t="shared" si="40"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="O28" s="22" t="str">
-        <f t="shared" ref="O28" si="38">F28</f>
-        <v>Bloco.Maciço</v>
+        <f t="shared" si="41"/>
+        <v>Bloco.CCA</v>
       </c>
       <c r="P28" s="22" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q28" s="46" t="s">
-        <v>570</v>
+        <v>304</v>
       </c>
       <c r="R28" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S28" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="42"/>
         <v>Parede</v>
       </c>
       <c r="T28" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="43"/>
         <v>Composição</v>
       </c>
       <c r="U28" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Bloco Gesso</v>
+        <f t="shared" si="44"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="V28" s="29" t="s">
         <v>101</v>
@@ -7021,10 +7012,10 @@
         <v>264</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>299</v>
+        <v>125</v>
       </c>
       <c r="G29" s="31" t="s">
         <v>9</v>
@@ -7042,41 +7033,41 @@
         <v>9</v>
       </c>
       <c r="L29" s="27" t="str">
-        <f t="shared" ref="L29" si="39">CONCATENATE("", C29)</f>
+        <f t="shared" si="38"/>
         <v>Parede</v>
       </c>
       <c r="M29" s="27" t="str">
-        <f t="shared" ref="M29" si="40">CONCATENATE("", D29)</f>
+        <f t="shared" si="39"/>
         <v>Composição</v>
       </c>
       <c r="N29" s="27" t="str">
-        <f t="shared" ref="N29" si="41">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E29),"."," ")," De "," de "))</f>
-        <v>Bloco Gesso</v>
+        <f t="shared" si="40"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="O29" s="22" t="str">
-        <f t="shared" ref="O29" si="42">F29</f>
-        <v>Bloco.Alveolar</v>
+        <f t="shared" si="41"/>
+        <v>Bloco.Estrutural</v>
       </c>
       <c r="P29" s="22" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="Q29" s="46" t="s">
-        <v>571</v>
+        <v>283</v>
       </c>
       <c r="R29" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S29" s="29" t="str">
-        <f t="shared" ref="S29" si="43">SUBSTITUTE(C29, ".", " ")</f>
+        <f t="shared" si="42"/>
         <v>Parede</v>
       </c>
       <c r="T29" s="29" t="str">
-        <f t="shared" ref="T29" si="44">SUBSTITUTE(D29, ".", " ")</f>
+        <f t="shared" si="43"/>
         <v>Composição</v>
       </c>
       <c r="U29" s="29" t="str">
-        <f t="shared" ref="U29" si="45">SUBSTITUTE(E29, ".", " ")</f>
-        <v>Bloco Gesso</v>
+        <f t="shared" si="44"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="V29" s="29" t="s">
         <v>101</v>
@@ -7106,10 +7097,10 @@
         <v>264</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G30" s="31" t="s">
         <v>9</v>
@@ -7127,41 +7118,41 @@
         <v>9</v>
       </c>
       <c r="L30" s="27" t="str">
-        <f t="shared" ref="L30:L32" si="46">CONCATENATE("", C30)</f>
+        <f t="shared" si="38"/>
         <v>Parede</v>
       </c>
       <c r="M30" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="39"/>
         <v>Composição</v>
       </c>
       <c r="N30" s="27" t="str">
-        <f t="shared" ref="N30:N32" si="47">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E30),"."," ")," De "," de "))</f>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" si="40"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="O30" s="22" t="str">
-        <f t="shared" ref="O30:O32" si="48">F30</f>
-        <v>Tijolo.Comúm</v>
-      </c>
-      <c r="P30" s="48" t="s">
-        <v>282</v>
+        <f t="shared" si="41"/>
+        <v>Bloco.Vedação</v>
+      </c>
+      <c r="P30" s="22" t="s">
+        <v>281</v>
       </c>
       <c r="Q30" s="46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="R30" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S30" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="42"/>
         <v>Parede</v>
       </c>
       <c r="T30" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="43"/>
         <v>Composição</v>
       </c>
       <c r="U30" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" si="44"/>
+        <v>Bloco Concreto</v>
       </c>
       <c r="V30" s="29" t="s">
         <v>101</v>
@@ -7191,10 +7182,10 @@
         <v>264</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>441</v>
+        <v>296</v>
       </c>
       <c r="G31" s="31" t="s">
         <v>9</v>
@@ -7212,41 +7203,41 @@
         <v>9</v>
       </c>
       <c r="L31" s="27" t="str">
-        <f t="shared" ref="L31" si="49">CONCATENATE("", C31)</f>
+        <f t="shared" si="0"/>
         <v>Parede</v>
       </c>
       <c r="M31" s="27" t="str">
-        <f t="shared" ref="M31" si="50">CONCATENATE("", D31)</f>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N31" s="27" t="str">
-        <f t="shared" ref="N31" si="51">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E31),"."," ")," De "," de "))</f>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" ref="N31" si="45">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E31),"."," ")," De "," de "))</f>
+        <v>Bloco Gesso</v>
       </c>
       <c r="O31" s="22" t="str">
-        <f t="shared" ref="O31" si="52">F31</f>
-        <v>Tijolo.Laminado</v>
+        <f t="shared" ref="O31" si="46">F31</f>
+        <v>Bloco.Maciço</v>
       </c>
       <c r="P31" s="22" t="s">
-        <v>442</v>
+        <v>297</v>
       </c>
       <c r="Q31" s="46" t="s">
-        <v>443</v>
+        <v>570</v>
       </c>
       <c r="R31" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S31" s="29" t="str">
-        <f t="shared" ref="S31" si="53">SUBSTITUTE(C31, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T31" s="29" t="str">
-        <f t="shared" ref="T31" si="54">SUBSTITUTE(D31, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U31" s="29" t="str">
-        <f t="shared" ref="U31" si="55">SUBSTITUTE(E31, ".", " ")</f>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" si="1"/>
+        <v>Bloco Gesso</v>
       </c>
       <c r="V31" s="29" t="s">
         <v>101</v>
@@ -7276,10 +7267,10 @@
         <v>264</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
       <c r="G32" s="31" t="s">
         <v>9</v>
@@ -7297,41 +7288,41 @@
         <v>9</v>
       </c>
       <c r="L32" s="27" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="L32" si="47">CONCATENATE("", C32)</f>
         <v>Parede</v>
       </c>
       <c r="M32" s="27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M32" si="48">CONCATENATE("", D32)</f>
         <v>Composição</v>
       </c>
       <c r="N32" s="27" t="str">
-        <f t="shared" si="47"/>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" ref="N32" si="49">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E32),"."," ")," De "," de "))</f>
+        <v>Bloco Gesso</v>
       </c>
       <c r="O32" s="22" t="str">
-        <f t="shared" si="48"/>
-        <v>Tijolo.Refratário</v>
-      </c>
-      <c r="P32" s="46" t="s">
-        <v>345</v>
+        <f t="shared" ref="O32" si="50">F32</f>
+        <v>Bloco.Alveolar</v>
+      </c>
+      <c r="P32" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="Q32" s="46" t="s">
-        <v>346</v>
+        <v>571</v>
       </c>
       <c r="R32" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S32" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S32" si="51">SUBSTITUTE(C32, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T32" s="29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T32" si="52">SUBSTITUTE(D32, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U32" s="29" t="str">
-        <f t="shared" si="1"/>
-        <v>Bloco Cerâmico</v>
+        <f t="shared" ref="U32" si="53">SUBSTITUTE(E32, ".", " ")</f>
+        <v>Bloco Gesso</v>
       </c>
       <c r="V32" s="29" t="s">
         <v>101</v>
@@ -7364,7 +7355,7 @@
         <v>270</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>294</v>
+        <v>123</v>
       </c>
       <c r="G33" s="31" t="s">
         <v>9</v>
@@ -7382,40 +7373,40 @@
         <v>9</v>
       </c>
       <c r="L33" s="27" t="str">
-        <f t="shared" ref="L33" si="56">CONCATENATE("", C33)</f>
+        <f t="shared" ref="L33:L35" si="54">CONCATENATE("", C33)</f>
         <v>Parede</v>
       </c>
       <c r="M33" s="27" t="str">
-        <f t="shared" ref="M33" si="57">CONCATENATE("", D33)</f>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N33" s="27" t="str">
-        <f t="shared" ref="N33" si="58">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E33),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N33:N35" si="55">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E33),"."," ")," De "," de "))</f>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="O33" s="22" t="str">
-        <f t="shared" ref="O33" si="59">F33</f>
-        <v>Bloco.Furado</v>
-      </c>
-      <c r="P33" s="22" t="s">
-        <v>364</v>
+        <f t="shared" ref="O33:O35" si="56">F33</f>
+        <v>Tijolo.Comúm</v>
+      </c>
+      <c r="P33" s="48" t="s">
+        <v>282</v>
       </c>
       <c r="Q33" s="46" t="s">
-        <v>365</v>
+        <v>285</v>
       </c>
       <c r="R33" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S33" s="29" t="str">
-        <f t="shared" ref="S33" si="60">SUBSTITUTE(C33, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T33" s="29" t="str">
-        <f t="shared" ref="T33" si="61">SUBSTITUTE(D33, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U33" s="29" t="str">
-        <f t="shared" ref="U33" si="62">SUBSTITUTE(E33, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="V33" s="29" t="s">
@@ -7449,7 +7440,7 @@
         <v>270</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>366</v>
+        <v>441</v>
       </c>
       <c r="G34" s="31" t="s">
         <v>9</v>
@@ -7467,40 +7458,40 @@
         <v>9</v>
       </c>
       <c r="L34" s="27" t="str">
-        <f t="shared" ref="L34" si="63">CONCATENATE("", C34)</f>
+        <f t="shared" ref="L34" si="57">CONCATENATE("", C34)</f>
         <v>Parede</v>
       </c>
       <c r="M34" s="27" t="str">
-        <f t="shared" ref="M34" si="64">CONCATENATE("", D34)</f>
+        <f t="shared" ref="M34" si="58">CONCATENATE("", D34)</f>
         <v>Composição</v>
       </c>
       <c r="N34" s="27" t="str">
-        <f t="shared" ref="N34" si="65">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E34),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N34" si="59">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E34),"."," ")," De "," de "))</f>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="O34" s="22" t="str">
-        <f t="shared" ref="O34" si="66">F34</f>
-        <v>Ecológico</v>
+        <f t="shared" ref="O34" si="60">F34</f>
+        <v>Tijolo.Laminado</v>
       </c>
       <c r="P34" s="22" t="s">
-        <v>372</v>
+        <v>442</v>
       </c>
       <c r="Q34" s="46" t="s">
-        <v>371</v>
+        <v>443</v>
       </c>
       <c r="R34" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S34" s="29" t="str">
-        <f t="shared" ref="S34" si="67">SUBSTITUTE(C34, ".", " ")</f>
+        <f t="shared" ref="S34" si="61">SUBSTITUTE(C34, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T34" s="29" t="str">
-        <f t="shared" ref="T34" si="68">SUBSTITUTE(D34, ".", " ")</f>
+        <f t="shared" ref="T34" si="62">SUBSTITUTE(D34, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U34" s="29" t="str">
-        <f t="shared" ref="U34" si="69">SUBSTITUTE(E34, ".", " ")</f>
+        <f t="shared" ref="U34" si="63">SUBSTITUTE(E34, ".", " ")</f>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="V34" s="29" t="s">
@@ -7534,7 +7525,7 @@
         <v>270</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>106</v>
+        <v>344</v>
       </c>
       <c r="G35" s="31" t="s">
         <v>9</v>
@@ -7552,40 +7543,40 @@
         <v>9</v>
       </c>
       <c r="L35" s="27" t="str">
-        <f t="shared" ref="L35:L85" si="70">CONCATENATE("", C35)</f>
+        <f t="shared" si="54"/>
         <v>Parede</v>
       </c>
       <c r="M35" s="27" t="str">
-        <f t="shared" ref="M35:M85" si="71">CONCATENATE("", D35)</f>
+        <f t="shared" si="0"/>
         <v>Composição</v>
       </c>
       <c r="N35" s="27" t="str">
-        <f t="shared" ref="N35:N85" si="72">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E35),"."," ")," De "," de "))</f>
+        <f t="shared" si="55"/>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="O35" s="22" t="str">
-        <f t="shared" ref="O35:O85" si="73">F35</f>
-        <v>Canaleta.J</v>
-      </c>
-      <c r="P35" s="22" t="s">
-        <v>427</v>
+        <f t="shared" si="56"/>
+        <v>Tijolo.Refratário</v>
+      </c>
+      <c r="P35" s="46" t="s">
+        <v>345</v>
       </c>
       <c r="Q35" s="46" t="s">
-        <v>142</v>
+        <v>346</v>
       </c>
       <c r="R35" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S35" s="29" t="str">
-        <f t="shared" ref="S35:S85" si="74">SUBSTITUTE(C35, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Parede</v>
       </c>
       <c r="T35" s="29" t="str">
-        <f t="shared" ref="T35:T85" si="75">SUBSTITUTE(D35, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Composição</v>
       </c>
       <c r="U35" s="29" t="str">
-        <f t="shared" ref="U35:U85" si="76">SUBSTITUTE(E35, ".", " ")</f>
+        <f t="shared" si="1"/>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="V35" s="29" t="s">
@@ -7619,7 +7610,7 @@
         <v>270</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>107</v>
+        <v>294</v>
       </c>
       <c r="G36" s="31" t="s">
         <v>9</v>
@@ -7637,40 +7628,40 @@
         <v>9</v>
       </c>
       <c r="L36" s="27" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="L36" si="64">CONCATENATE("", C36)</f>
         <v>Parede</v>
       </c>
       <c r="M36" s="27" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="M36" si="65">CONCATENATE("", D36)</f>
         <v>Composição</v>
       </c>
       <c r="N36" s="27" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="N36" si="66">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E36),"."," ")," De "," de "))</f>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="O36" s="22" t="str">
-        <f t="shared" si="73"/>
-        <v>Canaleta.U</v>
+        <f t="shared" ref="O36" si="67">F36</f>
+        <v>Bloco.Furado</v>
       </c>
       <c r="P36" s="22" t="s">
-        <v>426</v>
+        <v>364</v>
       </c>
       <c r="Q36" s="46" t="s">
-        <v>143</v>
+        <v>365</v>
       </c>
       <c r="R36" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S36" s="29" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="S36" si="68">SUBSTITUTE(C36, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T36" s="29" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="T36" si="69">SUBSTITUTE(D36, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U36" s="29" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="U36" si="70">SUBSTITUTE(E36, ".", " ")</f>
         <v>Bloco Cerâmico</v>
       </c>
       <c r="V36" s="29" t="s">
@@ -7701,10 +7692,10 @@
         <v>264</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="G37" s="31" t="s">
         <v>9</v>
@@ -7722,41 +7713,41 @@
         <v>9</v>
       </c>
       <c r="L37" s="27" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="L37" si="71">CONCATENATE("", C37)</f>
         <v>Parede</v>
       </c>
       <c r="M37" s="27" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="M37" si="72">CONCATENATE("", D37)</f>
         <v>Composição</v>
       </c>
       <c r="N37" s="27" t="str">
-        <f t="shared" si="72"/>
-        <v>Bloco Translúcido</v>
+        <f t="shared" ref="N37" si="73">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E37),"."," ")," De "," de "))</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="O37" s="22" t="str">
-        <f t="shared" si="73"/>
-        <v>Cobogô</v>
+        <f t="shared" ref="O37" si="74">F37</f>
+        <v>Ecológico</v>
       </c>
       <c r="P37" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q37" s="22" t="s">
-        <v>367</v>
+        <v>372</v>
+      </c>
+      <c r="Q37" s="46" t="s">
+        <v>371</v>
       </c>
       <c r="R37" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S37" s="29" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="S37" si="75">SUBSTITUTE(C37, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T37" s="29" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="T37" si="76">SUBSTITUTE(D37, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U37" s="29" t="str">
-        <f t="shared" si="76"/>
-        <v>Bloco Translúcido</v>
+        <f t="shared" ref="U37" si="77">SUBSTITUTE(E37, ".", " ")</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="V37" s="29" t="s">
         <v>101</v>
@@ -7786,10 +7777,10 @@
         <v>264</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>279</v>
+        <v>106</v>
       </c>
       <c r="G38" s="31" t="s">
         <v>9</v>
@@ -7807,41 +7798,41 @@
         <v>9</v>
       </c>
       <c r="L38" s="27" t="str">
-        <f t="shared" ref="L38:L58" si="77">CONCATENATE("", C38)</f>
+        <f t="shared" ref="L38:L88" si="78">CONCATENATE("", C38)</f>
         <v>Parede</v>
       </c>
       <c r="M38" s="27" t="str">
-        <f t="shared" ref="M38:M58" si="78">CONCATENATE("", D38)</f>
+        <f t="shared" ref="M38:M88" si="79">CONCATENATE("", D38)</f>
         <v>Composição</v>
       </c>
       <c r="N38" s="27" t="str">
-        <f t="shared" ref="N38:N58" si="79">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E38),"."," ")," De "," de "))</f>
-        <v>Bloco Translúcido</v>
+        <f t="shared" ref="N38:N88" si="80">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E38),"."," ")," De "," de "))</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="O38" s="22" t="str">
-        <f t="shared" ref="O38:O58" si="80">F38</f>
-        <v>Tijolo.Vidro</v>
+        <f t="shared" ref="O38:O88" si="81">F38</f>
+        <v>Canaleta.J</v>
       </c>
       <c r="P38" s="22" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="Q38" s="46" t="s">
-        <v>370</v>
+        <v>142</v>
       </c>
       <c r="R38" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S38" s="29" t="str">
-        <f t="shared" ref="S38:S58" si="81">SUBSTITUTE(C38, ".", " ")</f>
+        <f t="shared" ref="S38:S88" si="82">SUBSTITUTE(C38, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T38" s="29" t="str">
-        <f t="shared" ref="T38:T58" si="82">SUBSTITUTE(D38, ".", " ")</f>
+        <f t="shared" ref="T38:T88" si="83">SUBSTITUTE(D38, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U38" s="29" t="str">
-        <f t="shared" ref="U38:U58" si="83">SUBSTITUTE(E38, ".", " ")</f>
-        <v>Bloco Translúcido</v>
+        <f t="shared" ref="U38:U88" si="84">SUBSTITUTE(E38, ".", " ")</f>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="V38" s="29" t="s">
         <v>101</v>
@@ -7871,10 +7862,10 @@
         <v>264</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F39" s="26" t="s">
-        <v>332</v>
+        <v>270</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="G39" s="31" t="s">
         <v>9</v>
@@ -7892,41 +7883,41 @@
         <v>9</v>
       </c>
       <c r="L39" s="27" t="str">
-        <f t="shared" ref="L39:L40" si="84">CONCATENATE("", C39)</f>
+        <f t="shared" si="78"/>
         <v>Parede</v>
       </c>
       <c r="M39" s="27" t="str">
-        <f t="shared" ref="M39:M40" si="85">CONCATENATE("", D39)</f>
+        <f t="shared" si="79"/>
         <v>Composição</v>
       </c>
       <c r="N39" s="27" t="str">
-        <f t="shared" ref="N39:N40" si="86">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E39),"."," ")," De "," de "))</f>
-        <v>Acabamento</v>
+        <f t="shared" si="80"/>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="O39" s="22" t="str">
-        <f t="shared" ref="O39:O40" si="87">F39</f>
-        <v>Lambri</v>
-      </c>
-      <c r="P39" s="48" t="s">
-        <v>336</v>
+        <f t="shared" si="81"/>
+        <v>Canaleta.U</v>
+      </c>
+      <c r="P39" s="22" t="s">
+        <v>426</v>
       </c>
       <c r="Q39" s="46" t="s">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="R39" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S39" s="29" t="str">
-        <f t="shared" ref="S39:S40" si="88">SUBSTITUTE(C39, ".", " ")</f>
+        <f t="shared" si="82"/>
         <v>Parede</v>
       </c>
       <c r="T39" s="29" t="str">
-        <f t="shared" ref="T39:T40" si="89">SUBSTITUTE(D39, ".", " ")</f>
+        <f t="shared" si="83"/>
         <v>Composição</v>
       </c>
       <c r="U39" s="29" t="str">
-        <f t="shared" ref="U39:U40" si="90">SUBSTITUTE(E39, ".", " ")</f>
-        <v>Acabamento</v>
+        <f t="shared" si="84"/>
+        <v>Bloco Cerâmico</v>
       </c>
       <c r="V39" s="29" t="s">
         <v>101</v>
@@ -7936,10 +7927,10 @@
         <v>Key.Par.39</v>
       </c>
       <c r="X39" s="70" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Y39" s="70" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -7956,10 +7947,10 @@
         <v>264</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F40" s="26" t="s">
-        <v>333</v>
+        <v>338</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="G40" s="31" t="s">
         <v>9</v>
@@ -7977,41 +7968,41 @@
         <v>9</v>
       </c>
       <c r="L40" s="27" t="str">
+        <f t="shared" si="78"/>
+        <v>Parede</v>
+      </c>
+      <c r="M40" s="27" t="str">
+        <f t="shared" si="79"/>
+        <v>Composição</v>
+      </c>
+      <c r="N40" s="27" t="str">
+        <f t="shared" si="80"/>
+        <v>Bloco Translúcido</v>
+      </c>
+      <c r="O40" s="22" t="str">
+        <f t="shared" si="81"/>
+        <v>Cobogô</v>
+      </c>
+      <c r="P40" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q40" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="R40" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S40" s="29" t="str">
+        <f t="shared" si="82"/>
+        <v>Parede</v>
+      </c>
+      <c r="T40" s="29" t="str">
+        <f t="shared" si="83"/>
+        <v>Composição</v>
+      </c>
+      <c r="U40" s="29" t="str">
         <f t="shared" si="84"/>
-        <v>Parede</v>
-      </c>
-      <c r="M40" s="27" t="str">
-        <f t="shared" si="85"/>
-        <v>Composição</v>
-      </c>
-      <c r="N40" s="27" t="str">
-        <f t="shared" si="86"/>
-        <v>Acabamento</v>
-      </c>
-      <c r="O40" s="22" t="str">
-        <f t="shared" si="87"/>
-        <v>Placa</v>
-      </c>
-      <c r="P40" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q40" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="R40" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S40" s="29" t="str">
-        <f t="shared" si="88"/>
-        <v>Parede</v>
-      </c>
-      <c r="T40" s="29" t="str">
-        <f t="shared" si="89"/>
-        <v>Composição</v>
-      </c>
-      <c r="U40" s="29" t="str">
-        <f t="shared" si="90"/>
-        <v>Acabamento</v>
+        <v>Bloco Translúcido</v>
       </c>
       <c r="V40" s="29" t="s">
         <v>101</v>
@@ -8021,10 +8012,10 @@
         <v>Key.Par.40</v>
       </c>
       <c r="X40" s="70" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Y40" s="70" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="41" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -8041,10 +8032,10 @@
         <v>264</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>498</v>
+        <v>338</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="G41" s="31" t="s">
         <v>9</v>
@@ -8062,41 +8053,41 @@
         <v>9</v>
       </c>
       <c r="L41" s="27" t="str">
-        <f t="shared" ref="L41" si="91">CONCATENATE("", C41)</f>
+        <f t="shared" ref="L41:L61" si="85">CONCATENATE("", C41)</f>
         <v>Parede</v>
       </c>
       <c r="M41" s="27" t="str">
-        <f t="shared" ref="M41" si="92">CONCATENATE("", D41)</f>
+        <f t="shared" ref="M41:M61" si="86">CONCATENATE("", D41)</f>
         <v>Composição</v>
       </c>
       <c r="N41" s="27" t="str">
-        <f t="shared" ref="N41" si="93">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E41),"."," ")," De "," de "))</f>
-        <v>Acabamento</v>
+        <f t="shared" ref="N41:N61" si="87">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E41),"."," ")," De "," de "))</f>
+        <v>Bloco Translúcido</v>
       </c>
       <c r="O41" s="22" t="str">
-        <f t="shared" ref="O41" si="94">F41</f>
-        <v>Painel</v>
-      </c>
-      <c r="P41" s="48" t="s">
-        <v>499</v>
+        <f t="shared" ref="O41:O61" si="88">F41</f>
+        <v>Tijolo.Vidro</v>
+      </c>
+      <c r="P41" s="22" t="s">
+        <v>369</v>
       </c>
       <c r="Q41" s="46" t="s">
-        <v>500</v>
+        <v>370</v>
       </c>
       <c r="R41" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S41" s="29" t="str">
-        <f t="shared" ref="S41" si="95">SUBSTITUTE(C41, ".", " ")</f>
+        <f t="shared" ref="S41:S61" si="89">SUBSTITUTE(C41, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T41" s="29" t="str">
-        <f t="shared" ref="T41" si="96">SUBSTITUTE(D41, ".", " ")</f>
+        <f t="shared" ref="T41:T61" si="90">SUBSTITUTE(D41, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U41" s="29" t="str">
-        <f t="shared" ref="U41" si="97">SUBSTITUTE(E41, ".", " ")</f>
-        <v>Acabamento</v>
+        <f t="shared" ref="U41:U61" si="91">SUBSTITUTE(E41, ".", " ")</f>
+        <v>Bloco Translúcido</v>
       </c>
       <c r="V41" s="29" t="s">
         <v>101</v>
@@ -8106,10 +8097,10 @@
         <v>Key.Par.41</v>
       </c>
       <c r="X41" s="70" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Y41" s="70" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -8129,7 +8120,7 @@
         <v>322</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="G42" s="31" t="s">
         <v>9</v>
@@ -8147,40 +8138,40 @@
         <v>9</v>
       </c>
       <c r="L42" s="27" t="str">
-        <f t="shared" ref="L42:L47" si="98">CONCATENATE("", C42)</f>
+        <f t="shared" ref="L42:L43" si="92">CONCATENATE("", C42)</f>
         <v>Parede</v>
       </c>
       <c r="M42" s="27" t="str">
-        <f t="shared" ref="M42:M47" si="99">CONCATENATE("", D42)</f>
+        <f t="shared" ref="M42:M43" si="93">CONCATENATE("", D42)</f>
         <v>Composição</v>
       </c>
       <c r="N42" s="27" t="str">
-        <f t="shared" ref="N42:N47" si="100">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E42),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N42:N43" si="94">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E42),"."," ")," De "," de "))</f>
         <v>Acabamento</v>
       </c>
       <c r="O42" s="22" t="str">
-        <f t="shared" ref="O42:O47" si="101">F42</f>
-        <v>Azulejo</v>
+        <f t="shared" ref="O42:O43" si="95">F42</f>
+        <v>Lambri</v>
       </c>
       <c r="P42" s="48" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
       <c r="Q42" s="46" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="R42" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S42" s="29" t="str">
-        <f t="shared" ref="S42:S47" si="102">SUBSTITUTE(C42, ".", " ")</f>
+        <f t="shared" ref="S42:S43" si="96">SUBSTITUTE(C42, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T42" s="29" t="str">
-        <f t="shared" ref="T42:T47" si="103">SUBSTITUTE(D42, ".", " ")</f>
+        <f t="shared" ref="T42:T43" si="97">SUBSTITUTE(D42, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U42" s="29" t="str">
-        <f t="shared" ref="U42:U47" si="104">SUBSTITUTE(E42, ".", " ")</f>
+        <f t="shared" ref="U42:U43" si="98">SUBSTITUTE(E42, ".", " ")</f>
         <v>Acabamento</v>
       </c>
       <c r="V42" s="29" t="s">
@@ -8214,7 +8205,7 @@
         <v>322</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="G43" s="31" t="s">
         <v>9</v>
@@ -8232,40 +8223,40 @@
         <v>9</v>
       </c>
       <c r="L43" s="27" t="str">
-        <f t="shared" ref="L43" si="105">CONCATENATE("", C43)</f>
+        <f t="shared" si="92"/>
         <v>Parede</v>
       </c>
       <c r="M43" s="27" t="str">
-        <f t="shared" ref="M43" si="106">CONCATENATE("", D43)</f>
+        <f t="shared" si="93"/>
         <v>Composição</v>
       </c>
       <c r="N43" s="27" t="str">
-        <f t="shared" ref="N43" si="107">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E43),"."," ")," De "," de "))</f>
+        <f t="shared" si="94"/>
         <v>Acabamento</v>
       </c>
       <c r="O43" s="22" t="str">
-        <f t="shared" ref="O43" si="108">F43</f>
-        <v>Cerâmica</v>
+        <f t="shared" si="95"/>
+        <v>Placa</v>
       </c>
       <c r="P43" s="48" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="Q43" s="46" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="R43" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S43" s="29" t="str">
-        <f t="shared" ref="S43" si="109">SUBSTITUTE(C43, ".", " ")</f>
+        <f t="shared" si="96"/>
         <v>Parede</v>
       </c>
       <c r="T43" s="29" t="str">
-        <f t="shared" ref="T43" si="110">SUBSTITUTE(D43, ".", " ")</f>
+        <f t="shared" si="97"/>
         <v>Composição</v>
       </c>
       <c r="U43" s="29" t="str">
-        <f t="shared" ref="U43" si="111">SUBSTITUTE(E43, ".", " ")</f>
+        <f t="shared" si="98"/>
         <v>Acabamento</v>
       </c>
       <c r="V43" s="29" t="s">
@@ -8299,7 +8290,7 @@
         <v>322</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>349</v>
+        <v>498</v>
       </c>
       <c r="G44" s="31" t="s">
         <v>9</v>
@@ -8317,40 +8308,40 @@
         <v>9</v>
       </c>
       <c r="L44" s="27" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="L44" si="99">CONCATENATE("", C44)</f>
         <v>Parede</v>
       </c>
       <c r="M44" s="27" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" ref="M44" si="100">CONCATENATE("", D44)</f>
         <v>Composição</v>
       </c>
       <c r="N44" s="27" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" ref="N44" si="101">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E44),"."," ")," De "," de "))</f>
         <v>Acabamento</v>
       </c>
       <c r="O44" s="22" t="str">
-        <f t="shared" si="101"/>
-        <v>Porcelanato</v>
+        <f t="shared" ref="O44" si="102">F44</f>
+        <v>Painel</v>
       </c>
       <c r="P44" s="48" t="s">
-        <v>360</v>
+        <v>499</v>
       </c>
       <c r="Q44" s="46" t="s">
-        <v>359</v>
+        <v>500</v>
       </c>
       <c r="R44" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S44" s="29" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" ref="S44" si="103">SUBSTITUTE(C44, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T44" s="29" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" ref="T44" si="104">SUBSTITUTE(D44, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U44" s="29" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" ref="U44" si="105">SUBSTITUTE(E44, ".", " ")</f>
         <v>Acabamento</v>
       </c>
       <c r="V44" s="29" t="s">
@@ -8384,7 +8375,7 @@
         <v>322</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>465</v>
+        <v>323</v>
       </c>
       <c r="G45" s="31" t="s">
         <v>9</v>
@@ -8402,40 +8393,40 @@
         <v>9</v>
       </c>
       <c r="L45" s="27" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="L45:L50" si="106">CONCATENATE("", C45)</f>
         <v>Parede</v>
       </c>
       <c r="M45" s="27" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" ref="M45:M50" si="107">CONCATENATE("", D45)</f>
         <v>Composição</v>
       </c>
       <c r="N45" s="27" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" ref="N45:N50" si="108">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E45),"."," ")," De "," de "))</f>
         <v>Acabamento</v>
       </c>
       <c r="O45" s="22" t="str">
-        <f t="shared" si="101"/>
-        <v>Ventilada</v>
+        <f t="shared" ref="O45:O50" si="109">F45</f>
+        <v>Azulejo</v>
       </c>
       <c r="P45" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q45" s="48" t="s">
-        <v>467</v>
+        <v>362</v>
+      </c>
+      <c r="Q45" s="46" t="s">
+        <v>356</v>
       </c>
       <c r="R45" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S45" s="29" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" ref="S45:S50" si="110">SUBSTITUTE(C45, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T45" s="29" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" ref="T45:T50" si="111">SUBSTITUTE(D45, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U45" s="29" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" ref="U45:U50" si="112">SUBSTITUTE(E45, ".", " ")</f>
         <v>Acabamento</v>
       </c>
       <c r="V45" s="29" t="s">
@@ -8469,7 +8460,7 @@
         <v>322</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="G46" s="31" t="s">
         <v>9</v>
@@ -8487,40 +8478,40 @@
         <v>9</v>
       </c>
       <c r="L46" s="27" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="L46" si="113">CONCATENATE("", C46)</f>
         <v>Parede</v>
       </c>
       <c r="M46" s="27" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" ref="M46" si="114">CONCATENATE("", D46)</f>
         <v>Composição</v>
       </c>
       <c r="N46" s="27" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" ref="N46" si="115">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E46),"."," ")," De "," de "))</f>
         <v>Acabamento</v>
       </c>
       <c r="O46" s="22" t="str">
-        <f t="shared" si="101"/>
-        <v>Ladrilho</v>
+        <f t="shared" ref="O46" si="116">F46</f>
+        <v>Cerâmica</v>
       </c>
       <c r="P46" s="48" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Q46" s="46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R46" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S46" s="29" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" ref="S46" si="117">SUBSTITUTE(C46, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T46" s="29" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" ref="T46" si="118">SUBSTITUTE(D46, ".", " ")</f>
         <v>Composição</v>
       </c>
       <c r="U46" s="29" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" ref="U46" si="119">SUBSTITUTE(E46, ".", " ")</f>
         <v>Acabamento</v>
       </c>
       <c r="V46" s="29" t="s">
@@ -8554,7 +8545,7 @@
         <v>322</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G47" s="31" t="s">
         <v>9</v>
@@ -8572,40 +8563,40 @@
         <v>9</v>
       </c>
       <c r="L47" s="27" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v>Parede</v>
       </c>
       <c r="M47" s="27" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v>Composição</v>
       </c>
       <c r="N47" s="27" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>Acabamento</v>
       </c>
       <c r="O47" s="22" t="str">
-        <f t="shared" si="101"/>
-        <v>Primer</v>
+        <f t="shared" si="109"/>
+        <v>Porcelanato</v>
       </c>
       <c r="P47" s="48" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q47" s="46" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="R47" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S47" s="29" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>Parede</v>
       </c>
       <c r="T47" s="29" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="111"/>
         <v>Composição</v>
       </c>
       <c r="U47" s="29" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="112"/>
         <v>Acabamento</v>
       </c>
       <c r="V47" s="29" t="s">
@@ -8639,7 +8630,7 @@
         <v>322</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>351</v>
+        <v>465</v>
       </c>
       <c r="G48" s="31" t="s">
         <v>9</v>
@@ -8657,40 +8648,40 @@
         <v>9</v>
       </c>
       <c r="L48" s="27" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="106"/>
         <v>Parede</v>
       </c>
       <c r="M48" s="27" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="107"/>
         <v>Composição</v>
       </c>
       <c r="N48" s="27" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="108"/>
         <v>Acabamento</v>
       </c>
       <c r="O48" s="22" t="str">
-        <f t="shared" si="80"/>
-        <v>Pintura</v>
+        <f t="shared" si="109"/>
+        <v>Ventilada</v>
       </c>
       <c r="P48" s="48" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q48" s="46" t="s">
-        <v>355</v>
+        <v>466</v>
+      </c>
+      <c r="Q48" s="48" t="s">
+        <v>467</v>
       </c>
       <c r="R48" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S48" s="29" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="110"/>
         <v>Parede</v>
       </c>
       <c r="T48" s="29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="111"/>
         <v>Composição</v>
       </c>
       <c r="U48" s="29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="112"/>
         <v>Acabamento</v>
       </c>
       <c r="V48" s="29" t="s">
@@ -8718,13 +8709,13 @@
         <v>267</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="G49" s="31" t="s">
         <v>9</v>
@@ -8742,41 +8733,41 @@
         <v>9</v>
       </c>
       <c r="L49" s="27" t="str">
-        <f t="shared" ref="L49" si="112">CONCATENATE("", C49)</f>
+        <f t="shared" si="106"/>
         <v>Parede</v>
       </c>
       <c r="M49" s="27" t="str">
-        <f t="shared" ref="M49" si="113">CONCATENATE("", D49)</f>
-        <v>Levantada</v>
+        <f t="shared" si="107"/>
+        <v>Composição</v>
       </c>
       <c r="N49" s="27" t="str">
-        <f t="shared" ref="N49" si="114">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E49),"."," ")," De "," de "))</f>
-        <v>Moldada InLoco</v>
+        <f t="shared" si="108"/>
+        <v>Acabamento</v>
       </c>
       <c r="O49" s="22" t="str">
-        <f t="shared" ref="O49" si="115">F49</f>
-        <v>Muro</v>
+        <f t="shared" si="109"/>
+        <v>Ladrilho</v>
       </c>
       <c r="P49" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q49" s="48" t="s">
-        <v>320</v>
+        <v>363</v>
+      </c>
+      <c r="Q49" s="46" t="s">
+        <v>358</v>
       </c>
       <c r="R49" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S49" s="29" t="str">
-        <f t="shared" ref="S49" si="116">SUBSTITUTE(C49, ".", " ")</f>
+        <f t="shared" si="110"/>
         <v>Parede</v>
       </c>
       <c r="T49" s="29" t="str">
-        <f t="shared" ref="T49" si="117">SUBSTITUTE(D49, ".", " ")</f>
-        <v>Levantada</v>
+        <f t="shared" si="111"/>
+        <v>Composição</v>
       </c>
       <c r="U49" s="29" t="str">
-        <f t="shared" ref="U49" si="118">SUBSTITUTE(E49, ".", " ")</f>
-        <v>Moldada InLoco</v>
+        <f t="shared" si="112"/>
+        <v>Acabamento</v>
       </c>
       <c r="V49" s="29" t="s">
         <v>101</v>
@@ -8786,10 +8777,10 @@
         <v>Key.Par.49</v>
       </c>
       <c r="X49" s="70" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="Y49" s="70" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -8803,13 +8794,13 @@
         <v>267</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="G50" s="31" t="s">
         <v>9</v>
@@ -8827,41 +8818,41 @@
         <v>9</v>
       </c>
       <c r="L50" s="27" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="106"/>
         <v>Parede</v>
       </c>
       <c r="M50" s="27" t="str">
-        <f t="shared" si="78"/>
-        <v>Levantada</v>
+        <f t="shared" si="107"/>
+        <v>Composição</v>
       </c>
       <c r="N50" s="27" t="str">
-        <f t="shared" si="79"/>
-        <v>Assentada</v>
+        <f t="shared" si="108"/>
+        <v>Acabamento</v>
       </c>
       <c r="O50" s="22" t="str">
-        <f t="shared" si="80"/>
-        <v>Interna</v>
+        <f t="shared" si="109"/>
+        <v>Primer</v>
       </c>
       <c r="P50" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q50" s="48" t="s">
-        <v>318</v>
+        <v>352</v>
+      </c>
+      <c r="Q50" s="46" t="s">
+        <v>354</v>
       </c>
       <c r="R50" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S50" s="29" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="110"/>
         <v>Parede</v>
       </c>
       <c r="T50" s="29" t="str">
-        <f t="shared" si="82"/>
-        <v>Levantada</v>
+        <f t="shared" si="111"/>
+        <v>Composição</v>
       </c>
       <c r="U50" s="29" t="str">
-        <f t="shared" si="83"/>
-        <v>Assentada</v>
+        <f t="shared" si="112"/>
+        <v>Acabamento</v>
       </c>
       <c r="V50" s="29" t="s">
         <v>101</v>
@@ -8871,10 +8862,10 @@
         <v>Key.Par.50</v>
       </c>
       <c r="X50" s="70" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="Y50" s="70" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -8888,13 +8879,13 @@
         <v>267</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>265</v>
+        <v>322</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="G51" s="31" t="s">
         <v>9</v>
@@ -8912,41 +8903,41 @@
         <v>9</v>
       </c>
       <c r="L51" s="27" t="str">
-        <f t="shared" ref="L51" si="119">CONCATENATE("", C51)</f>
+        <f t="shared" si="85"/>
         <v>Parede</v>
       </c>
       <c r="M51" s="27" t="str">
-        <f t="shared" ref="M51" si="120">CONCATENATE("", D51)</f>
-        <v>Levantada</v>
+        <f t="shared" si="86"/>
+        <v>Composição</v>
       </c>
       <c r="N51" s="27" t="str">
-        <f t="shared" ref="N51" si="121">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E51),"."," ")," De "," de "))</f>
-        <v>Assentada</v>
+        <f t="shared" si="87"/>
+        <v>Acabamento</v>
       </c>
       <c r="O51" s="22" t="str">
-        <f t="shared" ref="O51" si="122">F51</f>
-        <v>Externa</v>
+        <f t="shared" si="88"/>
+        <v>Pintura</v>
       </c>
       <c r="P51" s="48" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q51" s="48" t="s">
-        <v>319</v>
+        <v>353</v>
+      </c>
+      <c r="Q51" s="46" t="s">
+        <v>355</v>
       </c>
       <c r="R51" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S51" s="29" t="str">
-        <f t="shared" ref="S51" si="123">SUBSTITUTE(C51, ".", " ")</f>
+        <f t="shared" si="89"/>
         <v>Parede</v>
       </c>
       <c r="T51" s="29" t="str">
-        <f t="shared" ref="T51" si="124">SUBSTITUTE(D51, ".", " ")</f>
-        <v>Levantada</v>
+        <f t="shared" si="90"/>
+        <v>Composição</v>
       </c>
       <c r="U51" s="29" t="str">
-        <f t="shared" ref="U51" si="125">SUBSTITUTE(E51, ".", " ")</f>
-        <v>Assentada</v>
+        <f t="shared" si="91"/>
+        <v>Acabamento</v>
       </c>
       <c r="V51" s="29" t="s">
         <v>101</v>
@@ -8956,10 +8947,10 @@
         <v>Key.Par.51</v>
       </c>
       <c r="X51" s="70" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="Y51" s="70" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -8976,10 +8967,10 @@
         <v>271</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>262</v>
+        <v>312</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>310</v>
       </c>
       <c r="G52" s="31" t="s">
         <v>9</v>
@@ -8997,41 +8988,41 @@
         <v>9</v>
       </c>
       <c r="L52" s="27" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="L52" si="120">CONCATENATE("", C52)</f>
         <v>Parede</v>
       </c>
       <c r="M52" s="27" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="M52" si="121">CONCATENATE("", D52)</f>
         <v>Levantada</v>
       </c>
       <c r="N52" s="27" t="str">
-        <f t="shared" si="79"/>
-        <v>Montada</v>
+        <f t="shared" ref="N52" si="122">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E52),"."," ")," De "," de "))</f>
+        <v>Moldada InLoco</v>
       </c>
       <c r="O52" s="22" t="str">
-        <f t="shared" si="80"/>
-        <v>de.Drywall</v>
-      </c>
-      <c r="P52" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q52" s="46" t="s">
-        <v>141</v>
+        <f t="shared" ref="O52" si="123">F52</f>
+        <v>Muro</v>
+      </c>
+      <c r="P52" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q52" s="48" t="s">
+        <v>320</v>
       </c>
       <c r="R52" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S52" s="29" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="S52" si="124">SUBSTITUTE(C52, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T52" s="29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="T52" si="125">SUBSTITUTE(D52, ".", " ")</f>
         <v>Levantada</v>
       </c>
       <c r="U52" s="29" t="str">
-        <f t="shared" si="83"/>
-        <v>Montada</v>
+        <f t="shared" ref="U52" si="126">SUBSTITUTE(E52, ".", " ")</f>
+        <v>Moldada InLoco</v>
       </c>
       <c r="V52" s="29" t="s">
         <v>101</v>
@@ -9061,10 +9052,10 @@
         <v>271</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>290</v>
       </c>
       <c r="G53" s="31" t="s">
         <v>9</v>
@@ -9082,41 +9073,41 @@
         <v>9</v>
       </c>
       <c r="L53" s="27" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>Parede</v>
       </c>
       <c r="M53" s="27" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>Levantada</v>
       </c>
       <c r="N53" s="27" t="str">
-        <f t="shared" si="79"/>
-        <v>Montada</v>
+        <f t="shared" si="87"/>
+        <v>Assentada</v>
       </c>
       <c r="O53" s="22" t="str">
-        <f t="shared" si="80"/>
-        <v>de.Drywall.Acústico</v>
-      </c>
-      <c r="P53" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q53" s="46" t="s">
-        <v>164</v>
+        <f t="shared" si="88"/>
+        <v>Interna</v>
+      </c>
+      <c r="P53" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q53" s="48" t="s">
+        <v>318</v>
       </c>
       <c r="R53" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S53" s="29" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>Parede</v>
       </c>
       <c r="T53" s="29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>Levantada</v>
       </c>
       <c r="U53" s="29" t="str">
-        <f t="shared" si="83"/>
-        <v>Montada</v>
+        <f t="shared" si="91"/>
+        <v>Assentada</v>
       </c>
       <c r="V53" s="29" t="s">
         <v>101</v>
@@ -9146,10 +9137,10 @@
         <v>271</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>287</v>
+        <v>265</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>291</v>
       </c>
       <c r="G54" s="31" t="s">
         <v>9</v>
@@ -9167,41 +9158,41 @@
         <v>9</v>
       </c>
       <c r="L54" s="27" t="str">
-        <f t="shared" ref="L54" si="126">CONCATENATE("", C54)</f>
+        <f t="shared" ref="L54" si="127">CONCATENATE("", C54)</f>
         <v>Parede</v>
       </c>
       <c r="M54" s="27" t="str">
-        <f t="shared" ref="M54" si="127">CONCATENATE("", D54)</f>
+        <f t="shared" ref="M54" si="128">CONCATENATE("", D54)</f>
         <v>Levantada</v>
       </c>
       <c r="N54" s="27" t="str">
-        <f t="shared" ref="N54" si="128">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E54),"."," ")," De "," de "))</f>
-        <v>Montada</v>
+        <f t="shared" ref="N54" si="129">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E54),"."," ")," De "," de "))</f>
+        <v>Assentada</v>
       </c>
       <c r="O54" s="22" t="str">
-        <f t="shared" ref="O54" si="129">F54</f>
-        <v>de.Fachada</v>
-      </c>
-      <c r="P54" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q54" s="22" t="s">
-        <v>289</v>
+        <f t="shared" ref="O54" si="130">F54</f>
+        <v>Externa</v>
+      </c>
+      <c r="P54" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q54" s="48" t="s">
+        <v>319</v>
       </c>
       <c r="R54" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S54" s="29" t="str">
-        <f t="shared" ref="S54" si="130">SUBSTITUTE(C54, ".", " ")</f>
+        <f t="shared" ref="S54" si="131">SUBSTITUTE(C54, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T54" s="29" t="str">
-        <f t="shared" ref="T54" si="131">SUBSTITUTE(D54, ".", " ")</f>
+        <f t="shared" ref="T54" si="132">SUBSTITUTE(D54, ".", " ")</f>
         <v>Levantada</v>
       </c>
       <c r="U54" s="29" t="str">
-        <f t="shared" ref="U54" si="132">SUBSTITUTE(E54, ".", " ")</f>
-        <v>Montada</v>
+        <f t="shared" ref="U54" si="133">SUBSTITUTE(E54, ".", " ")</f>
+        <v>Assentada</v>
       </c>
       <c r="V54" s="29" t="s">
         <v>101</v>
@@ -9234,7 +9225,7 @@
         <v>272</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G55" s="31" t="s">
         <v>9</v>
@@ -9252,40 +9243,40 @@
         <v>9</v>
       </c>
       <c r="L55" s="27" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>Parede</v>
       </c>
       <c r="M55" s="27" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>Levantada</v>
       </c>
       <c r="N55" s="27" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>Montada</v>
       </c>
       <c r="O55" s="22" t="str">
-        <f t="shared" si="80"/>
-        <v>de.Vidro</v>
+        <f t="shared" si="88"/>
+        <v>de.Drywall</v>
       </c>
       <c r="P55" s="22" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="Q55" s="46" t="s">
-        <v>328</v>
+        <v>141</v>
       </c>
       <c r="R55" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S55" s="29" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>Parede</v>
       </c>
       <c r="T55" s="29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>Levantada</v>
       </c>
       <c r="U55" s="29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>Montada</v>
       </c>
       <c r="V55" s="29" t="s">
@@ -9319,7 +9310,7 @@
         <v>272</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G56" s="31" t="s">
         <v>9</v>
@@ -9337,40 +9328,40 @@
         <v>9</v>
       </c>
       <c r="L56" s="27" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>Parede</v>
       </c>
       <c r="M56" s="27" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>Levantada</v>
       </c>
       <c r="N56" s="27" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>Montada</v>
       </c>
       <c r="O56" s="22" t="str">
-        <f t="shared" si="80"/>
-        <v>de.Gesso</v>
+        <f t="shared" si="88"/>
+        <v>de.Drywall.Acústico</v>
       </c>
       <c r="P56" s="22" t="s">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="Q56" s="46" t="s">
-        <v>329</v>
+        <v>164</v>
       </c>
       <c r="R56" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S56" s="29" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>Parede</v>
       </c>
       <c r="T56" s="29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>Levantada</v>
       </c>
       <c r="U56" s="29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>Montada</v>
       </c>
       <c r="V56" s="29" t="s">
@@ -9404,7 +9395,7 @@
         <v>272</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="G57" s="31" t="s">
         <v>9</v>
@@ -9422,40 +9413,40 @@
         <v>9</v>
       </c>
       <c r="L57" s="27" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="L57" si="134">CONCATENATE("", C57)</f>
         <v>Parede</v>
       </c>
       <c r="M57" s="27" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="M57" si="135">CONCATENATE("", D57)</f>
         <v>Levantada</v>
       </c>
       <c r="N57" s="27" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="N57" si="136">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E57),"."," ")," De "," de "))</f>
         <v>Montada</v>
       </c>
       <c r="O57" s="22" t="str">
-        <f t="shared" si="80"/>
-        <v>de.Eucatex</v>
+        <f t="shared" ref="O57" si="137">F57</f>
+        <v>de.Fachada</v>
       </c>
       <c r="P57" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q57" s="46" t="s">
-        <v>331</v>
+        <v>288</v>
+      </c>
+      <c r="Q57" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="R57" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S57" s="29" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="S57" si="138">SUBSTITUTE(C57, ".", " ")</f>
         <v>Parede</v>
       </c>
       <c r="T57" s="29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="T57" si="139">SUBSTITUTE(D57, ".", " ")</f>
         <v>Levantada</v>
       </c>
       <c r="U57" s="29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" ref="U57" si="140">SUBSTITUTE(E57, ".", " ")</f>
         <v>Montada</v>
       </c>
       <c r="V57" s="29" t="s">
@@ -9489,7 +9480,7 @@
         <v>272</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G58" s="31" t="s">
         <v>9</v>
@@ -9507,40 +9498,40 @@
         <v>9</v>
       </c>
       <c r="L58" s="27" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>Parede</v>
       </c>
       <c r="M58" s="27" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="86"/>
         <v>Levantada</v>
       </c>
       <c r="N58" s="27" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>Montada</v>
       </c>
       <c r="O58" s="22" t="str">
-        <f t="shared" si="80"/>
-        <v>de.Sanitário</v>
+        <f t="shared" si="88"/>
+        <v>de.Vidro</v>
       </c>
       <c r="P58" s="22" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="Q58" s="46" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R58" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S58" s="29" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>Parede</v>
       </c>
       <c r="T58" s="29" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>Levantada</v>
       </c>
       <c r="U58" s="29" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>Montada</v>
       </c>
       <c r="V58" s="29" t="s">
@@ -9564,17 +9555,17 @@
       <c r="B59" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>96</v>
+      <c r="C59" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="G59" s="31" t="s">
         <v>9</v>
@@ -9592,54 +9583,54 @@
         <v>9</v>
       </c>
       <c r="L59" s="27" t="str">
-        <f t="shared" si="70"/>
-        <v>Divisória</v>
+        <f t="shared" si="85"/>
+        <v>Parede</v>
       </c>
       <c r="M59" s="27" t="str">
-        <f t="shared" si="71"/>
-        <v>Parte</v>
+        <f t="shared" si="86"/>
+        <v>Levantada</v>
       </c>
       <c r="N59" s="27" t="str">
-        <f t="shared" si="72"/>
-        <v>Chapa</v>
+        <f t="shared" si="87"/>
+        <v>Montada</v>
       </c>
       <c r="O59" s="22" t="str">
-        <f t="shared" si="73"/>
-        <v>Eucatex</v>
-      </c>
-      <c r="P59" s="48" t="s">
-        <v>176</v>
+        <f t="shared" si="88"/>
+        <v>de.Gesso</v>
+      </c>
+      <c r="P59" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="Q59" s="46" t="s">
-        <v>168</v>
+        <v>329</v>
       </c>
       <c r="R59" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S59" s="29" t="str">
-        <f t="shared" si="74"/>
-        <v>Divisória</v>
+        <f t="shared" si="89"/>
+        <v>Parede</v>
       </c>
       <c r="T59" s="29" t="str">
-        <f t="shared" si="75"/>
-        <v>Parte</v>
+        <f t="shared" si="90"/>
+        <v>Levantada</v>
       </c>
       <c r="U59" s="29" t="str">
-        <f t="shared" si="76"/>
-        <v>Chapa</v>
+        <f t="shared" si="91"/>
+        <v>Montada</v>
       </c>
       <c r="V59" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>Key.Div.59</v>
+        <v>Key.Par.59</v>
       </c>
       <c r="X59" s="70" t="s">
-        <v>9</v>
+        <v>551</v>
       </c>
       <c r="Y59" s="70" t="s">
-        <v>9</v>
+        <v>552</v>
       </c>
     </row>
     <row r="60" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -9649,17 +9640,17 @@
       <c r="B60" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>96</v>
+      <c r="C60" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>327</v>
+        <v>260</v>
       </c>
       <c r="G60" s="31" t="s">
         <v>9</v>
@@ -9677,54 +9668,54 @@
         <v>9</v>
       </c>
       <c r="L60" s="27" t="str">
-        <f t="shared" si="70"/>
-        <v>Divisória</v>
+        <f t="shared" si="85"/>
+        <v>Parede</v>
       </c>
       <c r="M60" s="27" t="str">
-        <f t="shared" si="71"/>
-        <v>Parte</v>
+        <f t="shared" si="86"/>
+        <v>Levantada</v>
       </c>
       <c r="N60" s="27" t="str">
-        <f t="shared" si="72"/>
-        <v>Chapa</v>
+        <f t="shared" si="87"/>
+        <v>Montada</v>
       </c>
       <c r="O60" s="22" t="str">
-        <f t="shared" si="73"/>
-        <v>Metálica</v>
-      </c>
-      <c r="P60" s="48" t="s">
-        <v>167</v>
+        <f t="shared" si="88"/>
+        <v>de.Eucatex</v>
+      </c>
+      <c r="P60" s="22" t="s">
+        <v>98</v>
       </c>
       <c r="Q60" s="46" t="s">
-        <v>168</v>
+        <v>331</v>
       </c>
       <c r="R60" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S60" s="29" t="str">
-        <f t="shared" si="74"/>
-        <v>Divisória</v>
+        <f t="shared" si="89"/>
+        <v>Parede</v>
       </c>
       <c r="T60" s="29" t="str">
-        <f t="shared" si="75"/>
-        <v>Parte</v>
+        <f t="shared" si="90"/>
+        <v>Levantada</v>
       </c>
       <c r="U60" s="29" t="str">
-        <f t="shared" si="76"/>
-        <v>Chapa</v>
+        <f t="shared" si="91"/>
+        <v>Montada</v>
       </c>
       <c r="V60" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W60" s="1" t="str">
-        <f t="shared" ref="W60:W85" si="133">CONCATENATE("Key.",LEFT(C60,3),".",A60)</f>
-        <v>Key.Div.60</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.60</v>
       </c>
       <c r="X60" s="70" t="s">
-        <v>9</v>
+        <v>551</v>
       </c>
       <c r="Y60" s="70" t="s">
-        <v>9</v>
+        <v>552</v>
       </c>
     </row>
     <row r="61" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -9734,17 +9725,17 @@
       <c r="B61" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>96</v>
+      <c r="C61" s="25" t="s">
+        <v>267</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="G61" s="31" t="s">
         <v>9</v>
@@ -9762,54 +9753,54 @@
         <v>9</v>
       </c>
       <c r="L61" s="27" t="str">
-        <f t="shared" ref="L61" si="134">CONCATENATE("", C61)</f>
-        <v>Divisória</v>
+        <f t="shared" si="85"/>
+        <v>Parede</v>
       </c>
       <c r="M61" s="27" t="str">
-        <f t="shared" ref="M61" si="135">CONCATENATE("", D61)</f>
-        <v>Parte</v>
+        <f t="shared" si="86"/>
+        <v>Levantada</v>
       </c>
       <c r="N61" s="27" t="str">
-        <f t="shared" ref="N61" si="136">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E61),"."," ")," De "," de "))</f>
-        <v>Chapa</v>
+        <f t="shared" si="87"/>
+        <v>Montada</v>
       </c>
       <c r="O61" s="22" t="str">
-        <f t="shared" ref="O61" si="137">F61</f>
-        <v>Alumínio.Composto</v>
-      </c>
-      <c r="P61" s="48" t="s">
-        <v>167</v>
+        <f t="shared" si="88"/>
+        <v>de.Sanitário</v>
+      </c>
+      <c r="P61" s="22" t="s">
+        <v>97</v>
       </c>
       <c r="Q61" s="46" t="s">
-        <v>168</v>
+        <v>330</v>
       </c>
       <c r="R61" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S61" s="29" t="str">
-        <f t="shared" ref="S61" si="138">SUBSTITUTE(C61, ".", " ")</f>
-        <v>Divisória</v>
+        <f t="shared" si="89"/>
+        <v>Parede</v>
       </c>
       <c r="T61" s="29" t="str">
-        <f t="shared" ref="T61" si="139">SUBSTITUTE(D61, ".", " ")</f>
-        <v>Parte</v>
+        <f t="shared" si="90"/>
+        <v>Levantada</v>
       </c>
       <c r="U61" s="29" t="str">
-        <f t="shared" ref="U61" si="140">SUBSTITUTE(E61, ".", " ")</f>
-        <v>Chapa</v>
+        <f t="shared" si="91"/>
+        <v>Montada</v>
       </c>
       <c r="V61" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W61" s="1" t="str">
-        <f t="shared" si="133"/>
-        <v>Key.Div.61</v>
+        <f t="shared" si="2"/>
+        <v>Key.Par.61</v>
       </c>
       <c r="X61" s="70" t="s">
-        <v>9</v>
+        <v>551</v>
       </c>
       <c r="Y61" s="70" t="s">
-        <v>9</v>
+        <v>552</v>
       </c>
     </row>
     <row r="62" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
@@ -9829,7 +9820,7 @@
         <v>144</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="G62" s="31" t="s">
         <v>9</v>
@@ -9847,47 +9838,47 @@
         <v>9</v>
       </c>
       <c r="L62" s="27" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>Divisória</v>
       </c>
       <c r="M62" s="27" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>Parte</v>
       </c>
       <c r="N62" s="27" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>Chapa</v>
       </c>
       <c r="O62" s="22" t="str">
-        <f t="shared" si="73"/>
-        <v>Cimentícia</v>
-      </c>
-      <c r="P62" s="22" t="s">
-        <v>166</v>
+        <f t="shared" si="81"/>
+        <v>Eucatex</v>
+      </c>
+      <c r="P62" s="48" t="s">
+        <v>176</v>
       </c>
       <c r="Q62" s="46" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="R62" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S62" s="29" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>Divisória</v>
       </c>
       <c r="T62" s="29" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>Parte</v>
       </c>
       <c r="U62" s="29" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>Chapa</v>
       </c>
       <c r="V62" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W62" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="2"/>
         <v>Key.Div.62</v>
       </c>
       <c r="X62" s="70" t="s">
@@ -9914,7 +9905,7 @@
         <v>144</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>147</v>
+        <v>327</v>
       </c>
       <c r="G63" s="31" t="s">
         <v>9</v>
@@ -9932,47 +9923,47 @@
         <v>9</v>
       </c>
       <c r="L63" s="27" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>Divisória</v>
       </c>
       <c r="M63" s="27" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>Parte</v>
       </c>
       <c r="N63" s="27" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>Chapa</v>
       </c>
       <c r="O63" s="22" t="str">
-        <f t="shared" si="73"/>
-        <v>Gesso.Acartonado</v>
-      </c>
-      <c r="P63" s="22" t="s">
-        <v>152</v>
+        <f t="shared" si="81"/>
+        <v>Metálica</v>
+      </c>
+      <c r="P63" s="48" t="s">
+        <v>167</v>
       </c>
       <c r="Q63" s="46" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="R63" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S63" s="29" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>Divisória</v>
       </c>
       <c r="T63" s="29" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>Parte</v>
       </c>
       <c r="U63" s="29" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>Chapa</v>
       </c>
       <c r="V63" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W63" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" ref="W63:W88" si="141">CONCATENATE("Key.",LEFT(C63,3),".",A63)</f>
         <v>Key.Div.63</v>
       </c>
       <c r="X63" s="70" t="s">
@@ -9999,7 +9990,7 @@
         <v>144</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="G64" s="31" t="s">
         <v>9</v>
@@ -10017,47 +10008,47 @@
         <v>9</v>
       </c>
       <c r="L64" s="27" t="str">
-        <f t="shared" ref="L64:L67" si="141">CONCATENATE("", C64)</f>
+        <f t="shared" ref="L64" si="142">CONCATENATE("", C64)</f>
         <v>Divisória</v>
       </c>
       <c r="M64" s="27" t="str">
-        <f t="shared" ref="M64:M67" si="142">CONCATENATE("", D64)</f>
+        <f t="shared" ref="M64" si="143">CONCATENATE("", D64)</f>
         <v>Parte</v>
       </c>
       <c r="N64" s="27" t="str">
-        <f t="shared" ref="N64:N67" si="143">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E64),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N64" si="144">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E64),"."," ")," De "," de "))</f>
         <v>Chapa</v>
       </c>
       <c r="O64" s="22" t="str">
-        <f t="shared" ref="O64:O67" si="144">F64</f>
-        <v>Vidro.Temperado</v>
-      </c>
-      <c r="P64" s="22" t="s">
-        <v>186</v>
+        <f t="shared" ref="O64" si="145">F64</f>
+        <v>Alumínio.Composto</v>
+      </c>
+      <c r="P64" s="48" t="s">
+        <v>167</v>
       </c>
       <c r="Q64" s="46" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="R64" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S64" s="29" t="str">
-        <f t="shared" ref="S64:S67" si="145">SUBSTITUTE(C64, ".", " ")</f>
+        <f t="shared" ref="S64" si="146">SUBSTITUTE(C64, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T64" s="29" t="str">
-        <f t="shared" ref="T64:T67" si="146">SUBSTITUTE(D64, ".", " ")</f>
+        <f t="shared" ref="T64" si="147">SUBSTITUTE(D64, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U64" s="29" t="str">
-        <f t="shared" ref="U64:U67" si="147">SUBSTITUTE(E64, ".", " ")</f>
+        <f t="shared" ref="U64" si="148">SUBSTITUTE(E64, ".", " ")</f>
         <v>Chapa</v>
       </c>
       <c r="V64" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W64" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.64</v>
       </c>
       <c r="X64" s="70" t="s">
@@ -10084,7 +10075,7 @@
         <v>144</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="G65" s="31" t="s">
         <v>9</v>
@@ -10102,47 +10093,47 @@
         <v>9</v>
       </c>
       <c r="L65" s="27" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="78"/>
         <v>Divisória</v>
       </c>
       <c r="M65" s="27" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="79"/>
         <v>Parte</v>
       </c>
       <c r="N65" s="27" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="80"/>
         <v>Chapa</v>
       </c>
       <c r="O65" s="22" t="str">
-        <f t="shared" si="144"/>
-        <v>Vidro.Laminado</v>
+        <f t="shared" si="81"/>
+        <v>Cimentícia</v>
       </c>
       <c r="P65" s="22" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="Q65" s="46" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="R65" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S65" s="29" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="82"/>
         <v>Divisória</v>
       </c>
       <c r="T65" s="29" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="83"/>
         <v>Parte</v>
       </c>
       <c r="U65" s="29" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="84"/>
         <v>Chapa</v>
       </c>
       <c r="V65" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W65" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.65</v>
       </c>
       <c r="X65" s="70" t="s">
@@ -10169,7 +10160,7 @@
         <v>144</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="G66" s="31" t="s">
         <v>9</v>
@@ -10187,47 +10178,47 @@
         <v>9</v>
       </c>
       <c r="L66" s="27" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" si="78"/>
         <v>Divisória</v>
       </c>
       <c r="M66" s="27" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" si="79"/>
         <v>Parte</v>
       </c>
       <c r="N66" s="27" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" si="80"/>
         <v>Chapa</v>
       </c>
       <c r="O66" s="22" t="str">
-        <f t="shared" si="144"/>
-        <v>Vidro.Polarizado</v>
+        <f t="shared" si="81"/>
+        <v>Gesso.Acartonado</v>
       </c>
       <c r="P66" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q66" s="22" t="s">
-        <v>274</v>
+        <v>152</v>
+      </c>
+      <c r="Q66" s="46" t="s">
+        <v>162</v>
       </c>
       <c r="R66" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S66" s="29" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" si="82"/>
         <v>Divisória</v>
       </c>
       <c r="T66" s="29" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" si="83"/>
         <v>Parte</v>
       </c>
       <c r="U66" s="29" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" si="84"/>
         <v>Chapa</v>
       </c>
       <c r="V66" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W66" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.66</v>
       </c>
       <c r="X66" s="70" t="s">
@@ -10254,7 +10245,7 @@
         <v>144</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c r="G67" s="31" t="s">
         <v>9</v>
@@ -10272,47 +10263,47 @@
         <v>9</v>
       </c>
       <c r="L67" s="27" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" ref="L67:L70" si="149">CONCATENATE("", C67)</f>
         <v>Divisória</v>
       </c>
       <c r="M67" s="27" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" ref="M67:M70" si="150">CONCATENATE("", D67)</f>
         <v>Parte</v>
       </c>
       <c r="N67" s="27" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" ref="N67:N70" si="151">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E67),"."," ")," De "," de "))</f>
         <v>Chapa</v>
       </c>
       <c r="O67" s="22" t="str">
-        <f t="shared" si="144"/>
-        <v>Vidro.Low.E</v>
-      </c>
-      <c r="P67" s="46" t="s">
-        <v>277</v>
+        <f t="shared" ref="O67:O70" si="152">F67</f>
+        <v>Vidro.Temperado</v>
+      </c>
+      <c r="P67" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="Q67" s="46" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="R67" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S67" s="29" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" ref="S67:S70" si="153">SUBSTITUTE(C67, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T67" s="29" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" ref="T67:T70" si="154">SUBSTITUTE(D67, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U67" s="29" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" ref="U67:U70" si="155">SUBSTITUTE(E67, ".", " ")</f>
         <v>Chapa</v>
       </c>
       <c r="V67" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W67" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.67</v>
       </c>
       <c r="X67" s="70" t="s">
@@ -10339,7 +10330,7 @@
         <v>144</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G68" s="31" t="s">
         <v>9</v>
@@ -10357,47 +10348,47 @@
         <v>9</v>
       </c>
       <c r="L68" s="27" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="149"/>
         <v>Divisória</v>
       </c>
       <c r="M68" s="27" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="150"/>
         <v>Parte</v>
       </c>
       <c r="N68" s="27" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="151"/>
         <v>Chapa</v>
       </c>
       <c r="O68" s="22" t="str">
-        <f t="shared" si="73"/>
-        <v>Vidro.Comúm</v>
+        <f t="shared" si="152"/>
+        <v>Vidro.Laminado</v>
       </c>
       <c r="P68" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q68" s="46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R68" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S68" s="29" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="153"/>
         <v>Divisória</v>
       </c>
       <c r="T68" s="29" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="154"/>
         <v>Parte</v>
       </c>
       <c r="U68" s="29" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="155"/>
         <v>Chapa</v>
       </c>
       <c r="V68" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W68" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.68</v>
       </c>
       <c r="X68" s="70" t="s">
@@ -10424,7 +10415,7 @@
         <v>144</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>521</v>
+        <v>184</v>
       </c>
       <c r="G69" s="31" t="s">
         <v>9</v>
@@ -10442,47 +10433,47 @@
         <v>9</v>
       </c>
       <c r="L69" s="27" t="str">
-        <f t="shared" ref="L69" si="148">CONCATENATE("", C69)</f>
+        <f t="shared" si="149"/>
         <v>Divisória</v>
       </c>
       <c r="M69" s="27" t="str">
-        <f t="shared" ref="M69" si="149">CONCATENATE("", D69)</f>
+        <f t="shared" si="150"/>
         <v>Parte</v>
       </c>
       <c r="N69" s="27" t="str">
-        <f t="shared" ref="N69" si="150">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E69),"."," ")," De "," de "))</f>
+        <f t="shared" si="151"/>
         <v>Chapa</v>
       </c>
       <c r="O69" s="22" t="str">
-        <f t="shared" ref="O69" si="151">F69</f>
-        <v>Vidro.Plumbífero</v>
+        <f t="shared" si="152"/>
+        <v>Vidro.Polarizado</v>
       </c>
       <c r="P69" s="22" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q69" s="46" t="s">
-        <v>522</v>
+        <v>273</v>
+      </c>
+      <c r="Q69" s="22" t="s">
+        <v>274</v>
       </c>
       <c r="R69" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S69" s="29" t="str">
-        <f t="shared" ref="S69" si="152">SUBSTITUTE(C69, ".", " ")</f>
+        <f t="shared" si="153"/>
         <v>Divisória</v>
       </c>
       <c r="T69" s="29" t="str">
-        <f t="shared" ref="T69" si="153">SUBSTITUTE(D69, ".", " ")</f>
+        <f t="shared" si="154"/>
         <v>Parte</v>
       </c>
       <c r="U69" s="29" t="str">
-        <f t="shared" ref="U69" si="154">SUBSTITUTE(E69, ".", " ")</f>
+        <f t="shared" si="155"/>
         <v>Chapa</v>
       </c>
       <c r="V69" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W69" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.69</v>
       </c>
       <c r="X69" s="70" t="s">
@@ -10509,7 +10500,7 @@
         <v>144</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="G70" s="31" t="s">
         <v>9</v>
@@ -10527,47 +10518,47 @@
         <v>9</v>
       </c>
       <c r="L70" s="27" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="149"/>
         <v>Divisória</v>
       </c>
       <c r="M70" s="27" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="150"/>
         <v>Parte</v>
       </c>
       <c r="N70" s="27" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="151"/>
         <v>Chapa</v>
       </c>
       <c r="O70" s="22" t="str">
-        <f t="shared" si="73"/>
-        <v>Fórmica</v>
-      </c>
-      <c r="P70" s="22" t="s">
-        <v>190</v>
+        <f t="shared" si="152"/>
+        <v>Vidro.Low.E</v>
+      </c>
+      <c r="P70" s="46" t="s">
+        <v>277</v>
       </c>
       <c r="Q70" s="46" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="R70" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S70" s="29" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="153"/>
         <v>Divisória</v>
       </c>
       <c r="T70" s="29" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="154"/>
         <v>Parte</v>
       </c>
       <c r="U70" s="29" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="155"/>
         <v>Chapa</v>
       </c>
       <c r="V70" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W70" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.70</v>
       </c>
       <c r="X70" s="70" t="s">
@@ -10594,7 +10585,7 @@
         <v>144</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G71" s="31" t="s">
         <v>9</v>
@@ -10612,47 +10603,47 @@
         <v>9</v>
       </c>
       <c r="L71" s="27" t="str">
-        <f t="shared" ref="L71:L84" si="155">CONCATENATE("", C71)</f>
+        <f t="shared" si="78"/>
         <v>Divisória</v>
       </c>
       <c r="M71" s="27" t="str">
-        <f t="shared" ref="M71:M84" si="156">CONCATENATE("", D71)</f>
+        <f t="shared" si="79"/>
         <v>Parte</v>
       </c>
       <c r="N71" s="27" t="str">
-        <f t="shared" ref="N71:N84" si="157">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E71),"."," ")," De "," de "))</f>
+        <f t="shared" si="80"/>
         <v>Chapa</v>
       </c>
       <c r="O71" s="22" t="str">
-        <f t="shared" ref="O71:O84" si="158">F71</f>
-        <v>Pedra</v>
+        <f t="shared" si="81"/>
+        <v>Vidro.Comúm</v>
       </c>
       <c r="P71" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q71" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R71" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S71" s="29" t="str">
-        <f t="shared" ref="S71:S84" si="159">SUBSTITUTE(C71, ".", " ")</f>
+        <f t="shared" si="82"/>
         <v>Divisória</v>
       </c>
       <c r="T71" s="29" t="str">
-        <f t="shared" ref="T71:T84" si="160">SUBSTITUTE(D71, ".", " ")</f>
+        <f t="shared" si="83"/>
         <v>Parte</v>
       </c>
       <c r="U71" s="29" t="str">
-        <f t="shared" ref="U71:U84" si="161">SUBSTITUTE(E71, ".", " ")</f>
+        <f t="shared" si="84"/>
         <v>Chapa</v>
       </c>
       <c r="V71" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W71" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.71</v>
       </c>
       <c r="X71" s="70" t="s">
@@ -10676,10 +10667,10 @@
         <v>268</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>151</v>
+        <v>521</v>
       </c>
       <c r="G72" s="31" t="s">
         <v>9</v>
@@ -10697,47 +10688,47 @@
         <v>9</v>
       </c>
       <c r="L72" s="27" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" ref="L72" si="156">CONCATENATE("", C72)</f>
         <v>Divisória</v>
       </c>
       <c r="M72" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" ref="M72" si="157">CONCATENATE("", D72)</f>
         <v>Parte</v>
       </c>
       <c r="N72" s="27" t="str">
-        <f t="shared" si="157"/>
-        <v>Perfil</v>
+        <f t="shared" ref="N72" si="158">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E72),"."," ")," De "," de "))</f>
+        <v>Chapa</v>
       </c>
       <c r="O72" s="22" t="str">
-        <f t="shared" si="158"/>
-        <v>Guia.L</v>
+        <f t="shared" ref="O72" si="159">F72</f>
+        <v>Vidro.Plumbífero</v>
       </c>
       <c r="P72" s="22" t="s">
-        <v>153</v>
+        <v>523</v>
       </c>
       <c r="Q72" s="46" t="s">
-        <v>158</v>
+        <v>522</v>
       </c>
       <c r="R72" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S72" s="29" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" ref="S72" si="160">SUBSTITUTE(C72, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T72" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" ref="T72" si="161">SUBSTITUTE(D72, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U72" s="29" t="str">
-        <f t="shared" si="161"/>
-        <v>Perfil</v>
+        <f t="shared" ref="U72" si="162">SUBSTITUTE(E72, ".", " ")</f>
+        <v>Chapa</v>
       </c>
       <c r="V72" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W72" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.72</v>
       </c>
       <c r="X72" s="70" t="s">
@@ -10761,10 +10752,10 @@
         <v>268</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="G73" s="31" t="s">
         <v>9</v>
@@ -10782,47 +10773,47 @@
         <v>9</v>
       </c>
       <c r="L73" s="27" t="str">
-        <f t="shared" ref="L73" si="162">CONCATENATE("", C73)</f>
+        <f t="shared" si="78"/>
         <v>Divisória</v>
       </c>
       <c r="M73" s="27" t="str">
-        <f t="shared" ref="M73" si="163">CONCATENATE("", D73)</f>
+        <f t="shared" si="79"/>
         <v>Parte</v>
       </c>
       <c r="N73" s="27" t="str">
-        <f t="shared" ref="N73" si="164">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E73),"."," ")," De "," de "))</f>
-        <v>Perfil</v>
+        <f t="shared" si="80"/>
+        <v>Chapa</v>
       </c>
       <c r="O73" s="22" t="str">
-        <f t="shared" ref="O73" si="165">F73</f>
-        <v>Guia.U</v>
+        <f t="shared" si="81"/>
+        <v>Fórmica</v>
       </c>
       <c r="P73" s="22" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="Q73" s="46" t="s">
-        <v>159</v>
+        <v>275</v>
       </c>
       <c r="R73" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S73" s="29" t="str">
-        <f t="shared" ref="S73" si="166">SUBSTITUTE(C73, ".", " ")</f>
+        <f t="shared" si="82"/>
         <v>Divisória</v>
       </c>
       <c r="T73" s="29" t="str">
-        <f t="shared" ref="T73" si="167">SUBSTITUTE(D73, ".", " ")</f>
+        <f t="shared" si="83"/>
         <v>Parte</v>
       </c>
       <c r="U73" s="29" t="str">
-        <f t="shared" ref="U73" si="168">SUBSTITUTE(E73, ".", " ")</f>
-        <v>Perfil</v>
+        <f t="shared" si="84"/>
+        <v>Chapa</v>
       </c>
       <c r="V73" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W73" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.73</v>
       </c>
       <c r="X73" s="70" t="s">
@@ -10846,10 +10837,10 @@
         <v>268</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G74" s="31" t="s">
         <v>9</v>
@@ -10867,47 +10858,47 @@
         <v>9</v>
       </c>
       <c r="L74" s="27" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" ref="L74:L87" si="163">CONCATENATE("", C74)</f>
         <v>Divisória</v>
       </c>
       <c r="M74" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" ref="M74:M87" si="164">CONCATENATE("", D74)</f>
         <v>Parte</v>
       </c>
       <c r="N74" s="27" t="str">
-        <f t="shared" si="157"/>
-        <v>Perfil</v>
+        <f t="shared" ref="N74:N87" si="165">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E74),"."," ")," De "," de "))</f>
+        <v>Chapa</v>
       </c>
       <c r="O74" s="22" t="str">
-        <f t="shared" si="158"/>
-        <v>Guia.Montante</v>
+        <f t="shared" ref="O74:O87" si="166">F74</f>
+        <v>Pedra</v>
       </c>
       <c r="P74" s="22" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="Q74" s="46" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="R74" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S74" s="29" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" ref="S74:S87" si="167">SUBSTITUTE(C74, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T74" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" ref="T74:T87" si="168">SUBSTITUTE(D74, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U74" s="29" t="str">
-        <f t="shared" si="161"/>
-        <v>Perfil</v>
+        <f t="shared" ref="U74:U87" si="169">SUBSTITUTE(E74, ".", " ")</f>
+        <v>Chapa</v>
       </c>
       <c r="V74" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W74" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.74</v>
       </c>
       <c r="X74" s="70" t="s">
@@ -10931,10 +10922,10 @@
         <v>268</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G75" s="31" t="s">
         <v>9</v>
@@ -10952,47 +10943,47 @@
         <v>9</v>
       </c>
       <c r="L75" s="27" t="str">
-        <f t="shared" ref="L75" si="169">CONCATENATE("", C75)</f>
+        <f t="shared" si="163"/>
         <v>Divisória</v>
       </c>
       <c r="M75" s="27" t="str">
-        <f t="shared" ref="M75" si="170">CONCATENATE("", D75)</f>
+        <f t="shared" si="164"/>
         <v>Parte</v>
       </c>
       <c r="N75" s="27" t="str">
-        <f t="shared" ref="N75" si="171">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E75),"."," ")," De "," de "))</f>
-        <v>Fixação</v>
+        <f t="shared" si="165"/>
+        <v>Perfil</v>
       </c>
       <c r="O75" s="22" t="str">
-        <f t="shared" ref="O75" si="172">F75</f>
-        <v>Parafuso</v>
+        <f t="shared" si="166"/>
+        <v>Guia.L</v>
       </c>
       <c r="P75" s="22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="Q75" s="46" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="R75" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S75" s="29" t="str">
-        <f t="shared" ref="S75" si="173">SUBSTITUTE(C75, ".", " ")</f>
+        <f t="shared" si="167"/>
         <v>Divisória</v>
       </c>
       <c r="T75" s="29" t="str">
-        <f t="shared" ref="T75" si="174">SUBSTITUTE(D75, ".", " ")</f>
+        <f t="shared" si="168"/>
         <v>Parte</v>
       </c>
       <c r="U75" s="29" t="str">
-        <f t="shared" ref="U75" si="175">SUBSTITUTE(E75, ".", " ")</f>
-        <v>Fixação</v>
+        <f t="shared" si="169"/>
+        <v>Perfil</v>
       </c>
       <c r="V75" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W75" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.75</v>
       </c>
       <c r="X75" s="70" t="s">
@@ -11016,10 +11007,10 @@
         <v>268</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G76" s="31" t="s">
         <v>9</v>
@@ -11037,47 +11028,47 @@
         <v>9</v>
       </c>
       <c r="L76" s="27" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" ref="L76" si="170">CONCATENATE("", C76)</f>
         <v>Divisória</v>
       </c>
       <c r="M76" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" ref="M76" si="171">CONCATENATE("", D76)</f>
         <v>Parte</v>
       </c>
       <c r="N76" s="27" t="str">
-        <f t="shared" si="157"/>
-        <v>Fixação</v>
+        <f t="shared" ref="N76" si="172">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E76),"."," ")," De "," de "))</f>
+        <v>Perfil</v>
       </c>
       <c r="O76" s="22" t="str">
-        <f t="shared" si="158"/>
-        <v>Bucha</v>
+        <f t="shared" ref="O76" si="173">F76</f>
+        <v>Guia.U</v>
       </c>
       <c r="P76" s="22" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="Q76" s="46" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="R76" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S76" s="29" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" ref="S76" si="174">SUBSTITUTE(C76, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T76" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" ref="T76" si="175">SUBSTITUTE(D76, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U76" s="29" t="str">
-        <f t="shared" si="161"/>
-        <v>Fixação</v>
+        <f t="shared" ref="U76" si="176">SUBSTITUTE(E76, ".", " ")</f>
+        <v>Perfil</v>
       </c>
       <c r="V76" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W76" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.76</v>
       </c>
       <c r="X76" s="70" t="s">
@@ -11101,10 +11092,10 @@
         <v>268</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="G77" s="31" t="s">
         <v>9</v>
@@ -11122,47 +11113,47 @@
         <v>9</v>
       </c>
       <c r="L77" s="27" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="163"/>
         <v>Divisória</v>
       </c>
       <c r="M77" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="164"/>
         <v>Parte</v>
       </c>
       <c r="N77" s="27" t="str">
-        <f t="shared" si="157"/>
-        <v>Fixação</v>
+        <f t="shared" si="165"/>
+        <v>Perfil</v>
       </c>
       <c r="O77" s="22" t="str">
-        <f t="shared" si="158"/>
-        <v>Fixador.Pinça</v>
+        <f t="shared" si="166"/>
+        <v>Guia.Montante</v>
       </c>
       <c r="P77" s="22" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="Q77" s="46" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="R77" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S77" s="29" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>Divisória</v>
       </c>
       <c r="T77" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>Parte</v>
       </c>
       <c r="U77" s="29" t="str">
-        <f t="shared" si="161"/>
-        <v>Fixação</v>
+        <f t="shared" si="169"/>
+        <v>Perfil</v>
       </c>
       <c r="V77" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W77" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.77</v>
       </c>
       <c r="X77" s="70" t="s">
@@ -11189,7 +11180,7 @@
         <v>148</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="G78" s="31" t="s">
         <v>9</v>
@@ -11207,47 +11198,47 @@
         <v>9</v>
       </c>
       <c r="L78" s="27" t="str">
-        <f t="shared" ref="L78:L79" si="176">CONCATENATE("", C78)</f>
+        <f t="shared" ref="L78" si="177">CONCATENATE("", C78)</f>
         <v>Divisória</v>
       </c>
       <c r="M78" s="27" t="str">
-        <f t="shared" ref="M78:M79" si="177">CONCATENATE("", D78)</f>
+        <f t="shared" ref="M78" si="178">CONCATENATE("", D78)</f>
         <v>Parte</v>
       </c>
       <c r="N78" s="27" t="str">
-        <f t="shared" ref="N78:N79" si="178">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E78),"."," ")," De "," de "))</f>
+        <f t="shared" ref="N78" si="179">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E78),"."," ")," De "," de "))</f>
         <v>Fixação</v>
       </c>
       <c r="O78" s="22" t="str">
-        <f t="shared" ref="O78:O79" si="179">F78</f>
-        <v>Fixador.Cantoneira</v>
+        <f t="shared" ref="O78" si="180">F78</f>
+        <v>Parafuso</v>
       </c>
       <c r="P78" s="22" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="Q78" s="46" t="s">
-        <v>246</v>
+        <v>160</v>
       </c>
       <c r="R78" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S78" s="29" t="str">
-        <f t="shared" ref="S78:S79" si="180">SUBSTITUTE(C78, ".", " ")</f>
+        <f t="shared" ref="S78" si="181">SUBSTITUTE(C78, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T78" s="29" t="str">
-        <f t="shared" ref="T78:T79" si="181">SUBSTITUTE(D78, ".", " ")</f>
+        <f t="shared" ref="T78" si="182">SUBSTITUTE(D78, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U78" s="29" t="str">
-        <f t="shared" ref="U78:U79" si="182">SUBSTITUTE(E78, ".", " ")</f>
+        <f t="shared" ref="U78" si="183">SUBSTITUTE(E78, ".", " ")</f>
         <v>Fixação</v>
       </c>
       <c r="V78" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W78" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.78</v>
       </c>
       <c r="X78" s="70" t="s">
@@ -11274,7 +11265,7 @@
         <v>148</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="G79" s="31" t="s">
         <v>9</v>
@@ -11292,47 +11283,47 @@
         <v>9</v>
       </c>
       <c r="L79" s="27" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" si="163"/>
         <v>Divisória</v>
       </c>
       <c r="M79" s="27" t="str">
-        <f t="shared" si="177"/>
+        <f t="shared" si="164"/>
         <v>Parte</v>
       </c>
       <c r="N79" s="27" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" si="165"/>
         <v>Fixação</v>
       </c>
       <c r="O79" s="22" t="str">
-        <f t="shared" si="179"/>
-        <v>Conector</v>
+        <f t="shared" si="166"/>
+        <v>Bucha</v>
       </c>
       <c r="P79" s="22" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="Q79" s="46" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="R79" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S79" s="29" t="str">
-        <f t="shared" si="180"/>
+        <f t="shared" si="167"/>
         <v>Divisória</v>
       </c>
       <c r="T79" s="29" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" si="168"/>
         <v>Parte</v>
       </c>
       <c r="U79" s="29" t="str">
-        <f t="shared" si="182"/>
+        <f t="shared" si="169"/>
         <v>Fixação</v>
       </c>
       <c r="V79" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W79" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.79</v>
       </c>
       <c r="X79" s="70" t="s">
@@ -11359,7 +11350,7 @@
         <v>148</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
       <c r="G80" s="31" t="s">
         <v>9</v>
@@ -11377,47 +11368,47 @@
         <v>9</v>
       </c>
       <c r="L80" s="27" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="163"/>
         <v>Divisória</v>
       </c>
       <c r="M80" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="164"/>
         <v>Parte</v>
       </c>
       <c r="N80" s="27" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" si="165"/>
         <v>Fixação</v>
       </c>
       <c r="O80" s="22" t="str">
-        <f t="shared" si="158"/>
-        <v>Cola</v>
+        <f t="shared" si="166"/>
+        <v>Fixador.Pinça</v>
       </c>
       <c r="P80" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q80" s="22" t="s">
-        <v>244</v>
+        <v>248</v>
+      </c>
+      <c r="Q80" s="46" t="s">
+        <v>245</v>
       </c>
       <c r="R80" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S80" s="29" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>Divisória</v>
       </c>
       <c r="T80" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>Parte</v>
       </c>
       <c r="U80" s="29" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" si="169"/>
         <v>Fixação</v>
       </c>
       <c r="V80" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W80" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.80</v>
       </c>
       <c r="X80" s="70" t="s">
@@ -11441,10 +11432,10 @@
         <v>268</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G81" s="31" t="s">
         <v>9</v>
@@ -11462,47 +11453,47 @@
         <v>9</v>
       </c>
       <c r="L81" s="27" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" ref="L81:L82" si="184">CONCATENATE("", C81)</f>
         <v>Divisória</v>
       </c>
       <c r="M81" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" ref="M81:M82" si="185">CONCATENATE("", D81)</f>
         <v>Parte</v>
       </c>
       <c r="N81" s="27" t="str">
-        <f t="shared" si="157"/>
-        <v>Fecho</v>
+        <f t="shared" ref="N81:N82" si="186">(SUBSTITUTE(SUBSTITUTE(CONCATENATE("",E81),"."," ")," De "," de "))</f>
+        <v>Fixação</v>
       </c>
       <c r="O81" s="22" t="str">
-        <f t="shared" si="158"/>
-        <v>Puxador.Externo</v>
+        <f t="shared" ref="O81:O82" si="187">F81</f>
+        <v>Fixador.Cantoneira</v>
       </c>
       <c r="P81" s="22" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="Q81" s="46" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="R81" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S81" s="29" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" ref="S81:S82" si="188">SUBSTITUTE(C81, ".", " ")</f>
         <v>Divisória</v>
       </c>
       <c r="T81" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" ref="T81:T82" si="189">SUBSTITUTE(D81, ".", " ")</f>
         <v>Parte</v>
       </c>
       <c r="U81" s="29" t="str">
-        <f t="shared" si="161"/>
-        <v>Fecho</v>
+        <f t="shared" ref="U81:U82" si="190">SUBSTITUTE(E81, ".", " ")</f>
+        <v>Fixação</v>
       </c>
       <c r="V81" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W81" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.81</v>
       </c>
       <c r="X81" s="70" t="s">
@@ -11526,10 +11517,10 @@
         <v>268</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="G82" s="31" t="s">
         <v>9</v>
@@ -11547,47 +11538,47 @@
         <v>9</v>
       </c>
       <c r="L82" s="27" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="184"/>
         <v>Divisória</v>
       </c>
       <c r="M82" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="185"/>
         <v>Parte</v>
       </c>
       <c r="N82" s="27" t="str">
-        <f t="shared" si="157"/>
-        <v>Fecho</v>
+        <f t="shared" si="186"/>
+        <v>Fixação</v>
       </c>
       <c r="O82" s="22" t="str">
-        <f t="shared" si="158"/>
-        <v>Puxador.Interno</v>
+        <f t="shared" si="187"/>
+        <v>Conector</v>
       </c>
       <c r="P82" s="22" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="Q82" s="46" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="R82" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S82" s="29" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="188"/>
         <v>Divisória</v>
       </c>
       <c r="T82" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="189"/>
         <v>Parte</v>
       </c>
       <c r="U82" s="29" t="str">
-        <f t="shared" si="161"/>
-        <v>Fecho</v>
+        <f t="shared" si="190"/>
+        <v>Fixação</v>
       </c>
       <c r="V82" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W82" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.82</v>
       </c>
       <c r="X82" s="70" t="s">
@@ -11611,10 +11602,10 @@
         <v>268</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="G83" s="31" t="s">
         <v>9</v>
@@ -11632,47 +11623,47 @@
         <v>9</v>
       </c>
       <c r="L83" s="27" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="163"/>
         <v>Divisória</v>
       </c>
       <c r="M83" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="164"/>
         <v>Parte</v>
       </c>
       <c r="N83" s="27" t="str">
-        <f t="shared" si="157"/>
-        <v>Cabide</v>
+        <f t="shared" si="165"/>
+        <v>Fixação</v>
       </c>
       <c r="O83" s="22" t="str">
-        <f t="shared" si="158"/>
-        <v>Tipo.Gancho</v>
+        <f t="shared" si="166"/>
+        <v>Cola</v>
       </c>
       <c r="P83" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q83" s="46" t="s">
-        <v>215</v>
+        <v>243</v>
+      </c>
+      <c r="Q83" s="22" t="s">
+        <v>244</v>
       </c>
       <c r="R83" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S83" s="29" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>Divisória</v>
       </c>
       <c r="T83" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>Parte</v>
       </c>
       <c r="U83" s="29" t="str">
-        <f t="shared" si="161"/>
-        <v>Cabide</v>
+        <f t="shared" si="169"/>
+        <v>Fixação</v>
       </c>
       <c r="V83" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W83" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.83</v>
       </c>
       <c r="X83" s="70" t="s">
@@ -11696,10 +11687,10 @@
         <v>268</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G84" s="31" t="s">
         <v>9</v>
@@ -11717,47 +11708,47 @@
         <v>9</v>
       </c>
       <c r="L84" s="27" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" si="163"/>
         <v>Divisória</v>
       </c>
       <c r="M84" s="27" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" si="164"/>
         <v>Parte</v>
       </c>
       <c r="N84" s="27" t="str">
-        <f t="shared" si="157"/>
-        <v>Cabide</v>
+        <f t="shared" si="165"/>
+        <v>Fecho</v>
       </c>
       <c r="O84" s="22" t="str">
-        <f t="shared" si="158"/>
-        <v>Antifurto</v>
+        <f t="shared" si="166"/>
+        <v>Puxador.Externo</v>
       </c>
       <c r="P84" s="22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q84" s="46" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="R84" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S84" s="29" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>Divisória</v>
       </c>
       <c r="T84" s="29" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>Parte</v>
       </c>
       <c r="U84" s="29" t="str">
-        <f t="shared" si="161"/>
-        <v>Cabide</v>
+        <f t="shared" si="169"/>
+        <v>Fecho</v>
       </c>
       <c r="V84" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W84" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.84</v>
       </c>
       <c r="X84" s="70" t="s">
@@ -11781,10 +11772,10 @@
         <v>268</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G85" s="31" t="s">
         <v>9</v>
@@ -11802,240 +11793,495 @@
         <v>9</v>
       </c>
       <c r="L85" s="27" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="163"/>
         <v>Divisória</v>
       </c>
       <c r="M85" s="27" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="164"/>
         <v>Parte</v>
       </c>
       <c r="N85" s="27" t="str">
-        <f t="shared" si="72"/>
-        <v>Dobradiça</v>
+        <f t="shared" si="165"/>
+        <v>Fecho</v>
       </c>
       <c r="O85" s="22" t="str">
-        <f t="shared" si="73"/>
-        <v xml:space="preserve">Automática </v>
+        <f t="shared" si="166"/>
+        <v>Puxador.Interno</v>
       </c>
       <c r="P85" s="22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q85" s="46" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="R85" s="28" t="s">
         <v>9</v>
       </c>
       <c r="S85" s="29" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="167"/>
         <v>Divisória</v>
       </c>
       <c r="T85" s="29" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="168"/>
         <v>Parte</v>
       </c>
       <c r="U85" s="29" t="str">
-        <f t="shared" si="76"/>
-        <v>Dobradiça</v>
+        <f t="shared" si="169"/>
+        <v>Fecho</v>
       </c>
       <c r="V85" s="29" t="s">
         <v>101</v>
       </c>
       <c r="W85" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>Key.Div.85</v>
       </c>
       <c r="X85" s="70" t="s">
         <v>9</v>
       </c>
       <c r="Y85" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="24">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G86" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I86" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J86" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L86" s="27" t="str">
+        <f t="shared" si="163"/>
+        <v>Divisória</v>
+      </c>
+      <c r="M86" s="27" t="str">
+        <f t="shared" si="164"/>
+        <v>Parte</v>
+      </c>
+      <c r="N86" s="27" t="str">
+        <f t="shared" si="165"/>
+        <v>Cabide</v>
+      </c>
+      <c r="O86" s="22" t="str">
+        <f t="shared" si="166"/>
+        <v>Tipo.Gancho</v>
+      </c>
+      <c r="P86" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q86" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="R86" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S86" s="29" t="str">
+        <f t="shared" si="167"/>
+        <v>Divisória</v>
+      </c>
+      <c r="T86" s="29" t="str">
+        <f t="shared" si="168"/>
+        <v>Parte</v>
+      </c>
+      <c r="U86" s="29" t="str">
+        <f t="shared" si="169"/>
+        <v>Cabide</v>
+      </c>
+      <c r="V86" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W86" s="1" t="str">
+        <f t="shared" si="141"/>
+        <v>Key.Div.86</v>
+      </c>
+      <c r="X86" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y86" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="24">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I87" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J87" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K87" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L87" s="27" t="str">
+        <f t="shared" si="163"/>
+        <v>Divisória</v>
+      </c>
+      <c r="M87" s="27" t="str">
+        <f t="shared" si="164"/>
+        <v>Parte</v>
+      </c>
+      <c r="N87" s="27" t="str">
+        <f t="shared" si="165"/>
+        <v>Cabide</v>
+      </c>
+      <c r="O87" s="22" t="str">
+        <f t="shared" si="166"/>
+        <v>Antifurto</v>
+      </c>
+      <c r="P87" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q87" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="R87" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S87" s="29" t="str">
+        <f t="shared" si="167"/>
+        <v>Divisória</v>
+      </c>
+      <c r="T87" s="29" t="str">
+        <f t="shared" si="168"/>
+        <v>Parte</v>
+      </c>
+      <c r="U87" s="29" t="str">
+        <f t="shared" si="169"/>
+        <v>Cabide</v>
+      </c>
+      <c r="V87" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W87" s="1" t="str">
+        <f t="shared" si="141"/>
+        <v>Key.Div.87</v>
+      </c>
+      <c r="X87" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y87" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" ht="7.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="24">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G88" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I88" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J88" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="K88" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L88" s="27" t="str">
+        <f t="shared" si="78"/>
+        <v>Divisória</v>
+      </c>
+      <c r="M88" s="27" t="str">
+        <f t="shared" si="79"/>
+        <v>Parte</v>
+      </c>
+      <c r="N88" s="27" t="str">
+        <f t="shared" si="80"/>
+        <v>Dobradiça</v>
+      </c>
+      <c r="O88" s="22" t="str">
+        <f t="shared" si="81"/>
+        <v xml:space="preserve">Automática </v>
+      </c>
+      <c r="P88" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q88" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="R88" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S88" s="29" t="str">
+        <f t="shared" si="82"/>
+        <v>Divisória</v>
+      </c>
+      <c r="T88" s="29" t="str">
+        <f t="shared" si="83"/>
+        <v>Parte</v>
+      </c>
+      <c r="U88" s="29" t="str">
+        <f t="shared" si="84"/>
+        <v>Dobradiça</v>
+      </c>
+      <c r="V88" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="W88" s="1" t="str">
+        <f t="shared" si="141"/>
+        <v>Key.Div.88</v>
+      </c>
+      <c r="X88" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y88" s="70" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1">
-    <cfRule type="duplicateValues" dxfId="159" priority="1210"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="1210"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="duplicateValues" dxfId="158" priority="1172"/>
-    <cfRule type="duplicateValues" dxfId="157" priority="1171"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="1170"/>
-    <cfRule type="duplicateValues" dxfId="155" priority="1175"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="1174"/>
-    <cfRule type="duplicateValues" dxfId="153" priority="1173"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="1170"/>
+    <cfRule type="duplicateValues" dxfId="151" priority="1171"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="1172"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="1173"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="1174"/>
+    <cfRule type="duplicateValues" dxfId="147" priority="1175"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F6">
-    <cfRule type="duplicateValues" dxfId="152" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="151" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="149" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="147" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="145" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="143" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="141" priority="38"/>
+  <conditionalFormatting sqref="F3:F9">
+    <cfRule type="duplicateValues" dxfId="146" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="141" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="137" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="46"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F16 F1:F2 F22:F1048576">
-    <cfRule type="duplicateValues" dxfId="140" priority="92"/>
+  <conditionalFormatting sqref="F10:F19 F1:F2 F25:F1048576">
+    <cfRule type="duplicateValues" dxfId="134" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F16">
-    <cfRule type="duplicateValues" dxfId="139" priority="136"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="137" priority="134"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="135" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="126"/>
-    <cfRule type="duplicateValues" dxfId="133" priority="128"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="131" priority="130"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="129" priority="132"/>
+  <conditionalFormatting sqref="F10:F19">
+    <cfRule type="duplicateValues" dxfId="133" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="128"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="129" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="125" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="123" priority="136"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17:F21">
-    <cfRule type="duplicateValues" dxfId="128" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="127" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="125" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="123" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="30"/>
-    <cfRule type="duplicateValues" dxfId="121" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="119" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="32"/>
-    <cfRule type="duplicateValues" dxfId="117" priority="12"/>
+  <conditionalFormatting sqref="F20:F24">
+    <cfRule type="duplicateValues" dxfId="122" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="121" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="119" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="117" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="113" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33 F25:F29 F35:F85">
-    <cfRule type="duplicateValues" dxfId="116" priority="1631"/>
-    <cfRule type="duplicateValues" dxfId="115" priority="1641"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="1640"/>
-    <cfRule type="duplicateValues" dxfId="113" priority="1632"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="1633"/>
-    <cfRule type="duplicateValues" dxfId="111" priority="1634"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="1635"/>
-    <cfRule type="duplicateValues" dxfId="109" priority="1636"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="1637"/>
-    <cfRule type="duplicateValues" dxfId="107" priority="1638"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="1639"/>
+  <conditionalFormatting sqref="F36 F28:F32 F38:F88">
+    <cfRule type="duplicateValues" dxfId="110" priority="1631"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="1632"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="1633"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="1634"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="1635"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="1636"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="1637"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="1638"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="1639"/>
+    <cfRule type="duplicateValues" dxfId="101" priority="1640"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="1641"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:F1048576 F1">
-    <cfRule type="duplicateValues" dxfId="105" priority="1215"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="1214"/>
-    <cfRule type="duplicateValues" dxfId="103" priority="1213"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="1212"/>
-    <cfRule type="duplicateValues" dxfId="101" priority="1211"/>
+  <conditionalFormatting sqref="F89:F1048576 F1">
+    <cfRule type="duplicateValues" dxfId="99" priority="1211"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="1212"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="1213"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="1214"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="1215"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:F1048576">
-    <cfRule type="duplicateValues" dxfId="100" priority="426"/>
-    <cfRule type="duplicateValues" dxfId="99" priority="428"/>
+  <conditionalFormatting sqref="F89:F1048576">
+    <cfRule type="duplicateValues" dxfId="94" priority="426"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="428"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P7:P15">
-    <cfRule type="duplicateValues" dxfId="98" priority="118"/>
-    <cfRule type="duplicateValues" dxfId="97" priority="117"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="116"/>
-    <cfRule type="duplicateValues" dxfId="95" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="93" priority="124"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="123"/>
-    <cfRule type="duplicateValues" dxfId="91" priority="122"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="121"/>
-    <cfRule type="duplicateValues" dxfId="89" priority="120"/>
+  <conditionalFormatting sqref="P10:P18">
+    <cfRule type="duplicateValues" dxfId="92" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="89" priority="118"/>
     <cfRule type="duplicateValues" dxfId="88" priority="119"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="85" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="84" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="83" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="82" priority="125"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P16">
-    <cfRule type="duplicateValues" dxfId="87" priority="105"/>
-    <cfRule type="duplicateValues" dxfId="86" priority="106"/>
-    <cfRule type="duplicateValues" dxfId="85" priority="114"/>
-    <cfRule type="duplicateValues" dxfId="84" priority="113"/>
-    <cfRule type="duplicateValues" dxfId="83" priority="112"/>
-    <cfRule type="duplicateValues" dxfId="82" priority="108"/>
-    <cfRule type="duplicateValues" dxfId="81" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="80" priority="110"/>
-    <cfRule type="duplicateValues" dxfId="79" priority="104"/>
-    <cfRule type="duplicateValues" dxfId="78" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="77" priority="107"/>
+  <conditionalFormatting sqref="P19">
+    <cfRule type="duplicateValues" dxfId="81" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="80" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="79" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="78" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="77" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="114"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17:P21">
-    <cfRule type="duplicateValues" dxfId="76" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="71" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="70" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="21"/>
+  <conditionalFormatting sqref="P20:P24">
+    <cfRule type="duplicateValues" dxfId="70" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="63" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P49:Q51 P39:P48">
-    <cfRule type="duplicateValues" dxfId="65" priority="1557"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="1556"/>
-    <cfRule type="duplicateValues" dxfId="63" priority="1565"/>
-    <cfRule type="duplicateValues" dxfId="62" priority="1564"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="1563"/>
-    <cfRule type="duplicateValues" dxfId="60" priority="1562"/>
-    <cfRule type="duplicateValues" dxfId="59" priority="1561"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="1560"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="1559"/>
+  <conditionalFormatting sqref="P52:Q54 P42:P51">
+    <cfRule type="duplicateValues" dxfId="59" priority="1555"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="1556"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="1557"/>
     <cfRule type="duplicateValues" dxfId="56" priority="1558"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="1555"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="1559"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="1560"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1561"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="1562"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="1563"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="1564"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1565"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q6">
-    <cfRule type="duplicateValues" dxfId="54" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="56"/>
+  <conditionalFormatting sqref="Q3:Q9">
+    <cfRule type="duplicateValues" dxfId="48" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="57"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q16">
-    <cfRule type="duplicateValues" dxfId="43" priority="94"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="93"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="103"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="102"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="100"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="98"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="97"/>
+  <conditionalFormatting sqref="Q19">
+    <cfRule type="duplicateValues" dxfId="37" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="95"/>
     <cfRule type="duplicateValues" dxfId="34" priority="96"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="103"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q17:Q21">
-    <cfRule type="duplicateValues" dxfId="32" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+  <conditionalFormatting sqref="Q20:Q24">
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
     <cfRule type="duplicateValues" dxfId="25" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q45">
-    <cfRule type="duplicateValues" dxfId="21" priority="168"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="167"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="166"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="165"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="164"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="163"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="162"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="161"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="160"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="169"/>
+  <conditionalFormatting sqref="Q48">
+    <cfRule type="duplicateValues" dxfId="15" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="164"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="169"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -12254,7 +12500,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12270,7 +12516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A426B82-2E19-47C6-9DDF-914E7B26E6D0}">
   <dimension ref="A1:AS98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
@@ -25753,7 +25999,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25828,15 +26074,15 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:G1 B3:G1048576 C2:G2">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 A1:B1">
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
